--- a/hardware/memory/Memory Map.xlsx
+++ b/hardware/memory/Memory Map.xlsx
@@ -8,29 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jules\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3D6A0B-34CC-41AD-87E0-79255506102C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EB5735-17E4-494D-9F9D-DD4F99780CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{373489EA-859E-4EE6-860B-453F011C26CC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Version 5V Lite" sheetId="22" r:id="rId1"/>
-    <sheet name="Version 5V" sheetId="16" r:id="rId2"/>
-    <sheet name="Version 5.1" sheetId="19" r:id="rId3"/>
-    <sheet name="Version 5 Scale" sheetId="15" r:id="rId4"/>
-    <sheet name="Version 5 IV" sheetId="14" r:id="rId5"/>
-    <sheet name="Version 5 III" sheetId="11" r:id="rId6"/>
-    <sheet name="Version 5 II" sheetId="13" r:id="rId7"/>
-    <sheet name="Version 5 I" sheetId="12" r:id="rId8"/>
-    <sheet name="Version 4.1" sheetId="10" r:id="rId9"/>
-    <sheet name="Version 4.0" sheetId="9" r:id="rId10"/>
-    <sheet name="Version 3.0" sheetId="8" r:id="rId11"/>
-    <sheet name="Version 2.1" sheetId="7" r:id="rId12"/>
-    <sheet name="Version 2.0" sheetId="6" r:id="rId13"/>
-    <sheet name="Version 1.5" sheetId="4" r:id="rId14"/>
-    <sheet name="Version 1.4" sheetId="5" r:id="rId15"/>
-    <sheet name="Version 1.3" sheetId="1" r:id="rId16"/>
-    <sheet name="Version 1.2" sheetId="2" r:id="rId17"/>
-    <sheet name="Version 1.1" sheetId="3" r:id="rId18"/>
+    <sheet name="Version 5V Core" sheetId="23" r:id="rId1"/>
+    <sheet name="Version 5V Lite" sheetId="22" r:id="rId2"/>
+    <sheet name="Version 5V" sheetId="16" r:id="rId3"/>
+    <sheet name="Version 5.1" sheetId="19" r:id="rId4"/>
+    <sheet name="Version 5 Scale" sheetId="15" r:id="rId5"/>
+    <sheet name="Version 5 IV" sheetId="14" r:id="rId6"/>
+    <sheet name="Version 5 III" sheetId="11" r:id="rId7"/>
+    <sheet name="Version 5 II" sheetId="13" r:id="rId8"/>
+    <sheet name="Version 5 I" sheetId="12" r:id="rId9"/>
+    <sheet name="Version 4.1" sheetId="10" r:id="rId10"/>
+    <sheet name="Version 4.0" sheetId="9" r:id="rId11"/>
+    <sheet name="Version 3.0" sheetId="8" r:id="rId12"/>
+    <sheet name="Version 2.1" sheetId="7" r:id="rId13"/>
+    <sheet name="Version 2.0" sheetId="6" r:id="rId14"/>
+    <sheet name="Version 1.5" sheetId="4" r:id="rId15"/>
+    <sheet name="Version 1.4" sheetId="5" r:id="rId16"/>
+    <sheet name="Version 1.3" sheetId="1" r:id="rId17"/>
+    <sheet name="Version 1.2" sheetId="2" r:id="rId18"/>
+    <sheet name="Version 1.1" sheetId="3" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="420">
   <si>
     <t>Memory Block</t>
   </si>
@@ -2855,39 +2856,6 @@
     <t>Bank</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Two switchable 4 KB </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>memory banks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, able to access 1 MB of memory. Sound/video data could be placed here too.</t>
-    </r>
-  </si>
-  <si>
     <t>640 KB</t>
   </si>
   <si>
@@ -3084,6 +3052,34 @@
     <r>
       <rPr>
         <b/>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>standard ROM</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 x 4 KB banks of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -3164,6 +3160,126 @@
         <scheme val="minor"/>
       </rPr>
       <t>. Device memory map partitioning determined by Southbridge.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Two switchable 4 KB </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>memory banks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, able to access 640 KB of memory, 128 KB of ROM, and 256 KB of memory mapped I/O. Offboard found/video data.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16 x 4 KB banks of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>standard memory</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8 KB of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>memory mapped I/O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Device memory map partitioning determined by Southbridge. Or mapped to internal RAM or ROM.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Two switchable 4 KB </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>memory banks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, able to access 64 KB of memory, 8 KB of ROM, and 8 KB of memory mapped I/O. Offboard found/video data. May be mapped to internal RAM or ROM.</t>
     </r>
   </si>
 </sst>
@@ -3263,7 +3379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="97">
+  <borders count="103">
     <border>
       <left/>
       <right/>
@@ -4455,11 +4571,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="0.59999389629810485"/>
+      </right>
+      <top style="dashed">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="5" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.59996337778862885"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="0.59996337778862885"/>
+      </right>
+      <top style="dashed">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="5" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.39994506668294322"/>
+      </left>
+      <right style="thin">
+        <color theme="7" tint="0.39994506668294322"/>
+      </right>
+      <top style="dashed">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="5" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.59999389629810485"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="5" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5" tint="0.59999389629810485"/>
+      </right>
+      <top style="dashed">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="5" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39994506668294322"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="0.59999389629810485"/>
+      </right>
+      <top style="dashed">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="5" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -5131,6 +5333,18 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="90" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5163,6 +5377,60 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="97" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="98" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="99" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="100" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="101" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="102" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="76" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5477,11 +5745,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F021144A-02B0-4FAF-8611-E93CE3693F4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA51CDE-CD2E-4808-9BE1-4220B016AEE8}">
   <dimension ref="A1:AO20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5497,7 +5765,7 @@
     <col min="9" max="16384" width="8.88671875" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="91" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" s="91" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>163</v>
       </c>
@@ -5521,7 +5789,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="123" t="s">
         <v>141</v>
       </c>
@@ -5547,7 +5815,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="112"/>
       <c r="B3" s="64" t="s">
         <v>309</v>
@@ -5569,7 +5837,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="112"/>
       <c r="B4" s="99" t="s">
         <v>308</v>
@@ -5583,7 +5851,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="112"/>
       <c r="B5" s="88" t="s">
         <v>48</v>
@@ -5597,26 +5865,55 @@
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" s="256" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="113"/>
-      <c r="B6" s="92" t="s">
-        <v>392</v>
-      </c>
-      <c r="C6" s="114" t="s">
+      <c r="B6" s="262" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="260" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="93" t="s">
+      <c r="D6" s="261"/>
+      <c r="E6" s="257" t="s">
         <v>383</v>
       </c>
-      <c r="F6" s="93" t="s">
-        <v>384</v>
-      </c>
-      <c r="H6" s="102" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="258" t="s">
+        <v>395</v>
+      </c>
+      <c r="G6" s="258"/>
+      <c r="H6" s="206" t="s">
+        <v>418</v>
+      </c>
+      <c r="I6" s="258"/>
+      <c r="J6" s="258"/>
+      <c r="K6" s="258"/>
+      <c r="L6" s="258"/>
+      <c r="M6" s="258"/>
+      <c r="N6" s="258"/>
+      <c r="O6" s="258"/>
+      <c r="P6" s="258"/>
+      <c r="Q6" s="258"/>
+      <c r="R6" s="258"/>
+      <c r="S6" s="258"/>
+      <c r="T6" s="258"/>
+      <c r="U6" s="258"/>
+      <c r="V6" s="258"/>
+      <c r="W6" s="258"/>
+      <c r="X6" s="258"/>
+      <c r="Y6" s="258"/>
+      <c r="Z6" s="258"/>
+      <c r="AA6" s="258"/>
+      <c r="AB6" s="258"/>
+      <c r="AC6" s="258"/>
+      <c r="AD6" s="259"/>
+      <c r="AE6" s="259"/>
+      <c r="AF6" s="259"/>
+      <c r="AG6" s="259"/>
+      <c r="AH6" s="259"/>
+      <c r="AI6" s="259"/>
+      <c r="AJ6" s="259"/>
+    </row>
+    <row r="7" spans="1:36" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="116" t="s">
         <v>30</v>
       </c>
@@ -5639,7 +5936,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="117"/>
       <c r="B8" s="80" t="s">
         <v>381</v>
@@ -5661,7 +5958,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="209" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" s="209" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="207"/>
       <c r="B9" s="207"/>
       <c r="C9" s="208"/>
@@ -5669,7 +5966,7 @@
       <c r="E9" s="207"/>
       <c r="F9" s="207"/>
     </row>
-    <row r="10" spans="1:33" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="121" t="s">
         <v>178</v>
       </c>
@@ -5686,13 +5983,13 @@
         <v>391</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H10" s="206" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="121"/>
       <c r="B11" s="103" t="s">
         <v>359</v>
@@ -5703,13 +6000,13 @@
       </c>
       <c r="E11" s="121"/>
       <c r="F11" s="103" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H11" s="104" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="121"/>
       <c r="B12" s="67" t="s">
         <v>182</v>
@@ -5720,54 +6017,54 @@
       </c>
       <c r="E12" s="121"/>
       <c r="F12" s="103" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H12" s="104" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="202" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" s="202" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="203"/>
       <c r="H13" s="204"/>
     </row>
-    <row r="14" spans="1:33" s="201" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="211" t="s">
+    <row r="14" spans="1:36" s="239" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="263" t="s">
         <v>392</v>
       </c>
-      <c r="B14" s="220" t="s">
+      <c r="B14" s="266" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="220" t="s">
-        <v>394</v>
-      </c>
-      <c r="D14" s="221" t="s">
+      <c r="C14" s="266" t="s">
+        <v>393</v>
+      </c>
+      <c r="D14" s="267" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="219" t="s">
+      <c r="E14" s="268" t="s">
         <v>167</v>
       </c>
-      <c r="F14" s="214" t="s">
+      <c r="F14" s="269" t="s">
+        <v>398</v>
+      </c>
+      <c r="G14" s="236"/>
+      <c r="H14" s="270" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" s="239" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="264"/>
+      <c r="B15" s="271"/>
+      <c r="C15" s="271"/>
+      <c r="D15" s="234" t="s">
+        <v>397</v>
+      </c>
+      <c r="E15" s="272"/>
+      <c r="F15" s="235" t="s">
         <v>399</v>
-      </c>
-      <c r="G14" s="109"/>
-      <c r="H14" s="200" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" s="239" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="212"/>
-      <c r="B15" s="199"/>
-      <c r="C15" s="199"/>
-      <c r="D15" s="234" t="s">
-        <v>398</v>
-      </c>
-      <c r="E15" s="195"/>
-      <c r="F15" s="235" t="s">
-        <v>400</v>
       </c>
       <c r="G15" s="236"/>
       <c r="H15" s="237" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I15" s="238"/>
       <c r="J15" s="238"/>
@@ -5795,65 +6092,65 @@
       <c r="AF15" s="238"/>
       <c r="AG15" s="238"/>
     </row>
-    <row r="16" spans="1:33" s="198" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="212"/>
-      <c r="B16" s="223" t="s">
+    <row r="16" spans="1:36" s="233" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="264"/>
+      <c r="B16" s="241" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="225" t="s">
+      <c r="C16" s="242" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="210" t="s">
+      <c r="D16" s="227" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="195"/>
-      <c r="F16" s="77" t="s">
+      <c r="E16" s="272"/>
+      <c r="F16" s="228" t="s">
+        <v>405</v>
+      </c>
+      <c r="G16" s="229"/>
+      <c r="H16" s="230" t="s">
+        <v>409</v>
+      </c>
+      <c r="I16" s="231"/>
+      <c r="J16" s="232"/>
+      <c r="K16" s="232"/>
+      <c r="L16" s="232"/>
+      <c r="M16" s="232"/>
+      <c r="N16" s="232"/>
+      <c r="O16" s="232"/>
+      <c r="P16" s="232"/>
+      <c r="Q16" s="232"/>
+      <c r="R16" s="232"/>
+      <c r="S16" s="232"/>
+      <c r="T16" s="232"/>
+      <c r="U16" s="232"/>
+      <c r="V16" s="232"/>
+      <c r="W16" s="232"/>
+      <c r="X16" s="232"/>
+      <c r="Y16" s="232"/>
+      <c r="Z16" s="232"/>
+      <c r="AA16" s="232"/>
+      <c r="AB16" s="232"/>
+      <c r="AC16" s="232"/>
+      <c r="AD16" s="232"/>
+      <c r="AE16" s="232"/>
+      <c r="AF16" s="232"/>
+      <c r="AG16" s="232"/>
+    </row>
+    <row r="17" spans="1:41" s="233" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="264"/>
+      <c r="B17" s="243"/>
+      <c r="C17" s="244"/>
+      <c r="D17" s="227" t="s">
+        <v>402</v>
+      </c>
+      <c r="E17" s="272"/>
+      <c r="F17" s="228" t="s">
         <v>406</v>
-      </c>
-      <c r="G16" s="197"/>
-      <c r="H16" s="78" t="s">
-        <v>405</v>
-      </c>
-      <c r="I16" s="215"/>
-      <c r="J16" s="216"/>
-      <c r="K16" s="216"/>
-      <c r="L16" s="216"/>
-      <c r="M16" s="216"/>
-      <c r="N16" s="216"/>
-      <c r="O16" s="216"/>
-      <c r="P16" s="216"/>
-      <c r="Q16" s="216"/>
-      <c r="R16" s="216"/>
-      <c r="S16" s="216"/>
-      <c r="T16" s="216"/>
-      <c r="U16" s="216"/>
-      <c r="V16" s="216"/>
-      <c r="W16" s="216"/>
-      <c r="X16" s="216"/>
-      <c r="Y16" s="216"/>
-      <c r="Z16" s="216"/>
-      <c r="AA16" s="216"/>
-      <c r="AB16" s="216"/>
-      <c r="AC16" s="216"/>
-      <c r="AD16" s="216"/>
-      <c r="AE16" s="216"/>
-      <c r="AF16" s="216"/>
-      <c r="AG16" s="216"/>
-    </row>
-    <row r="17" spans="1:41" s="233" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="212"/>
-      <c r="B17" s="224"/>
-      <c r="C17" s="226"/>
-      <c r="D17" s="227" t="s">
-        <v>403</v>
-      </c>
-      <c r="E17" s="195"/>
-      <c r="F17" s="228" t="s">
-        <v>407</v>
       </c>
       <c r="G17" s="229"/>
       <c r="H17" s="230" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I17" s="231"/>
       <c r="J17" s="232"/>
@@ -5882,17 +6179,17 @@
       <c r="AG17" s="232"/>
     </row>
     <row r="18" spans="1:41" s="193" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="212"/>
-      <c r="B18" s="243" t="s">
+      <c r="A18" s="264"/>
+      <c r="B18" s="247" t="s">
         <v>178</v>
       </c>
-      <c r="C18" s="241" t="s">
+      <c r="C18" s="245" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="246" t="s">
+      <c r="D18" s="250" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="195"/>
+      <c r="E18" s="272"/>
       <c r="F18" s="110" t="s">
         <v>412</v>
       </c>
@@ -5900,53 +6197,53 @@
       <c r="H18" s="206" t="s">
         <v>410</v>
       </c>
-      <c r="I18" s="245"/>
-      <c r="J18" s="245"/>
-      <c r="K18" s="245"/>
-      <c r="L18" s="245"/>
-      <c r="M18" s="245"/>
-      <c r="N18" s="245"/>
-      <c r="O18" s="245"/>
-      <c r="P18" s="245"/>
-      <c r="Q18" s="245"/>
-      <c r="R18" s="245"/>
-      <c r="S18" s="245"/>
-      <c r="T18" s="245"/>
-      <c r="U18" s="245"/>
-      <c r="V18" s="245"/>
-      <c r="W18" s="245"/>
-      <c r="X18" s="245"/>
-      <c r="Y18" s="245"/>
-      <c r="Z18" s="245"/>
-      <c r="AA18" s="245"/>
-      <c r="AB18" s="245"/>
-      <c r="AC18" s="245"/>
-      <c r="AD18" s="245"/>
-      <c r="AE18" s="245"/>
-      <c r="AF18" s="245"/>
-      <c r="AG18" s="245"/>
-      <c r="AH18" s="245"/>
-      <c r="AI18" s="245"/>
-      <c r="AJ18" s="245"/>
-      <c r="AK18" s="245"/>
-      <c r="AL18" s="245"/>
-      <c r="AM18" s="245"/>
-      <c r="AN18" s="245"/>
-      <c r="AO18" s="245"/>
+      <c r="I18" s="249"/>
+      <c r="J18" s="249"/>
+      <c r="K18" s="249"/>
+      <c r="L18" s="249"/>
+      <c r="M18" s="249"/>
+      <c r="N18" s="249"/>
+      <c r="O18" s="249"/>
+      <c r="P18" s="249"/>
+      <c r="Q18" s="249"/>
+      <c r="R18" s="249"/>
+      <c r="S18" s="249"/>
+      <c r="T18" s="249"/>
+      <c r="U18" s="249"/>
+      <c r="V18" s="249"/>
+      <c r="W18" s="249"/>
+      <c r="X18" s="249"/>
+      <c r="Y18" s="249"/>
+      <c r="Z18" s="249"/>
+      <c r="AA18" s="249"/>
+      <c r="AB18" s="249"/>
+      <c r="AC18" s="249"/>
+      <c r="AD18" s="249"/>
+      <c r="AE18" s="249"/>
+      <c r="AF18" s="249"/>
+      <c r="AG18" s="249"/>
+      <c r="AH18" s="249"/>
+      <c r="AI18" s="249"/>
+      <c r="AJ18" s="249"/>
+      <c r="AK18" s="249"/>
+      <c r="AL18" s="249"/>
+      <c r="AM18" s="249"/>
+      <c r="AN18" s="249"/>
+      <c r="AO18" s="249"/>
     </row>
     <row r="19" spans="1:41" s="240" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="213"/>
-      <c r="B19" s="244"/>
-      <c r="C19" s="242"/>
-      <c r="D19" s="248" t="s">
+      <c r="A19" s="265"/>
+      <c r="B19" s="248"/>
+      <c r="C19" s="246"/>
+      <c r="D19" s="252" t="s">
         <v>414</v>
       </c>
-      <c r="E19" s="196"/>
-      <c r="F19" s="249" t="s">
+      <c r="E19" s="273"/>
+      <c r="F19" s="253" t="s">
         <v>413</v>
       </c>
-      <c r="G19" s="250"/>
-      <c r="H19" s="251" t="s">
+      <c r="G19" s="254"/>
+      <c r="H19" s="255" t="s">
         <v>415</v>
       </c>
     </row>
@@ -5985,6 +6282,560 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF0AB10-6ABC-4F09-A44D-BF133C492331}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="58" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="59" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="58" customWidth="1"/>
+    <col min="5" max="5" width="13" style="58" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="58" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" style="58" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="102" style="60" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="91" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="119"/>
+      <c r="E1" s="91" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="91" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="91" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="123" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="124" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" s="63" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="112"/>
+      <c r="B3" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" s="111" t="s">
+        <v>318</v>
+      </c>
+      <c r="F3" s="111" t="s">
+        <v>319</v>
+      </c>
+      <c r="G3" s="111" t="s">
+        <v>320</v>
+      </c>
+      <c r="H3" s="66" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="112"/>
+      <c r="B4" s="99" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="126"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="100" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="112"/>
+      <c r="B5" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="127"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="96" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="113"/>
+      <c r="B6" s="101" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" s="93" t="s">
+        <v>328</v>
+      </c>
+      <c r="F6" s="93" t="s">
+        <v>330</v>
+      </c>
+      <c r="H6" s="102" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="70" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="144" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="134"/>
+      <c r="D7" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>327</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>331</v>
+      </c>
+      <c r="H7" s="98" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="121"/>
+      <c r="B8" s="122" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" s="134"/>
+      <c r="D8" s="148" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="122" t="s">
+        <v>326</v>
+      </c>
+      <c r="F8" s="122" t="s">
+        <v>360</v>
+      </c>
+      <c r="H8" s="145" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="121"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="147"/>
+      <c r="H9" s="146"/>
+    </row>
+    <row r="10" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="121"/>
+      <c r="B10" s="122" t="s">
+        <v>369</v>
+      </c>
+      <c r="C10" s="134"/>
+      <c r="D10" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="121"/>
+      <c r="F10" s="67" t="s">
+        <v>337</v>
+      </c>
+      <c r="H10" s="69" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="121"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="121"/>
+      <c r="F11" s="67" t="s">
+        <v>338</v>
+      </c>
+      <c r="H11" s="69" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="121"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="121"/>
+      <c r="F12" s="67" t="s">
+        <v>339</v>
+      </c>
+      <c r="H12" s="69" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="121"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="121"/>
+      <c r="F13" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="H13" s="69" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="121"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="121"/>
+      <c r="F14" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="H14" s="69" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="121"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="121"/>
+      <c r="F15" s="67" t="s">
+        <v>342</v>
+      </c>
+      <c r="H15" s="69" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="121"/>
+      <c r="B16" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="134"/>
+      <c r="D16" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="121"/>
+      <c r="F16" s="67" t="s">
+        <v>343</v>
+      </c>
+      <c r="H16" s="69" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="121"/>
+      <c r="B17" s="67" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="134"/>
+      <c r="D17" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="121"/>
+      <c r="F17" s="67" t="s">
+        <v>344</v>
+      </c>
+      <c r="H17" s="69" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="121"/>
+      <c r="B18" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="134"/>
+      <c r="D18" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="121"/>
+      <c r="F18" s="67" t="s">
+        <v>345</v>
+      </c>
+      <c r="H18" s="69" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="121"/>
+      <c r="B19" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="134"/>
+      <c r="D19" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="121"/>
+      <c r="F19" s="67" t="s">
+        <v>346</v>
+      </c>
+      <c r="H19" s="69" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="121"/>
+      <c r="B20" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="134"/>
+      <c r="D20" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="121"/>
+      <c r="F20" s="67" t="s">
+        <v>347</v>
+      </c>
+      <c r="H20" s="69" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="121"/>
+      <c r="B21" s="67" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" s="134"/>
+      <c r="D21" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="121"/>
+      <c r="F21" s="67" t="s">
+        <v>348</v>
+      </c>
+      <c r="H21" s="69" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="121"/>
+      <c r="B22" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="134"/>
+      <c r="D22" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="121"/>
+      <c r="F22" s="67" t="s">
+        <v>349</v>
+      </c>
+      <c r="H22" s="69" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="85" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="143"/>
+      <c r="B23" s="85" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" s="142"/>
+      <c r="D23" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="143"/>
+      <c r="F23" s="85" t="s">
+        <v>334</v>
+      </c>
+      <c r="H23" s="87" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="135" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="77" t="s">
+        <v>324</v>
+      </c>
+      <c r="C24" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="76" t="s">
+        <v>321</v>
+      </c>
+      <c r="E24" s="77" t="s">
+        <v>329</v>
+      </c>
+      <c r="F24" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="H24" s="78" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="136"/>
+      <c r="B25" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="118"/>
+      <c r="D25" s="80" t="s">
+        <v>212</v>
+      </c>
+      <c r="E25" s="140" t="s">
+        <v>254</v>
+      </c>
+      <c r="F25" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="G25" s="79" t="s">
+        <v>208</v>
+      </c>
+      <c r="H25" s="81" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="136"/>
+      <c r="B26" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" s="118"/>
+      <c r="D26" s="80" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" s="140"/>
+      <c r="F26" s="79" t="s">
+        <v>207</v>
+      </c>
+      <c r="G26" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="H26" s="81" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="136"/>
+      <c r="B27" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="118"/>
+      <c r="D27" s="80" t="s">
+        <v>214</v>
+      </c>
+      <c r="E27" s="140"/>
+      <c r="F27" s="79" t="s">
+        <v>192</v>
+      </c>
+      <c r="G27" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="H27" s="81" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="82" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="138"/>
+      <c r="B28" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="139"/>
+      <c r="D28" s="83" t="s">
+        <v>214</v>
+      </c>
+      <c r="E28" s="141"/>
+      <c r="F28" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="G28" s="82" t="s">
+        <v>190</v>
+      </c>
+      <c r="H28" s="84" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="73" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="74"/>
+      <c r="H29" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="A7:A23"/>
+    <mergeCell ref="E8:E23"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="C6:C23"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D1A1B6-DC09-4226-BC29-743EC7EF287D}">
   <dimension ref="A1:I29"/>
   <sheetViews>
@@ -6592,7 +7443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9EFEAD-90DC-4155-8C14-5E43018780EB}">
   <dimension ref="A1:I28"/>
   <sheetViews>
@@ -7282,7 +8133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1C884F-6997-411B-8CA8-475F48376AD3}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -7398,7 +8249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED662CB9-89B3-4552-B6BD-9026A4B77487}">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -7502,7 +8353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19F0A9C-2143-4024-9149-87183A0CD8B2}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -7786,7 +8637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2926450E-DD05-4E3D-BD98-38AD677C7FB7}">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -8048,7 +8899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70EF7B5F-4D6B-4939-8693-3B20C9437080}">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -8289,7 +9140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBBBB0D-7C8B-40D8-885F-259C70BE0DA1}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -8395,7 +9246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6FC25E-EB1A-4B13-97BA-B1F4E294693C}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -8547,11 +9398,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183B3F6C-0F39-4E0A-BA17-BAF3E2384BC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F021144A-02B0-4FAF-8611-E93CE3693F4D}">
   <dimension ref="A1:AO20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8683,7 +9534,7 @@
         <v>384</v>
       </c>
       <c r="H6" s="102" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -8756,7 +9607,7 @@
         <v>391</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H10" s="206" t="s">
         <v>366</v>
@@ -8773,7 +9624,7 @@
       </c>
       <c r="E11" s="121"/>
       <c r="F11" s="103" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H11" s="104" t="s">
         <v>361</v>
@@ -8790,7 +9641,7 @@
       </c>
       <c r="E12" s="121"/>
       <c r="F12" s="103" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H12" s="104" t="s">
         <v>389</v>
@@ -8808,7 +9659,7 @@
         <v>141</v>
       </c>
       <c r="C14" s="220" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D14" s="221" t="s">
         <v>99</v>
@@ -8817,11 +9668,519 @@
         <v>167</v>
       </c>
       <c r="F14" s="214" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G14" s="109"/>
       <c r="H14" s="200" t="s">
-        <v>401</v>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" s="239" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="212"/>
+      <c r="B15" s="199"/>
+      <c r="C15" s="199"/>
+      <c r="D15" s="234" t="s">
+        <v>397</v>
+      </c>
+      <c r="E15" s="195"/>
+      <c r="F15" s="235" t="s">
+        <v>399</v>
+      </c>
+      <c r="G15" s="236"/>
+      <c r="H15" s="237" t="s">
+        <v>407</v>
+      </c>
+      <c r="I15" s="238"/>
+      <c r="J15" s="238"/>
+      <c r="K15" s="238"/>
+      <c r="L15" s="238"/>
+      <c r="M15" s="238"/>
+      <c r="N15" s="238"/>
+      <c r="O15" s="238"/>
+      <c r="P15" s="238"/>
+      <c r="Q15" s="238"/>
+      <c r="R15" s="238"/>
+      <c r="S15" s="238"/>
+      <c r="T15" s="238"/>
+      <c r="U15" s="238"/>
+      <c r="V15" s="238"/>
+      <c r="W15" s="238"/>
+      <c r="X15" s="238"/>
+      <c r="Y15" s="238"/>
+      <c r="Z15" s="238"/>
+      <c r="AA15" s="238"/>
+      <c r="AB15" s="238"/>
+      <c r="AC15" s="238"/>
+      <c r="AD15" s="238"/>
+      <c r="AE15" s="238"/>
+      <c r="AF15" s="238"/>
+      <c r="AG15" s="238"/>
+    </row>
+    <row r="16" spans="1:33" s="198" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="212"/>
+      <c r="B16" s="223" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="225" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="210" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="195"/>
+      <c r="F16" s="77" t="s">
+        <v>405</v>
+      </c>
+      <c r="G16" s="197"/>
+      <c r="H16" s="78" t="s">
+        <v>404</v>
+      </c>
+      <c r="I16" s="215"/>
+      <c r="J16" s="216"/>
+      <c r="K16" s="216"/>
+      <c r="L16" s="216"/>
+      <c r="M16" s="216"/>
+      <c r="N16" s="216"/>
+      <c r="O16" s="216"/>
+      <c r="P16" s="216"/>
+      <c r="Q16" s="216"/>
+      <c r="R16" s="216"/>
+      <c r="S16" s="216"/>
+      <c r="T16" s="216"/>
+      <c r="U16" s="216"/>
+      <c r="V16" s="216"/>
+      <c r="W16" s="216"/>
+      <c r="X16" s="216"/>
+      <c r="Y16" s="216"/>
+      <c r="Z16" s="216"/>
+      <c r="AA16" s="216"/>
+      <c r="AB16" s="216"/>
+      <c r="AC16" s="216"/>
+      <c r="AD16" s="216"/>
+      <c r="AE16" s="216"/>
+      <c r="AF16" s="216"/>
+      <c r="AG16" s="216"/>
+    </row>
+    <row r="17" spans="1:41" s="233" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="212"/>
+      <c r="B17" s="224"/>
+      <c r="C17" s="226"/>
+      <c r="D17" s="227" t="s">
+        <v>402</v>
+      </c>
+      <c r="E17" s="195"/>
+      <c r="F17" s="228" t="s">
+        <v>406</v>
+      </c>
+      <c r="G17" s="229"/>
+      <c r="H17" s="230" t="s">
+        <v>408</v>
+      </c>
+      <c r="I17" s="231"/>
+      <c r="J17" s="232"/>
+      <c r="K17" s="232"/>
+      <c r="L17" s="232"/>
+      <c r="M17" s="232"/>
+      <c r="N17" s="232"/>
+      <c r="O17" s="232"/>
+      <c r="P17" s="232"/>
+      <c r="Q17" s="232"/>
+      <c r="R17" s="232"/>
+      <c r="S17" s="232"/>
+      <c r="T17" s="232"/>
+      <c r="U17" s="232"/>
+      <c r="V17" s="232"/>
+      <c r="W17" s="232"/>
+      <c r="X17" s="232"/>
+      <c r="Y17" s="232"/>
+      <c r="Z17" s="232"/>
+      <c r="AA17" s="232"/>
+      <c r="AB17" s="232"/>
+      <c r="AC17" s="232"/>
+      <c r="AD17" s="232"/>
+      <c r="AE17" s="232"/>
+      <c r="AF17" s="232"/>
+      <c r="AG17" s="232"/>
+    </row>
+    <row r="18" spans="1:41" s="193" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="212"/>
+      <c r="B18" s="247" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="245" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="250" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="195"/>
+      <c r="F18" s="110" t="s">
+        <v>412</v>
+      </c>
+      <c r="G18" s="70"/>
+      <c r="H18" s="206" t="s">
+        <v>410</v>
+      </c>
+      <c r="I18" s="249"/>
+      <c r="J18" s="249"/>
+      <c r="K18" s="249"/>
+      <c r="L18" s="249"/>
+      <c r="M18" s="249"/>
+      <c r="N18" s="249"/>
+      <c r="O18" s="249"/>
+      <c r="P18" s="249"/>
+      <c r="Q18" s="249"/>
+      <c r="R18" s="249"/>
+      <c r="S18" s="249"/>
+      <c r="T18" s="249"/>
+      <c r="U18" s="249"/>
+      <c r="V18" s="249"/>
+      <c r="W18" s="249"/>
+      <c r="X18" s="249"/>
+      <c r="Y18" s="249"/>
+      <c r="Z18" s="249"/>
+      <c r="AA18" s="249"/>
+      <c r="AB18" s="249"/>
+      <c r="AC18" s="249"/>
+      <c r="AD18" s="249"/>
+      <c r="AE18" s="249"/>
+      <c r="AF18" s="249"/>
+      <c r="AG18" s="249"/>
+      <c r="AH18" s="249"/>
+      <c r="AI18" s="249"/>
+      <c r="AJ18" s="249"/>
+      <c r="AK18" s="249"/>
+      <c r="AL18" s="249"/>
+      <c r="AM18" s="249"/>
+      <c r="AN18" s="249"/>
+      <c r="AO18" s="249"/>
+    </row>
+    <row r="19" spans="1:41" s="240" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="213"/>
+      <c r="B19" s="248"/>
+      <c r="C19" s="246"/>
+      <c r="D19" s="252" t="s">
+        <v>414</v>
+      </c>
+      <c r="E19" s="196"/>
+      <c r="F19" s="253" t="s">
+        <v>413</v>
+      </c>
+      <c r="G19" s="254"/>
+      <c r="H19" s="255" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" s="202" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="203"/>
+      <c r="H20" s="204"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183B3F6C-0F39-4E0A-BA17-BAF3E2384BC7}">
+  <dimension ref="A1:AO20"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" style="58" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="58" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="59" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="58" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="58" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="58" customWidth="1"/>
+    <col min="7" max="7" width="0.21875" style="58" customWidth="1"/>
+    <col min="8" max="8" width="107.109375" style="60" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" s="91" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="119"/>
+      <c r="E1" s="91" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="91" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="91" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="123" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="124" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" s="63" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="112"/>
+      <c r="B3" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126" t="s">
+        <v>385</v>
+      </c>
+      <c r="E3" s="111" t="s">
+        <v>318</v>
+      </c>
+      <c r="F3" s="111" t="s">
+        <v>319</v>
+      </c>
+      <c r="G3" s="111" t="s">
+        <v>320</v>
+      </c>
+      <c r="H3" s="66" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="112"/>
+      <c r="B4" s="99" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="126"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="100" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="112"/>
+      <c r="B5" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="127"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="96" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="113"/>
+      <c r="B6" s="92" t="s">
+        <v>392</v>
+      </c>
+      <c r="C6" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="115"/>
+      <c r="E6" s="93" t="s">
+        <v>383</v>
+      </c>
+      <c r="F6" s="93" t="s">
+        <v>384</v>
+      </c>
+      <c r="H6" s="102" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>321</v>
+      </c>
+      <c r="E7" s="77" t="s">
+        <v>329</v>
+      </c>
+      <c r="F7" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="H7" s="78" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="117"/>
+      <c r="B8" s="80" t="s">
+        <v>381</v>
+      </c>
+      <c r="C8" s="118"/>
+      <c r="D8" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="79" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="79" t="s">
+        <v>380</v>
+      </c>
+      <c r="G8" s="79" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" s="81" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="209" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="207"/>
+      <c r="B9" s="207"/>
+      <c r="C9" s="208"/>
+      <c r="D9" s="208"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="207"/>
+    </row>
+    <row r="10" spans="1:33" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="121" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="110" t="s">
+        <v>367</v>
+      </c>
+      <c r="C10" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="205" t="s">
+        <v>362</v>
+      </c>
+      <c r="E10" s="121" t="s">
+        <v>391</v>
+      </c>
+      <c r="F10" s="110" t="s">
+        <v>394</v>
+      </c>
+      <c r="H10" s="206" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="121"/>
+      <c r="B11" s="103" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" s="121"/>
+      <c r="D11" s="105" t="s">
+        <v>362</v>
+      </c>
+      <c r="E11" s="121"/>
+      <c r="F11" s="103" t="s">
+        <v>395</v>
+      </c>
+      <c r="H11" s="104" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="121"/>
+      <c r="B12" s="67" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="121"/>
+      <c r="D12" s="68" t="s">
+        <v>372</v>
+      </c>
+      <c r="E12" s="121"/>
+      <c r="F12" s="103" t="s">
+        <v>396</v>
+      </c>
+      <c r="H12" s="104" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" s="202" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="203"/>
+      <c r="H13" s="204"/>
+    </row>
+    <row r="14" spans="1:33" s="201" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="211" t="s">
+        <v>392</v>
+      </c>
+      <c r="B14" s="220" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="220" t="s">
+        <v>393</v>
+      </c>
+      <c r="D14" s="221" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="219" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="214" t="s">
+        <v>398</v>
+      </c>
+      <c r="G14" s="109"/>
+      <c r="H14" s="200" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:33" s="201" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8829,15 +10188,15 @@
       <c r="B15" s="199"/>
       <c r="C15" s="199"/>
       <c r="D15" s="222" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E15" s="195"/>
       <c r="F15" s="194" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G15" s="109"/>
       <c r="H15" s="217" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I15" s="218"/>
       <c r="J15" s="218"/>
@@ -8878,11 +10237,11 @@
       </c>
       <c r="E16" s="195"/>
       <c r="F16" s="77" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G16" s="197"/>
       <c r="H16" s="78" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I16" s="215"/>
       <c r="J16" s="216"/>
@@ -8915,15 +10274,15 @@
       <c r="B17" s="224"/>
       <c r="C17" s="226"/>
       <c r="D17" s="210" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E17" s="195"/>
       <c r="F17" s="77" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G17" s="197"/>
       <c r="H17" s="78" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I17" s="215"/>
       <c r="J17" s="216"/>
@@ -8953,13 +10312,13 @@
     </row>
     <row r="18" spans="1:41" s="193" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="212"/>
-      <c r="B18" s="243" t="s">
+      <c r="B18" s="247" t="s">
         <v>178</v>
       </c>
-      <c r="C18" s="241" t="s">
+      <c r="C18" s="245" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="246" t="s">
+      <c r="D18" s="250" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="195"/>
@@ -8970,45 +10329,45 @@
       <c r="H18" s="206" t="s">
         <v>410</v>
       </c>
-      <c r="I18" s="245"/>
-      <c r="J18" s="245"/>
-      <c r="K18" s="245"/>
-      <c r="L18" s="245"/>
-      <c r="M18" s="245"/>
-      <c r="N18" s="245"/>
-      <c r="O18" s="245"/>
-      <c r="P18" s="245"/>
-      <c r="Q18" s="245"/>
-      <c r="R18" s="245"/>
-      <c r="S18" s="245"/>
-      <c r="T18" s="245"/>
-      <c r="U18" s="245"/>
-      <c r="V18" s="245"/>
-      <c r="W18" s="245"/>
-      <c r="X18" s="245"/>
-      <c r="Y18" s="245"/>
-      <c r="Z18" s="245"/>
-      <c r="AA18" s="245"/>
-      <c r="AB18" s="245"/>
-      <c r="AC18" s="245"/>
-      <c r="AD18" s="245"/>
-      <c r="AE18" s="245"/>
-      <c r="AF18" s="245"/>
-      <c r="AG18" s="245"/>
-      <c r="AH18" s="245"/>
-      <c r="AI18" s="245"/>
-      <c r="AJ18" s="245"/>
-      <c r="AK18" s="245"/>
-      <c r="AL18" s="245"/>
-      <c r="AM18" s="245"/>
-      <c r="AN18" s="245"/>
-      <c r="AO18" s="245"/>
+      <c r="I18" s="249"/>
+      <c r="J18" s="249"/>
+      <c r="K18" s="249"/>
+      <c r="L18" s="249"/>
+      <c r="M18" s="249"/>
+      <c r="N18" s="249"/>
+      <c r="O18" s="249"/>
+      <c r="P18" s="249"/>
+      <c r="Q18" s="249"/>
+      <c r="R18" s="249"/>
+      <c r="S18" s="249"/>
+      <c r="T18" s="249"/>
+      <c r="U18" s="249"/>
+      <c r="V18" s="249"/>
+      <c r="W18" s="249"/>
+      <c r="X18" s="249"/>
+      <c r="Y18" s="249"/>
+      <c r="Z18" s="249"/>
+      <c r="AA18" s="249"/>
+      <c r="AB18" s="249"/>
+      <c r="AC18" s="249"/>
+      <c r="AD18" s="249"/>
+      <c r="AE18" s="249"/>
+      <c r="AF18" s="249"/>
+      <c r="AG18" s="249"/>
+      <c r="AH18" s="249"/>
+      <c r="AI18" s="249"/>
+      <c r="AJ18" s="249"/>
+      <c r="AK18" s="249"/>
+      <c r="AL18" s="249"/>
+      <c r="AM18" s="249"/>
+      <c r="AN18" s="249"/>
+      <c r="AO18" s="249"/>
     </row>
     <row r="19" spans="1:41" s="193" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="213"/>
-      <c r="B19" s="244"/>
-      <c r="C19" s="242"/>
-      <c r="D19" s="247" t="s">
+      <c r="B19" s="248"/>
+      <c r="C19" s="246"/>
+      <c r="D19" s="251" t="s">
         <v>414</v>
       </c>
       <c r="E19" s="196"/>
@@ -9054,7 +10413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611E59D6-90EF-472A-8366-9887EF63DAF8}">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -9322,7 +10681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029C89FC-CD99-4E52-93B5-BC3FC468CF6F}">
   <dimension ref="A1:C257"/>
   <sheetViews>
@@ -12179,7 +13538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE5504B-3F60-4279-9D10-921F324B9079}">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -12445,7 +13804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7707C775-EEAB-4ED3-B0B3-4379B2135456}">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -12767,7 +14126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9B9587-7B47-4EF1-9FCD-1C33EBF232E4}">
   <dimension ref="A1:H22"/>
   <sheetViews>
@@ -13195,7 +14554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C957EAA-53B8-4F3F-A2C3-23E834C8ACCE}">
   <dimension ref="A1:H22"/>
   <sheetViews>
@@ -13639,558 +14998,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF0AB10-6ABC-4F09-A44D-BF133C492331}">
-  <dimension ref="A1:H29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.88671875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="58" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="59" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="58" customWidth="1"/>
-    <col min="5" max="5" width="13" style="58" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" style="58" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" style="58" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="102" style="60" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="58"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="91" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="119" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="119"/>
-      <c r="E1" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="F1" s="91" t="s">
-        <v>162</v>
-      </c>
-      <c r="G1" s="91" t="s">
-        <v>165</v>
-      </c>
-      <c r="H1" s="91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="123" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="124" t="s">
-        <v>315</v>
-      </c>
-      <c r="D2" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>183</v>
-      </c>
-      <c r="G2" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="H2" s="63" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="112"/>
-      <c r="B3" s="64" t="s">
-        <v>309</v>
-      </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126" t="s">
-        <v>311</v>
-      </c>
-      <c r="E3" s="111" t="s">
-        <v>318</v>
-      </c>
-      <c r="F3" s="111" t="s">
-        <v>319</v>
-      </c>
-      <c r="G3" s="111" t="s">
-        <v>320</v>
-      </c>
-      <c r="H3" s="66" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="112"/>
-      <c r="B4" s="99" t="s">
-        <v>308</v>
-      </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="100" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="112"/>
-      <c r="B5" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="96" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="113"/>
-      <c r="B6" s="101" t="s">
-        <v>333</v>
-      </c>
-      <c r="C6" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="92" t="s">
-        <v>321</v>
-      </c>
-      <c r="E6" s="93" t="s">
-        <v>328</v>
-      </c>
-      <c r="F6" s="93" t="s">
-        <v>330</v>
-      </c>
-      <c r="H6" s="102" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="70" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="144" t="s">
-        <v>178</v>
-      </c>
-      <c r="B7" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="70" t="s">
-        <v>327</v>
-      </c>
-      <c r="F7" s="70" t="s">
-        <v>331</v>
-      </c>
-      <c r="H7" s="98" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="121"/>
-      <c r="B8" s="122" t="s">
-        <v>359</v>
-      </c>
-      <c r="C8" s="134"/>
-      <c r="D8" s="148" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8" s="122" t="s">
-        <v>326</v>
-      </c>
-      <c r="F8" s="122" t="s">
-        <v>360</v>
-      </c>
-      <c r="H8" s="145" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="121"/>
-      <c r="B9" s="147"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="147"/>
-      <c r="H9" s="146"/>
-    </row>
-    <row r="10" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="121"/>
-      <c r="B10" s="122" t="s">
-        <v>369</v>
-      </c>
-      <c r="C10" s="134"/>
-      <c r="D10" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="121"/>
-      <c r="F10" s="67" t="s">
-        <v>337</v>
-      </c>
-      <c r="H10" s="69" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="121"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="121"/>
-      <c r="F11" s="67" t="s">
-        <v>338</v>
-      </c>
-      <c r="H11" s="69" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="121"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="121"/>
-      <c r="F12" s="67" t="s">
-        <v>339</v>
-      </c>
-      <c r="H12" s="69" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="121"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="121"/>
-      <c r="F13" s="67" t="s">
-        <v>340</v>
-      </c>
-      <c r="H13" s="69" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="121"/>
-      <c r="B14" s="121"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="121"/>
-      <c r="F14" s="67" t="s">
-        <v>341</v>
-      </c>
-      <c r="H14" s="69" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="121"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="121"/>
-      <c r="F15" s="67" t="s">
-        <v>342</v>
-      </c>
-      <c r="H15" s="69" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="121"/>
-      <c r="B16" s="67" t="s">
-        <v>222</v>
-      </c>
-      <c r="C16" s="134"/>
-      <c r="D16" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="121"/>
-      <c r="F16" s="67" t="s">
-        <v>343</v>
-      </c>
-      <c r="H16" s="69" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="121"/>
-      <c r="B17" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="C17" s="134"/>
-      <c r="D17" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="121"/>
-      <c r="F17" s="67" t="s">
-        <v>344</v>
-      </c>
-      <c r="H17" s="69" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="121"/>
-      <c r="B18" s="67" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="134"/>
-      <c r="D18" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="121"/>
-      <c r="F18" s="67" t="s">
-        <v>345</v>
-      </c>
-      <c r="H18" s="69" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="121"/>
-      <c r="B19" s="67" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="134"/>
-      <c r="D19" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="121"/>
-      <c r="F19" s="67" t="s">
-        <v>346</v>
-      </c>
-      <c r="H19" s="69" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="121"/>
-      <c r="B20" s="67" t="s">
-        <v>226</v>
-      </c>
-      <c r="C20" s="134"/>
-      <c r="D20" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="121"/>
-      <c r="F20" s="67" t="s">
-        <v>347</v>
-      </c>
-      <c r="H20" s="69" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="121"/>
-      <c r="B21" s="67" t="s">
-        <v>227</v>
-      </c>
-      <c r="C21" s="134"/>
-      <c r="D21" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="121"/>
-      <c r="F21" s="67" t="s">
-        <v>348</v>
-      </c>
-      <c r="H21" s="69" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="121"/>
-      <c r="B22" s="67" t="s">
-        <v>228</v>
-      </c>
-      <c r="C22" s="134"/>
-      <c r="D22" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="121"/>
-      <c r="F22" s="67" t="s">
-        <v>349</v>
-      </c>
-      <c r="H22" s="69" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="85" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="143"/>
-      <c r="B23" s="85" t="s">
-        <v>229</v>
-      </c>
-      <c r="C23" s="142"/>
-      <c r="D23" s="86" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="143"/>
-      <c r="F23" s="85" t="s">
-        <v>334</v>
-      </c>
-      <c r="H23" s="87" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="135" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="77" t="s">
-        <v>324</v>
-      </c>
-      <c r="C24" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="76" t="s">
-        <v>321</v>
-      </c>
-      <c r="E24" s="77" t="s">
-        <v>329</v>
-      </c>
-      <c r="F24" s="77" t="s">
-        <v>332</v>
-      </c>
-      <c r="H24" s="78" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="136"/>
-      <c r="B25" s="79" t="s">
-        <v>204</v>
-      </c>
-      <c r="C25" s="118"/>
-      <c r="D25" s="80" t="s">
-        <v>212</v>
-      </c>
-      <c r="E25" s="140" t="s">
-        <v>254</v>
-      </c>
-      <c r="F25" s="79" t="s">
-        <v>206</v>
-      </c>
-      <c r="G25" s="79" t="s">
-        <v>208</v>
-      </c>
-      <c r="H25" s="81" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="136"/>
-      <c r="B26" s="79" t="s">
-        <v>205</v>
-      </c>
-      <c r="C26" s="118"/>
-      <c r="D26" s="80" t="s">
-        <v>213</v>
-      </c>
-      <c r="E26" s="140"/>
-      <c r="F26" s="79" t="s">
-        <v>207</v>
-      </c>
-      <c r="G26" s="79" t="s">
-        <v>209</v>
-      </c>
-      <c r="H26" s="81" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="136"/>
-      <c r="B27" s="79" t="s">
-        <v>188</v>
-      </c>
-      <c r="C27" s="118"/>
-      <c r="D27" s="80" t="s">
-        <v>214</v>
-      </c>
-      <c r="E27" s="140"/>
-      <c r="F27" s="79" t="s">
-        <v>192</v>
-      </c>
-      <c r="G27" s="79" t="s">
-        <v>191</v>
-      </c>
-      <c r="H27" s="81" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="82" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="138"/>
-      <c r="B28" s="82" t="s">
-        <v>187</v>
-      </c>
-      <c r="C28" s="139"/>
-      <c r="D28" s="83" t="s">
-        <v>214</v>
-      </c>
-      <c r="E28" s="141"/>
-      <c r="F28" s="82" t="s">
-        <v>189</v>
-      </c>
-      <c r="G28" s="82" t="s">
-        <v>190</v>
-      </c>
-      <c r="H28" s="84" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="73" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="74"/>
-      <c r="H29" s="75"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="A7:A23"/>
-    <mergeCell ref="E8:E23"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="C6:C23"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/hardware/memory/Memory Map.xlsx
+++ b/hardware/memory/Memory Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jules\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EB5735-17E4-494D-9F9D-DD4F99780CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1232BC72-4A74-4B2D-881E-1494BCA41F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{373489EA-859E-4EE6-860B-453F011C26CC}"/>
   </bookViews>
@@ -3164,39 +3164,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Two switchable 4 KB </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>memory banks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, able to access 640 KB of memory, 128 KB of ROM, and 256 KB of memory mapped I/O. Offboard found/video data.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">16 x 4 KB banks of </t>
     </r>
     <r>
@@ -3279,7 +3246,51 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, able to access 64 KB of memory, 8 KB of ROM, and 8 KB of memory mapped I/O. Offboard found/video data. May be mapped to internal RAM or ROM.</t>
+      <t>, able to access 640 KB of memory, 128 KB of ROM, and 256 KB of memory mapped I/O. Offboard sound/video data.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Two switchable 4 KB </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>memory banks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, able to access 64 KB of memory, 8 KB of ROM, and 8 KB of memory mapped I/O. Offboard sound/video data.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> May be mapped to internal RAM or ROM.</t>
     </r>
   </si>
 </sst>
@@ -5749,7 +5760,7 @@
   <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5882,7 +5893,7 @@
       </c>
       <c r="G6" s="258"/>
       <c r="H6" s="206" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I6" s="258"/>
       <c r="J6" s="258"/>
@@ -6048,7 +6059,7 @@
       </c>
       <c r="G14" s="236"/>
       <c r="H14" s="270" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:36" s="239" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9910,7 +9921,7 @@
   <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10042,7 +10053,7 @@
         <v>384</v>
       </c>
       <c r="H6" s="102" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">

--- a/hardware/memory/Memory Map.xlsx
+++ b/hardware/memory/Memory Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jules\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1232BC72-4A74-4B2D-881E-1494BCA41F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F1BD03-7E14-4E7A-B177-DFBCA92B433A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{373489EA-859E-4EE6-860B-453F011C26CC}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="421">
   <si>
     <t>Memory Block</t>
   </si>
@@ -2878,7 +2878,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">16 x 4 KB banks of </t>
+      <t xml:space="preserve">144 x 4 KB banks of </t>
     </r>
     <r>
       <rPr>
@@ -2889,7 +2889,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>standard memory</t>
+      <t>extended memory</t>
     </r>
     <r>
       <rPr>
@@ -2903,8 +2903,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">144 x 4 KB banks of </t>
+    <t>120 KB</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">30 x 4 KB banks of </t>
     </r>
     <r>
       <rPr>
@@ -2915,62 +2918,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>extended memory</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>120 KB</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">30 x 4 KB banks of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>extended ROM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2 x 4 KB banks of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>standard ROM</t>
     </r>
     <r>
       <rPr>
@@ -3291,6 +3239,84 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> May be mapped to internal RAM or ROM.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16 x 4 KB banks of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>standard memory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Pages 00 to BF map here.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 x 4 KB banks of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>standard ROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Pages E0 to FF map here.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 x 4 KB banks of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>memory mapped I/O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Pages C0 to DF map here. Device memory map partitioning determined by Southbridge.</t>
     </r>
   </si>
 </sst>
@@ -5759,8 +5785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA51CDE-CD2E-4808-9BE1-4220B016AEE8}">
   <dimension ref="A1:AO20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5893,7 +5919,7 @@
       </c>
       <c r="G6" s="258"/>
       <c r="H6" s="206" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I6" s="258"/>
       <c r="J6" s="258"/>
@@ -6059,7 +6085,7 @@
       </c>
       <c r="G14" s="236"/>
       <c r="H14" s="270" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:36" s="239" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6075,7 +6101,7 @@
       </c>
       <c r="G15" s="236"/>
       <c r="H15" s="237" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I15" s="238"/>
       <c r="J15" s="238"/>
@@ -6116,11 +6142,11 @@
       </c>
       <c r="E16" s="272"/>
       <c r="F16" s="228" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G16" s="229"/>
       <c r="H16" s="230" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I16" s="231"/>
       <c r="J16" s="232"/>
@@ -6153,15 +6179,15 @@
       <c r="B17" s="243"/>
       <c r="C17" s="244"/>
       <c r="D17" s="227" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E17" s="272"/>
       <c r="F17" s="228" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G17" s="229"/>
       <c r="H17" s="230" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I17" s="231"/>
       <c r="J17" s="232"/>
@@ -6202,11 +6228,11 @@
       </c>
       <c r="E18" s="272"/>
       <c r="F18" s="110" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G18" s="70"/>
       <c r="H18" s="206" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="I18" s="249"/>
       <c r="J18" s="249"/>
@@ -6247,15 +6273,15 @@
       <c r="B19" s="248"/>
       <c r="C19" s="246"/>
       <c r="D19" s="252" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E19" s="273"/>
       <c r="F19" s="253" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G19" s="254"/>
       <c r="H19" s="255" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:41" s="202" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9413,7 +9439,7 @@
   <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9545,7 +9571,7 @@
         <v>384</v>
       </c>
       <c r="H6" s="102" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -9683,7 +9709,7 @@
       </c>
       <c r="G14" s="109"/>
       <c r="H14" s="200" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:33" s="239" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9699,7 +9725,7 @@
       </c>
       <c r="G15" s="236"/>
       <c r="H15" s="237" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I15" s="238"/>
       <c r="J15" s="238"/>
@@ -9740,11 +9766,11 @@
       </c>
       <c r="E16" s="195"/>
       <c r="F16" s="77" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G16" s="197"/>
       <c r="H16" s="78" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="I16" s="215"/>
       <c r="J16" s="216"/>
@@ -9777,15 +9803,15 @@
       <c r="B17" s="224"/>
       <c r="C17" s="226"/>
       <c r="D17" s="227" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E17" s="195"/>
       <c r="F17" s="228" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G17" s="229"/>
       <c r="H17" s="230" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I17" s="231"/>
       <c r="J17" s="232"/>
@@ -9826,11 +9852,11 @@
       </c>
       <c r="E18" s="195"/>
       <c r="F18" s="110" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G18" s="70"/>
       <c r="H18" s="206" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I18" s="249"/>
       <c r="J18" s="249"/>
@@ -9871,15 +9897,15 @@
       <c r="B19" s="248"/>
       <c r="C19" s="246"/>
       <c r="D19" s="252" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E19" s="196"/>
       <c r="F19" s="253" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G19" s="254"/>
       <c r="H19" s="255" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:41" s="202" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9921,7 +9947,7 @@
   <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10053,7 +10079,7 @@
         <v>384</v>
       </c>
       <c r="H6" s="102" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -10191,7 +10217,7 @@
       </c>
       <c r="G14" s="109"/>
       <c r="H14" s="200" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:33" s="201" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10207,7 +10233,7 @@
       </c>
       <c r="G15" s="109"/>
       <c r="H15" s="217" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I15" s="218"/>
       <c r="J15" s="218"/>
@@ -10248,11 +10274,11 @@
       </c>
       <c r="E16" s="195"/>
       <c r="F16" s="77" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G16" s="197"/>
       <c r="H16" s="78" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="I16" s="215"/>
       <c r="J16" s="216"/>
@@ -10285,15 +10311,15 @@
       <c r="B17" s="224"/>
       <c r="C17" s="226"/>
       <c r="D17" s="210" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E17" s="195"/>
       <c r="F17" s="77" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G17" s="197"/>
       <c r="H17" s="78" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I17" s="215"/>
       <c r="J17" s="216"/>
@@ -10334,11 +10360,11 @@
       </c>
       <c r="E18" s="195"/>
       <c r="F18" s="110" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G18" s="70"/>
       <c r="H18" s="206" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I18" s="249"/>
       <c r="J18" s="249"/>
@@ -10379,15 +10405,15 @@
       <c r="B19" s="248"/>
       <c r="C19" s="246"/>
       <c r="D19" s="251" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E19" s="196"/>
       <c r="F19" s="103" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G19" s="67"/>
       <c r="H19" s="104" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:41" s="202" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">

--- a/hardware/memory/Memory Map.xlsx
+++ b/hardware/memory/Memory Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jules\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F1BD03-7E14-4E7A-B177-DFBCA92B433A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CAD60D-4280-4030-B099-8409DC3D26DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{373489EA-859E-4EE6-860B-453F011C26CC}"/>
   </bookViews>
@@ -3199,6 +3199,84 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">16 x 4 KB banks of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>standard memory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Pages 00 to BF map here.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 x 4 KB banks of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>standard ROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Pages E0 to FF map here.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 x 4 KB banks of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>memory mapped I/O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Pages C0 to DF map here. Device memory map partitioning determined by Southbridge.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -3227,96 +3305,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, able to access 64 KB of memory, 8 KB of ROM, and 8 KB of memory mapped I/O. Offboard sound/video data.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> May be mapped to internal RAM or ROM.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16 x 4 KB banks of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>standard memory</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Pages 00 to BF map here.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2 x 4 KB banks of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>standard ROM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Pages E0 to FF map here.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2 x 4 KB banks of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>memory mapped I/O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Pages C0 to DF map here. Device memory map partitioning determined by Southbridge.</t>
+      <t>, able to access 64 KB of memory, 8 KB of ROM, and 8 KB of memory mapped I/O. Offboard sound/video data. May be mapped to internal RAM or ROM.</t>
     </r>
   </si>
 </sst>
@@ -4980,6 +4969,204 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="65" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="67" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="66" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="71" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="74" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="69" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="79" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="80" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="81" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="65" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="84" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="85" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="96" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="95" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="94" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="97" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="98" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="99" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="102" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="76" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="92" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="93" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="90" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4989,52 +5176,97 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="100" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="101" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="62" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="76" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="78" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="83" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="70" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="75" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="86" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="87" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="88" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="89" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="63" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="64" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="62" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="61" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5079,9 +5311,6 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5097,6 +5326,57 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5109,52 +5389,16 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5167,18 +5411,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -5225,249 +5457,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="65" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="67" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="66" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="70" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="71" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="74" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="69" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="76" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="78" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="79" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="80" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="81" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="65" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="75" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="83" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="84" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="85" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="86" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="87" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="88" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="89" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="90" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="92" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="93" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="96" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="95" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="94" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="97" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="98" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="99" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="100" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="101" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="102" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="76" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5785,8 +5774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA51CDE-CD2E-4808-9BE1-4220B016AEE8}">
   <dimension ref="A1:AO20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5798,7 +5787,7 @@
     <col min="5" max="5" width="11.109375" style="58" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="58" customWidth="1"/>
     <col min="7" max="7" width="0.21875" style="58" customWidth="1"/>
-    <col min="8" max="8" width="107.109375" style="60" customWidth="1"/>
+    <col min="8" max="8" width="106.5546875" style="60" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="58"/>
   </cols>
   <sheetData>
@@ -5809,10 +5798,10 @@
       <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="119"/>
+      <c r="D1" s="187"/>
       <c r="E1" s="91" t="s">
         <v>164</v>
       </c>
@@ -5827,13 +5816,13 @@
       </c>
     </row>
     <row r="2" spans="1:36" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="188" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="189" t="s">
         <v>315</v>
       </c>
       <c r="D2" s="62" t="s">
@@ -5853,21 +5842,21 @@
       </c>
     </row>
     <row r="3" spans="1:36" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="112"/>
+      <c r="A3" s="178"/>
       <c r="B3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126" t="s">
+      <c r="C3" s="190"/>
+      <c r="D3" s="191" t="s">
         <v>385</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="177" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="177" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="111" t="s">
+      <c r="G3" s="177" t="s">
         <v>320</v>
       </c>
       <c r="H3" s="66" t="s">
@@ -5875,89 +5864,89 @@
       </c>
     </row>
     <row r="4" spans="1:36" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="112"/>
+      <c r="A4" s="178"/>
       <c r="B4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
       <c r="H4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:36" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="112"/>
+      <c r="A5" s="178"/>
       <c r="B5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
       <c r="H5" s="96" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="256" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="113"/>
-      <c r="B6" s="262" t="s">
+    <row r="6" spans="1:36" s="153" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="179"/>
+      <c r="B6" s="157" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="260" t="s">
+      <c r="C6" s="180" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="261"/>
-      <c r="E6" s="257" t="s">
+      <c r="D6" s="181"/>
+      <c r="E6" s="154" t="s">
         <v>383</v>
       </c>
-      <c r="F6" s="258" t="s">
+      <c r="F6" s="155" t="s">
         <v>395</v>
       </c>
-      <c r="G6" s="258"/>
-      <c r="H6" s="206" t="s">
+      <c r="G6" s="155"/>
+      <c r="H6" s="121" t="s">
         <v>415</v>
       </c>
-      <c r="I6" s="258"/>
-      <c r="J6" s="258"/>
-      <c r="K6" s="258"/>
-      <c r="L6" s="258"/>
-      <c r="M6" s="258"/>
-      <c r="N6" s="258"/>
-      <c r="O6" s="258"/>
-      <c r="P6" s="258"/>
-      <c r="Q6" s="258"/>
-      <c r="R6" s="258"/>
-      <c r="S6" s="258"/>
-      <c r="T6" s="258"/>
-      <c r="U6" s="258"/>
-      <c r="V6" s="258"/>
-      <c r="W6" s="258"/>
-      <c r="X6" s="258"/>
-      <c r="Y6" s="258"/>
-      <c r="Z6" s="258"/>
-      <c r="AA6" s="258"/>
-      <c r="AB6" s="258"/>
-      <c r="AC6" s="258"/>
-      <c r="AD6" s="259"/>
-      <c r="AE6" s="259"/>
-      <c r="AF6" s="259"/>
-      <c r="AG6" s="259"/>
-      <c r="AH6" s="259"/>
-      <c r="AI6" s="259"/>
-      <c r="AJ6" s="259"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="155"/>
+      <c r="O6" s="155"/>
+      <c r="P6" s="155"/>
+      <c r="Q6" s="155"/>
+      <c r="R6" s="155"/>
+      <c r="S6" s="155"/>
+      <c r="T6" s="155"/>
+      <c r="U6" s="155"/>
+      <c r="V6" s="155"/>
+      <c r="W6" s="155"/>
+      <c r="X6" s="155"/>
+      <c r="Y6" s="155"/>
+      <c r="Z6" s="155"/>
+      <c r="AA6" s="155"/>
+      <c r="AB6" s="155"/>
+      <c r="AC6" s="155"/>
+      <c r="AD6" s="156"/>
+      <c r="AE6" s="156"/>
+      <c r="AF6" s="156"/>
+      <c r="AG6" s="156"/>
+      <c r="AH6" s="156"/>
+      <c r="AI6" s="156"/>
+      <c r="AJ6" s="156"/>
     </row>
     <row r="7" spans="1:36" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="182" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>324</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="183" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="76" t="s">
@@ -5974,11 +5963,11 @@
       </c>
     </row>
     <row r="8" spans="1:36" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="117"/>
+      <c r="A8" s="183"/>
       <c r="B8" s="80" t="s">
         <v>381</v>
       </c>
-      <c r="C8" s="118"/>
+      <c r="C8" s="184"/>
       <c r="D8" s="80" t="s">
         <v>5</v>
       </c>
@@ -5995,47 +5984,47 @@
         <v>379</v>
       </c>
     </row>
-    <row r="9" spans="1:36" s="209" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="207"/>
-      <c r="B9" s="207"/>
-      <c r="C9" s="208"/>
-      <c r="D9" s="208"/>
-      <c r="E9" s="207"/>
-      <c r="F9" s="207"/>
+    <row r="9" spans="1:36" s="123" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="122"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
     </row>
     <row r="10" spans="1:36" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="186" t="s">
         <v>178</v>
       </c>
       <c r="B10" s="110" t="s">
         <v>367</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="205" t="s">
+      <c r="D10" s="120" t="s">
         <v>362</v>
       </c>
-      <c r="E10" s="121" t="s">
+      <c r="E10" s="186" t="s">
         <v>391</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>394</v>
       </c>
-      <c r="H10" s="206" t="s">
+      <c r="H10" s="121" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:36" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="121"/>
+      <c r="A11" s="186"/>
       <c r="B11" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C11" s="121"/>
+      <c r="C11" s="186"/>
       <c r="D11" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E11" s="121"/>
+      <c r="E11" s="186"/>
       <c r="F11" s="103" t="s">
         <v>395</v>
       </c>
@@ -6044,15 +6033,15 @@
       </c>
     </row>
     <row r="12" spans="1:36" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="121"/>
+      <c r="A12" s="186"/>
       <c r="B12" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="121"/>
+      <c r="C12" s="186"/>
       <c r="D12" s="68" t="s">
         <v>372</v>
       </c>
-      <c r="E12" s="121"/>
+      <c r="E12" s="186"/>
       <c r="F12" s="103" t="s">
         <v>396</v>
       </c>
@@ -6060,236 +6049,250 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:36" s="202" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="203"/>
-      <c r="H13" s="204"/>
-    </row>
-    <row r="14" spans="1:36" s="239" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="263" t="s">
+    <row r="13" spans="1:36" s="117" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="118"/>
+      <c r="H13" s="119"/>
+    </row>
+    <row r="14" spans="1:36" s="144" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="161" t="s">
         <v>392</v>
       </c>
-      <c r="B14" s="266" t="s">
+      <c r="B14" s="164" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="266" t="s">
+      <c r="C14" s="164" t="s">
         <v>393</v>
       </c>
-      <c r="D14" s="267" t="s">
+      <c r="D14" s="158" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="268" t="s">
+      <c r="E14" s="166" t="s">
         <v>167</v>
       </c>
-      <c r="F14" s="269" t="s">
+      <c r="F14" s="159" t="s">
         <v>398</v>
       </c>
-      <c r="G14" s="236"/>
-      <c r="H14" s="270" t="s">
+      <c r="G14" s="141"/>
+      <c r="H14" s="160" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="15" spans="1:36" s="239" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="264"/>
-      <c r="B15" s="271"/>
-      <c r="C15" s="271"/>
-      <c r="D15" s="234" t="s">
+    <row r="15" spans="1:36" s="144" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="162"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="139" t="s">
         <v>397</v>
       </c>
-      <c r="E15" s="272"/>
-      <c r="F15" s="235" t="s">
+      <c r="E15" s="167"/>
+      <c r="F15" s="140" t="s">
         <v>399</v>
       </c>
-      <c r="G15" s="236"/>
-      <c r="H15" s="237" t="s">
+      <c r="G15" s="141"/>
+      <c r="H15" s="142" t="s">
         <v>405</v>
       </c>
-      <c r="I15" s="238"/>
-      <c r="J15" s="238"/>
-      <c r="K15" s="238"/>
-      <c r="L15" s="238"/>
-      <c r="M15" s="238"/>
-      <c r="N15" s="238"/>
-      <c r="O15" s="238"/>
-      <c r="P15" s="238"/>
-      <c r="Q15" s="238"/>
-      <c r="R15" s="238"/>
-      <c r="S15" s="238"/>
-      <c r="T15" s="238"/>
-      <c r="U15" s="238"/>
-      <c r="V15" s="238"/>
-      <c r="W15" s="238"/>
-      <c r="X15" s="238"/>
-      <c r="Y15" s="238"/>
-      <c r="Z15" s="238"/>
-      <c r="AA15" s="238"/>
-      <c r="AB15" s="238"/>
-      <c r="AC15" s="238"/>
-      <c r="AD15" s="238"/>
-      <c r="AE15" s="238"/>
-      <c r="AF15" s="238"/>
-      <c r="AG15" s="238"/>
-    </row>
-    <row r="16" spans="1:36" s="233" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="264"/>
-      <c r="B16" s="241" t="s">
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="143"/>
+      <c r="S15" s="143"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="143"/>
+      <c r="V15" s="143"/>
+      <c r="W15" s="143"/>
+      <c r="X15" s="143"/>
+      <c r="Y15" s="143"/>
+      <c r="Z15" s="143"/>
+      <c r="AA15" s="143"/>
+      <c r="AB15" s="143"/>
+      <c r="AC15" s="143"/>
+      <c r="AD15" s="143"/>
+      <c r="AE15" s="143"/>
+      <c r="AF15" s="143"/>
+      <c r="AG15" s="143"/>
+    </row>
+    <row r="16" spans="1:36" s="138" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="162"/>
+      <c r="B16" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="242" t="s">
+      <c r="C16" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="227" t="s">
+      <c r="D16" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="272"/>
-      <c r="F16" s="228" t="s">
+      <c r="E16" s="167"/>
+      <c r="F16" s="133" t="s">
         <v>403</v>
       </c>
-      <c r="G16" s="229"/>
-      <c r="H16" s="230" t="s">
+      <c r="G16" s="134"/>
+      <c r="H16" s="135" t="s">
         <v>407</v>
       </c>
-      <c r="I16" s="231"/>
-      <c r="J16" s="232"/>
-      <c r="K16" s="232"/>
-      <c r="L16" s="232"/>
-      <c r="M16" s="232"/>
-      <c r="N16" s="232"/>
-      <c r="O16" s="232"/>
-      <c r="P16" s="232"/>
-      <c r="Q16" s="232"/>
-      <c r="R16" s="232"/>
-      <c r="S16" s="232"/>
-      <c r="T16" s="232"/>
-      <c r="U16" s="232"/>
-      <c r="V16" s="232"/>
-      <c r="W16" s="232"/>
-      <c r="X16" s="232"/>
-      <c r="Y16" s="232"/>
-      <c r="Z16" s="232"/>
-      <c r="AA16" s="232"/>
-      <c r="AB16" s="232"/>
-      <c r="AC16" s="232"/>
-      <c r="AD16" s="232"/>
-      <c r="AE16" s="232"/>
-      <c r="AF16" s="232"/>
-      <c r="AG16" s="232"/>
-    </row>
-    <row r="17" spans="1:41" s="233" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="264"/>
-      <c r="B17" s="243"/>
-      <c r="C17" s="244"/>
-      <c r="D17" s="227" t="s">
+      <c r="I16" s="136"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="137"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="137"/>
+      <c r="T16" s="137"/>
+      <c r="U16" s="137"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="137"/>
+      <c r="AA16" s="137"/>
+      <c r="AB16" s="137"/>
+      <c r="AC16" s="137"/>
+      <c r="AD16" s="137"/>
+      <c r="AE16" s="137"/>
+      <c r="AF16" s="137"/>
+      <c r="AG16" s="137"/>
+    </row>
+    <row r="17" spans="1:41" s="138" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="162"/>
+      <c r="B17" s="170"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="132" t="s">
         <v>401</v>
       </c>
-      <c r="E17" s="272"/>
-      <c r="F17" s="228" t="s">
+      <c r="E17" s="167"/>
+      <c r="F17" s="133" t="s">
         <v>404</v>
       </c>
-      <c r="G17" s="229"/>
-      <c r="H17" s="230" t="s">
+      <c r="G17" s="134"/>
+      <c r="H17" s="135" t="s">
         <v>406</v>
       </c>
-      <c r="I17" s="231"/>
-      <c r="J17" s="232"/>
-      <c r="K17" s="232"/>
-      <c r="L17" s="232"/>
-      <c r="M17" s="232"/>
-      <c r="N17" s="232"/>
-      <c r="O17" s="232"/>
-      <c r="P17" s="232"/>
-      <c r="Q17" s="232"/>
-      <c r="R17" s="232"/>
-      <c r="S17" s="232"/>
-      <c r="T17" s="232"/>
-      <c r="U17" s="232"/>
-      <c r="V17" s="232"/>
-      <c r="W17" s="232"/>
-      <c r="X17" s="232"/>
-      <c r="Y17" s="232"/>
-      <c r="Z17" s="232"/>
-      <c r="AA17" s="232"/>
-      <c r="AB17" s="232"/>
-      <c r="AC17" s="232"/>
-      <c r="AD17" s="232"/>
-      <c r="AE17" s="232"/>
-      <c r="AF17" s="232"/>
-      <c r="AG17" s="232"/>
-    </row>
-    <row r="18" spans="1:41" s="193" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="264"/>
-      <c r="B18" s="247" t="s">
+      <c r="I17" s="136"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="137"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="137"/>
+      <c r="R17" s="137"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="137"/>
+      <c r="U17" s="137"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="137"/>
+      <c r="Y17" s="137"/>
+      <c r="Z17" s="137"/>
+      <c r="AA17" s="137"/>
+      <c r="AB17" s="137"/>
+      <c r="AC17" s="137"/>
+      <c r="AD17" s="137"/>
+      <c r="AE17" s="137"/>
+      <c r="AF17" s="137"/>
+      <c r="AG17" s="137"/>
+    </row>
+    <row r="18" spans="1:41" s="111" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="162"/>
+      <c r="B18" s="173" t="s">
         <v>178</v>
       </c>
-      <c r="C18" s="245" t="s">
+      <c r="C18" s="175" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="250" t="s">
+      <c r="D18" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="272"/>
+      <c r="E18" s="167"/>
       <c r="F18" s="110" t="s">
         <v>410</v>
       </c>
       <c r="G18" s="70"/>
-      <c r="H18" s="206" t="s">
-        <v>420</v>
-      </c>
-      <c r="I18" s="249"/>
-      <c r="J18" s="249"/>
-      <c r="K18" s="249"/>
-      <c r="L18" s="249"/>
-      <c r="M18" s="249"/>
-      <c r="N18" s="249"/>
-      <c r="O18" s="249"/>
-      <c r="P18" s="249"/>
-      <c r="Q18" s="249"/>
-      <c r="R18" s="249"/>
-      <c r="S18" s="249"/>
-      <c r="T18" s="249"/>
-      <c r="U18" s="249"/>
-      <c r="V18" s="249"/>
-      <c r="W18" s="249"/>
-      <c r="X18" s="249"/>
-      <c r="Y18" s="249"/>
-      <c r="Z18" s="249"/>
-      <c r="AA18" s="249"/>
-      <c r="AB18" s="249"/>
-      <c r="AC18" s="249"/>
-      <c r="AD18" s="249"/>
-      <c r="AE18" s="249"/>
-      <c r="AF18" s="249"/>
-      <c r="AG18" s="249"/>
-      <c r="AH18" s="249"/>
-      <c r="AI18" s="249"/>
-      <c r="AJ18" s="249"/>
-      <c r="AK18" s="249"/>
-      <c r="AL18" s="249"/>
-      <c r="AM18" s="249"/>
-      <c r="AN18" s="249"/>
-      <c r="AO18" s="249"/>
-    </row>
-    <row r="19" spans="1:41" s="240" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="265"/>
-      <c r="B19" s="248"/>
-      <c r="C19" s="246"/>
-      <c r="D19" s="252" t="s">
+      <c r="H18" s="121" t="s">
+        <v>419</v>
+      </c>
+      <c r="I18" s="146"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="146"/>
+      <c r="N18" s="146"/>
+      <c r="O18" s="146"/>
+      <c r="P18" s="146"/>
+      <c r="Q18" s="146"/>
+      <c r="R18" s="146"/>
+      <c r="S18" s="146"/>
+      <c r="T18" s="146"/>
+      <c r="U18" s="146"/>
+      <c r="V18" s="146"/>
+      <c r="W18" s="146"/>
+      <c r="X18" s="146"/>
+      <c r="Y18" s="146"/>
+      <c r="Z18" s="146"/>
+      <c r="AA18" s="146"/>
+      <c r="AB18" s="146"/>
+      <c r="AC18" s="146"/>
+      <c r="AD18" s="146"/>
+      <c r="AE18" s="146"/>
+      <c r="AF18" s="146"/>
+      <c r="AG18" s="146"/>
+      <c r="AH18" s="146"/>
+      <c r="AI18" s="146"/>
+      <c r="AJ18" s="146"/>
+      <c r="AK18" s="146"/>
+      <c r="AL18" s="146"/>
+      <c r="AM18" s="146"/>
+      <c r="AN18" s="146"/>
+      <c r="AO18" s="146"/>
+    </row>
+    <row r="19" spans="1:41" s="145" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="163"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="149" t="s">
         <v>412</v>
       </c>
-      <c r="E19" s="273"/>
-      <c r="F19" s="253" t="s">
+      <c r="E19" s="168"/>
+      <c r="F19" s="150" t="s">
         <v>411</v>
       </c>
-      <c r="G19" s="254"/>
-      <c r="H19" s="255" t="s">
+      <c r="G19" s="151"/>
+      <c r="H19" s="152" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="20" spans="1:41" s="202" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="203"/>
-      <c r="H20" s="204"/>
+    <row r="20" spans="1:41" s="117" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="118"/>
+      <c r="H20" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F3:F5"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
@@ -6298,20 +6301,6 @@
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6346,10 +6335,10 @@
       <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="119"/>
+      <c r="D1" s="187"/>
       <c r="E1" s="91" t="s">
         <v>164</v>
       </c>
@@ -6364,13 +6353,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="188" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="189" t="s">
         <v>315</v>
       </c>
       <c r="D2" s="62" t="s">
@@ -6390,21 +6379,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="112"/>
+      <c r="A3" s="178"/>
       <c r="B3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126" t="s">
+      <c r="C3" s="190"/>
+      <c r="D3" s="191" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="177" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="177" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="111" t="s">
+      <c r="G3" s="177" t="s">
         <v>320</v>
       </c>
       <c r="H3" s="66" t="s">
@@ -6412,39 +6401,39 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="112"/>
+      <c r="A4" s="178"/>
       <c r="B4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
       <c r="H4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="112"/>
+      <c r="A5" s="178"/>
       <c r="B5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
       <c r="H5" s="96" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="113"/>
+      <c r="A6" s="179"/>
       <c r="B6" s="101" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="133" t="s">
+      <c r="C6" s="214" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="92" t="s">
@@ -6461,13 +6450,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="70" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="144" t="s">
+      <c r="A7" s="230" t="s">
         <v>178</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="134"/>
+      <c r="C7" s="215"/>
       <c r="D7" s="71" t="s">
         <v>5</v>
       </c>
@@ -6482,43 +6471,43 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="121"/>
-      <c r="B8" s="122" t="s">
+      <c r="A8" s="186"/>
+      <c r="B8" s="210" t="s">
         <v>359</v>
       </c>
-      <c r="C8" s="134"/>
-      <c r="D8" s="148" t="s">
+      <c r="C8" s="215"/>
+      <c r="D8" s="228" t="s">
         <v>212</v>
       </c>
-      <c r="E8" s="122" t="s">
+      <c r="E8" s="210" t="s">
         <v>326</v>
       </c>
-      <c r="F8" s="122" t="s">
+      <c r="F8" s="210" t="s">
         <v>360</v>
       </c>
-      <c r="H8" s="145" t="s">
+      <c r="H8" s="225" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="121"/>
-      <c r="B9" s="147"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="147"/>
-      <c r="H9" s="146"/>
+      <c r="A9" s="186"/>
+      <c r="B9" s="227"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="229"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="227"/>
+      <c r="H9" s="226"/>
     </row>
     <row r="10" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="121"/>
-      <c r="B10" s="122" t="s">
+      <c r="A10" s="186"/>
+      <c r="B10" s="210" t="s">
         <v>369</v>
       </c>
-      <c r="C10" s="134"/>
+      <c r="C10" s="215"/>
       <c r="D10" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="121"/>
+      <c r="E10" s="186"/>
       <c r="F10" s="67" t="s">
         <v>337</v>
       </c>
@@ -6527,13 +6516,13 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="121"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="134"/>
+      <c r="A11" s="186"/>
+      <c r="B11" s="186"/>
+      <c r="C11" s="215"/>
       <c r="D11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="121"/>
+      <c r="E11" s="186"/>
       <c r="F11" s="67" t="s">
         <v>338</v>
       </c>
@@ -6542,13 +6531,13 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="121"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="134"/>
+      <c r="A12" s="186"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="215"/>
       <c r="D12" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="121"/>
+      <c r="E12" s="186"/>
       <c r="F12" s="67" t="s">
         <v>339</v>
       </c>
@@ -6557,13 +6546,13 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="121"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="134"/>
+      <c r="A13" s="186"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="215"/>
       <c r="D13" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="121"/>
+      <c r="E13" s="186"/>
       <c r="F13" s="67" t="s">
         <v>340</v>
       </c>
@@ -6572,13 +6561,13 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="121"/>
-      <c r="B14" s="121"/>
-      <c r="C14" s="134"/>
+      <c r="A14" s="186"/>
+      <c r="B14" s="186"/>
+      <c r="C14" s="215"/>
       <c r="D14" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="121"/>
+      <c r="E14" s="186"/>
       <c r="F14" s="67" t="s">
         <v>341</v>
       </c>
@@ -6587,13 +6576,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="121"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="134"/>
+      <c r="A15" s="186"/>
+      <c r="B15" s="227"/>
+      <c r="C15" s="215"/>
       <c r="D15" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="121"/>
+      <c r="E15" s="186"/>
       <c r="F15" s="67" t="s">
         <v>342</v>
       </c>
@@ -6602,15 +6591,15 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="121"/>
+      <c r="A16" s="186"/>
       <c r="B16" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="C16" s="134"/>
+      <c r="C16" s="215"/>
       <c r="D16" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="121"/>
+      <c r="E16" s="186"/>
       <c r="F16" s="67" t="s">
         <v>343</v>
       </c>
@@ -6619,15 +6608,15 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="121"/>
+      <c r="A17" s="186"/>
       <c r="B17" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="C17" s="134"/>
+      <c r="C17" s="215"/>
       <c r="D17" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="121"/>
+      <c r="E17" s="186"/>
       <c r="F17" s="67" t="s">
         <v>344</v>
       </c>
@@ -6636,15 +6625,15 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="121"/>
+      <c r="A18" s="186"/>
       <c r="B18" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="134"/>
+      <c r="C18" s="215"/>
       <c r="D18" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="121"/>
+      <c r="E18" s="186"/>
       <c r="F18" s="67" t="s">
         <v>345</v>
       </c>
@@ -6653,15 +6642,15 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="121"/>
+      <c r="A19" s="186"/>
       <c r="B19" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="C19" s="134"/>
+      <c r="C19" s="215"/>
       <c r="D19" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="121"/>
+      <c r="E19" s="186"/>
       <c r="F19" s="67" t="s">
         <v>346</v>
       </c>
@@ -6670,15 +6659,15 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="121"/>
+      <c r="A20" s="186"/>
       <c r="B20" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="C20" s="134"/>
+      <c r="C20" s="215"/>
       <c r="D20" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="121"/>
+      <c r="E20" s="186"/>
       <c r="F20" s="67" t="s">
         <v>347</v>
       </c>
@@ -6687,15 +6676,15 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="121"/>
+      <c r="A21" s="186"/>
       <c r="B21" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="C21" s="134"/>
+      <c r="C21" s="215"/>
       <c r="D21" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="121"/>
+      <c r="E21" s="186"/>
       <c r="F21" s="67" t="s">
         <v>348</v>
       </c>
@@ -6704,15 +6693,15 @@
       </c>
     </row>
     <row r="22" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="121"/>
+      <c r="A22" s="186"/>
       <c r="B22" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="C22" s="134"/>
+      <c r="C22" s="215"/>
       <c r="D22" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="121"/>
+      <c r="E22" s="186"/>
       <c r="F22" s="67" t="s">
         <v>349</v>
       </c>
@@ -6721,15 +6710,15 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="85" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="143"/>
+      <c r="A23" s="224"/>
       <c r="B23" s="85" t="s">
         <v>229</v>
       </c>
-      <c r="C23" s="142"/>
+      <c r="C23" s="223"/>
       <c r="D23" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="143"/>
+      <c r="E23" s="224"/>
       <c r="F23" s="85" t="s">
         <v>334</v>
       </c>
@@ -6738,13 +6727,13 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="135" t="s">
+      <c r="A24" s="216" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="77" t="s">
         <v>324</v>
       </c>
-      <c r="C24" s="117" t="s">
+      <c r="C24" s="183" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="76" t="s">
@@ -6761,15 +6750,15 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="136"/>
+      <c r="A25" s="217"/>
       <c r="B25" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="C25" s="118"/>
+      <c r="C25" s="184"/>
       <c r="D25" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="E25" s="140" t="s">
+      <c r="E25" s="221" t="s">
         <v>254</v>
       </c>
       <c r="F25" s="79" t="s">
@@ -6783,15 +6772,15 @@
       </c>
     </row>
     <row r="26" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="136"/>
+      <c r="A26" s="217"/>
       <c r="B26" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="C26" s="118"/>
+      <c r="C26" s="184"/>
       <c r="D26" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="E26" s="140"/>
+      <c r="E26" s="221"/>
       <c r="F26" s="79" t="s">
         <v>207</v>
       </c>
@@ -6803,15 +6792,15 @@
       </c>
     </row>
     <row r="27" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="136"/>
+      <c r="A27" s="217"/>
       <c r="B27" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="C27" s="118"/>
+      <c r="C27" s="184"/>
       <c r="D27" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="E27" s="140"/>
+      <c r="E27" s="221"/>
       <c r="F27" s="79" t="s">
         <v>192</v>
       </c>
@@ -6823,15 +6812,15 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="82" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="138"/>
+      <c r="A28" s="219"/>
       <c r="B28" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="C28" s="139"/>
+      <c r="C28" s="220"/>
       <c r="D28" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="E28" s="141"/>
+      <c r="E28" s="222"/>
       <c r="F28" s="82" t="s">
         <v>189</v>
       </c>
@@ -6848,16 +6837,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="A7:A23"/>
-    <mergeCell ref="E8:E23"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="C6:C23"/>
     <mergeCell ref="A2:A6"/>
@@ -6866,6 +6845,16 @@
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="A7:A23"/>
+    <mergeCell ref="E8:E23"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B10:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6904,10 +6893,10 @@
       <c r="C1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="119"/>
+      <c r="E1" s="187"/>
       <c r="F1" s="91" t="s">
         <v>164</v>
       </c>
@@ -6922,14 +6911,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="235" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="155"/>
+      <c r="B2" s="236"/>
       <c r="C2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="189" t="s">
         <v>315</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -6949,22 +6938,22 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="64" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="156"/>
-      <c r="B3" s="157"/>
+      <c r="A3" s="237"/>
+      <c r="B3" s="238"/>
       <c r="C3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="126" t="s">
+      <c r="D3" s="190"/>
+      <c r="E3" s="191" t="s">
         <v>311</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="177" t="s">
         <v>318</v>
       </c>
-      <c r="G3" s="111" t="s">
+      <c r="G3" s="177" t="s">
         <v>319</v>
       </c>
-      <c r="H3" s="111" t="s">
+      <c r="H3" s="177" t="s">
         <v>320</v>
       </c>
       <c r="I3" s="66" t="s">
@@ -6972,44 +6961,44 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="99" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="158"/>
-      <c r="B4" s="111"/>
+      <c r="A4" s="239"/>
+      <c r="B4" s="177"/>
       <c r="C4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
       <c r="I4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="88" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="159"/>
-      <c r="B5" s="160"/>
+      <c r="A5" s="240"/>
+      <c r="B5" s="241"/>
       <c r="C5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="127"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="179"/>
       <c r="I5" s="96" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="231" t="s">
         <v>178</v>
       </c>
-      <c r="B6" s="164" t="s">
+      <c r="B6" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="165"/>
-      <c r="D6" s="161" t="s">
+      <c r="C6" s="243"/>
+      <c r="D6" s="231" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="92" t="s">
@@ -7026,12 +7015,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" s="95" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="162"/>
-      <c r="B7" s="166" t="s">
+      <c r="A7" s="232"/>
+      <c r="B7" s="244" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="166"/>
-      <c r="D7" s="162"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="232"/>
       <c r="E7" s="94" t="s">
         <v>5</v>
       </c>
@@ -7046,18 +7035,18 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="162"/>
-      <c r="B8" s="167" t="s">
+      <c r="A8" s="232"/>
+      <c r="B8" s="245" t="s">
         <v>182</v>
       </c>
       <c r="C8" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="D8" s="162"/>
+      <c r="D8" s="232"/>
       <c r="E8" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="169" t="s">
+      <c r="F8" s="234" t="s">
         <v>326</v>
       </c>
       <c r="G8" s="70" t="s">
@@ -7068,16 +7057,16 @@
       </c>
     </row>
     <row r="9" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="162"/>
-      <c r="B9" s="167"/>
+      <c r="A9" s="232"/>
+      <c r="B9" s="245"/>
       <c r="C9" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="D9" s="162"/>
+      <c r="D9" s="232"/>
       <c r="E9" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="121"/>
+      <c r="F9" s="186"/>
       <c r="G9" s="67" t="s">
         <v>336</v>
       </c>
@@ -7086,16 +7075,16 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="162"/>
-      <c r="B10" s="167"/>
+      <c r="A10" s="232"/>
+      <c r="B10" s="245"/>
       <c r="C10" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="162"/>
+      <c r="D10" s="232"/>
       <c r="E10" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="121"/>
+      <c r="F10" s="186"/>
       <c r="G10" s="67" t="s">
         <v>337</v>
       </c>
@@ -7104,16 +7093,16 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="162"/>
-      <c r="B11" s="167"/>
+      <c r="A11" s="232"/>
+      <c r="B11" s="245"/>
       <c r="C11" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="D11" s="162"/>
+      <c r="D11" s="232"/>
       <c r="E11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="121"/>
+      <c r="F11" s="186"/>
       <c r="G11" s="67" t="s">
         <v>338</v>
       </c>
@@ -7122,16 +7111,16 @@
       </c>
     </row>
     <row r="12" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="162"/>
-      <c r="B12" s="167"/>
+      <c r="A12" s="232"/>
+      <c r="B12" s="245"/>
       <c r="C12" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="D12" s="162"/>
+      <c r="D12" s="232"/>
       <c r="E12" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="121"/>
+      <c r="F12" s="186"/>
       <c r="G12" s="67" t="s">
         <v>339</v>
       </c>
@@ -7140,16 +7129,16 @@
       </c>
     </row>
     <row r="13" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="162"/>
-      <c r="B13" s="167"/>
+      <c r="A13" s="232"/>
+      <c r="B13" s="245"/>
       <c r="C13" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="D13" s="162"/>
+      <c r="D13" s="232"/>
       <c r="E13" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="121"/>
+      <c r="F13" s="186"/>
       <c r="G13" s="67" t="s">
         <v>340</v>
       </c>
@@ -7158,16 +7147,16 @@
       </c>
     </row>
     <row r="14" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="162"/>
-      <c r="B14" s="167"/>
+      <c r="A14" s="232"/>
+      <c r="B14" s="245"/>
       <c r="C14" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="D14" s="162"/>
+      <c r="D14" s="232"/>
       <c r="E14" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="121"/>
+      <c r="F14" s="186"/>
       <c r="G14" s="67" t="s">
         <v>341</v>
       </c>
@@ -7176,16 +7165,16 @@
       </c>
     </row>
     <row r="15" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="162"/>
-      <c r="B15" s="167"/>
+      <c r="A15" s="232"/>
+      <c r="B15" s="245"/>
       <c r="C15" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="D15" s="162"/>
+      <c r="D15" s="232"/>
       <c r="E15" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="121"/>
+      <c r="F15" s="186"/>
       <c r="G15" s="67" t="s">
         <v>342</v>
       </c>
@@ -7194,16 +7183,16 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="162"/>
-      <c r="B16" s="167"/>
+      <c r="A16" s="232"/>
+      <c r="B16" s="245"/>
       <c r="C16" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="D16" s="162"/>
+      <c r="D16" s="232"/>
       <c r="E16" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="121"/>
+      <c r="F16" s="186"/>
       <c r="G16" s="67" t="s">
         <v>343</v>
       </c>
@@ -7212,16 +7201,16 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="162"/>
-      <c r="B17" s="167"/>
+      <c r="A17" s="232"/>
+      <c r="B17" s="245"/>
       <c r="C17" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="D17" s="162"/>
+      <c r="D17" s="232"/>
       <c r="E17" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="121"/>
+      <c r="F17" s="186"/>
       <c r="G17" s="67" t="s">
         <v>344</v>
       </c>
@@ -7230,16 +7219,16 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="162"/>
-      <c r="B18" s="167"/>
+      <c r="A18" s="232"/>
+      <c r="B18" s="245"/>
       <c r="C18" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="D18" s="162"/>
+      <c r="D18" s="232"/>
       <c r="E18" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="121"/>
+      <c r="F18" s="186"/>
       <c r="G18" s="67" t="s">
         <v>345</v>
       </c>
@@ -7248,16 +7237,16 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="162"/>
-      <c r="B19" s="167"/>
+      <c r="A19" s="232"/>
+      <c r="B19" s="245"/>
       <c r="C19" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="D19" s="162"/>
+      <c r="D19" s="232"/>
       <c r="E19" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="121"/>
+      <c r="F19" s="186"/>
       <c r="G19" s="67" t="s">
         <v>346</v>
       </c>
@@ -7266,16 +7255,16 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="162"/>
-      <c r="B20" s="167"/>
+      <c r="A20" s="232"/>
+      <c r="B20" s="245"/>
       <c r="C20" s="67" t="s">
         <v>234</v>
       </c>
-      <c r="D20" s="162"/>
+      <c r="D20" s="232"/>
       <c r="E20" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="121"/>
+      <c r="F20" s="186"/>
       <c r="G20" s="67" t="s">
         <v>347</v>
       </c>
@@ -7284,16 +7273,16 @@
       </c>
     </row>
     <row r="21" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="162"/>
-      <c r="B21" s="167"/>
+      <c r="A21" s="232"/>
+      <c r="B21" s="245"/>
       <c r="C21" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="D21" s="162"/>
+      <c r="D21" s="232"/>
       <c r="E21" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="121"/>
+      <c r="F21" s="186"/>
       <c r="G21" s="67" t="s">
         <v>348</v>
       </c>
@@ -7302,16 +7291,16 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="162"/>
-      <c r="B22" s="167"/>
+      <c r="A22" s="232"/>
+      <c r="B22" s="245"/>
       <c r="C22" s="67" t="s">
         <v>236</v>
       </c>
-      <c r="D22" s="162"/>
+      <c r="D22" s="232"/>
       <c r="E22" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="121"/>
+      <c r="F22" s="186"/>
       <c r="G22" s="67" t="s">
         <v>349</v>
       </c>
@@ -7320,16 +7309,16 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="85" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="163"/>
-      <c r="B23" s="168"/>
+      <c r="A23" s="233"/>
+      <c r="B23" s="246"/>
       <c r="C23" s="85" t="s">
         <v>237</v>
       </c>
-      <c r="D23" s="163"/>
+      <c r="D23" s="233"/>
       <c r="E23" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="143"/>
+      <c r="F23" s="224"/>
       <c r="G23" s="85" t="s">
         <v>334</v>
       </c>
@@ -7338,14 +7327,14 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="150" t="s">
+      <c r="A24" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="153" t="s">
+      <c r="B24" s="250" t="s">
         <v>194</v>
       </c>
-      <c r="C24" s="153"/>
-      <c r="D24" s="117" t="s">
+      <c r="C24" s="250"/>
+      <c r="D24" s="183" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="76" t="s">
@@ -7362,18 +7351,18 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="151"/>
-      <c r="B25" s="140" t="s">
+      <c r="A25" s="248"/>
+      <c r="B25" s="221" t="s">
         <v>203</v>
       </c>
       <c r="C25" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="D25" s="118"/>
+      <c r="D25" s="184"/>
       <c r="E25" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="221" t="s">
         <v>254</v>
       </c>
       <c r="G25" s="79" t="s">
@@ -7387,16 +7376,16 @@
       </c>
     </row>
     <row r="26" spans="1:9" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="151"/>
-      <c r="B26" s="140"/>
+      <c r="A26" s="248"/>
+      <c r="B26" s="221"/>
       <c r="C26" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="D26" s="118"/>
+      <c r="D26" s="184"/>
       <c r="E26" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="F26" s="140"/>
+      <c r="F26" s="221"/>
       <c r="G26" s="79" t="s">
         <v>207</v>
       </c>
@@ -7408,16 +7397,16 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="151"/>
-      <c r="B27" s="140"/>
+      <c r="A27" s="248"/>
+      <c r="B27" s="221"/>
       <c r="C27" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="D27" s="118"/>
+      <c r="D27" s="184"/>
       <c r="E27" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="F27" s="140"/>
+      <c r="F27" s="221"/>
       <c r="G27" s="79" t="s">
         <v>192</v>
       </c>
@@ -7429,16 +7418,16 @@
       </c>
     </row>
     <row r="28" spans="1:9" s="82" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="152"/>
-      <c r="B28" s="141"/>
+      <c r="A28" s="249"/>
+      <c r="B28" s="222"/>
       <c r="C28" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="D28" s="139"/>
+      <c r="D28" s="220"/>
       <c r="E28" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="F28" s="141"/>
+      <c r="F28" s="222"/>
       <c r="G28" s="82" t="s">
         <v>189</v>
       </c>
@@ -7456,6 +7445,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="A2:B5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="A6:A23"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:B23"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="H3:H5"/>
@@ -7463,17 +7463,6 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="F8:F23"/>
-    <mergeCell ref="A2:B5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="A6:A23"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:B23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="F25:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7512,10 +7501,10 @@
       <c r="C1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="119"/>
+      <c r="E1" s="187"/>
       <c r="F1" s="91" t="s">
         <v>164</v>
       </c>
@@ -7530,14 +7519,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="235" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="155"/>
+      <c r="B2" s="236"/>
       <c r="C2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="189" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -7557,12 +7546,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="64" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="156"/>
-      <c r="B3" s="157"/>
+      <c r="A3" s="237"/>
+      <c r="B3" s="238"/>
       <c r="C3" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="125"/>
+      <c r="D3" s="190"/>
       <c r="E3" s="65" t="s">
         <v>216</v>
       </c>
@@ -7580,12 +7569,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="88" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="159"/>
-      <c r="B4" s="160"/>
+      <c r="A4" s="240"/>
+      <c r="B4" s="241"/>
       <c r="C4" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="127"/>
+      <c r="D4" s="192"/>
       <c r="E4" s="89" t="s">
         <v>215</v>
       </c>
@@ -7603,14 +7592,14 @@
       </c>
     </row>
     <row r="5" spans="1:9" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="255" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="173" t="s">
+      <c r="B5" s="258" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="173"/>
-      <c r="D5" s="176" t="s">
+      <c r="C5" s="258"/>
+      <c r="D5" s="253" t="s">
         <v>298</v>
       </c>
       <c r="E5" s="92" t="s">
@@ -7630,12 +7619,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="95" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="171"/>
-      <c r="B6" s="166" t="s">
+      <c r="A6" s="256"/>
+      <c r="B6" s="244" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="166"/>
-      <c r="D6" s="177"/>
+      <c r="C6" s="244"/>
+      <c r="D6" s="254"/>
       <c r="E6" s="94" t="s">
         <v>19</v>
       </c>
@@ -7653,14 +7642,14 @@
       </c>
     </row>
     <row r="7" spans="1:9" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="171"/>
-      <c r="B7" s="167" t="s">
+      <c r="A7" s="256"/>
+      <c r="B7" s="245" t="s">
         <v>182</v>
       </c>
       <c r="C7" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="174" t="s">
+      <c r="D7" s="251" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="71" t="s">
@@ -7680,12 +7669,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="171"/>
-      <c r="B8" s="167"/>
+      <c r="A8" s="256"/>
+      <c r="B8" s="245"/>
       <c r="C8" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="174"/>
+      <c r="D8" s="251"/>
       <c r="E8" s="68" t="s">
         <v>5</v>
       </c>
@@ -7703,12 +7692,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="171"/>
-      <c r="B9" s="167"/>
+      <c r="A9" s="256"/>
+      <c r="B9" s="245"/>
       <c r="C9" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="D9" s="174"/>
+      <c r="D9" s="251"/>
       <c r="E9" s="68" t="s">
         <v>5</v>
       </c>
@@ -7726,12 +7715,12 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="171"/>
-      <c r="B10" s="167"/>
+      <c r="A10" s="256"/>
+      <c r="B10" s="245"/>
       <c r="C10" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="174"/>
+      <c r="D10" s="251"/>
       <c r="E10" s="68" t="s">
         <v>5</v>
       </c>
@@ -7749,12 +7738,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="171"/>
-      <c r="B11" s="167"/>
+      <c r="A11" s="256"/>
+      <c r="B11" s="245"/>
       <c r="C11" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="174"/>
+      <c r="D11" s="251"/>
       <c r="E11" s="68" t="s">
         <v>5</v>
       </c>
@@ -7772,12 +7761,12 @@
       </c>
     </row>
     <row r="12" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="171"/>
-      <c r="B12" s="167"/>
+      <c r="A12" s="256"/>
+      <c r="B12" s="245"/>
       <c r="C12" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="174"/>
+      <c r="D12" s="251"/>
       <c r="E12" s="68" t="s">
         <v>5</v>
       </c>
@@ -7795,12 +7784,12 @@
       </c>
     </row>
     <row r="13" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="171"/>
-      <c r="B13" s="167"/>
+      <c r="A13" s="256"/>
+      <c r="B13" s="245"/>
       <c r="C13" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="D13" s="174"/>
+      <c r="D13" s="251"/>
       <c r="E13" s="68" t="s">
         <v>5</v>
       </c>
@@ -7818,12 +7807,12 @@
       </c>
     </row>
     <row r="14" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="171"/>
-      <c r="B14" s="167"/>
+      <c r="A14" s="256"/>
+      <c r="B14" s="245"/>
       <c r="C14" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="D14" s="174"/>
+      <c r="D14" s="251"/>
       <c r="E14" s="68" t="s">
         <v>5</v>
       </c>
@@ -7841,12 +7830,12 @@
       </c>
     </row>
     <row r="15" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="171"/>
-      <c r="B15" s="167"/>
+      <c r="A15" s="256"/>
+      <c r="B15" s="245"/>
       <c r="C15" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="D15" s="174"/>
+      <c r="D15" s="251"/>
       <c r="E15" s="68" t="s">
         <v>5</v>
       </c>
@@ -7864,12 +7853,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="171"/>
-      <c r="B16" s="167"/>
+      <c r="A16" s="256"/>
+      <c r="B16" s="245"/>
       <c r="C16" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="174"/>
+      <c r="D16" s="251"/>
       <c r="E16" s="68" t="s">
         <v>5</v>
       </c>
@@ -7887,12 +7876,12 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="171"/>
-      <c r="B17" s="167"/>
+      <c r="A17" s="256"/>
+      <c r="B17" s="245"/>
       <c r="C17" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="D17" s="174"/>
+      <c r="D17" s="251"/>
       <c r="E17" s="68" t="s">
         <v>5</v>
       </c>
@@ -7910,12 +7899,12 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="171"/>
-      <c r="B18" s="167"/>
+      <c r="A18" s="256"/>
+      <c r="B18" s="245"/>
       <c r="C18" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="D18" s="174"/>
+      <c r="D18" s="251"/>
       <c r="E18" s="68" t="s">
         <v>5</v>
       </c>
@@ -7933,12 +7922,12 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="171"/>
-      <c r="B19" s="167"/>
+      <c r="A19" s="256"/>
+      <c r="B19" s="245"/>
       <c r="C19" s="67" t="s">
         <v>234</v>
       </c>
-      <c r="D19" s="174"/>
+      <c r="D19" s="251"/>
       <c r="E19" s="68" t="s">
         <v>5</v>
       </c>
@@ -7956,12 +7945,12 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="171"/>
-      <c r="B20" s="167"/>
+      <c r="A20" s="256"/>
+      <c r="B20" s="245"/>
       <c r="C20" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="D20" s="174"/>
+      <c r="D20" s="251"/>
       <c r="E20" s="68" t="s">
         <v>5</v>
       </c>
@@ -7979,12 +7968,12 @@
       </c>
     </row>
     <row r="21" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="171"/>
-      <c r="B21" s="167"/>
+      <c r="A21" s="256"/>
+      <c r="B21" s="245"/>
       <c r="C21" s="67" t="s">
         <v>236</v>
       </c>
-      <c r="D21" s="174"/>
+      <c r="D21" s="251"/>
       <c r="E21" s="68" t="s">
         <v>5</v>
       </c>
@@ -8002,12 +7991,12 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="85" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="172"/>
-      <c r="B22" s="168"/>
+      <c r="A22" s="257"/>
+      <c r="B22" s="246"/>
       <c r="C22" s="85" t="s">
         <v>237</v>
       </c>
-      <c r="D22" s="175"/>
+      <c r="D22" s="252"/>
       <c r="E22" s="86" t="s">
         <v>5</v>
       </c>
@@ -8025,14 +8014,14 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="150" t="s">
+      <c r="A23" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="153" t="s">
+      <c r="B23" s="250" t="s">
         <v>194</v>
       </c>
-      <c r="C23" s="153"/>
-      <c r="D23" s="117" t="s">
+      <c r="C23" s="250"/>
+      <c r="D23" s="183" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="76" t="s">
@@ -8052,18 +8041,18 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="151"/>
-      <c r="B24" s="140" t="s">
+      <c r="A24" s="248"/>
+      <c r="B24" s="221" t="s">
         <v>203</v>
       </c>
       <c r="C24" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="D24" s="118"/>
+      <c r="D24" s="184"/>
       <c r="E24" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="F24" s="140" t="s">
+      <c r="F24" s="221" t="s">
         <v>254</v>
       </c>
       <c r="G24" s="79" t="s">
@@ -8077,16 +8066,16 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="151"/>
-      <c r="B25" s="140"/>
+      <c r="A25" s="248"/>
+      <c r="B25" s="221"/>
       <c r="C25" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="D25" s="118"/>
+      <c r="D25" s="184"/>
       <c r="E25" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="F25" s="140"/>
+      <c r="F25" s="221"/>
       <c r="G25" s="79" t="s">
         <v>207</v>
       </c>
@@ -8098,16 +8087,16 @@
       </c>
     </row>
     <row r="26" spans="1:9" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="151"/>
-      <c r="B26" s="140"/>
+      <c r="A26" s="248"/>
+      <c r="B26" s="221"/>
       <c r="C26" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="D26" s="118"/>
+      <c r="D26" s="184"/>
       <c r="E26" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="F26" s="140"/>
+      <c r="F26" s="221"/>
       <c r="G26" s="79" t="s">
         <v>192</v>
       </c>
@@ -8119,16 +8108,16 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="82" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="152"/>
-      <c r="B27" s="141"/>
+      <c r="A27" s="249"/>
+      <c r="B27" s="222"/>
       <c r="C27" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="D27" s="139"/>
+      <c r="D27" s="220"/>
       <c r="E27" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="F27" s="141"/>
+      <c r="F27" s="222"/>
       <c r="G27" s="82" t="s">
         <v>189</v>
       </c>
@@ -8146,6 +8135,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A5:A22"/>
+    <mergeCell ref="B7:B22"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="F24:F27"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D23:D27"/>
@@ -8154,12 +8149,6 @@
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A5:A22"/>
-    <mergeCell ref="B7:B22"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8213,10 +8202,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="259" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="259" t="s">
         <v>142</v>
       </c>
       <c r="C2" s="56" t="s">
@@ -8239,8 +8228,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="178"/>
-      <c r="B3" s="178"/>
+      <c r="A3" s="259"/>
+      <c r="B3" s="259"/>
       <c r="C3" s="56" t="s">
         <v>174</v>
       </c>
@@ -8263,7 +8252,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="178" t="s">
+      <c r="A5" s="259" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="56" t="s">
@@ -8271,7 +8260,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="178"/>
+      <c r="A6" s="259"/>
       <c r="H6" s="56" t="s">
         <v>181</v>
       </c>
@@ -8332,10 +8321,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="259" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="259" t="s">
         <v>166</v>
       </c>
       <c r="C2" s="56" t="s">
@@ -8347,7 +8336,7 @@
       <c r="E2" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="F2" s="178" t="s">
+      <c r="F2" s="259" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="56" t="s">
@@ -8361,8 +8350,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="178"/>
-      <c r="B3" s="178"/>
+      <c r="A3" s="259"/>
+      <c r="B3" s="259"/>
       <c r="C3" s="56" t="s">
         <v>172</v>
       </c>
@@ -8372,7 +8361,7 @@
       <c r="E3" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="F3" s="178"/>
+      <c r="F3" s="259"/>
       <c r="G3" s="56" t="s">
         <v>175</v>
       </c>
@@ -8430,7 +8419,7 @@
       <c r="A2" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="260" t="s">
         <v>141</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -8442,7 +8431,7 @@
       <c r="E2" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="181" t="s">
+      <c r="F2" s="262" t="s">
         <v>161</v>
       </c>
     </row>
@@ -8450,7 +8439,7 @@
       <c r="A3" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="180"/>
+      <c r="B3" s="261"/>
       <c r="C3" s="42" t="s">
         <v>143</v>
       </c>
@@ -8460,7 +8449,7 @@
       <c r="E3" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="182"/>
+      <c r="F3" s="263"/>
     </row>
     <row r="4" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
@@ -8469,7 +8458,7 @@
       <c r="B4" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="267" t="s">
         <v>76</v>
       </c>
       <c r="D4" s="40" t="s">
@@ -8489,7 +8478,7 @@
       <c r="B5" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="179"/>
+      <c r="C5" s="260"/>
       <c r="D5" s="43" t="s">
         <v>111</v>
       </c>
@@ -8507,7 +8496,7 @@
       <c r="B6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="179"/>
+      <c r="C6" s="260"/>
       <c r="D6" s="40" t="s">
         <v>16</v>
       </c>
@@ -8525,7 +8514,7 @@
       <c r="B7" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="179"/>
+      <c r="C7" s="260"/>
       <c r="D7" s="48" t="s">
         <v>5</v>
       </c>
@@ -8543,7 +8532,7 @@
       <c r="B8" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="179"/>
+      <c r="C8" s="260"/>
       <c r="D8" s="40" t="s">
         <v>121</v>
       </c>
@@ -8561,7 +8550,7 @@
       <c r="B9" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="179"/>
+      <c r="C9" s="260"/>
       <c r="D9" s="40" t="s">
         <v>107</v>
       </c>
@@ -8579,7 +8568,7 @@
       <c r="B10" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="179"/>
+      <c r="C10" s="260"/>
       <c r="D10" s="40" t="s">
         <v>107</v>
       </c>
@@ -8597,7 +8586,7 @@
       <c r="B11" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="179"/>
+      <c r="C11" s="260"/>
       <c r="D11" s="40" t="s">
         <v>107</v>
       </c>
@@ -8615,7 +8604,7 @@
       <c r="B12" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="179"/>
+      <c r="C12" s="260"/>
       <c r="D12" s="40" t="s">
         <v>107</v>
       </c>
@@ -8633,7 +8622,7 @@
       <c r="B13" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="179" t="s">
+      <c r="C13" s="260" t="s">
         <v>57</v>
       </c>
       <c r="D13" s="48" t="s">
@@ -8642,7 +8631,7 @@
       <c r="E13" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="183" t="s">
+      <c r="F13" s="264" t="s">
         <v>160</v>
       </c>
     </row>
@@ -8653,14 +8642,14 @@
       <c r="B14" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="185"/>
+      <c r="C14" s="266"/>
       <c r="D14" s="54" t="s">
         <v>96</v>
       </c>
       <c r="E14" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="184"/>
+      <c r="F14" s="265"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8714,7 +8703,7 @@
       <c r="A2" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="268" t="s">
         <v>141</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -8726,7 +8715,7 @@
       <c r="E2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="188" t="s">
+      <c r="F2" s="269" t="s">
         <v>138</v>
       </c>
     </row>
@@ -8734,7 +8723,7 @@
       <c r="A3" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="187"/>
+      <c r="B3" s="268"/>
       <c r="C3" s="9" t="s">
         <v>54</v>
       </c>
@@ -8744,13 +8733,13 @@
       <c r="E3" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="188"/>
+      <c r="F3" s="269"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="187"/>
+      <c r="B4" s="268"/>
       <c r="C4" s="9" t="s">
         <v>143</v>
       </c>
@@ -8771,7 +8760,7 @@
       <c r="B5" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="187" t="s">
+      <c r="C5" s="268" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -8791,7 +8780,7 @@
       <c r="B6" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="187"/>
+      <c r="C6" s="268"/>
       <c r="D6" s="10" t="s">
         <v>121</v>
       </c>
@@ -8809,7 +8798,7 @@
       <c r="B7" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="187"/>
+      <c r="C7" s="268"/>
       <c r="D7" s="10" t="s">
         <v>107</v>
       </c>
@@ -8827,7 +8816,7 @@
       <c r="B8" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="187"/>
+      <c r="C8" s="268"/>
       <c r="D8" s="10" t="s">
         <v>107</v>
       </c>
@@ -8845,7 +8834,7 @@
       <c r="B9" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="187"/>
+      <c r="C9" s="268"/>
       <c r="D9" s="10" t="s">
         <v>107</v>
       </c>
@@ -8863,7 +8852,7 @@
       <c r="B10" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="187"/>
+      <c r="C10" s="268"/>
       <c r="D10" s="10" t="s">
         <v>107</v>
       </c>
@@ -8881,7 +8870,7 @@
       <c r="B11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="187"/>
+      <c r="C11" s="268"/>
       <c r="D11" s="10" t="s">
         <v>111</v>
       </c>
@@ -8899,7 +8888,7 @@
       <c r="B12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="187"/>
+      <c r="C12" s="268"/>
       <c r="D12" s="10" t="s">
         <v>94</v>
       </c>
@@ -8917,7 +8906,7 @@
       <c r="B13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="187"/>
+      <c r="C13" s="268"/>
       <c r="D13" s="10" t="s">
         <v>96</v>
       </c>
@@ -8998,7 +8987,7 @@
       <c r="B3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="189" t="s">
+      <c r="C3" s="270" t="s">
         <v>57</v>
       </c>
       <c r="D3" s="6">
@@ -9018,7 +9007,7 @@
       <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="190"/>
+      <c r="C4" s="271"/>
       <c r="D4" s="3">
         <v>48</v>
       </c>
@@ -9033,7 +9022,7 @@
       <c r="B5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="190"/>
+      <c r="C5" s="271"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
@@ -9048,7 +9037,7 @@
       <c r="B6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="190"/>
+      <c r="C6" s="271"/>
       <c r="D6" s="3" t="s">
         <v>90</v>
       </c>
@@ -9063,7 +9052,7 @@
       <c r="B7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="190"/>
+      <c r="C7" s="271"/>
       <c r="D7" s="3" t="s">
         <v>87</v>
       </c>
@@ -9078,7 +9067,7 @@
       <c r="B8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="190"/>
+      <c r="C8" s="271"/>
       <c r="D8" s="3" t="s">
         <v>88</v>
       </c>
@@ -9093,7 +9082,7 @@
       <c r="B9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="191"/>
+      <c r="C9" s="272"/>
       <c r="D9" s="5" t="s">
         <v>88</v>
       </c>
@@ -9109,7 +9098,7 @@
       <c r="B10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="189" t="s">
+      <c r="C10" s="270" t="s">
         <v>76</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -9129,7 +9118,7 @@
       <c r="B11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="190"/>
+      <c r="C11" s="271"/>
       <c r="D11" s="3" t="s">
         <v>89</v>
       </c>
@@ -9144,7 +9133,7 @@
       <c r="B12" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="190"/>
+      <c r="C12" s="271"/>
       <c r="D12" s="3">
         <v>4</v>
       </c>
@@ -9159,7 +9148,7 @@
       <c r="B13" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="192"/>
+      <c r="C13" s="273"/>
       <c r="D13" s="31">
         <v>4</v>
       </c>
@@ -9439,7 +9428,7 @@
   <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9451,7 +9440,7 @@
     <col min="5" max="5" width="11.109375" style="58" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="58" customWidth="1"/>
     <col min="7" max="7" width="0.21875" style="58" customWidth="1"/>
-    <col min="8" max="8" width="107.109375" style="60" customWidth="1"/>
+    <col min="8" max="8" width="103.77734375" style="60" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="58"/>
   </cols>
   <sheetData>
@@ -9462,10 +9451,10 @@
       <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="119"/>
+      <c r="D1" s="187"/>
       <c r="E1" s="91" t="s">
         <v>164</v>
       </c>
@@ -9480,13 +9469,13 @@
       </c>
     </row>
     <row r="2" spans="1:33" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="188" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="189" t="s">
         <v>315</v>
       </c>
       <c r="D2" s="62" t="s">
@@ -9506,21 +9495,21 @@
       </c>
     </row>
     <row r="3" spans="1:33" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="112"/>
+      <c r="A3" s="178"/>
       <c r="B3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126" t="s">
+      <c r="C3" s="190"/>
+      <c r="D3" s="191" t="s">
         <v>385</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="177" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="177" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="111" t="s">
+      <c r="G3" s="177" t="s">
         <v>320</v>
       </c>
       <c r="H3" s="66" t="s">
@@ -9528,42 +9517,42 @@
       </c>
     </row>
     <row r="4" spans="1:33" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="112"/>
+      <c r="A4" s="178"/>
       <c r="B4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
       <c r="H4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:33" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="112"/>
+      <c r="A5" s="178"/>
       <c r="B5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
       <c r="H5" s="96" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="113"/>
+      <c r="A6" s="179"/>
       <c r="B6" s="92" t="s">
         <v>392</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="115"/>
+      <c r="D6" s="208"/>
       <c r="E6" s="93" t="s">
         <v>383</v>
       </c>
@@ -9571,17 +9560,17 @@
         <v>384</v>
       </c>
       <c r="H6" s="102" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="182" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>324</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="183" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="76" t="s">
@@ -9598,11 +9587,11 @@
       </c>
     </row>
     <row r="8" spans="1:33" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="117"/>
+      <c r="A8" s="183"/>
       <c r="B8" s="80" t="s">
         <v>381</v>
       </c>
-      <c r="C8" s="118"/>
+      <c r="C8" s="184"/>
       <c r="D8" s="80" t="s">
         <v>5</v>
       </c>
@@ -9619,47 +9608,47 @@
         <v>379</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="209" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="207"/>
-      <c r="B9" s="207"/>
-      <c r="C9" s="208"/>
-      <c r="D9" s="208"/>
-      <c r="E9" s="207"/>
-      <c r="F9" s="207"/>
+    <row r="9" spans="1:33" s="123" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="122"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
     </row>
     <row r="10" spans="1:33" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="186" t="s">
         <v>178</v>
       </c>
       <c r="B10" s="110" t="s">
         <v>367</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="205" t="s">
+      <c r="D10" s="120" t="s">
         <v>362</v>
       </c>
-      <c r="E10" s="121" t="s">
+      <c r="E10" s="186" t="s">
         <v>391</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>394</v>
       </c>
-      <c r="H10" s="206" t="s">
+      <c r="H10" s="121" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:33" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="121"/>
+      <c r="A11" s="186"/>
       <c r="B11" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C11" s="121"/>
+      <c r="C11" s="186"/>
       <c r="D11" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E11" s="121"/>
+      <c r="E11" s="186"/>
       <c r="F11" s="103" t="s">
         <v>395</v>
       </c>
@@ -9668,15 +9657,15 @@
       </c>
     </row>
     <row r="12" spans="1:33" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="121"/>
+      <c r="A12" s="186"/>
       <c r="B12" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="121"/>
+      <c r="C12" s="186"/>
       <c r="D12" s="68" t="s">
         <v>372</v>
       </c>
-      <c r="E12" s="121"/>
+      <c r="E12" s="186"/>
       <c r="F12" s="103" t="s">
         <v>396</v>
       </c>
@@ -9684,236 +9673,250 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="202" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="203"/>
-      <c r="H13" s="204"/>
-    </row>
-    <row r="14" spans="1:33" s="201" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="211" t="s">
+    <row r="13" spans="1:33" s="117" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="118"/>
+      <c r="H13" s="119"/>
+    </row>
+    <row r="14" spans="1:33" s="116" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="195" t="s">
         <v>392</v>
       </c>
-      <c r="B14" s="220" t="s">
+      <c r="B14" s="198" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="220" t="s">
+      <c r="C14" s="198" t="s">
         <v>393</v>
       </c>
-      <c r="D14" s="221" t="s">
+      <c r="D14" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="219" t="s">
+      <c r="E14" s="200" t="s">
         <v>167</v>
       </c>
-      <c r="F14" s="214" t="s">
+      <c r="F14" s="125" t="s">
         <v>398</v>
       </c>
       <c r="G14" s="109"/>
-      <c r="H14" s="200" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" s="239" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="212"/>
+      <c r="H14" s="115" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" s="144" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="196"/>
       <c r="B15" s="199"/>
       <c r="C15" s="199"/>
-      <c r="D15" s="234" t="s">
+      <c r="D15" s="139" t="s">
         <v>397</v>
       </c>
-      <c r="E15" s="195"/>
-      <c r="F15" s="235" t="s">
+      <c r="E15" s="201"/>
+      <c r="F15" s="140" t="s">
         <v>399</v>
       </c>
-      <c r="G15" s="236"/>
-      <c r="H15" s="237" t="s">
+      <c r="G15" s="141"/>
+      <c r="H15" s="142" t="s">
         <v>405</v>
       </c>
-      <c r="I15" s="238"/>
-      <c r="J15" s="238"/>
-      <c r="K15" s="238"/>
-      <c r="L15" s="238"/>
-      <c r="M15" s="238"/>
-      <c r="N15" s="238"/>
-      <c r="O15" s="238"/>
-      <c r="P15" s="238"/>
-      <c r="Q15" s="238"/>
-      <c r="R15" s="238"/>
-      <c r="S15" s="238"/>
-      <c r="T15" s="238"/>
-      <c r="U15" s="238"/>
-      <c r="V15" s="238"/>
-      <c r="W15" s="238"/>
-      <c r="X15" s="238"/>
-      <c r="Y15" s="238"/>
-      <c r="Z15" s="238"/>
-      <c r="AA15" s="238"/>
-      <c r="AB15" s="238"/>
-      <c r="AC15" s="238"/>
-      <c r="AD15" s="238"/>
-      <c r="AE15" s="238"/>
-      <c r="AF15" s="238"/>
-      <c r="AG15" s="238"/>
-    </row>
-    <row r="16" spans="1:33" s="198" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="212"/>
-      <c r="B16" s="223" t="s">
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="143"/>
+      <c r="S15" s="143"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="143"/>
+      <c r="V15" s="143"/>
+      <c r="W15" s="143"/>
+      <c r="X15" s="143"/>
+      <c r="Y15" s="143"/>
+      <c r="Z15" s="143"/>
+      <c r="AA15" s="143"/>
+      <c r="AB15" s="143"/>
+      <c r="AC15" s="143"/>
+      <c r="AD15" s="143"/>
+      <c r="AE15" s="143"/>
+      <c r="AF15" s="143"/>
+      <c r="AG15" s="143"/>
+    </row>
+    <row r="16" spans="1:33" s="114" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="196"/>
+      <c r="B16" s="203" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="225" t="s">
+      <c r="C16" s="205" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="210" t="s">
+      <c r="D16" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="195"/>
+      <c r="E16" s="201"/>
       <c r="F16" s="77" t="s">
         <v>403</v>
       </c>
-      <c r="G16" s="197"/>
+      <c r="G16" s="113"/>
       <c r="H16" s="78" t="s">
-        <v>419</v>
-      </c>
-      <c r="I16" s="215"/>
-      <c r="J16" s="216"/>
-      <c r="K16" s="216"/>
-      <c r="L16" s="216"/>
-      <c r="M16" s="216"/>
-      <c r="N16" s="216"/>
-      <c r="O16" s="216"/>
-      <c r="P16" s="216"/>
-      <c r="Q16" s="216"/>
-      <c r="R16" s="216"/>
-      <c r="S16" s="216"/>
-      <c r="T16" s="216"/>
-      <c r="U16" s="216"/>
-      <c r="V16" s="216"/>
-      <c r="W16" s="216"/>
-      <c r="X16" s="216"/>
-      <c r="Y16" s="216"/>
-      <c r="Z16" s="216"/>
-      <c r="AA16" s="216"/>
-      <c r="AB16" s="216"/>
-      <c r="AC16" s="216"/>
-      <c r="AD16" s="216"/>
-      <c r="AE16" s="216"/>
-      <c r="AF16" s="216"/>
-      <c r="AG16" s="216"/>
-    </row>
-    <row r="17" spans="1:41" s="233" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="212"/>
-      <c r="B17" s="224"/>
-      <c r="C17" s="226"/>
-      <c r="D17" s="227" t="s">
+        <v>418</v>
+      </c>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="127"/>
+      <c r="V16" s="127"/>
+      <c r="W16" s="127"/>
+      <c r="X16" s="127"/>
+      <c r="Y16" s="127"/>
+      <c r="Z16" s="127"/>
+      <c r="AA16" s="127"/>
+      <c r="AB16" s="127"/>
+      <c r="AC16" s="127"/>
+      <c r="AD16" s="127"/>
+      <c r="AE16" s="127"/>
+      <c r="AF16" s="127"/>
+      <c r="AG16" s="127"/>
+    </row>
+    <row r="17" spans="1:41" s="138" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="196"/>
+      <c r="B17" s="204"/>
+      <c r="C17" s="206"/>
+      <c r="D17" s="132" t="s">
         <v>401</v>
       </c>
-      <c r="E17" s="195"/>
-      <c r="F17" s="228" t="s">
+      <c r="E17" s="201"/>
+      <c r="F17" s="133" t="s">
         <v>404</v>
       </c>
-      <c r="G17" s="229"/>
-      <c r="H17" s="230" t="s">
+      <c r="G17" s="134"/>
+      <c r="H17" s="135" t="s">
         <v>406</v>
       </c>
-      <c r="I17" s="231"/>
-      <c r="J17" s="232"/>
-      <c r="K17" s="232"/>
-      <c r="L17" s="232"/>
-      <c r="M17" s="232"/>
-      <c r="N17" s="232"/>
-      <c r="O17" s="232"/>
-      <c r="P17" s="232"/>
-      <c r="Q17" s="232"/>
-      <c r="R17" s="232"/>
-      <c r="S17" s="232"/>
-      <c r="T17" s="232"/>
-      <c r="U17" s="232"/>
-      <c r="V17" s="232"/>
-      <c r="W17" s="232"/>
-      <c r="X17" s="232"/>
-      <c r="Y17" s="232"/>
-      <c r="Z17" s="232"/>
-      <c r="AA17" s="232"/>
-      <c r="AB17" s="232"/>
-      <c r="AC17" s="232"/>
-      <c r="AD17" s="232"/>
-      <c r="AE17" s="232"/>
-      <c r="AF17" s="232"/>
-      <c r="AG17" s="232"/>
-    </row>
-    <row r="18" spans="1:41" s="193" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="212"/>
-      <c r="B18" s="247" t="s">
+      <c r="I17" s="136"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="137"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="137"/>
+      <c r="R17" s="137"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="137"/>
+      <c r="U17" s="137"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="137"/>
+      <c r="Y17" s="137"/>
+      <c r="Z17" s="137"/>
+      <c r="AA17" s="137"/>
+      <c r="AB17" s="137"/>
+      <c r="AC17" s="137"/>
+      <c r="AD17" s="137"/>
+      <c r="AE17" s="137"/>
+      <c r="AF17" s="137"/>
+      <c r="AG17" s="137"/>
+    </row>
+    <row r="18" spans="1:41" s="111" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="196"/>
+      <c r="B18" s="173" t="s">
         <v>178</v>
       </c>
-      <c r="C18" s="245" t="s">
+      <c r="C18" s="175" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="250" t="s">
+      <c r="D18" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="195"/>
+      <c r="E18" s="201"/>
       <c r="F18" s="110" t="s">
         <v>410</v>
       </c>
       <c r="G18" s="70"/>
-      <c r="H18" s="206" t="s">
+      <c r="H18" s="121" t="s">
         <v>408</v>
       </c>
-      <c r="I18" s="249"/>
-      <c r="J18" s="249"/>
-      <c r="K18" s="249"/>
-      <c r="L18" s="249"/>
-      <c r="M18" s="249"/>
-      <c r="N18" s="249"/>
-      <c r="O18" s="249"/>
-      <c r="P18" s="249"/>
-      <c r="Q18" s="249"/>
-      <c r="R18" s="249"/>
-      <c r="S18" s="249"/>
-      <c r="T18" s="249"/>
-      <c r="U18" s="249"/>
-      <c r="V18" s="249"/>
-      <c r="W18" s="249"/>
-      <c r="X18" s="249"/>
-      <c r="Y18" s="249"/>
-      <c r="Z18" s="249"/>
-      <c r="AA18" s="249"/>
-      <c r="AB18" s="249"/>
-      <c r="AC18" s="249"/>
-      <c r="AD18" s="249"/>
-      <c r="AE18" s="249"/>
-      <c r="AF18" s="249"/>
-      <c r="AG18" s="249"/>
-      <c r="AH18" s="249"/>
-      <c r="AI18" s="249"/>
-      <c r="AJ18" s="249"/>
-      <c r="AK18" s="249"/>
-      <c r="AL18" s="249"/>
-      <c r="AM18" s="249"/>
-      <c r="AN18" s="249"/>
-      <c r="AO18" s="249"/>
-    </row>
-    <row r="19" spans="1:41" s="240" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="213"/>
-      <c r="B19" s="248"/>
-      <c r="C19" s="246"/>
-      <c r="D19" s="252" t="s">
+      <c r="I18" s="146"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="146"/>
+      <c r="N18" s="146"/>
+      <c r="O18" s="146"/>
+      <c r="P18" s="146"/>
+      <c r="Q18" s="146"/>
+      <c r="R18" s="146"/>
+      <c r="S18" s="146"/>
+      <c r="T18" s="146"/>
+      <c r="U18" s="146"/>
+      <c r="V18" s="146"/>
+      <c r="W18" s="146"/>
+      <c r="X18" s="146"/>
+      <c r="Y18" s="146"/>
+      <c r="Z18" s="146"/>
+      <c r="AA18" s="146"/>
+      <c r="AB18" s="146"/>
+      <c r="AC18" s="146"/>
+      <c r="AD18" s="146"/>
+      <c r="AE18" s="146"/>
+      <c r="AF18" s="146"/>
+      <c r="AG18" s="146"/>
+      <c r="AH18" s="146"/>
+      <c r="AI18" s="146"/>
+      <c r="AJ18" s="146"/>
+      <c r="AK18" s="146"/>
+      <c r="AL18" s="146"/>
+      <c r="AM18" s="146"/>
+      <c r="AN18" s="146"/>
+      <c r="AO18" s="146"/>
+    </row>
+    <row r="19" spans="1:41" s="145" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="197"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="149" t="s">
         <v>412</v>
       </c>
-      <c r="E19" s="196"/>
-      <c r="F19" s="253" t="s">
+      <c r="E19" s="202"/>
+      <c r="F19" s="150" t="s">
         <v>411</v>
       </c>
-      <c r="G19" s="254"/>
-      <c r="H19" s="255" t="s">
+      <c r="G19" s="151"/>
+      <c r="H19" s="152" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="20" spans="1:41" s="202" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="203"/>
-      <c r="H20" s="204"/>
+    <row r="20" spans="1:41" s="117" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="118"/>
+      <c r="H20" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F3:F5"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
@@ -9922,20 +9925,6 @@
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9959,7 +9948,7 @@
     <col min="5" max="5" width="11.109375" style="58" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="58" customWidth="1"/>
     <col min="7" max="7" width="0.21875" style="58" customWidth="1"/>
-    <col min="8" max="8" width="107.109375" style="60" customWidth="1"/>
+    <col min="8" max="8" width="104.5546875" style="60" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="58"/>
   </cols>
   <sheetData>
@@ -9970,10 +9959,10 @@
       <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="119"/>
+      <c r="D1" s="187"/>
       <c r="E1" s="91" t="s">
         <v>164</v>
       </c>
@@ -9988,13 +9977,13 @@
       </c>
     </row>
     <row r="2" spans="1:33" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="188" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="189" t="s">
         <v>315</v>
       </c>
       <c r="D2" s="62" t="s">
@@ -10014,21 +10003,21 @@
       </c>
     </row>
     <row r="3" spans="1:33" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="112"/>
+      <c r="A3" s="178"/>
       <c r="B3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126" t="s">
+      <c r="C3" s="190"/>
+      <c r="D3" s="191" t="s">
         <v>385</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="177" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="177" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="111" t="s">
+      <c r="G3" s="177" t="s">
         <v>320</v>
       </c>
       <c r="H3" s="66" t="s">
@@ -10036,42 +10025,42 @@
       </c>
     </row>
     <row r="4" spans="1:33" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="112"/>
+      <c r="A4" s="178"/>
       <c r="B4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
       <c r="H4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:33" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="112"/>
+      <c r="A5" s="178"/>
       <c r="B5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
       <c r="H5" s="96" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="113"/>
+      <c r="A6" s="179"/>
       <c r="B6" s="92" t="s">
         <v>392</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="115"/>
+      <c r="D6" s="208"/>
       <c r="E6" s="93" t="s">
         <v>383</v>
       </c>
@@ -10083,13 +10072,13 @@
       </c>
     </row>
     <row r="7" spans="1:33" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="182" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>324</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="183" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="76" t="s">
@@ -10106,11 +10095,11 @@
       </c>
     </row>
     <row r="8" spans="1:33" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="117"/>
+      <c r="A8" s="183"/>
       <c r="B8" s="80" t="s">
         <v>381</v>
       </c>
-      <c r="C8" s="118"/>
+      <c r="C8" s="184"/>
       <c r="D8" s="80" t="s">
         <v>5</v>
       </c>
@@ -10127,47 +10116,47 @@
         <v>379</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="209" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="207"/>
-      <c r="B9" s="207"/>
-      <c r="C9" s="208"/>
-      <c r="D9" s="208"/>
-      <c r="E9" s="207"/>
-      <c r="F9" s="207"/>
+    <row r="9" spans="1:33" s="123" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="122"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
     </row>
     <row r="10" spans="1:33" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="186" t="s">
         <v>178</v>
       </c>
       <c r="B10" s="110" t="s">
         <v>367</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="205" t="s">
+      <c r="D10" s="120" t="s">
         <v>362</v>
       </c>
-      <c r="E10" s="121" t="s">
+      <c r="E10" s="186" t="s">
         <v>391</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>394</v>
       </c>
-      <c r="H10" s="206" t="s">
+      <c r="H10" s="121" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:33" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="121"/>
+      <c r="A11" s="186"/>
       <c r="B11" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C11" s="121"/>
+      <c r="C11" s="186"/>
       <c r="D11" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E11" s="121"/>
+      <c r="E11" s="186"/>
       <c r="F11" s="103" t="s">
         <v>395</v>
       </c>
@@ -10176,15 +10165,15 @@
       </c>
     </row>
     <row r="12" spans="1:33" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="121"/>
+      <c r="A12" s="186"/>
       <c r="B12" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="121"/>
+      <c r="C12" s="186"/>
       <c r="D12" s="68" t="s">
         <v>372</v>
       </c>
-      <c r="E12" s="121"/>
+      <c r="E12" s="186"/>
       <c r="F12" s="103" t="s">
         <v>396</v>
       </c>
@@ -10192,222 +10181,222 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="202" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="203"/>
-      <c r="H13" s="204"/>
-    </row>
-    <row r="14" spans="1:33" s="201" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="211" t="s">
+    <row r="13" spans="1:33" s="117" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="118"/>
+      <c r="H13" s="119"/>
+    </row>
+    <row r="14" spans="1:33" s="116" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="195" t="s">
         <v>392</v>
       </c>
-      <c r="B14" s="220" t="s">
+      <c r="B14" s="198" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="220" t="s">
+      <c r="C14" s="198" t="s">
         <v>393</v>
       </c>
-      <c r="D14" s="221" t="s">
+      <c r="D14" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="219" t="s">
+      <c r="E14" s="200" t="s">
         <v>167</v>
       </c>
-      <c r="F14" s="214" t="s">
+      <c r="F14" s="125" t="s">
         <v>398</v>
       </c>
       <c r="G14" s="109"/>
-      <c r="H14" s="200" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" s="201" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="212"/>
+      <c r="H14" s="115" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" s="116" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="196"/>
       <c r="B15" s="199"/>
       <c r="C15" s="199"/>
-      <c r="D15" s="222" t="s">
+      <c r="D15" s="131" t="s">
         <v>397</v>
       </c>
-      <c r="E15" s="195"/>
-      <c r="F15" s="194" t="s">
+      <c r="E15" s="201"/>
+      <c r="F15" s="112" t="s">
         <v>399</v>
       </c>
       <c r="G15" s="109"/>
-      <c r="H15" s="217" t="s">
+      <c r="H15" s="128" t="s">
         <v>400</v>
       </c>
-      <c r="I15" s="218"/>
-      <c r="J15" s="218"/>
-      <c r="K15" s="218"/>
-      <c r="L15" s="218"/>
-      <c r="M15" s="218"/>
-      <c r="N15" s="218"/>
-      <c r="O15" s="218"/>
-      <c r="P15" s="218"/>
-      <c r="Q15" s="218"/>
-      <c r="R15" s="218"/>
-      <c r="S15" s="218"/>
-      <c r="T15" s="218"/>
-      <c r="U15" s="218"/>
-      <c r="V15" s="218"/>
-      <c r="W15" s="218"/>
-      <c r="X15" s="218"/>
-      <c r="Y15" s="218"/>
-      <c r="Z15" s="218"/>
-      <c r="AA15" s="218"/>
-      <c r="AB15" s="218"/>
-      <c r="AC15" s="218"/>
-      <c r="AD15" s="218"/>
-      <c r="AE15" s="218"/>
-      <c r="AF15" s="218"/>
-      <c r="AG15" s="218"/>
-    </row>
-    <row r="16" spans="1:33" s="198" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="212"/>
-      <c r="B16" s="223" t="s">
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="129"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="129"/>
+      <c r="V15" s="129"/>
+      <c r="W15" s="129"/>
+      <c r="X15" s="129"/>
+      <c r="Y15" s="129"/>
+      <c r="Z15" s="129"/>
+      <c r="AA15" s="129"/>
+      <c r="AB15" s="129"/>
+      <c r="AC15" s="129"/>
+      <c r="AD15" s="129"/>
+      <c r="AE15" s="129"/>
+      <c r="AF15" s="129"/>
+      <c r="AG15" s="129"/>
+    </row>
+    <row r="16" spans="1:33" s="114" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="196"/>
+      <c r="B16" s="203" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="225" t="s">
+      <c r="C16" s="205" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="210" t="s">
+      <c r="D16" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="195"/>
+      <c r="E16" s="201"/>
       <c r="F16" s="77" t="s">
         <v>403</v>
       </c>
-      <c r="G16" s="197"/>
+      <c r="G16" s="113"/>
       <c r="H16" s="78" t="s">
-        <v>419</v>
-      </c>
-      <c r="I16" s="215"/>
-      <c r="J16" s="216"/>
-      <c r="K16" s="216"/>
-      <c r="L16" s="216"/>
-      <c r="M16" s="216"/>
-      <c r="N16" s="216"/>
-      <c r="O16" s="216"/>
-      <c r="P16" s="216"/>
-      <c r="Q16" s="216"/>
-      <c r="R16" s="216"/>
-      <c r="S16" s="216"/>
-      <c r="T16" s="216"/>
-      <c r="U16" s="216"/>
-      <c r="V16" s="216"/>
-      <c r="W16" s="216"/>
-      <c r="X16" s="216"/>
-      <c r="Y16" s="216"/>
-      <c r="Z16" s="216"/>
-      <c r="AA16" s="216"/>
-      <c r="AB16" s="216"/>
-      <c r="AC16" s="216"/>
-      <c r="AD16" s="216"/>
-      <c r="AE16" s="216"/>
-      <c r="AF16" s="216"/>
-      <c r="AG16" s="216"/>
-    </row>
-    <row r="17" spans="1:41" s="198" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="212"/>
-      <c r="B17" s="224"/>
-      <c r="C17" s="226"/>
-      <c r="D17" s="210" t="s">
+        <v>418</v>
+      </c>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="127"/>
+      <c r="V16" s="127"/>
+      <c r="W16" s="127"/>
+      <c r="X16" s="127"/>
+      <c r="Y16" s="127"/>
+      <c r="Z16" s="127"/>
+      <c r="AA16" s="127"/>
+      <c r="AB16" s="127"/>
+      <c r="AC16" s="127"/>
+      <c r="AD16" s="127"/>
+      <c r="AE16" s="127"/>
+      <c r="AF16" s="127"/>
+      <c r="AG16" s="127"/>
+    </row>
+    <row r="17" spans="1:41" s="114" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="196"/>
+      <c r="B17" s="204"/>
+      <c r="C17" s="206"/>
+      <c r="D17" s="124" t="s">
         <v>401</v>
       </c>
-      <c r="E17" s="195"/>
+      <c r="E17" s="201"/>
       <c r="F17" s="77" t="s">
         <v>404</v>
       </c>
-      <c r="G17" s="197"/>
+      <c r="G17" s="113"/>
       <c r="H17" s="78" t="s">
         <v>402</v>
       </c>
-      <c r="I17" s="215"/>
-      <c r="J17" s="216"/>
-      <c r="K17" s="216"/>
-      <c r="L17" s="216"/>
-      <c r="M17" s="216"/>
-      <c r="N17" s="216"/>
-      <c r="O17" s="216"/>
-      <c r="P17" s="216"/>
-      <c r="Q17" s="216"/>
-      <c r="R17" s="216"/>
-      <c r="S17" s="216"/>
-      <c r="T17" s="216"/>
-      <c r="U17" s="216"/>
-      <c r="V17" s="216"/>
-      <c r="W17" s="216"/>
-      <c r="X17" s="216"/>
-      <c r="Y17" s="216"/>
-      <c r="Z17" s="216"/>
-      <c r="AA17" s="216"/>
-      <c r="AB17" s="216"/>
-      <c r="AC17" s="216"/>
-      <c r="AD17" s="216"/>
-      <c r="AE17" s="216"/>
-      <c r="AF17" s="216"/>
-      <c r="AG17" s="216"/>
-    </row>
-    <row r="18" spans="1:41" s="193" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="212"/>
-      <c r="B18" s="247" t="s">
+      <c r="I17" s="126"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="127"/>
+      <c r="U17" s="127"/>
+      <c r="V17" s="127"/>
+      <c r="W17" s="127"/>
+      <c r="X17" s="127"/>
+      <c r="Y17" s="127"/>
+      <c r="Z17" s="127"/>
+      <c r="AA17" s="127"/>
+      <c r="AB17" s="127"/>
+      <c r="AC17" s="127"/>
+      <c r="AD17" s="127"/>
+      <c r="AE17" s="127"/>
+      <c r="AF17" s="127"/>
+      <c r="AG17" s="127"/>
+    </row>
+    <row r="18" spans="1:41" s="111" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="196"/>
+      <c r="B18" s="173" t="s">
         <v>178</v>
       </c>
-      <c r="C18" s="245" t="s">
+      <c r="C18" s="175" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="250" t="s">
+      <c r="D18" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="195"/>
+      <c r="E18" s="201"/>
       <c r="F18" s="110" t="s">
         <v>410</v>
       </c>
       <c r="G18" s="70"/>
-      <c r="H18" s="206" t="s">
+      <c r="H18" s="121" t="s">
         <v>408</v>
       </c>
-      <c r="I18" s="249"/>
-      <c r="J18" s="249"/>
-      <c r="K18" s="249"/>
-      <c r="L18" s="249"/>
-      <c r="M18" s="249"/>
-      <c r="N18" s="249"/>
-      <c r="O18" s="249"/>
-      <c r="P18" s="249"/>
-      <c r="Q18" s="249"/>
-      <c r="R18" s="249"/>
-      <c r="S18" s="249"/>
-      <c r="T18" s="249"/>
-      <c r="U18" s="249"/>
-      <c r="V18" s="249"/>
-      <c r="W18" s="249"/>
-      <c r="X18" s="249"/>
-      <c r="Y18" s="249"/>
-      <c r="Z18" s="249"/>
-      <c r="AA18" s="249"/>
-      <c r="AB18" s="249"/>
-      <c r="AC18" s="249"/>
-      <c r="AD18" s="249"/>
-      <c r="AE18" s="249"/>
-      <c r="AF18" s="249"/>
-      <c r="AG18" s="249"/>
-      <c r="AH18" s="249"/>
-      <c r="AI18" s="249"/>
-      <c r="AJ18" s="249"/>
-      <c r="AK18" s="249"/>
-      <c r="AL18" s="249"/>
-      <c r="AM18" s="249"/>
-      <c r="AN18" s="249"/>
-      <c r="AO18" s="249"/>
-    </row>
-    <row r="19" spans="1:41" s="193" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="213"/>
-      <c r="B19" s="248"/>
-      <c r="C19" s="246"/>
-      <c r="D19" s="251" t="s">
+      <c r="I18" s="146"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="146"/>
+      <c r="N18" s="146"/>
+      <c r="O18" s="146"/>
+      <c r="P18" s="146"/>
+      <c r="Q18" s="146"/>
+      <c r="R18" s="146"/>
+      <c r="S18" s="146"/>
+      <c r="T18" s="146"/>
+      <c r="U18" s="146"/>
+      <c r="V18" s="146"/>
+      <c r="W18" s="146"/>
+      <c r="X18" s="146"/>
+      <c r="Y18" s="146"/>
+      <c r="Z18" s="146"/>
+      <c r="AA18" s="146"/>
+      <c r="AB18" s="146"/>
+      <c r="AC18" s="146"/>
+      <c r="AD18" s="146"/>
+      <c r="AE18" s="146"/>
+      <c r="AF18" s="146"/>
+      <c r="AG18" s="146"/>
+      <c r="AH18" s="146"/>
+      <c r="AI18" s="146"/>
+      <c r="AJ18" s="146"/>
+      <c r="AK18" s="146"/>
+      <c r="AL18" s="146"/>
+      <c r="AM18" s="146"/>
+      <c r="AN18" s="146"/>
+      <c r="AO18" s="146"/>
+    </row>
+    <row r="19" spans="1:41" s="111" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="197"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="148" t="s">
         <v>412</v>
       </c>
-      <c r="E19" s="196"/>
+      <c r="E19" s="202"/>
       <c r="F19" s="103" t="s">
         <v>411</v>
       </c>
@@ -10416,17 +10405,17 @@
         <v>409</v>
       </c>
     </row>
-    <row r="20" spans="1:41" s="202" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="203"/>
-      <c r="H20" s="204"/>
+    <row r="20" spans="1:41" s="117" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="118"/>
+      <c r="H20" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="A14:A19"/>
@@ -10439,11 +10428,11 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F3:F5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10478,10 +10467,10 @@
       <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="119"/>
+      <c r="D1" s="187"/>
       <c r="E1" s="91" t="s">
         <v>164</v>
       </c>
@@ -10496,13 +10485,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="188" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="189" t="s">
         <v>315</v>
       </c>
       <c r="D2" s="62" t="s">
@@ -10522,21 +10511,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="112"/>
+      <c r="A3" s="178"/>
       <c r="B3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126" t="s">
+      <c r="C3" s="190"/>
+      <c r="D3" s="191" t="s">
         <v>385</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="177" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="177" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="111" t="s">
+      <c r="G3" s="177" t="s">
         <v>320</v>
       </c>
       <c r="H3" s="66" t="s">
@@ -10544,42 +10533,42 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="112"/>
+      <c r="A4" s="178"/>
       <c r="B4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
       <c r="H4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="112"/>
+      <c r="A5" s="178"/>
       <c r="B5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
       <c r="H5" s="96" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="113"/>
+      <c r="A6" s="179"/>
       <c r="B6" s="92" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="115"/>
+      <c r="D6" s="208"/>
       <c r="E6" s="93" t="s">
         <v>383</v>
       </c>
@@ -10591,13 +10580,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="182" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>324</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="183" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="76" t="s">
@@ -10614,11 +10603,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="117"/>
+      <c r="A8" s="183"/>
       <c r="B8" s="80" t="s">
         <v>381</v>
       </c>
-      <c r="C8" s="118"/>
+      <c r="C8" s="184"/>
       <c r="D8" s="80" t="s">
         <v>5</v>
       </c>
@@ -10636,23 +10625,23 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="91" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="187"/>
     </row>
     <row r="10" spans="1:8" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="209" t="s">
         <v>178</v>
       </c>
       <c r="B10" s="103" t="s">
         <v>367</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="210" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E10" s="122" t="s">
+      <c r="E10" s="210" t="s">
         <v>391</v>
       </c>
       <c r="F10" s="103" t="s">
@@ -10663,15 +10652,15 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="121"/>
+      <c r="A11" s="186"/>
       <c r="B11" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C11" s="121"/>
+      <c r="C11" s="186"/>
       <c r="D11" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E11" s="121"/>
+      <c r="E11" s="186"/>
       <c r="F11" s="103" t="s">
         <v>387</v>
       </c>
@@ -10680,15 +10669,15 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="121"/>
+      <c r="A12" s="186"/>
       <c r="B12" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="121"/>
+      <c r="C12" s="186"/>
       <c r="D12" s="68" t="s">
         <v>372</v>
       </c>
-      <c r="E12" s="121"/>
+      <c r="E12" s="186"/>
       <c r="F12" s="103" t="s">
         <v>388</v>
       </c>
@@ -10698,11 +10687,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:D9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="E10:E12"/>
@@ -10711,6 +10695,11 @@
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:E5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="F3:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10741,7 +10730,7 @@
         <f t="shared" ref="B1:B64" si="0">DEC2HEX(A1)</f>
         <v>0</v>
       </c>
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="211" t="s">
         <v>141</v>
       </c>
     </row>
@@ -10754,7 +10743,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C2" s="130"/>
+      <c r="C2" s="211"/>
     </row>
     <row r="3" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="108">
@@ -10765,7 +10754,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C3" s="130"/>
+      <c r="C3" s="211"/>
     </row>
     <row r="4" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="108">
@@ -10776,7 +10765,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C4" s="130"/>
+      <c r="C4" s="211"/>
     </row>
     <row r="5" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="108">
@@ -10787,7 +10776,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C5" s="130"/>
+      <c r="C5" s="211"/>
     </row>
     <row r="6" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="108">
@@ -10798,7 +10787,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C6" s="130"/>
+      <c r="C6" s="211"/>
     </row>
     <row r="7" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="108">
@@ -10809,7 +10798,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C7" s="130"/>
+      <c r="C7" s="211"/>
     </row>
     <row r="8" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="108">
@@ -10820,7 +10809,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C8" s="130"/>
+      <c r="C8" s="211"/>
     </row>
     <row r="9" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="108">
@@ -10831,7 +10820,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C9" s="130"/>
+      <c r="C9" s="211"/>
     </row>
     <row r="10" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="108">
@@ -10842,7 +10831,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C10" s="130"/>
+      <c r="C10" s="211"/>
     </row>
     <row r="11" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="108">
@@ -10853,7 +10842,7 @@
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="C11" s="130"/>
+      <c r="C11" s="211"/>
     </row>
     <row r="12" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="108">
@@ -10864,7 +10853,7 @@
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="C12" s="130"/>
+      <c r="C12" s="211"/>
     </row>
     <row r="13" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="108">
@@ -10875,7 +10864,7 @@
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="C13" s="130"/>
+      <c r="C13" s="211"/>
     </row>
     <row r="14" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="108">
@@ -10886,7 +10875,7 @@
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="C14" s="130"/>
+      <c r="C14" s="211"/>
     </row>
     <row r="15" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="108">
@@ -10897,7 +10886,7 @@
         <f t="shared" si="0"/>
         <v>E</v>
       </c>
-      <c r="C15" s="130"/>
+      <c r="C15" s="211"/>
     </row>
     <row r="16" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="108">
@@ -10908,7 +10897,7 @@
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="C16" s="130"/>
+      <c r="C16" s="211"/>
     </row>
     <row r="17" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="108">
@@ -10919,7 +10908,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C17" s="130"/>
+      <c r="C17" s="211"/>
     </row>
     <row r="18" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="108">
@@ -10930,7 +10919,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C18" s="130"/>
+      <c r="C18" s="211"/>
     </row>
     <row r="19" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="108">
@@ -10941,7 +10930,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C19" s="130"/>
+      <c r="C19" s="211"/>
     </row>
     <row r="20" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="108">
@@ -10952,7 +10941,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C20" s="130"/>
+      <c r="C20" s="211"/>
     </row>
     <row r="21" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="108">
@@ -10963,7 +10952,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C21" s="130"/>
+      <c r="C21" s="211"/>
     </row>
     <row r="22" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="108">
@@ -10974,7 +10963,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C22" s="130"/>
+      <c r="C22" s="211"/>
     </row>
     <row r="23" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="108">
@@ -10985,7 +10974,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C23" s="130"/>
+      <c r="C23" s="211"/>
     </row>
     <row r="24" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="108">
@@ -10996,7 +10985,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C24" s="130"/>
+      <c r="C24" s="211"/>
     </row>
     <row r="25" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="108">
@@ -11007,7 +10996,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C25" s="130"/>
+      <c r="C25" s="211"/>
     </row>
     <row r="26" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="108">
@@ -11018,7 +11007,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C26" s="130"/>
+      <c r="C26" s="211"/>
     </row>
     <row r="27" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="108">
@@ -11029,7 +11018,7 @@
         <f t="shared" si="0"/>
         <v>1A</v>
       </c>
-      <c r="C27" s="130"/>
+      <c r="C27" s="211"/>
     </row>
     <row r="28" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="108">
@@ -11040,7 +11029,7 @@
         <f t="shared" si="0"/>
         <v>1B</v>
       </c>
-      <c r="C28" s="130"/>
+      <c r="C28" s="211"/>
     </row>
     <row r="29" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="108">
@@ -11051,7 +11040,7 @@
         <f t="shared" si="0"/>
         <v>1C</v>
       </c>
-      <c r="C29" s="130"/>
+      <c r="C29" s="211"/>
     </row>
     <row r="30" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="108">
@@ -11062,7 +11051,7 @@
         <f t="shared" si="0"/>
         <v>1D</v>
       </c>
-      <c r="C30" s="130"/>
+      <c r="C30" s="211"/>
     </row>
     <row r="31" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="108">
@@ -11073,7 +11062,7 @@
         <f t="shared" si="0"/>
         <v>1E</v>
       </c>
-      <c r="C31" s="130"/>
+      <c r="C31" s="211"/>
     </row>
     <row r="32" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="108">
@@ -11084,7 +11073,7 @@
         <f t="shared" si="0"/>
         <v>1F</v>
       </c>
-      <c r="C32" s="130"/>
+      <c r="C32" s="211"/>
     </row>
     <row r="33" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="108">
@@ -11095,7 +11084,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C33" s="130"/>
+      <c r="C33" s="211"/>
     </row>
     <row r="34" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="108">
@@ -11106,7 +11095,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C34" s="130"/>
+      <c r="C34" s="211"/>
     </row>
     <row r="35" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="108">
@@ -11117,7 +11106,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C35" s="130"/>
+      <c r="C35" s="211"/>
     </row>
     <row r="36" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="108">
@@ -11128,7 +11117,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C36" s="130"/>
+      <c r="C36" s="211"/>
     </row>
     <row r="37" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="108">
@@ -11139,7 +11128,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C37" s="130"/>
+      <c r="C37" s="211"/>
     </row>
     <row r="38" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="108">
@@ -11150,7 +11139,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C38" s="130"/>
+      <c r="C38" s="211"/>
     </row>
     <row r="39" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="108">
@@ -11161,7 +11150,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C39" s="130"/>
+      <c r="C39" s="211"/>
     </row>
     <row r="40" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="108">
@@ -11172,7 +11161,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C40" s="130"/>
+      <c r="C40" s="211"/>
     </row>
     <row r="41" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="108">
@@ -11183,7 +11172,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C41" s="130"/>
+      <c r="C41" s="211"/>
     </row>
     <row r="42" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="108">
@@ -11194,7 +11183,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C42" s="130"/>
+      <c r="C42" s="211"/>
     </row>
     <row r="43" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="108">
@@ -11205,7 +11194,7 @@
         <f t="shared" si="0"/>
         <v>2A</v>
       </c>
-      <c r="C43" s="130"/>
+      <c r="C43" s="211"/>
     </row>
     <row r="44" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="108">
@@ -11216,7 +11205,7 @@
         <f t="shared" si="0"/>
         <v>2B</v>
       </c>
-      <c r="C44" s="130"/>
+      <c r="C44" s="211"/>
     </row>
     <row r="45" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="108">
@@ -11227,7 +11216,7 @@
         <f t="shared" si="0"/>
         <v>2C</v>
       </c>
-      <c r="C45" s="130"/>
+      <c r="C45" s="211"/>
     </row>
     <row r="46" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="108">
@@ -11238,7 +11227,7 @@
         <f t="shared" si="0"/>
         <v>2D</v>
       </c>
-      <c r="C46" s="130"/>
+      <c r="C46" s="211"/>
     </row>
     <row r="47" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="108">
@@ -11249,7 +11238,7 @@
         <f t="shared" si="0"/>
         <v>2E</v>
       </c>
-      <c r="C47" s="130"/>
+      <c r="C47" s="211"/>
     </row>
     <row r="48" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="108">
@@ -11260,7 +11249,7 @@
         <f t="shared" si="0"/>
         <v>2F</v>
       </c>
-      <c r="C48" s="130"/>
+      <c r="C48" s="211"/>
     </row>
     <row r="49" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="108">
@@ -11271,7 +11260,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C49" s="130"/>
+      <c r="C49" s="211"/>
     </row>
     <row r="50" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="108">
@@ -11282,7 +11271,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C50" s="130"/>
+      <c r="C50" s="211"/>
     </row>
     <row r="51" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="108">
@@ -11293,7 +11282,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C51" s="130"/>
+      <c r="C51" s="211"/>
     </row>
     <row r="52" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="108">
@@ -11304,7 +11293,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C52" s="130"/>
+      <c r="C52" s="211"/>
     </row>
     <row r="53" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="108">
@@ -11315,7 +11304,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C53" s="130"/>
+      <c r="C53" s="211"/>
     </row>
     <row r="54" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="108">
@@ -11326,7 +11315,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C54" s="130"/>
+      <c r="C54" s="211"/>
     </row>
     <row r="55" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="108">
@@ -11337,7 +11326,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C55" s="130"/>
+      <c r="C55" s="211"/>
     </row>
     <row r="56" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="108">
@@ -11348,7 +11337,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C56" s="130"/>
+      <c r="C56" s="211"/>
     </row>
     <row r="57" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="108">
@@ -11359,7 +11348,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C57" s="130"/>
+      <c r="C57" s="211"/>
     </row>
     <row r="58" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="108">
@@ -11370,7 +11359,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C58" s="130"/>
+      <c r="C58" s="211"/>
     </row>
     <row r="59" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="108">
@@ -11381,7 +11370,7 @@
         <f t="shared" si="0"/>
         <v>3A</v>
       </c>
-      <c r="C59" s="130"/>
+      <c r="C59" s="211"/>
     </row>
     <row r="60" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="108">
@@ -11392,7 +11381,7 @@
         <f t="shared" si="0"/>
         <v>3B</v>
       </c>
-      <c r="C60" s="130"/>
+      <c r="C60" s="211"/>
     </row>
     <row r="61" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="108">
@@ -11403,7 +11392,7 @@
         <f t="shared" si="0"/>
         <v>3C</v>
       </c>
-      <c r="C61" s="130"/>
+      <c r="C61" s="211"/>
     </row>
     <row r="62" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="108">
@@ -11414,7 +11403,7 @@
         <f t="shared" si="0"/>
         <v>3D</v>
       </c>
-      <c r="C62" s="130"/>
+      <c r="C62" s="211"/>
     </row>
     <row r="63" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="108">
@@ -11425,7 +11414,7 @@
         <f t="shared" si="0"/>
         <v>3E</v>
       </c>
-      <c r="C63" s="130"/>
+      <c r="C63" s="211"/>
     </row>
     <row r="64" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="108">
@@ -11436,7 +11425,7 @@
         <f t="shared" si="0"/>
         <v>3F</v>
       </c>
-      <c r="C64" s="130"/>
+      <c r="C64" s="211"/>
     </row>
     <row r="65" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="108">
@@ -11447,7 +11436,7 @@
         <f t="shared" ref="B65:B128" si="2">DEC2HEX(A65)</f>
         <v>40</v>
       </c>
-      <c r="C65" s="130"/>
+      <c r="C65" s="211"/>
     </row>
     <row r="66" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="108">
@@ -11458,7 +11447,7 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="C66" s="130"/>
+      <c r="C66" s="211"/>
     </row>
     <row r="67" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="108">
@@ -11469,7 +11458,7 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="C67" s="130"/>
+      <c r="C67" s="211"/>
     </row>
     <row r="68" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="108">
@@ -11480,7 +11469,7 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="C68" s="130"/>
+      <c r="C68" s="211"/>
     </row>
     <row r="69" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="108">
@@ -11491,7 +11480,7 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="C69" s="130"/>
+      <c r="C69" s="211"/>
     </row>
     <row r="70" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="108">
@@ -11502,7 +11491,7 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="C70" s="130"/>
+      <c r="C70" s="211"/>
     </row>
     <row r="71" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="108">
@@ -11513,7 +11502,7 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="C71" s="130"/>
+      <c r="C71" s="211"/>
     </row>
     <row r="72" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="108">
@@ -11524,7 +11513,7 @@
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="C72" s="130"/>
+      <c r="C72" s="211"/>
     </row>
     <row r="73" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="108">
@@ -11535,7 +11524,7 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="C73" s="130"/>
+      <c r="C73" s="211"/>
     </row>
     <row r="74" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="108">
@@ -11546,7 +11535,7 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="C74" s="130"/>
+      <c r="C74" s="211"/>
     </row>
     <row r="75" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="108">
@@ -11557,7 +11546,7 @@
         <f t="shared" si="2"/>
         <v>4A</v>
       </c>
-      <c r="C75" s="130"/>
+      <c r="C75" s="211"/>
     </row>
     <row r="76" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="108">
@@ -11568,7 +11557,7 @@
         <f t="shared" si="2"/>
         <v>4B</v>
       </c>
-      <c r="C76" s="130"/>
+      <c r="C76" s="211"/>
     </row>
     <row r="77" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="108">
@@ -11579,7 +11568,7 @@
         <f t="shared" si="2"/>
         <v>4C</v>
       </c>
-      <c r="C77" s="130"/>
+      <c r="C77" s="211"/>
     </row>
     <row r="78" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="108">
@@ -11590,7 +11579,7 @@
         <f t="shared" si="2"/>
         <v>4D</v>
       </c>
-      <c r="C78" s="130"/>
+      <c r="C78" s="211"/>
     </row>
     <row r="79" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="108">
@@ -11601,7 +11590,7 @@
         <f t="shared" si="2"/>
         <v>4E</v>
       </c>
-      <c r="C79" s="130"/>
+      <c r="C79" s="211"/>
     </row>
     <row r="80" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="108">
@@ -11612,7 +11601,7 @@
         <f t="shared" si="2"/>
         <v>4F</v>
       </c>
-      <c r="C80" s="130"/>
+      <c r="C80" s="211"/>
     </row>
     <row r="81" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="108">
@@ -11623,7 +11612,7 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="C81" s="130"/>
+      <c r="C81" s="211"/>
     </row>
     <row r="82" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="108">
@@ -11634,7 +11623,7 @@
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="C82" s="130"/>
+      <c r="C82" s="211"/>
     </row>
     <row r="83" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="108">
@@ -11645,7 +11634,7 @@
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="C83" s="130"/>
+      <c r="C83" s="211"/>
     </row>
     <row r="84" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="108">
@@ -11656,7 +11645,7 @@
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="C84" s="130"/>
+      <c r="C84" s="211"/>
     </row>
     <row r="85" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="108">
@@ -11667,7 +11656,7 @@
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="C85" s="130"/>
+      <c r="C85" s="211"/>
     </row>
     <row r="86" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="108">
@@ -11678,7 +11667,7 @@
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="C86" s="130"/>
+      <c r="C86" s="211"/>
     </row>
     <row r="87" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="108">
@@ -11689,7 +11678,7 @@
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="C87" s="130"/>
+      <c r="C87" s="211"/>
     </row>
     <row r="88" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="108">
@@ -11700,7 +11689,7 @@
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="C88" s="130"/>
+      <c r="C88" s="211"/>
     </row>
     <row r="89" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="108">
@@ -11711,7 +11700,7 @@
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="C89" s="130"/>
+      <c r="C89" s="211"/>
     </row>
     <row r="90" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="108">
@@ -11722,7 +11711,7 @@
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="C90" s="130"/>
+      <c r="C90" s="211"/>
     </row>
     <row r="91" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="108">
@@ -11733,7 +11722,7 @@
         <f t="shared" si="2"/>
         <v>5A</v>
       </c>
-      <c r="C91" s="130"/>
+      <c r="C91" s="211"/>
     </row>
     <row r="92" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="108">
@@ -11744,7 +11733,7 @@
         <f t="shared" si="2"/>
         <v>5B</v>
       </c>
-      <c r="C92" s="130"/>
+      <c r="C92" s="211"/>
     </row>
     <row r="93" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="108">
@@ -11755,7 +11744,7 @@
         <f t="shared" si="2"/>
         <v>5C</v>
       </c>
-      <c r="C93" s="130"/>
+      <c r="C93" s="211"/>
     </row>
     <row r="94" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="108">
@@ -11766,7 +11755,7 @@
         <f t="shared" si="2"/>
         <v>5D</v>
       </c>
-      <c r="C94" s="130"/>
+      <c r="C94" s="211"/>
     </row>
     <row r="95" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="108">
@@ -11777,7 +11766,7 @@
         <f t="shared" si="2"/>
         <v>5E</v>
       </c>
-      <c r="C95" s="130"/>
+      <c r="C95" s="211"/>
     </row>
     <row r="96" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="108">
@@ -11788,7 +11777,7 @@
         <f t="shared" si="2"/>
         <v>5F</v>
       </c>
-      <c r="C96" s="130"/>
+      <c r="C96" s="211"/>
     </row>
     <row r="97" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="108">
@@ -11799,7 +11788,7 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="C97" s="130"/>
+      <c r="C97" s="211"/>
     </row>
     <row r="98" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="108">
@@ -11810,7 +11799,7 @@
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="C98" s="130"/>
+      <c r="C98" s="211"/>
     </row>
     <row r="99" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="108">
@@ -11821,7 +11810,7 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="C99" s="130"/>
+      <c r="C99" s="211"/>
     </row>
     <row r="100" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="108">
@@ -11832,7 +11821,7 @@
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="C100" s="130"/>
+      <c r="C100" s="211"/>
     </row>
     <row r="101" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="108">
@@ -11843,7 +11832,7 @@
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="C101" s="130"/>
+      <c r="C101" s="211"/>
     </row>
     <row r="102" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="108">
@@ -11854,7 +11843,7 @@
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="C102" s="130"/>
+      <c r="C102" s="211"/>
     </row>
     <row r="103" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="108">
@@ -11865,7 +11854,7 @@
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="C103" s="130"/>
+      <c r="C103" s="211"/>
     </row>
     <row r="104" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="108">
@@ -11876,7 +11865,7 @@
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="C104" s="130"/>
+      <c r="C104" s="211"/>
     </row>
     <row r="105" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="108">
@@ -11887,7 +11876,7 @@
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="C105" s="130"/>
+      <c r="C105" s="211"/>
     </row>
     <row r="106" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="108">
@@ -11898,7 +11887,7 @@
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="C106" s="130"/>
+      <c r="C106" s="211"/>
     </row>
     <row r="107" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="108">
@@ -11909,7 +11898,7 @@
         <f t="shared" si="2"/>
         <v>6A</v>
       </c>
-      <c r="C107" s="130"/>
+      <c r="C107" s="211"/>
     </row>
     <row r="108" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="108">
@@ -11920,7 +11909,7 @@
         <f t="shared" si="2"/>
         <v>6B</v>
       </c>
-      <c r="C108" s="130"/>
+      <c r="C108" s="211"/>
     </row>
     <row r="109" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="108">
@@ -11931,7 +11920,7 @@
         <f t="shared" si="2"/>
         <v>6C</v>
       </c>
-      <c r="C109" s="130"/>
+      <c r="C109" s="211"/>
     </row>
     <row r="110" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="108">
@@ -11942,7 +11931,7 @@
         <f t="shared" si="2"/>
         <v>6D</v>
       </c>
-      <c r="C110" s="130"/>
+      <c r="C110" s="211"/>
     </row>
     <row r="111" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="108">
@@ -11953,7 +11942,7 @@
         <f t="shared" si="2"/>
         <v>6E</v>
       </c>
-      <c r="C111" s="130"/>
+      <c r="C111" s="211"/>
     </row>
     <row r="112" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="108">
@@ -11964,7 +11953,7 @@
         <f t="shared" si="2"/>
         <v>6F</v>
       </c>
-      <c r="C112" s="130"/>
+      <c r="C112" s="211"/>
     </row>
     <row r="113" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="108">
@@ -11975,7 +11964,7 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="C113" s="130"/>
+      <c r="C113" s="211"/>
     </row>
     <row r="114" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="108">
@@ -11986,7 +11975,7 @@
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="C114" s="130"/>
+      <c r="C114" s="211"/>
     </row>
     <row r="115" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="108">
@@ -11997,7 +11986,7 @@
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="C115" s="130"/>
+      <c r="C115" s="211"/>
     </row>
     <row r="116" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="108">
@@ -12008,7 +11997,7 @@
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="C116" s="130"/>
+      <c r="C116" s="211"/>
     </row>
     <row r="117" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="108">
@@ -12019,7 +12008,7 @@
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="C117" s="130"/>
+      <c r="C117" s="211"/>
     </row>
     <row r="118" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="108">
@@ -12030,7 +12019,7 @@
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="C118" s="130"/>
+      <c r="C118" s="211"/>
     </row>
     <row r="119" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="108">
@@ -12041,7 +12030,7 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="C119" s="130"/>
+      <c r="C119" s="211"/>
     </row>
     <row r="120" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="108">
@@ -12052,7 +12041,7 @@
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="C120" s="130"/>
+      <c r="C120" s="211"/>
     </row>
     <row r="121" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="108">
@@ -12063,7 +12052,7 @@
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="C121" s="130"/>
+      <c r="C121" s="211"/>
     </row>
     <row r="122" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="108">
@@ -12074,7 +12063,7 @@
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="C122" s="130"/>
+      <c r="C122" s="211"/>
     </row>
     <row r="123" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="108">
@@ -12085,7 +12074,7 @@
         <f t="shared" si="2"/>
         <v>7A</v>
       </c>
-      <c r="C123" s="130"/>
+      <c r="C123" s="211"/>
     </row>
     <row r="124" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="108">
@@ -12096,7 +12085,7 @@
         <f t="shared" si="2"/>
         <v>7B</v>
       </c>
-      <c r="C124" s="130"/>
+      <c r="C124" s="211"/>
     </row>
     <row r="125" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="108">
@@ -12107,7 +12096,7 @@
         <f t="shared" si="2"/>
         <v>7C</v>
       </c>
-      <c r="C125" s="130"/>
+      <c r="C125" s="211"/>
     </row>
     <row r="126" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="108">
@@ -12118,7 +12107,7 @@
         <f t="shared" si="2"/>
         <v>7D</v>
       </c>
-      <c r="C126" s="130"/>
+      <c r="C126" s="211"/>
     </row>
     <row r="127" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="108">
@@ -12129,7 +12118,7 @@
         <f t="shared" si="2"/>
         <v>7E</v>
       </c>
-      <c r="C127" s="130"/>
+      <c r="C127" s="211"/>
     </row>
     <row r="128" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="108">
@@ -12140,7 +12129,7 @@
         <f t="shared" si="2"/>
         <v>7F</v>
       </c>
-      <c r="C128" s="130"/>
+      <c r="C128" s="211"/>
     </row>
     <row r="129" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="108">
@@ -12151,7 +12140,7 @@
         <f t="shared" ref="B129:B192" si="4">DEC2HEX(A129)</f>
         <v>80</v>
       </c>
-      <c r="C129" s="130"/>
+      <c r="C129" s="211"/>
     </row>
     <row r="130" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="108">
@@ -12162,7 +12151,7 @@
         <f t="shared" si="4"/>
         <v>81</v>
       </c>
-      <c r="C130" s="130"/>
+      <c r="C130" s="211"/>
     </row>
     <row r="131" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="108">
@@ -12173,7 +12162,7 @@
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="C131" s="130"/>
+      <c r="C131" s="211"/>
     </row>
     <row r="132" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="108">
@@ -12184,7 +12173,7 @@
         <f t="shared" si="4"/>
         <v>83</v>
       </c>
-      <c r="C132" s="130"/>
+      <c r="C132" s="211"/>
     </row>
     <row r="133" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="108">
@@ -12195,7 +12184,7 @@
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
-      <c r="C133" s="130"/>
+      <c r="C133" s="211"/>
     </row>
     <row r="134" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="108">
@@ -12206,7 +12195,7 @@
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="C134" s="130"/>
+      <c r="C134" s="211"/>
     </row>
     <row r="135" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="108">
@@ -12217,7 +12206,7 @@
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
-      <c r="C135" s="130"/>
+      <c r="C135" s="211"/>
     </row>
     <row r="136" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="108">
@@ -12228,7 +12217,7 @@
         <f t="shared" si="4"/>
         <v>87</v>
       </c>
-      <c r="C136" s="130"/>
+      <c r="C136" s="211"/>
     </row>
     <row r="137" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="108">
@@ -12239,7 +12228,7 @@
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="C137" s="130"/>
+      <c r="C137" s="211"/>
     </row>
     <row r="138" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="108">
@@ -12250,7 +12239,7 @@
         <f t="shared" si="4"/>
         <v>89</v>
       </c>
-      <c r="C138" s="130"/>
+      <c r="C138" s="211"/>
     </row>
     <row r="139" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="108">
@@ -12261,7 +12250,7 @@
         <f t="shared" si="4"/>
         <v>8A</v>
       </c>
-      <c r="C139" s="130"/>
+      <c r="C139" s="211"/>
     </row>
     <row r="140" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="108">
@@ -12272,7 +12261,7 @@
         <f t="shared" si="4"/>
         <v>8B</v>
       </c>
-      <c r="C140" s="130"/>
+      <c r="C140" s="211"/>
     </row>
     <row r="141" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="108">
@@ -12283,7 +12272,7 @@
         <f t="shared" si="4"/>
         <v>8C</v>
       </c>
-      <c r="C141" s="130"/>
+      <c r="C141" s="211"/>
     </row>
     <row r="142" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="108">
@@ -12294,7 +12283,7 @@
         <f t="shared" si="4"/>
         <v>8D</v>
       </c>
-      <c r="C142" s="130"/>
+      <c r="C142" s="211"/>
     </row>
     <row r="143" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="108">
@@ -12305,7 +12294,7 @@
         <f t="shared" si="4"/>
         <v>8E</v>
       </c>
-      <c r="C143" s="130"/>
+      <c r="C143" s="211"/>
     </row>
     <row r="144" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="108">
@@ -12316,7 +12305,7 @@
         <f t="shared" si="4"/>
         <v>8F</v>
       </c>
-      <c r="C144" s="130"/>
+      <c r="C144" s="211"/>
     </row>
     <row r="145" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="108">
@@ -12327,7 +12316,7 @@
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="C145" s="130"/>
+      <c r="C145" s="211"/>
     </row>
     <row r="146" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="108">
@@ -12338,7 +12327,7 @@
         <f t="shared" si="4"/>
         <v>91</v>
       </c>
-      <c r="C146" s="130"/>
+      <c r="C146" s="211"/>
     </row>
     <row r="147" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="108">
@@ -12349,7 +12338,7 @@
         <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="C147" s="130"/>
+      <c r="C147" s="211"/>
     </row>
     <row r="148" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="108">
@@ -12360,7 +12349,7 @@
         <f t="shared" si="4"/>
         <v>93</v>
       </c>
-      <c r="C148" s="130"/>
+      <c r="C148" s="211"/>
     </row>
     <row r="149" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="108">
@@ -12371,7 +12360,7 @@
         <f t="shared" si="4"/>
         <v>94</v>
       </c>
-      <c r="C149" s="130"/>
+      <c r="C149" s="211"/>
     </row>
     <row r="150" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="108">
@@ -12382,7 +12371,7 @@
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
-      <c r="C150" s="130"/>
+      <c r="C150" s="211"/>
     </row>
     <row r="151" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="108">
@@ -12393,7 +12382,7 @@
         <f t="shared" si="4"/>
         <v>96</v>
       </c>
-      <c r="C151" s="130"/>
+      <c r="C151" s="211"/>
     </row>
     <row r="152" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="108">
@@ -12404,7 +12393,7 @@
         <f t="shared" si="4"/>
         <v>97</v>
       </c>
-      <c r="C152" s="130"/>
+      <c r="C152" s="211"/>
     </row>
     <row r="153" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="108">
@@ -12415,7 +12404,7 @@
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
-      <c r="C153" s="130"/>
+      <c r="C153" s="211"/>
     </row>
     <row r="154" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="108">
@@ -12426,7 +12415,7 @@
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
-      <c r="C154" s="130"/>
+      <c r="C154" s="211"/>
     </row>
     <row r="155" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="108">
@@ -12437,7 +12426,7 @@
         <f t="shared" si="4"/>
         <v>9A</v>
       </c>
-      <c r="C155" s="130"/>
+      <c r="C155" s="211"/>
     </row>
     <row r="156" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="108">
@@ -12448,7 +12437,7 @@
         <f t="shared" si="4"/>
         <v>9B</v>
       </c>
-      <c r="C156" s="130"/>
+      <c r="C156" s="211"/>
     </row>
     <row r="157" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="108">
@@ -12459,7 +12448,7 @@
         <f t="shared" si="4"/>
         <v>9C</v>
       </c>
-      <c r="C157" s="130"/>
+      <c r="C157" s="211"/>
     </row>
     <row r="158" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="108">
@@ -12470,7 +12459,7 @@
         <f t="shared" si="4"/>
         <v>9D</v>
       </c>
-      <c r="C158" s="130"/>
+      <c r="C158" s="211"/>
     </row>
     <row r="159" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="108">
@@ -12481,7 +12470,7 @@
         <f t="shared" si="4"/>
         <v>9E</v>
       </c>
-      <c r="C159" s="130"/>
+      <c r="C159" s="211"/>
     </row>
     <row r="160" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="108">
@@ -12492,7 +12481,7 @@
         <f t="shared" si="4"/>
         <v>9F</v>
       </c>
-      <c r="C160" s="130"/>
+      <c r="C160" s="211"/>
     </row>
     <row r="161" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="108">
@@ -12503,7 +12492,7 @@
         <f t="shared" si="4"/>
         <v>A0</v>
       </c>
-      <c r="C161" s="130"/>
+      <c r="C161" s="211"/>
     </row>
     <row r="162" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="108">
@@ -12514,7 +12503,7 @@
         <f t="shared" si="4"/>
         <v>A1</v>
       </c>
-      <c r="C162" s="130"/>
+      <c r="C162" s="211"/>
     </row>
     <row r="163" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="108">
@@ -12525,7 +12514,7 @@
         <f t="shared" si="4"/>
         <v>A2</v>
       </c>
-      <c r="C163" s="130"/>
+      <c r="C163" s="211"/>
     </row>
     <row r="164" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="108">
@@ -12536,7 +12525,7 @@
         <f t="shared" si="4"/>
         <v>A3</v>
       </c>
-      <c r="C164" s="130"/>
+      <c r="C164" s="211"/>
     </row>
     <row r="165" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="108">
@@ -12547,7 +12536,7 @@
         <f t="shared" si="4"/>
         <v>A4</v>
       </c>
-      <c r="C165" s="130"/>
+      <c r="C165" s="211"/>
     </row>
     <row r="166" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="108">
@@ -12558,7 +12547,7 @@
         <f t="shared" si="4"/>
         <v>A5</v>
       </c>
-      <c r="C166" s="130"/>
+      <c r="C166" s="211"/>
     </row>
     <row r="167" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="108">
@@ -12569,7 +12558,7 @@
         <f t="shared" si="4"/>
         <v>A6</v>
       </c>
-      <c r="C167" s="130"/>
+      <c r="C167" s="211"/>
     </row>
     <row r="168" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="108">
@@ -12580,7 +12569,7 @@
         <f t="shared" si="4"/>
         <v>A7</v>
       </c>
-      <c r="C168" s="130"/>
+      <c r="C168" s="211"/>
     </row>
     <row r="169" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="108">
@@ -12591,7 +12580,7 @@
         <f t="shared" si="4"/>
         <v>A8</v>
       </c>
-      <c r="C169" s="130"/>
+      <c r="C169" s="211"/>
     </row>
     <row r="170" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="108">
@@ -12602,7 +12591,7 @@
         <f t="shared" si="4"/>
         <v>A9</v>
       </c>
-      <c r="C170" s="130"/>
+      <c r="C170" s="211"/>
     </row>
     <row r="171" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="108">
@@ -12613,7 +12602,7 @@
         <f t="shared" si="4"/>
         <v>AA</v>
       </c>
-      <c r="C171" s="130"/>
+      <c r="C171" s="211"/>
     </row>
     <row r="172" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="108">
@@ -12624,7 +12613,7 @@
         <f t="shared" si="4"/>
         <v>AB</v>
       </c>
-      <c r="C172" s="130"/>
+      <c r="C172" s="211"/>
     </row>
     <row r="173" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="108">
@@ -12635,7 +12624,7 @@
         <f t="shared" si="4"/>
         <v>AC</v>
       </c>
-      <c r="C173" s="130"/>
+      <c r="C173" s="211"/>
     </row>
     <row r="174" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="108">
@@ -12646,7 +12635,7 @@
         <f t="shared" si="4"/>
         <v>AD</v>
       </c>
-      <c r="C174" s="130"/>
+      <c r="C174" s="211"/>
     </row>
     <row r="175" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="108">
@@ -12657,7 +12646,7 @@
         <f t="shared" si="4"/>
         <v>AE</v>
       </c>
-      <c r="C175" s="130"/>
+      <c r="C175" s="211"/>
     </row>
     <row r="176" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="108">
@@ -12668,7 +12657,7 @@
         <f t="shared" si="4"/>
         <v>AF</v>
       </c>
-      <c r="C176" s="130"/>
+      <c r="C176" s="211"/>
     </row>
     <row r="177" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="108">
@@ -12679,7 +12668,7 @@
         <f t="shared" si="4"/>
         <v>B0</v>
       </c>
-      <c r="C177" s="130"/>
+      <c r="C177" s="211"/>
     </row>
     <row r="178" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="108">
@@ -12690,7 +12679,7 @@
         <f t="shared" si="4"/>
         <v>B1</v>
       </c>
-      <c r="C178" s="130"/>
+      <c r="C178" s="211"/>
     </row>
     <row r="179" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="108">
@@ -12701,7 +12690,7 @@
         <f t="shared" si="4"/>
         <v>B2</v>
       </c>
-      <c r="C179" s="130"/>
+      <c r="C179" s="211"/>
     </row>
     <row r="180" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="108">
@@ -12712,7 +12701,7 @@
         <f t="shared" si="4"/>
         <v>B3</v>
       </c>
-      <c r="C180" s="130"/>
+      <c r="C180" s="211"/>
     </row>
     <row r="181" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="108">
@@ -12723,7 +12712,7 @@
         <f t="shared" si="4"/>
         <v>B4</v>
       </c>
-      <c r="C181" s="130"/>
+      <c r="C181" s="211"/>
     </row>
     <row r="182" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="108">
@@ -12734,7 +12723,7 @@
         <f t="shared" si="4"/>
         <v>B5</v>
       </c>
-      <c r="C182" s="130"/>
+      <c r="C182" s="211"/>
     </row>
     <row r="183" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="108">
@@ -12745,7 +12734,7 @@
         <f t="shared" si="4"/>
         <v>B6</v>
       </c>
-      <c r="C183" s="130"/>
+      <c r="C183" s="211"/>
     </row>
     <row r="184" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="108">
@@ -12756,7 +12745,7 @@
         <f t="shared" si="4"/>
         <v>B7</v>
       </c>
-      <c r="C184" s="130"/>
+      <c r="C184" s="211"/>
     </row>
     <row r="185" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="108">
@@ -12767,7 +12756,7 @@
         <f t="shared" si="4"/>
         <v>B8</v>
       </c>
-      <c r="C185" s="130"/>
+      <c r="C185" s="211"/>
     </row>
     <row r="186" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="108">
@@ -12778,7 +12767,7 @@
         <f t="shared" si="4"/>
         <v>B9</v>
       </c>
-      <c r="C186" s="130"/>
+      <c r="C186" s="211"/>
     </row>
     <row r="187" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="108">
@@ -12789,7 +12778,7 @@
         <f t="shared" si="4"/>
         <v>BA</v>
       </c>
-      <c r="C187" s="130"/>
+      <c r="C187" s="211"/>
     </row>
     <row r="188" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="108">
@@ -12800,7 +12789,7 @@
         <f t="shared" si="4"/>
         <v>BB</v>
       </c>
-      <c r="C188" s="130"/>
+      <c r="C188" s="211"/>
     </row>
     <row r="189" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="108">
@@ -12811,7 +12800,7 @@
         <f t="shared" si="4"/>
         <v>BC</v>
       </c>
-      <c r="C189" s="130"/>
+      <c r="C189" s="211"/>
     </row>
     <row r="190" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="108">
@@ -12822,7 +12811,7 @@
         <f t="shared" si="4"/>
         <v>BD</v>
       </c>
-      <c r="C190" s="130"/>
+      <c r="C190" s="211"/>
     </row>
     <row r="191" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="108">
@@ -12833,7 +12822,7 @@
         <f t="shared" si="4"/>
         <v>BE</v>
       </c>
-      <c r="C191" s="130"/>
+      <c r="C191" s="211"/>
     </row>
     <row r="192" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="108">
@@ -12844,7 +12833,7 @@
         <f t="shared" si="4"/>
         <v>BF</v>
       </c>
-      <c r="C192" s="130"/>
+      <c r="C192" s="211"/>
     </row>
     <row r="193" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="108">
@@ -12855,7 +12844,7 @@
         <f t="shared" ref="B193:B256" si="6">DEC2HEX(A193)</f>
         <v>C0</v>
       </c>
-      <c r="C193" s="131" t="s">
+      <c r="C193" s="212" t="s">
         <v>382</v>
       </c>
     </row>
@@ -12868,7 +12857,7 @@
         <f t="shared" si="6"/>
         <v>C1</v>
       </c>
-      <c r="C194" s="131"/>
+      <c r="C194" s="212"/>
     </row>
     <row r="195" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="108">
@@ -12879,7 +12868,7 @@
         <f t="shared" si="6"/>
         <v>C2</v>
       </c>
-      <c r="C195" s="131"/>
+      <c r="C195" s="212"/>
     </row>
     <row r="196" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="108">
@@ -12890,7 +12879,7 @@
         <f t="shared" si="6"/>
         <v>C3</v>
       </c>
-      <c r="C196" s="131"/>
+      <c r="C196" s="212"/>
     </row>
     <row r="197" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="108">
@@ -12901,7 +12890,7 @@
         <f t="shared" si="6"/>
         <v>C4</v>
       </c>
-      <c r="C197" s="131"/>
+      <c r="C197" s="212"/>
     </row>
     <row r="198" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="108">
@@ -12912,7 +12901,7 @@
         <f t="shared" si="6"/>
         <v>C5</v>
       </c>
-      <c r="C198" s="131"/>
+      <c r="C198" s="212"/>
     </row>
     <row r="199" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="108">
@@ -12923,7 +12912,7 @@
         <f t="shared" si="6"/>
         <v>C6</v>
       </c>
-      <c r="C199" s="131"/>
+      <c r="C199" s="212"/>
     </row>
     <row r="200" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="108">
@@ -12934,7 +12923,7 @@
         <f t="shared" si="6"/>
         <v>C7</v>
       </c>
-      <c r="C200" s="131"/>
+      <c r="C200" s="212"/>
     </row>
     <row r="201" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="108">
@@ -12945,7 +12934,7 @@
         <f t="shared" si="6"/>
         <v>C8</v>
       </c>
-      <c r="C201" s="131"/>
+      <c r="C201" s="212"/>
     </row>
     <row r="202" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="108">
@@ -12956,7 +12945,7 @@
         <f t="shared" si="6"/>
         <v>C9</v>
       </c>
-      <c r="C202" s="131"/>
+      <c r="C202" s="212"/>
     </row>
     <row r="203" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="108">
@@ -12967,7 +12956,7 @@
         <f t="shared" si="6"/>
         <v>CA</v>
       </c>
-      <c r="C203" s="131"/>
+      <c r="C203" s="212"/>
     </row>
     <row r="204" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="108">
@@ -12978,7 +12967,7 @@
         <f t="shared" si="6"/>
         <v>CB</v>
       </c>
-      <c r="C204" s="131"/>
+      <c r="C204" s="212"/>
     </row>
     <row r="205" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="108">
@@ -12989,7 +12978,7 @@
         <f t="shared" si="6"/>
         <v>CC</v>
       </c>
-      <c r="C205" s="131"/>
+      <c r="C205" s="212"/>
     </row>
     <row r="206" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="108">
@@ -13000,7 +12989,7 @@
         <f t="shared" si="6"/>
         <v>CD</v>
       </c>
-      <c r="C206" s="131"/>
+      <c r="C206" s="212"/>
     </row>
     <row r="207" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="108">
@@ -13011,7 +13000,7 @@
         <f t="shared" si="6"/>
         <v>CE</v>
       </c>
-      <c r="C207" s="131"/>
+      <c r="C207" s="212"/>
     </row>
     <row r="208" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="108">
@@ -13022,7 +13011,7 @@
         <f t="shared" si="6"/>
         <v>CF</v>
       </c>
-      <c r="C208" s="131"/>
+      <c r="C208" s="212"/>
     </row>
     <row r="209" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="108">
@@ -13033,7 +13022,7 @@
         <f t="shared" si="6"/>
         <v>D0</v>
       </c>
-      <c r="C209" s="131"/>
+      <c r="C209" s="212"/>
     </row>
     <row r="210" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="108">
@@ -13044,7 +13033,7 @@
         <f t="shared" si="6"/>
         <v>D1</v>
       </c>
-      <c r="C210" s="131"/>
+      <c r="C210" s="212"/>
     </row>
     <row r="211" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="108">
@@ -13055,7 +13044,7 @@
         <f t="shared" si="6"/>
         <v>D2</v>
       </c>
-      <c r="C211" s="131"/>
+      <c r="C211" s="212"/>
     </row>
     <row r="212" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="108">
@@ -13066,7 +13055,7 @@
         <f t="shared" si="6"/>
         <v>D3</v>
       </c>
-      <c r="C212" s="131"/>
+      <c r="C212" s="212"/>
     </row>
     <row r="213" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="108">
@@ -13077,7 +13066,7 @@
         <f t="shared" si="6"/>
         <v>D4</v>
       </c>
-      <c r="C213" s="131"/>
+      <c r="C213" s="212"/>
     </row>
     <row r="214" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="108">
@@ -13088,7 +13077,7 @@
         <f t="shared" si="6"/>
         <v>D5</v>
       </c>
-      <c r="C214" s="131"/>
+      <c r="C214" s="212"/>
     </row>
     <row r="215" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="108">
@@ -13099,7 +13088,7 @@
         <f t="shared" si="6"/>
         <v>D6</v>
       </c>
-      <c r="C215" s="131"/>
+      <c r="C215" s="212"/>
     </row>
     <row r="216" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="108">
@@ -13110,7 +13099,7 @@
         <f t="shared" si="6"/>
         <v>D7</v>
       </c>
-      <c r="C216" s="131"/>
+      <c r="C216" s="212"/>
     </row>
     <row r="217" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="108">
@@ -13121,7 +13110,7 @@
         <f t="shared" si="6"/>
         <v>D8</v>
       </c>
-      <c r="C217" s="131"/>
+      <c r="C217" s="212"/>
     </row>
     <row r="218" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="108">
@@ -13132,7 +13121,7 @@
         <f t="shared" si="6"/>
         <v>D9</v>
       </c>
-      <c r="C218" s="131"/>
+      <c r="C218" s="212"/>
     </row>
     <row r="219" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="108">
@@ -13143,7 +13132,7 @@
         <f t="shared" si="6"/>
         <v>DA</v>
       </c>
-      <c r="C219" s="131"/>
+      <c r="C219" s="212"/>
     </row>
     <row r="220" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="108">
@@ -13154,7 +13143,7 @@
         <f t="shared" si="6"/>
         <v>DB</v>
       </c>
-      <c r="C220" s="131"/>
+      <c r="C220" s="212"/>
     </row>
     <row r="221" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="108">
@@ -13165,7 +13154,7 @@
         <f t="shared" si="6"/>
         <v>DC</v>
       </c>
-      <c r="C221" s="131"/>
+      <c r="C221" s="212"/>
     </row>
     <row r="222" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="108">
@@ -13176,7 +13165,7 @@
         <f t="shared" si="6"/>
         <v>DD</v>
       </c>
-      <c r="C222" s="131"/>
+      <c r="C222" s="212"/>
     </row>
     <row r="223" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="108">
@@ -13187,7 +13176,7 @@
         <f t="shared" si="6"/>
         <v>DE</v>
       </c>
-      <c r="C223" s="131"/>
+      <c r="C223" s="212"/>
     </row>
     <row r="224" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="108">
@@ -13198,7 +13187,7 @@
         <f t="shared" si="6"/>
         <v>DF</v>
       </c>
-      <c r="C224" s="131"/>
+      <c r="C224" s="212"/>
     </row>
     <row r="225" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="108">
@@ -13209,7 +13198,7 @@
         <f t="shared" si="6"/>
         <v>E0</v>
       </c>
-      <c r="C225" s="132" t="s">
+      <c r="C225" s="213" t="s">
         <v>30</v>
       </c>
     </row>
@@ -13222,7 +13211,7 @@
         <f t="shared" si="6"/>
         <v>E1</v>
       </c>
-      <c r="C226" s="132"/>
+      <c r="C226" s="213"/>
     </row>
     <row r="227" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="108">
@@ -13233,7 +13222,7 @@
         <f t="shared" si="6"/>
         <v>E2</v>
       </c>
-      <c r="C227" s="132"/>
+      <c r="C227" s="213"/>
     </row>
     <row r="228" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="108">
@@ -13244,7 +13233,7 @@
         <f t="shared" si="6"/>
         <v>E3</v>
       </c>
-      <c r="C228" s="132"/>
+      <c r="C228" s="213"/>
     </row>
     <row r="229" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="108">
@@ -13255,7 +13244,7 @@
         <f t="shared" si="6"/>
         <v>E4</v>
       </c>
-      <c r="C229" s="132"/>
+      <c r="C229" s="213"/>
     </row>
     <row r="230" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="108">
@@ -13266,7 +13255,7 @@
         <f t="shared" si="6"/>
         <v>E5</v>
       </c>
-      <c r="C230" s="132"/>
+      <c r="C230" s="213"/>
     </row>
     <row r="231" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="108">
@@ -13277,7 +13266,7 @@
         <f t="shared" si="6"/>
         <v>E6</v>
       </c>
-      <c r="C231" s="132"/>
+      <c r="C231" s="213"/>
     </row>
     <row r="232" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="108">
@@ -13288,7 +13277,7 @@
         <f t="shared" si="6"/>
         <v>E7</v>
       </c>
-      <c r="C232" s="132"/>
+      <c r="C232" s="213"/>
     </row>
     <row r="233" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="108">
@@ -13299,7 +13288,7 @@
         <f t="shared" si="6"/>
         <v>E8</v>
       </c>
-      <c r="C233" s="132"/>
+      <c r="C233" s="213"/>
     </row>
     <row r="234" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="108">
@@ -13310,7 +13299,7 @@
         <f t="shared" si="6"/>
         <v>E9</v>
       </c>
-      <c r="C234" s="132"/>
+      <c r="C234" s="213"/>
     </row>
     <row r="235" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="108">
@@ -13321,7 +13310,7 @@
         <f t="shared" si="6"/>
         <v>EA</v>
       </c>
-      <c r="C235" s="132"/>
+      <c r="C235" s="213"/>
     </row>
     <row r="236" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="108">
@@ -13332,7 +13321,7 @@
         <f t="shared" si="6"/>
         <v>EB</v>
       </c>
-      <c r="C236" s="132"/>
+      <c r="C236" s="213"/>
     </row>
     <row r="237" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="108">
@@ -13343,7 +13332,7 @@
         <f t="shared" si="6"/>
         <v>EC</v>
       </c>
-      <c r="C237" s="132"/>
+      <c r="C237" s="213"/>
     </row>
     <row r="238" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="108">
@@ -13354,7 +13343,7 @@
         <f t="shared" si="6"/>
         <v>ED</v>
       </c>
-      <c r="C238" s="132"/>
+      <c r="C238" s="213"/>
     </row>
     <row r="239" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="108">
@@ -13365,7 +13354,7 @@
         <f t="shared" si="6"/>
         <v>EE</v>
       </c>
-      <c r="C239" s="132"/>
+      <c r="C239" s="213"/>
     </row>
     <row r="240" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="108">
@@ -13376,7 +13365,7 @@
         <f t="shared" si="6"/>
         <v>EF</v>
       </c>
-      <c r="C240" s="132"/>
+      <c r="C240" s="213"/>
     </row>
     <row r="241" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="108">
@@ -13387,7 +13376,7 @@
         <f t="shared" si="6"/>
         <v>F0</v>
       </c>
-      <c r="C241" s="132"/>
+      <c r="C241" s="213"/>
     </row>
     <row r="242" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="108">
@@ -13398,7 +13387,7 @@
         <f t="shared" si="6"/>
         <v>F1</v>
       </c>
-      <c r="C242" s="132"/>
+      <c r="C242" s="213"/>
     </row>
     <row r="243" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="108">
@@ -13409,7 +13398,7 @@
         <f t="shared" si="6"/>
         <v>F2</v>
       </c>
-      <c r="C243" s="132"/>
+      <c r="C243" s="213"/>
     </row>
     <row r="244" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="108">
@@ -13420,7 +13409,7 @@
         <f t="shared" si="6"/>
         <v>F3</v>
       </c>
-      <c r="C244" s="132"/>
+      <c r="C244" s="213"/>
     </row>
     <row r="245" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="108">
@@ -13431,7 +13420,7 @@
         <f t="shared" si="6"/>
         <v>F4</v>
       </c>
-      <c r="C245" s="132"/>
+      <c r="C245" s="213"/>
     </row>
     <row r="246" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="108">
@@ -13442,7 +13431,7 @@
         <f t="shared" si="6"/>
         <v>F5</v>
       </c>
-      <c r="C246" s="132"/>
+      <c r="C246" s="213"/>
     </row>
     <row r="247" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="108">
@@ -13453,7 +13442,7 @@
         <f t="shared" si="6"/>
         <v>F6</v>
       </c>
-      <c r="C247" s="132"/>
+      <c r="C247" s="213"/>
     </row>
     <row r="248" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="108">
@@ -13464,7 +13453,7 @@
         <f t="shared" si="6"/>
         <v>F7</v>
       </c>
-      <c r="C248" s="132"/>
+      <c r="C248" s="213"/>
     </row>
     <row r="249" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="108">
@@ -13475,7 +13464,7 @@
         <f t="shared" si="6"/>
         <v>F8</v>
       </c>
-      <c r="C249" s="132"/>
+      <c r="C249" s="213"/>
     </row>
     <row r="250" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="108">
@@ -13486,7 +13475,7 @@
         <f t="shared" si="6"/>
         <v>F9</v>
       </c>
-      <c r="C250" s="132"/>
+      <c r="C250" s="213"/>
     </row>
     <row r="251" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="108">
@@ -13497,7 +13486,7 @@
         <f t="shared" si="6"/>
         <v>FA</v>
       </c>
-      <c r="C251" s="132"/>
+      <c r="C251" s="213"/>
     </row>
     <row r="252" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="108">
@@ -13508,7 +13497,7 @@
         <f t="shared" si="6"/>
         <v>FB</v>
       </c>
-      <c r="C252" s="132"/>
+      <c r="C252" s="213"/>
     </row>
     <row r="253" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="108">
@@ -13519,7 +13508,7 @@
         <f t="shared" si="6"/>
         <v>FC</v>
       </c>
-      <c r="C253" s="132"/>
+      <c r="C253" s="213"/>
     </row>
     <row r="254" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="108">
@@ -13530,7 +13519,7 @@
         <f t="shared" si="6"/>
         <v>FD</v>
       </c>
-      <c r="C254" s="132"/>
+      <c r="C254" s="213"/>
     </row>
     <row r="255" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="108">
@@ -13541,7 +13530,7 @@
         <f t="shared" si="6"/>
         <v>FE</v>
       </c>
-      <c r="C255" s="132"/>
+      <c r="C255" s="213"/>
     </row>
     <row r="256" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="108">
@@ -13552,7 +13541,7 @@
         <f t="shared" si="6"/>
         <v>FF</v>
       </c>
-      <c r="C256" s="132"/>
+      <c r="C256" s="213"/>
     </row>
     <row r="257" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="108">
@@ -13603,10 +13592,10 @@
       <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="119"/>
+      <c r="D1" s="187"/>
       <c r="E1" s="91" t="s">
         <v>164</v>
       </c>
@@ -13621,13 +13610,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="188" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="189" t="s">
         <v>315</v>
       </c>
       <c r="D2" s="62" t="s">
@@ -13647,21 +13636,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="112"/>
+      <c r="A3" s="178"/>
       <c r="B3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126" t="s">
+      <c r="C3" s="190"/>
+      <c r="D3" s="191" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="177" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="177" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="111" t="s">
+      <c r="G3" s="177" t="s">
         <v>320</v>
       </c>
       <c r="H3" s="66" t="s">
@@ -13669,39 +13658,39 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="112"/>
+      <c r="A4" s="178"/>
       <c r="B4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
       <c r="H4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="112"/>
+      <c r="A5" s="178"/>
       <c r="B5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
       <c r="H5" s="96" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="113"/>
+      <c r="A6" s="179"/>
       <c r="B6" s="101" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="133" t="s">
+      <c r="C6" s="214" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="92" t="s">
@@ -13718,17 +13707,17 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="209" t="s">
         <v>178</v>
       </c>
       <c r="B7" s="103" t="s">
         <v>367</v>
       </c>
-      <c r="C7" s="134"/>
+      <c r="C7" s="215"/>
       <c r="D7" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E7" s="122" t="s">
+      <c r="E7" s="210" t="s">
         <v>326</v>
       </c>
       <c r="F7" s="103" t="s">
@@ -13739,15 +13728,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="121"/>
+      <c r="A8" s="186"/>
       <c r="B8" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C8" s="134"/>
+      <c r="C8" s="215"/>
       <c r="D8" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E8" s="121"/>
+      <c r="E8" s="186"/>
       <c r="F8" s="103" t="s">
         <v>365</v>
       </c>
@@ -13756,15 +13745,15 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="121"/>
+      <c r="A9" s="186"/>
       <c r="B9" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="134"/>
+      <c r="C9" s="215"/>
       <c r="D9" s="68" t="s">
         <v>372</v>
       </c>
-      <c r="E9" s="121"/>
+      <c r="E9" s="186"/>
       <c r="F9" s="103" t="s">
         <v>371</v>
       </c>
@@ -13773,13 +13762,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="216" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="77" t="s">
         <v>324</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="183" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="76" t="s">
@@ -13796,11 +13785,11 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="136"/>
+      <c r="A11" s="217"/>
       <c r="B11" s="106" t="s">
         <v>381</v>
       </c>
-      <c r="C11" s="118"/>
+      <c r="C11" s="184"/>
       <c r="D11" s="80" t="s">
         <v>5</v>
       </c>
@@ -13823,6 +13812,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="A7:A9"/>
@@ -13830,11 +13824,6 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="F3:F5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -13869,10 +13858,10 @@
       <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="119"/>
+      <c r="D1" s="187"/>
       <c r="E1" s="91" t="s">
         <v>164</v>
       </c>
@@ -13887,13 +13876,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="188" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="189" t="s">
         <v>315</v>
       </c>
       <c r="D2" s="62" t="s">
@@ -13913,21 +13902,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="112"/>
+      <c r="A3" s="178"/>
       <c r="B3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126" t="s">
+      <c r="C3" s="190"/>
+      <c r="D3" s="191" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="177" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="177" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="111" t="s">
+      <c r="G3" s="177" t="s">
         <v>320</v>
       </c>
       <c r="H3" s="66" t="s">
@@ -13935,39 +13924,39 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="112"/>
+      <c r="A4" s="178"/>
       <c r="B4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
       <c r="H4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="112"/>
+      <c r="A5" s="178"/>
       <c r="B5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
       <c r="H5" s="96" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="113"/>
+      <c r="A6" s="179"/>
       <c r="B6" s="101" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="133" t="s">
+      <c r="C6" s="214" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="92" t="s">
@@ -13984,17 +13973,17 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="209" t="s">
         <v>178</v>
       </c>
       <c r="B7" s="103" t="s">
         <v>367</v>
       </c>
-      <c r="C7" s="134"/>
+      <c r="C7" s="215"/>
       <c r="D7" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E7" s="122" t="s">
+      <c r="E7" s="210" t="s">
         <v>326</v>
       </c>
       <c r="F7" s="103" t="s">
@@ -14005,15 +13994,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="121"/>
+      <c r="A8" s="186"/>
       <c r="B8" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C8" s="134"/>
+      <c r="C8" s="215"/>
       <c r="D8" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E8" s="121"/>
+      <c r="E8" s="186"/>
       <c r="F8" s="103" t="s">
         <v>365</v>
       </c>
@@ -14022,15 +14011,15 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="121"/>
+      <c r="A9" s="186"/>
       <c r="B9" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="134"/>
+      <c r="C9" s="215"/>
       <c r="D9" s="68" t="s">
         <v>372</v>
       </c>
-      <c r="E9" s="121"/>
+      <c r="E9" s="186"/>
       <c r="F9" s="103" t="s">
         <v>371</v>
       </c>
@@ -14039,13 +14028,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="216" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="77" t="s">
         <v>324</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="183" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="76" t="s">
@@ -14062,15 +14051,15 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="136"/>
-      <c r="B11" s="137" t="s">
+      <c r="A11" s="217"/>
+      <c r="B11" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="118"/>
+      <c r="C11" s="184"/>
       <c r="D11" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="E11" s="140" t="s">
+      <c r="E11" s="221" t="s">
         <v>254</v>
       </c>
       <c r="F11" s="79" t="s">
@@ -14084,13 +14073,13 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="136"/>
-      <c r="B12" s="136"/>
-      <c r="C12" s="118"/>
+      <c r="A12" s="217"/>
+      <c r="B12" s="217"/>
+      <c r="C12" s="184"/>
       <c r="D12" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="E12" s="140"/>
+      <c r="E12" s="221"/>
       <c r="F12" s="79" t="s">
         <v>207</v>
       </c>
@@ -14102,13 +14091,13 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="136"/>
-      <c r="B13" s="136"/>
-      <c r="C13" s="118"/>
+      <c r="A13" s="217"/>
+      <c r="B13" s="217"/>
+      <c r="C13" s="184"/>
       <c r="D13" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="E13" s="140"/>
+      <c r="E13" s="221"/>
       <c r="F13" s="79" t="s">
         <v>192</v>
       </c>
@@ -14120,13 +14109,13 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="82" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="138"/>
-      <c r="B14" s="138"/>
-      <c r="C14" s="139"/>
+      <c r="A14" s="219"/>
+      <c r="B14" s="219"/>
+      <c r="C14" s="220"/>
       <c r="D14" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="E14" s="141"/>
+      <c r="E14" s="222"/>
       <c r="F14" s="82" t="s">
         <v>189</v>
       </c>
@@ -14143,6 +14132,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="E7:E9"/>
@@ -14152,11 +14146,6 @@
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -14191,10 +14180,10 @@
       <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="119"/>
+      <c r="D1" s="187"/>
       <c r="E1" s="91" t="s">
         <v>164</v>
       </c>
@@ -14209,13 +14198,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="188" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="189" t="s">
         <v>315</v>
       </c>
       <c r="D2" s="62" t="s">
@@ -14235,21 +14224,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="112"/>
+      <c r="A3" s="178"/>
       <c r="B3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126" t="s">
+      <c r="C3" s="190"/>
+      <c r="D3" s="191" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="177" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="177" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="111" t="s">
+      <c r="G3" s="177" t="s">
         <v>320</v>
       </c>
       <c r="H3" s="66" t="s">
@@ -14257,39 +14246,39 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="112"/>
+      <c r="A4" s="178"/>
       <c r="B4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
       <c r="H4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="112"/>
+      <c r="A5" s="178"/>
       <c r="B5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
       <c r="H5" s="96" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="113"/>
+      <c r="A6" s="179"/>
       <c r="B6" s="101" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="133" t="s">
+      <c r="C6" s="214" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="92" t="s">
@@ -14306,17 +14295,17 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="209" t="s">
         <v>178</v>
       </c>
       <c r="B7" s="103" t="s">
         <v>367</v>
       </c>
-      <c r="C7" s="134"/>
+      <c r="C7" s="215"/>
       <c r="D7" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E7" s="122" t="s">
+      <c r="E7" s="210" t="s">
         <v>326</v>
       </c>
       <c r="F7" s="103" t="s">
@@ -14327,15 +14316,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="121"/>
+      <c r="A8" s="186"/>
       <c r="B8" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C8" s="134"/>
+      <c r="C8" s="215"/>
       <c r="D8" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E8" s="121"/>
+      <c r="E8" s="186"/>
       <c r="F8" s="103" t="s">
         <v>365</v>
       </c>
@@ -14344,15 +14333,15 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="121"/>
-      <c r="B9" s="122" t="s">
+      <c r="A9" s="186"/>
+      <c r="B9" s="210" t="s">
         <v>378</v>
       </c>
-      <c r="C9" s="134"/>
+      <c r="C9" s="215"/>
       <c r="D9" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="121"/>
+      <c r="E9" s="186"/>
       <c r="F9" s="67" t="s">
         <v>343</v>
       </c>
@@ -14361,13 +14350,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="121"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="134"/>
+      <c r="A10" s="186"/>
+      <c r="B10" s="186"/>
+      <c r="C10" s="215"/>
       <c r="D10" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="121"/>
+      <c r="E10" s="186"/>
       <c r="F10" s="67" t="s">
         <v>344</v>
       </c>
@@ -14376,13 +14365,13 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="121"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="134"/>
+      <c r="A11" s="186"/>
+      <c r="B11" s="186"/>
+      <c r="C11" s="215"/>
       <c r="D11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="121"/>
+      <c r="E11" s="186"/>
       <c r="F11" s="67" t="s">
         <v>345</v>
       </c>
@@ -14391,13 +14380,13 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="121"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="134"/>
+      <c r="A12" s="186"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="215"/>
       <c r="D12" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="121"/>
+      <c r="E12" s="186"/>
       <c r="F12" s="67" t="s">
         <v>346</v>
       </c>
@@ -14406,13 +14395,13 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="121"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="134"/>
+      <c r="A13" s="186"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="215"/>
       <c r="D13" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="121"/>
+      <c r="E13" s="186"/>
       <c r="F13" s="67" t="s">
         <v>347</v>
       </c>
@@ -14421,13 +14410,13 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="121"/>
-      <c r="B14" s="121"/>
-      <c r="C14" s="134"/>
+      <c r="A14" s="186"/>
+      <c r="B14" s="186"/>
+      <c r="C14" s="215"/>
       <c r="D14" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="121"/>
+      <c r="E14" s="186"/>
       <c r="F14" s="67" t="s">
         <v>348</v>
       </c>
@@ -14436,13 +14425,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="121"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="134"/>
+      <c r="A15" s="186"/>
+      <c r="B15" s="186"/>
+      <c r="C15" s="215"/>
       <c r="D15" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="121"/>
+      <c r="E15" s="186"/>
       <c r="F15" s="67" t="s">
         <v>349</v>
       </c>
@@ -14451,13 +14440,13 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="85" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="143"/>
-      <c r="B16" s="143"/>
-      <c r="C16" s="142"/>
+      <c r="A16" s="224"/>
+      <c r="B16" s="224"/>
+      <c r="C16" s="223"/>
       <c r="D16" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="143"/>
+      <c r="E16" s="224"/>
       <c r="F16" s="85" t="s">
         <v>334</v>
       </c>
@@ -14466,13 +14455,13 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="135" t="s">
+      <c r="A17" s="216" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="77" t="s">
         <v>324</v>
       </c>
-      <c r="C17" s="117" t="s">
+      <c r="C17" s="183" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="76" t="s">
@@ -14489,15 +14478,15 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="136"/>
-      <c r="B18" s="137" t="s">
+      <c r="A18" s="217"/>
+      <c r="B18" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="118"/>
+      <c r="C18" s="184"/>
       <c r="D18" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="E18" s="140" t="s">
+      <c r="E18" s="221" t="s">
         <v>254</v>
       </c>
       <c r="F18" s="79" t="s">
@@ -14511,13 +14500,13 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="136"/>
-      <c r="B19" s="136"/>
-      <c r="C19" s="118"/>
+      <c r="A19" s="217"/>
+      <c r="B19" s="217"/>
+      <c r="C19" s="184"/>
       <c r="D19" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="E19" s="140"/>
+      <c r="E19" s="221"/>
       <c r="F19" s="79" t="s">
         <v>207</v>
       </c>
@@ -14529,13 +14518,13 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="136"/>
-      <c r="B20" s="136"/>
-      <c r="C20" s="118"/>
+      <c r="A20" s="217"/>
+      <c r="B20" s="217"/>
+      <c r="C20" s="184"/>
       <c r="D20" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="E20" s="140"/>
+      <c r="E20" s="221"/>
       <c r="F20" s="79" t="s">
         <v>192</v>
       </c>
@@ -14547,13 +14536,13 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="82" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="138"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="139"/>
+      <c r="A21" s="219"/>
+      <c r="B21" s="219"/>
+      <c r="C21" s="220"/>
       <c r="D21" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="E21" s="141"/>
+      <c r="E21" s="222"/>
       <c r="F21" s="82" t="s">
         <v>189</v>
       </c>
@@ -14570,6 +14559,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="C6:C16"/>
     <mergeCell ref="A7:A16"/>
@@ -14580,11 +14574,6 @@
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B9:B16"/>
     <mergeCell ref="F3:F5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -14619,10 +14608,10 @@
       <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="119"/>
+      <c r="D1" s="187"/>
       <c r="E1" s="91" t="s">
         <v>164</v>
       </c>
@@ -14637,13 +14626,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="188" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="189" t="s">
         <v>315</v>
       </c>
       <c r="D2" s="62" t="s">
@@ -14663,21 +14652,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="112"/>
+      <c r="A3" s="178"/>
       <c r="B3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126" t="s">
+      <c r="C3" s="190"/>
+      <c r="D3" s="191" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="177" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="177" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="111" t="s">
+      <c r="G3" s="177" t="s">
         <v>320</v>
       </c>
       <c r="H3" s="66" t="s">
@@ -14685,39 +14674,39 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="112"/>
+      <c r="A4" s="178"/>
       <c r="B4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
       <c r="H4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="112"/>
+      <c r="A5" s="178"/>
       <c r="B5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
       <c r="H5" s="96" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="113"/>
+      <c r="A6" s="179"/>
       <c r="B6" s="101" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="133" t="s">
+      <c r="C6" s="214" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="92" t="s">
@@ -14734,17 +14723,17 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="209" t="s">
         <v>178</v>
       </c>
       <c r="B7" s="103" t="s">
         <v>367</v>
       </c>
-      <c r="C7" s="134"/>
+      <c r="C7" s="215"/>
       <c r="D7" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E7" s="122" t="s">
+      <c r="E7" s="210" t="s">
         <v>326</v>
       </c>
       <c r="F7" s="103" t="s">
@@ -14755,15 +14744,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="121"/>
+      <c r="A8" s="186"/>
       <c r="B8" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C8" s="134"/>
+      <c r="C8" s="215"/>
       <c r="D8" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E8" s="121"/>
+      <c r="E8" s="186"/>
       <c r="F8" s="103" t="s">
         <v>365</v>
       </c>
@@ -14772,15 +14761,15 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="121"/>
+      <c r="A9" s="186"/>
       <c r="B9" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="134"/>
+      <c r="C9" s="215"/>
       <c r="D9" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="121"/>
+      <c r="E9" s="186"/>
       <c r="F9" s="67" t="s">
         <v>343</v>
       </c>
@@ -14789,15 +14778,15 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="121"/>
+      <c r="A10" s="186"/>
       <c r="B10" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="C10" s="134"/>
+      <c r="C10" s="215"/>
       <c r="D10" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="121"/>
+      <c r="E10" s="186"/>
       <c r="F10" s="67" t="s">
         <v>344</v>
       </c>
@@ -14806,15 +14795,15 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="121"/>
+      <c r="A11" s="186"/>
       <c r="B11" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="C11" s="134"/>
+      <c r="C11" s="215"/>
       <c r="D11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="121"/>
+      <c r="E11" s="186"/>
       <c r="F11" s="67" t="s">
         <v>345</v>
       </c>
@@ -14823,15 +14812,15 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="121"/>
+      <c r="A12" s="186"/>
       <c r="B12" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="134"/>
+      <c r="C12" s="215"/>
       <c r="D12" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="121"/>
+      <c r="E12" s="186"/>
       <c r="F12" s="67" t="s">
         <v>346</v>
       </c>
@@ -14840,15 +14829,15 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="121"/>
+      <c r="A13" s="186"/>
       <c r="B13" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="C13" s="134"/>
+      <c r="C13" s="215"/>
       <c r="D13" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="121"/>
+      <c r="E13" s="186"/>
       <c r="F13" s="67" t="s">
         <v>347</v>
       </c>
@@ -14857,15 +14846,15 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="121"/>
+      <c r="A14" s="186"/>
       <c r="B14" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="C14" s="134"/>
+      <c r="C14" s="215"/>
       <c r="D14" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="121"/>
+      <c r="E14" s="186"/>
       <c r="F14" s="67" t="s">
         <v>348</v>
       </c>
@@ -14874,15 +14863,15 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="121"/>
+      <c r="A15" s="186"/>
       <c r="B15" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="C15" s="134"/>
+      <c r="C15" s="215"/>
       <c r="D15" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="121"/>
+      <c r="E15" s="186"/>
       <c r="F15" s="67" t="s">
         <v>349</v>
       </c>
@@ -14891,15 +14880,15 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="85" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="143"/>
+      <c r="A16" s="224"/>
       <c r="B16" s="85" t="s">
         <v>229</v>
       </c>
-      <c r="C16" s="142"/>
+      <c r="C16" s="223"/>
       <c r="D16" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="143"/>
+      <c r="E16" s="224"/>
       <c r="F16" s="85" t="s">
         <v>334</v>
       </c>
@@ -14908,13 +14897,13 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="135" t="s">
+      <c r="A17" s="216" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="77" t="s">
         <v>324</v>
       </c>
-      <c r="C17" s="117" t="s">
+      <c r="C17" s="183" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="76" t="s">
@@ -14931,15 +14920,15 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="136"/>
+      <c r="A18" s="217"/>
       <c r="B18" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="C18" s="118"/>
+      <c r="C18" s="184"/>
       <c r="D18" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="E18" s="140" t="s">
+      <c r="E18" s="221" t="s">
         <v>254</v>
       </c>
       <c r="F18" s="79" t="s">
@@ -14953,15 +14942,15 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="136"/>
+      <c r="A19" s="217"/>
       <c r="B19" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="C19" s="118"/>
+      <c r="C19" s="184"/>
       <c r="D19" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="E19" s="140"/>
+      <c r="E19" s="221"/>
       <c r="F19" s="79" t="s">
         <v>207</v>
       </c>
@@ -14973,15 +14962,15 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="136"/>
+      <c r="A20" s="217"/>
       <c r="B20" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="C20" s="118"/>
+      <c r="C20" s="184"/>
       <c r="D20" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="E20" s="140"/>
+      <c r="E20" s="221"/>
       <c r="F20" s="79" t="s">
         <v>192</v>
       </c>
@@ -14993,15 +14982,15 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="82" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="138"/>
+      <c r="A21" s="219"/>
       <c r="B21" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="C21" s="139"/>
+      <c r="C21" s="220"/>
       <c r="D21" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="E21" s="141"/>
+      <c r="E21" s="222"/>
       <c r="F21" s="82" t="s">
         <v>189</v>
       </c>
@@ -15018,6 +15007,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="C6:C16"/>
     <mergeCell ref="A7:A16"/>
@@ -15026,11 +15020,6 @@
     <mergeCell ref="C17:C21"/>
     <mergeCell ref="E18:E21"/>
     <mergeCell ref="F3:F5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/hardware/memory/Memory Map.xlsx
+++ b/hardware/memory/Memory Map.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jules\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CAD60D-4280-4030-B099-8409DC3D26DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF66D70-4978-4D91-9C23-38B72994166C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{373489EA-859E-4EE6-860B-453F011C26CC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Version 5V Core" sheetId="23" r:id="rId1"/>
+    <sheet name="Version 5V Nano" sheetId="23" r:id="rId1"/>
     <sheet name="Version 5V Lite" sheetId="22" r:id="rId2"/>
     <sheet name="Version 5V" sheetId="16" r:id="rId3"/>
     <sheet name="Version 5.1" sheetId="19" r:id="rId4"/>
@@ -50,8 +50,206 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jules Carboni</author>
+  </authors>
+  <commentList>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{359C0E19-655F-41F3-B7B3-4EF4E9CF2D00}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jules Carboni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Each port is 1 byte large (0x1).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{C3477DB6-BF27-4FD3-BA92-0257BDCCF252}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jules Carboni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Each bank is 4096 bytes (4 KB) large (0x1000, 3 hex figures).</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jules Carboni</author>
+  </authors>
+  <commentList>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{8F2E1342-17DF-4219-8255-E1E473B1F87A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jules Carboni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Each port is 1 byte large (0x1).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{A3355D47-D0EE-4B6C-ABF4-37B7BF539840}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jules Carboni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Each bank is 4096 bytes (4 KB) large (0x1000, 3 hex figures).</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jules Carboni</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{0A3BC9EA-441D-47DE-8C63-0141CB0D075E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jules Carboni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Each page is 256 bytes large (0x100, 2 hex figures).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{B7D9E0F7-40B6-418E-BA8E-4F797B0F192A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jules Carboni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Each port is 1 byte large (0x1).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{73C9475E-3926-45D5-A4C3-BF8415C77BB9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jules Carboni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Each bank is 4096 bytes (4 KB) large (0x1000, 3 hex figures).</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="428">
   <si>
     <t>Memory Block</t>
   </si>
@@ -3306,6 +3504,49 @@
         <scheme val="minor"/>
       </rPr>
       <t>, able to access 64 KB of memory, 8 KB of ROM, and 8 KB of memory mapped I/O. Offboard sound/video data. May be mapped to internal RAM or ROM.</t>
+    </r>
+  </si>
+  <si>
+    <t>00 – 0F</t>
+  </si>
+  <si>
+    <t>10 – 9F</t>
+  </si>
+  <si>
+    <t>A0 – A1</t>
+  </si>
+  <si>
+    <t>A2 – BF</t>
+  </si>
+  <si>
+    <t>C0 – C1</t>
+  </si>
+  <si>
+    <t>C2 – FF</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Non-volatile memory</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for storing BIOS settings. Backed up by battery.</t>
     </r>
   </si>
 </sst>
@@ -3313,7 +3554,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3360,8 +3601,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3404,8 +3658,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="103">
+  <borders count="101">
     <border>
       <left/>
       <right/>
@@ -4236,15 +4496,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="dashed">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color theme="8" tint="0.39997558519241921"/>
       </right>
@@ -4321,15 +4572,6 @@
       <bottom style="dashed">
         <color theme="2" tint="-9.9978637043366805E-2"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dashed">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -4687,7 +4929,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="274">
+  <cellXfs count="277">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -4984,17 +5226,8 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="71" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="70" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5002,169 +5235,64 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="74" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="69" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="79" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="80" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="81" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="68" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="78" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="79" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="65" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="80" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="84" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="85" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="83" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="94" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="93" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="92" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="95" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="96" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="95" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="94" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="97" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="98" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="99" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="102" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="76" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="92" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="93" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="90" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="100" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="90" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="88" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="89" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5176,10 +5304,10 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="100" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="101" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="98" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="99" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="62" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5191,9 +5319,6 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5221,40 +5346,31 @@
     <xf numFmtId="1" fontId="0" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="74" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="75" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="76" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="78" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="83" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="70" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="75" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="81" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="69" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="84" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="85" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="86" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="87" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="88" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="89" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="63" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5457,6 +5573,141 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="74" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="75" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="76" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="96" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5771,11 +6022,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA51CDE-CD2E-4808-9BE1-4220B016AEE8}">
-  <dimension ref="A1:AO20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA51CDE-CD2E-4808-9BE1-4220B016AEE8}">
+  <dimension ref="A1:AR22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5791,17 +6042,17 @@
     <col min="9" max="16384" width="8.88671875" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="91" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" s="91" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>163</v>
       </c>
       <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="187"/>
+      <c r="D1" s="148"/>
       <c r="E1" s="91" t="s">
         <v>164</v>
       </c>
@@ -5815,14 +6066,14 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="188" t="s">
+    <row r="2" spans="1:44" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="149" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="150" t="s">
         <v>315</v>
       </c>
       <c r="D2" s="62" t="s">
@@ -5841,112 +6092,120 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="178"/>
+    <row r="3" spans="1:44" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="140"/>
       <c r="B3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="191" t="s">
+      <c r="C3" s="151"/>
+      <c r="D3" s="152" t="s">
         <v>385</v>
       </c>
-      <c r="E3" s="177" t="s">
+      <c r="E3" s="139" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="177" t="s">
+      <c r="F3" s="139" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="177" t="s">
+      <c r="G3" s="139" t="s">
         <v>320</v>
       </c>
       <c r="H3" s="66" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="178"/>
+    <row r="4" spans="1:44" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="140"/>
       <c r="B4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="191"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
       <c r="H4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="178"/>
+    <row r="5" spans="1:44" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="140"/>
       <c r="B5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="192"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
       <c r="H5" s="96" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="153" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="179"/>
-      <c r="B6" s="157" t="s">
+    <row r="6" spans="1:44" s="130" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="141"/>
+      <c r="B6" s="134" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="180" t="s">
+      <c r="C6" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="181"/>
-      <c r="E6" s="154" t="s">
+      <c r="D6" s="143"/>
+      <c r="E6" s="131" t="s">
         <v>383</v>
       </c>
-      <c r="F6" s="155" t="s">
+      <c r="F6" s="132" t="s">
         <v>395</v>
       </c>
-      <c r="G6" s="155"/>
-      <c r="H6" s="121" t="s">
+      <c r="G6" s="132"/>
+      <c r="H6" s="276" t="s">
         <v>415</v>
       </c>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="155"/>
-      <c r="M6" s="155"/>
-      <c r="N6" s="155"/>
-      <c r="O6" s="155"/>
-      <c r="P6" s="155"/>
-      <c r="Q6" s="155"/>
-      <c r="R6" s="155"/>
-      <c r="S6" s="155"/>
-      <c r="T6" s="155"/>
-      <c r="U6" s="155"/>
-      <c r="V6" s="155"/>
-      <c r="W6" s="155"/>
-      <c r="X6" s="155"/>
-      <c r="Y6" s="155"/>
-      <c r="Z6" s="155"/>
-      <c r="AA6" s="155"/>
-      <c r="AB6" s="155"/>
-      <c r="AC6" s="155"/>
-      <c r="AD6" s="156"/>
-      <c r="AE6" s="156"/>
-      <c r="AF6" s="156"/>
-      <c r="AG6" s="156"/>
-      <c r="AH6" s="156"/>
-      <c r="AI6" s="156"/>
-      <c r="AJ6" s="156"/>
-    </row>
-    <row r="7" spans="1:36" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="182" t="s">
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="132"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="132"/>
+      <c r="Q6" s="132"/>
+      <c r="R6" s="132"/>
+      <c r="S6" s="132"/>
+      <c r="T6" s="132"/>
+      <c r="U6" s="132"/>
+      <c r="V6" s="132"/>
+      <c r="W6" s="132"/>
+      <c r="X6" s="132"/>
+      <c r="Y6" s="132"/>
+      <c r="Z6" s="132"/>
+      <c r="AA6" s="132"/>
+      <c r="AB6" s="132"/>
+      <c r="AC6" s="132"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133"/>
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="133"/>
+      <c r="AJ6" s="133"/>
+      <c r="AK6" s="133"/>
+      <c r="AL6" s="133"/>
+      <c r="AM6" s="133"/>
+      <c r="AN6" s="133"/>
+      <c r="AO6" s="133"/>
+      <c r="AP6" s="133"/>
+      <c r="AQ6" s="133"/>
+      <c r="AR6" s="133"/>
+    </row>
+    <row r="7" spans="1:44" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="144" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>324</v>
       </c>
-      <c r="C7" s="183" t="s">
+      <c r="C7" s="145" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="76" t="s">
@@ -5962,12 +6221,12 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="183"/>
+    <row r="8" spans="1:44" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="145"/>
       <c r="B8" s="80" t="s">
         <v>381</v>
       </c>
-      <c r="C8" s="184"/>
+      <c r="C8" s="146"/>
       <c r="D8" s="80" t="s">
         <v>5</v>
       </c>
@@ -5984,304 +6243,367 @@
         <v>379</v>
       </c>
     </row>
-    <row r="9" spans="1:36" s="123" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="122"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-    </row>
-    <row r="10" spans="1:36" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="186" t="s">
+    <row r="9" spans="1:44" s="237" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="235"/>
+      <c r="B9" s="235"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="235"/>
+      <c r="F9" s="235"/>
+    </row>
+    <row r="10" spans="1:44" s="91" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="91" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="148" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="148"/>
+      <c r="E10" s="91" t="s">
+        <v>391</v>
+      </c>
+      <c r="F10" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="91" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="91" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" s="274" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="147" t="s">
         <v>178</v>
       </c>
-      <c r="B10" s="110" t="s">
+      <c r="B11" s="272" t="s">
         <v>367</v>
       </c>
-      <c r="C10" s="186" t="s">
+      <c r="C11" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="120" t="s">
+      <c r="D11" s="273" t="s">
         <v>362</v>
       </c>
-      <c r="E10" s="186" t="s">
-        <v>391</v>
-      </c>
-      <c r="F10" s="110" t="s">
+      <c r="E11" s="273" t="s">
         <v>394</v>
       </c>
-      <c r="H10" s="121" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="186"/>
-      <c r="B11" s="103" t="s">
+      <c r="F11" s="272" t="s">
+        <v>394</v>
+      </c>
+      <c r="H11" s="275" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="147"/>
+      <c r="B12" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C11" s="186"/>
-      <c r="D11" s="105" t="s">
+      <c r="C12" s="147"/>
+      <c r="D12" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E11" s="186"/>
-      <c r="F11" s="103" t="s">
+      <c r="E12" s="105" t="s">
         <v>395</v>
       </c>
-      <c r="H11" s="104" t="s">
+      <c r="F12" s="103" t="s">
+        <v>395</v>
+      </c>
+      <c r="H12" s="104" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="12" spans="1:36" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="186"/>
-      <c r="B12" s="67" t="s">
+    <row r="13" spans="1:44" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="147"/>
+      <c r="B13" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="186"/>
-      <c r="D12" s="68" t="s">
+      <c r="C13" s="147"/>
+      <c r="D13" s="68" t="s">
         <v>372</v>
       </c>
-      <c r="E12" s="186"/>
-      <c r="F12" s="103" t="s">
+      <c r="E13" s="68" t="s">
         <v>396</v>
       </c>
-      <c r="H12" s="104" t="s">
+      <c r="F13" s="103" t="s">
+        <v>396</v>
+      </c>
+      <c r="H13" s="104" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:36" s="117" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="118"/>
-      <c r="H13" s="119"/>
-    </row>
-    <row r="14" spans="1:36" s="144" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="161" t="s">
+    <row r="14" spans="1:44" s="232" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="233"/>
+      <c r="H14" s="234"/>
+    </row>
+    <row r="15" spans="1:44" s="91" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="91" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="148" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="148"/>
+      <c r="E15" s="91" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="91" t="s">
+        <v>165</v>
+      </c>
+      <c r="H15" s="91" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" s="248" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="265" t="s">
         <v>392</v>
       </c>
-      <c r="B14" s="164" t="s">
+      <c r="B16" s="243" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="164" t="s">
+      <c r="C16" s="243" t="s">
         <v>393</v>
       </c>
-      <c r="D14" s="158" t="s">
+      <c r="D16" s="244" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="166" t="s">
-        <v>167</v>
-      </c>
-      <c r="F14" s="159" t="s">
+      <c r="E16" s="245" t="s">
+        <v>421</v>
+      </c>
+      <c r="F16" s="245" t="s">
         <v>398</v>
       </c>
-      <c r="G14" s="141"/>
-      <c r="H14" s="160" t="s">
+      <c r="G16" s="246"/>
+      <c r="H16" s="247" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="15" spans="1:36" s="144" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="162"/>
-      <c r="B15" s="165"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="139" t="s">
+    <row r="17" spans="1:41" s="248" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="266"/>
+      <c r="B17" s="249"/>
+      <c r="C17" s="249"/>
+      <c r="D17" s="250" t="s">
         <v>397</v>
       </c>
-      <c r="E15" s="167"/>
-      <c r="F15" s="140" t="s">
+      <c r="E17" s="251" t="s">
+        <v>422</v>
+      </c>
+      <c r="F17" s="251" t="s">
         <v>399</v>
       </c>
-      <c r="G15" s="141"/>
-      <c r="H15" s="142" t="s">
+      <c r="G17" s="246"/>
+      <c r="H17" s="252" t="s">
         <v>405</v>
       </c>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="143"/>
-      <c r="M15" s="143"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="143"/>
-      <c r="S15" s="143"/>
-      <c r="T15" s="143"/>
-      <c r="U15" s="143"/>
-      <c r="V15" s="143"/>
-      <c r="W15" s="143"/>
-      <c r="X15" s="143"/>
-      <c r="Y15" s="143"/>
-      <c r="Z15" s="143"/>
-      <c r="AA15" s="143"/>
-      <c r="AB15" s="143"/>
-      <c r="AC15" s="143"/>
-      <c r="AD15" s="143"/>
-      <c r="AE15" s="143"/>
-      <c r="AF15" s="143"/>
-      <c r="AG15" s="143"/>
-    </row>
-    <row r="16" spans="1:36" s="138" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="162"/>
-      <c r="B16" s="169" t="s">
+      <c r="I17" s="253"/>
+      <c r="J17" s="253"/>
+      <c r="K17" s="253"/>
+      <c r="L17" s="253"/>
+      <c r="M17" s="253"/>
+      <c r="N17" s="253"/>
+      <c r="O17" s="253"/>
+      <c r="P17" s="253"/>
+      <c r="Q17" s="253"/>
+      <c r="R17" s="253"/>
+      <c r="S17" s="253"/>
+      <c r="T17" s="253"/>
+      <c r="U17" s="253"/>
+      <c r="V17" s="253"/>
+      <c r="W17" s="253"/>
+      <c r="X17" s="253"/>
+      <c r="Y17" s="253"/>
+      <c r="Z17" s="253"/>
+      <c r="AA17" s="253"/>
+      <c r="AB17" s="253"/>
+      <c r="AC17" s="253"/>
+      <c r="AD17" s="253"/>
+      <c r="AE17" s="253"/>
+      <c r="AF17" s="253"/>
+      <c r="AG17" s="253"/>
+    </row>
+    <row r="18" spans="1:41" s="262" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="266"/>
+      <c r="B18" s="254" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C18" s="255" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="132" t="s">
+      <c r="D18" s="256" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="167"/>
-      <c r="F16" s="133" t="s">
+      <c r="E18" s="257" t="s">
+        <v>423</v>
+      </c>
+      <c r="F18" s="257" t="s">
         <v>403</v>
       </c>
-      <c r="G16" s="134"/>
-      <c r="H16" s="135" t="s">
+      <c r="G18" s="258"/>
+      <c r="H18" s="259" t="s">
         <v>407</v>
       </c>
-      <c r="I16" s="136"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="137"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="137"/>
-      <c r="Q16" s="137"/>
-      <c r="R16" s="137"/>
-      <c r="S16" s="137"/>
-      <c r="T16" s="137"/>
-      <c r="U16" s="137"/>
-      <c r="V16" s="137"/>
-      <c r="W16" s="137"/>
-      <c r="X16" s="137"/>
-      <c r="Y16" s="137"/>
-      <c r="Z16" s="137"/>
-      <c r="AA16" s="137"/>
-      <c r="AB16" s="137"/>
-      <c r="AC16" s="137"/>
-      <c r="AD16" s="137"/>
-      <c r="AE16" s="137"/>
-      <c r="AF16" s="137"/>
-      <c r="AG16" s="137"/>
-    </row>
-    <row r="17" spans="1:41" s="138" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="162"/>
-      <c r="B17" s="170"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="132" t="s">
+      <c r="I18" s="260"/>
+      <c r="J18" s="261"/>
+      <c r="K18" s="261"/>
+      <c r="L18" s="261"/>
+      <c r="M18" s="261"/>
+      <c r="N18" s="261"/>
+      <c r="O18" s="261"/>
+      <c r="P18" s="261"/>
+      <c r="Q18" s="261"/>
+      <c r="R18" s="261"/>
+      <c r="S18" s="261"/>
+      <c r="T18" s="261"/>
+      <c r="U18" s="261"/>
+      <c r="V18" s="261"/>
+      <c r="W18" s="261"/>
+      <c r="X18" s="261"/>
+      <c r="Y18" s="261"/>
+      <c r="Z18" s="261"/>
+      <c r="AA18" s="261"/>
+      <c r="AB18" s="261"/>
+      <c r="AC18" s="261"/>
+      <c r="AD18" s="261"/>
+      <c r="AE18" s="261"/>
+      <c r="AF18" s="261"/>
+      <c r="AG18" s="261"/>
+    </row>
+    <row r="19" spans="1:41" s="262" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="266"/>
+      <c r="B19" s="263"/>
+      <c r="C19" s="264"/>
+      <c r="D19" s="256" t="s">
         <v>401</v>
       </c>
-      <c r="E17" s="167"/>
-      <c r="F17" s="133" t="s">
+      <c r="E19" s="257" t="s">
+        <v>424</v>
+      </c>
+      <c r="F19" s="257" t="s">
         <v>404</v>
       </c>
-      <c r="G17" s="134"/>
-      <c r="H17" s="135" t="s">
+      <c r="G19" s="258"/>
+      <c r="H19" s="259" t="s">
         <v>406</v>
       </c>
-      <c r="I17" s="136"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="137"/>
-      <c r="S17" s="137"/>
-      <c r="T17" s="137"/>
-      <c r="U17" s="137"/>
-      <c r="V17" s="137"/>
-      <c r="W17" s="137"/>
-      <c r="X17" s="137"/>
-      <c r="Y17" s="137"/>
-      <c r="Z17" s="137"/>
-      <c r="AA17" s="137"/>
-      <c r="AB17" s="137"/>
-      <c r="AC17" s="137"/>
-      <c r="AD17" s="137"/>
-      <c r="AE17" s="137"/>
-      <c r="AF17" s="137"/>
-      <c r="AG17" s="137"/>
-    </row>
-    <row r="18" spans="1:41" s="111" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="162"/>
-      <c r="B18" s="173" t="s">
+      <c r="I19" s="260"/>
+      <c r="J19" s="261"/>
+      <c r="K19" s="261"/>
+      <c r="L19" s="261"/>
+      <c r="M19" s="261"/>
+      <c r="N19" s="261"/>
+      <c r="O19" s="261"/>
+      <c r="P19" s="261"/>
+      <c r="Q19" s="261"/>
+      <c r="R19" s="261"/>
+      <c r="S19" s="261"/>
+      <c r="T19" s="261"/>
+      <c r="U19" s="261"/>
+      <c r="V19" s="261"/>
+      <c r="W19" s="261"/>
+      <c r="X19" s="261"/>
+      <c r="Y19" s="261"/>
+      <c r="Z19" s="261"/>
+      <c r="AA19" s="261"/>
+      <c r="AB19" s="261"/>
+      <c r="AC19" s="261"/>
+      <c r="AD19" s="261"/>
+      <c r="AE19" s="261"/>
+      <c r="AF19" s="261"/>
+      <c r="AG19" s="261"/>
+    </row>
+    <row r="20" spans="1:41" s="111" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="266"/>
+      <c r="B20" s="135" t="s">
         <v>178</v>
       </c>
-      <c r="C18" s="175" t="s">
+      <c r="C20" s="137" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="147" t="s">
+      <c r="D20" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="167"/>
-      <c r="F18" s="110" t="s">
+      <c r="E20" s="110" t="s">
+        <v>425</v>
+      </c>
+      <c r="F20" s="110" t="s">
         <v>410</v>
       </c>
-      <c r="G18" s="70"/>
-      <c r="H18" s="121" t="s">
+      <c r="G20" s="70"/>
+      <c r="H20" s="118" t="s">
         <v>419</v>
       </c>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="146"/>
-      <c r="O18" s="146"/>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="146"/>
-      <c r="R18" s="146"/>
-      <c r="S18" s="146"/>
-      <c r="T18" s="146"/>
-      <c r="U18" s="146"/>
-      <c r="V18" s="146"/>
-      <c r="W18" s="146"/>
-      <c r="X18" s="146"/>
-      <c r="Y18" s="146"/>
-      <c r="Z18" s="146"/>
-      <c r="AA18" s="146"/>
-      <c r="AB18" s="146"/>
-      <c r="AC18" s="146"/>
-      <c r="AD18" s="146"/>
-      <c r="AE18" s="146"/>
-      <c r="AF18" s="146"/>
-      <c r="AG18" s="146"/>
-      <c r="AH18" s="146"/>
-      <c r="AI18" s="146"/>
-      <c r="AJ18" s="146"/>
-      <c r="AK18" s="146"/>
-      <c r="AL18" s="146"/>
-      <c r="AM18" s="146"/>
-      <c r="AN18" s="146"/>
-      <c r="AO18" s="146"/>
-    </row>
-    <row r="19" spans="1:41" s="145" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="163"/>
-      <c r="B19" s="174"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="149" t="s">
+      <c r="I20" s="127"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="127"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="127"/>
+      <c r="N20" s="127"/>
+      <c r="O20" s="127"/>
+      <c r="P20" s="127"/>
+      <c r="Q20" s="127"/>
+      <c r="R20" s="127"/>
+      <c r="S20" s="127"/>
+      <c r="T20" s="127"/>
+      <c r="U20" s="127"/>
+      <c r="V20" s="127"/>
+      <c r="W20" s="127"/>
+      <c r="X20" s="127"/>
+      <c r="Y20" s="127"/>
+      <c r="Z20" s="127"/>
+      <c r="AA20" s="127"/>
+      <c r="AB20" s="127"/>
+      <c r="AC20" s="127"/>
+      <c r="AD20" s="127"/>
+      <c r="AE20" s="127"/>
+      <c r="AF20" s="127"/>
+      <c r="AG20" s="127"/>
+      <c r="AH20" s="127"/>
+      <c r="AI20" s="127"/>
+      <c r="AJ20" s="127"/>
+      <c r="AK20" s="127"/>
+      <c r="AL20" s="127"/>
+      <c r="AM20" s="127"/>
+      <c r="AN20" s="127"/>
+      <c r="AO20" s="127"/>
+    </row>
+    <row r="21" spans="1:41" s="242" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="267"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="238" t="s">
         <v>412</v>
       </c>
-      <c r="E19" s="168"/>
-      <c r="F19" s="150" t="s">
+      <c r="E21" s="239" t="s">
+        <v>426</v>
+      </c>
+      <c r="F21" s="239" t="s">
         <v>411</v>
       </c>
-      <c r="G19" s="151"/>
-      <c r="H19" s="152" t="s">
+      <c r="G21" s="240"/>
+      <c r="H21" s="241" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="20" spans="1:41" s="117" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="118"/>
-      <c r="H20" s="119"/>
+    <row r="22" spans="1:41" s="232" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="233"/>
+      <c r="H22" s="234"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="C2:C5"/>
@@ -6291,19 +6613,19 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="F3:F5"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="A16:A21"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6335,10 +6657,10 @@
       <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="187"/>
+      <c r="D1" s="148"/>
       <c r="E1" s="91" t="s">
         <v>164</v>
       </c>
@@ -6353,13 +6675,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="149" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="150" t="s">
         <v>315</v>
       </c>
       <c r="D2" s="62" t="s">
@@ -6379,21 +6701,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="178"/>
+      <c r="A3" s="140"/>
       <c r="B3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="191" t="s">
+      <c r="C3" s="151"/>
+      <c r="D3" s="152" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="177" t="s">
+      <c r="E3" s="139" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="177" t="s">
+      <c r="F3" s="139" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="177" t="s">
+      <c r="G3" s="139" t="s">
         <v>320</v>
       </c>
       <c r="H3" s="66" t="s">
@@ -6401,39 +6723,39 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="178"/>
+      <c r="A4" s="140"/>
       <c r="B4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="191"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
       <c r="H4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="178"/>
+      <c r="A5" s="140"/>
       <c r="B5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="192"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
       <c r="H5" s="96" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="179"/>
+      <c r="A6" s="141"/>
       <c r="B6" s="101" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="214" t="s">
+      <c r="C6" s="172" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="92" t="s">
@@ -6450,13 +6772,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="70" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="230" t="s">
+      <c r="A7" s="188" t="s">
         <v>178</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="215"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="71" t="s">
         <v>5</v>
       </c>
@@ -6471,43 +6793,43 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="186"/>
-      <c r="B8" s="210" t="s">
+      <c r="A8" s="147"/>
+      <c r="B8" s="168" t="s">
         <v>359</v>
       </c>
-      <c r="C8" s="215"/>
-      <c r="D8" s="228" t="s">
+      <c r="C8" s="173"/>
+      <c r="D8" s="186" t="s">
         <v>212</v>
       </c>
-      <c r="E8" s="210" t="s">
+      <c r="E8" s="168" t="s">
         <v>326</v>
       </c>
-      <c r="F8" s="210" t="s">
+      <c r="F8" s="168" t="s">
         <v>360</v>
       </c>
-      <c r="H8" s="225" t="s">
+      <c r="H8" s="183" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="186"/>
-      <c r="B9" s="227"/>
-      <c r="C9" s="215"/>
-      <c r="D9" s="229"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="227"/>
-      <c r="H9" s="226"/>
+      <c r="A9" s="147"/>
+      <c r="B9" s="185"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="185"/>
+      <c r="H9" s="184"/>
     </row>
     <row r="10" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="186"/>
-      <c r="B10" s="210" t="s">
+      <c r="A10" s="147"/>
+      <c r="B10" s="168" t="s">
         <v>369</v>
       </c>
-      <c r="C10" s="215"/>
+      <c r="C10" s="173"/>
       <c r="D10" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="186"/>
+      <c r="E10" s="147"/>
       <c r="F10" s="67" t="s">
         <v>337</v>
       </c>
@@ -6516,13 +6838,13 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="186"/>
-      <c r="B11" s="186"/>
-      <c r="C11" s="215"/>
+      <c r="A11" s="147"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="173"/>
       <c r="D11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="186"/>
+      <c r="E11" s="147"/>
       <c r="F11" s="67" t="s">
         <v>338</v>
       </c>
@@ -6531,13 +6853,13 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="186"/>
-      <c r="B12" s="186"/>
-      <c r="C12" s="215"/>
+      <c r="A12" s="147"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="173"/>
       <c r="D12" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="186"/>
+      <c r="E12" s="147"/>
       <c r="F12" s="67" t="s">
         <v>339</v>
       </c>
@@ -6546,13 +6868,13 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="186"/>
-      <c r="B13" s="186"/>
-      <c r="C13" s="215"/>
+      <c r="A13" s="147"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="173"/>
       <c r="D13" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="186"/>
+      <c r="E13" s="147"/>
       <c r="F13" s="67" t="s">
         <v>340</v>
       </c>
@@ -6561,13 +6883,13 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="186"/>
-      <c r="B14" s="186"/>
-      <c r="C14" s="215"/>
+      <c r="A14" s="147"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="173"/>
       <c r="D14" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="186"/>
+      <c r="E14" s="147"/>
       <c r="F14" s="67" t="s">
         <v>341</v>
       </c>
@@ -6576,13 +6898,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="186"/>
-      <c r="B15" s="227"/>
-      <c r="C15" s="215"/>
+      <c r="A15" s="147"/>
+      <c r="B15" s="185"/>
+      <c r="C15" s="173"/>
       <c r="D15" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="186"/>
+      <c r="E15" s="147"/>
       <c r="F15" s="67" t="s">
         <v>342</v>
       </c>
@@ -6591,15 +6913,15 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="186"/>
+      <c r="A16" s="147"/>
       <c r="B16" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="C16" s="215"/>
+      <c r="C16" s="173"/>
       <c r="D16" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="186"/>
+      <c r="E16" s="147"/>
       <c r="F16" s="67" t="s">
         <v>343</v>
       </c>
@@ -6608,15 +6930,15 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="186"/>
+      <c r="A17" s="147"/>
       <c r="B17" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="C17" s="215"/>
+      <c r="C17" s="173"/>
       <c r="D17" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="186"/>
+      <c r="E17" s="147"/>
       <c r="F17" s="67" t="s">
         <v>344</v>
       </c>
@@ -6625,15 +6947,15 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="186"/>
+      <c r="A18" s="147"/>
       <c r="B18" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="215"/>
+      <c r="C18" s="173"/>
       <c r="D18" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="186"/>
+      <c r="E18" s="147"/>
       <c r="F18" s="67" t="s">
         <v>345</v>
       </c>
@@ -6642,15 +6964,15 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="186"/>
+      <c r="A19" s="147"/>
       <c r="B19" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="C19" s="215"/>
+      <c r="C19" s="173"/>
       <c r="D19" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="186"/>
+      <c r="E19" s="147"/>
       <c r="F19" s="67" t="s">
         <v>346</v>
       </c>
@@ -6659,15 +6981,15 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="186"/>
+      <c r="A20" s="147"/>
       <c r="B20" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="C20" s="215"/>
+      <c r="C20" s="173"/>
       <c r="D20" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="186"/>
+      <c r="E20" s="147"/>
       <c r="F20" s="67" t="s">
         <v>347</v>
       </c>
@@ -6676,15 +6998,15 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="186"/>
+      <c r="A21" s="147"/>
       <c r="B21" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="C21" s="215"/>
+      <c r="C21" s="173"/>
       <c r="D21" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="186"/>
+      <c r="E21" s="147"/>
       <c r="F21" s="67" t="s">
         <v>348</v>
       </c>
@@ -6693,15 +7015,15 @@
       </c>
     </row>
     <row r="22" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="186"/>
+      <c r="A22" s="147"/>
       <c r="B22" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="C22" s="215"/>
+      <c r="C22" s="173"/>
       <c r="D22" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="186"/>
+      <c r="E22" s="147"/>
       <c r="F22" s="67" t="s">
         <v>349</v>
       </c>
@@ -6710,15 +7032,15 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="85" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="224"/>
+      <c r="A23" s="182"/>
       <c r="B23" s="85" t="s">
         <v>229</v>
       </c>
-      <c r="C23" s="223"/>
+      <c r="C23" s="181"/>
       <c r="D23" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="224"/>
+      <c r="E23" s="182"/>
       <c r="F23" s="85" t="s">
         <v>334</v>
       </c>
@@ -6727,13 +7049,13 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="216" t="s">
+      <c r="A24" s="174" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="77" t="s">
         <v>324</v>
       </c>
-      <c r="C24" s="183" t="s">
+      <c r="C24" s="145" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="76" t="s">
@@ -6750,15 +7072,15 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="217"/>
+      <c r="A25" s="175"/>
       <c r="B25" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="C25" s="184"/>
+      <c r="C25" s="146"/>
       <c r="D25" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="E25" s="221" t="s">
+      <c r="E25" s="179" t="s">
         <v>254</v>
       </c>
       <c r="F25" s="79" t="s">
@@ -6772,15 +7094,15 @@
       </c>
     </row>
     <row r="26" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="217"/>
+      <c r="A26" s="175"/>
       <c r="B26" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="C26" s="184"/>
+      <c r="C26" s="146"/>
       <c r="D26" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="E26" s="221"/>
+      <c r="E26" s="179"/>
       <c r="F26" s="79" t="s">
         <v>207</v>
       </c>
@@ -6792,15 +7114,15 @@
       </c>
     </row>
     <row r="27" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="217"/>
+      <c r="A27" s="175"/>
       <c r="B27" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="C27" s="184"/>
+      <c r="C27" s="146"/>
       <c r="D27" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="E27" s="221"/>
+      <c r="E27" s="179"/>
       <c r="F27" s="79" t="s">
         <v>192</v>
       </c>
@@ -6812,15 +7134,15 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="82" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="219"/>
+      <c r="A28" s="177"/>
       <c r="B28" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="C28" s="220"/>
+      <c r="C28" s="178"/>
       <c r="D28" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="E28" s="222"/>
+      <c r="E28" s="180"/>
       <c r="F28" s="82" t="s">
         <v>189</v>
       </c>
@@ -6893,10 +7215,10 @@
       <c r="C1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="187" t="s">
+      <c r="D1" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="187"/>
+      <c r="E1" s="148"/>
       <c r="F1" s="91" t="s">
         <v>164</v>
       </c>
@@ -6911,14 +7233,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="193" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="236"/>
+      <c r="B2" s="194"/>
       <c r="C2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="189" t="s">
+      <c r="D2" s="150" t="s">
         <v>315</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -6938,22 +7260,22 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="64" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="237"/>
-      <c r="B3" s="238"/>
+      <c r="A3" s="195"/>
+      <c r="B3" s="196"/>
       <c r="C3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="D3" s="190"/>
-      <c r="E3" s="191" t="s">
+      <c r="D3" s="151"/>
+      <c r="E3" s="152" t="s">
         <v>311</v>
       </c>
-      <c r="F3" s="177" t="s">
+      <c r="F3" s="139" t="s">
         <v>318</v>
       </c>
-      <c r="G3" s="177" t="s">
+      <c r="G3" s="139" t="s">
         <v>319</v>
       </c>
-      <c r="H3" s="177" t="s">
+      <c r="H3" s="139" t="s">
         <v>320</v>
       </c>
       <c r="I3" s="66" t="s">
@@ -6961,44 +7283,44 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="99" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="239"/>
-      <c r="B4" s="177"/>
+      <c r="A4" s="197"/>
+      <c r="B4" s="139"/>
       <c r="C4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="D4" s="191"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="178"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
       <c r="I4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="88" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="240"/>
-      <c r="B5" s="241"/>
+      <c r="A5" s="198"/>
+      <c r="B5" s="199"/>
       <c r="C5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="192"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
-      <c r="H5" s="179"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
       <c r="I5" s="96" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="231" t="s">
+      <c r="A6" s="189" t="s">
         <v>178</v>
       </c>
-      <c r="B6" s="242" t="s">
+      <c r="B6" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="243"/>
-      <c r="D6" s="231" t="s">
+      <c r="C6" s="201"/>
+      <c r="D6" s="189" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="92" t="s">
@@ -7015,12 +7337,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" s="95" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="232"/>
-      <c r="B7" s="244" t="s">
+      <c r="A7" s="190"/>
+      <c r="B7" s="202" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="244"/>
-      <c r="D7" s="232"/>
+      <c r="C7" s="202"/>
+      <c r="D7" s="190"/>
       <c r="E7" s="94" t="s">
         <v>5</v>
       </c>
@@ -7035,18 +7357,18 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="232"/>
-      <c r="B8" s="245" t="s">
+      <c r="A8" s="190"/>
+      <c r="B8" s="203" t="s">
         <v>182</v>
       </c>
       <c r="C8" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="D8" s="232"/>
+      <c r="D8" s="190"/>
       <c r="E8" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="234" t="s">
+      <c r="F8" s="192" t="s">
         <v>326</v>
       </c>
       <c r="G8" s="70" t="s">
@@ -7057,16 +7379,16 @@
       </c>
     </row>
     <row r="9" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="232"/>
-      <c r="B9" s="245"/>
+      <c r="A9" s="190"/>
+      <c r="B9" s="203"/>
       <c r="C9" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="D9" s="232"/>
+      <c r="D9" s="190"/>
       <c r="E9" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="186"/>
+      <c r="F9" s="147"/>
       <c r="G9" s="67" t="s">
         <v>336</v>
       </c>
@@ -7075,16 +7397,16 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="232"/>
-      <c r="B10" s="245"/>
+      <c r="A10" s="190"/>
+      <c r="B10" s="203"/>
       <c r="C10" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="232"/>
+      <c r="D10" s="190"/>
       <c r="E10" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="186"/>
+      <c r="F10" s="147"/>
       <c r="G10" s="67" t="s">
         <v>337</v>
       </c>
@@ -7093,16 +7415,16 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="232"/>
-      <c r="B11" s="245"/>
+      <c r="A11" s="190"/>
+      <c r="B11" s="203"/>
       <c r="C11" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="D11" s="232"/>
+      <c r="D11" s="190"/>
       <c r="E11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="186"/>
+      <c r="F11" s="147"/>
       <c r="G11" s="67" t="s">
         <v>338</v>
       </c>
@@ -7111,16 +7433,16 @@
       </c>
     </row>
     <row r="12" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="232"/>
-      <c r="B12" s="245"/>
+      <c r="A12" s="190"/>
+      <c r="B12" s="203"/>
       <c r="C12" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="D12" s="232"/>
+      <c r="D12" s="190"/>
       <c r="E12" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="186"/>
+      <c r="F12" s="147"/>
       <c r="G12" s="67" t="s">
         <v>339</v>
       </c>
@@ -7129,16 +7451,16 @@
       </c>
     </row>
     <row r="13" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="232"/>
-      <c r="B13" s="245"/>
+      <c r="A13" s="190"/>
+      <c r="B13" s="203"/>
       <c r="C13" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="D13" s="232"/>
+      <c r="D13" s="190"/>
       <c r="E13" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="186"/>
+      <c r="F13" s="147"/>
       <c r="G13" s="67" t="s">
         <v>340</v>
       </c>
@@ -7147,16 +7469,16 @@
       </c>
     </row>
     <row r="14" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="232"/>
-      <c r="B14" s="245"/>
+      <c r="A14" s="190"/>
+      <c r="B14" s="203"/>
       <c r="C14" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="D14" s="232"/>
+      <c r="D14" s="190"/>
       <c r="E14" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="186"/>
+      <c r="F14" s="147"/>
       <c r="G14" s="67" t="s">
         <v>341</v>
       </c>
@@ -7165,16 +7487,16 @@
       </c>
     </row>
     <row r="15" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="232"/>
-      <c r="B15" s="245"/>
+      <c r="A15" s="190"/>
+      <c r="B15" s="203"/>
       <c r="C15" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="D15" s="232"/>
+      <c r="D15" s="190"/>
       <c r="E15" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="186"/>
+      <c r="F15" s="147"/>
       <c r="G15" s="67" t="s">
         <v>342</v>
       </c>
@@ -7183,16 +7505,16 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="232"/>
-      <c r="B16" s="245"/>
+      <c r="A16" s="190"/>
+      <c r="B16" s="203"/>
       <c r="C16" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="D16" s="232"/>
+      <c r="D16" s="190"/>
       <c r="E16" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="186"/>
+      <c r="F16" s="147"/>
       <c r="G16" s="67" t="s">
         <v>343</v>
       </c>
@@ -7201,16 +7523,16 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="232"/>
-      <c r="B17" s="245"/>
+      <c r="A17" s="190"/>
+      <c r="B17" s="203"/>
       <c r="C17" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="D17" s="232"/>
+      <c r="D17" s="190"/>
       <c r="E17" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="186"/>
+      <c r="F17" s="147"/>
       <c r="G17" s="67" t="s">
         <v>344</v>
       </c>
@@ -7219,16 +7541,16 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="232"/>
-      <c r="B18" s="245"/>
+      <c r="A18" s="190"/>
+      <c r="B18" s="203"/>
       <c r="C18" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="D18" s="232"/>
+      <c r="D18" s="190"/>
       <c r="E18" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="186"/>
+      <c r="F18" s="147"/>
       <c r="G18" s="67" t="s">
         <v>345</v>
       </c>
@@ -7237,16 +7559,16 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="232"/>
-      <c r="B19" s="245"/>
+      <c r="A19" s="190"/>
+      <c r="B19" s="203"/>
       <c r="C19" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="D19" s="232"/>
+      <c r="D19" s="190"/>
       <c r="E19" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="186"/>
+      <c r="F19" s="147"/>
       <c r="G19" s="67" t="s">
         <v>346</v>
       </c>
@@ -7255,16 +7577,16 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="232"/>
-      <c r="B20" s="245"/>
+      <c r="A20" s="190"/>
+      <c r="B20" s="203"/>
       <c r="C20" s="67" t="s">
         <v>234</v>
       </c>
-      <c r="D20" s="232"/>
+      <c r="D20" s="190"/>
       <c r="E20" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="186"/>
+      <c r="F20" s="147"/>
       <c r="G20" s="67" t="s">
         <v>347</v>
       </c>
@@ -7273,16 +7595,16 @@
       </c>
     </row>
     <row r="21" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="232"/>
-      <c r="B21" s="245"/>
+      <c r="A21" s="190"/>
+      <c r="B21" s="203"/>
       <c r="C21" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="D21" s="232"/>
+      <c r="D21" s="190"/>
       <c r="E21" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="186"/>
+      <c r="F21" s="147"/>
       <c r="G21" s="67" t="s">
         <v>348</v>
       </c>
@@ -7291,16 +7613,16 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="232"/>
-      <c r="B22" s="245"/>
+      <c r="A22" s="190"/>
+      <c r="B22" s="203"/>
       <c r="C22" s="67" t="s">
         <v>236</v>
       </c>
-      <c r="D22" s="232"/>
+      <c r="D22" s="190"/>
       <c r="E22" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="186"/>
+      <c r="F22" s="147"/>
       <c r="G22" s="67" t="s">
         <v>349</v>
       </c>
@@ -7309,16 +7631,16 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="85" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="233"/>
-      <c r="B23" s="246"/>
+      <c r="A23" s="191"/>
+      <c r="B23" s="204"/>
       <c r="C23" s="85" t="s">
         <v>237</v>
       </c>
-      <c r="D23" s="233"/>
+      <c r="D23" s="191"/>
       <c r="E23" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="224"/>
+      <c r="F23" s="182"/>
       <c r="G23" s="85" t="s">
         <v>334</v>
       </c>
@@ -7327,14 +7649,14 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="247" t="s">
+      <c r="A24" s="205" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="250" t="s">
+      <c r="B24" s="208" t="s">
         <v>194</v>
       </c>
-      <c r="C24" s="250"/>
-      <c r="D24" s="183" t="s">
+      <c r="C24" s="208"/>
+      <c r="D24" s="145" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="76" t="s">
@@ -7351,18 +7673,18 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="248"/>
-      <c r="B25" s="221" t="s">
+      <c r="A25" s="206"/>
+      <c r="B25" s="179" t="s">
         <v>203</v>
       </c>
       <c r="C25" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="D25" s="184"/>
+      <c r="D25" s="146"/>
       <c r="E25" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="F25" s="221" t="s">
+      <c r="F25" s="179" t="s">
         <v>254</v>
       </c>
       <c r="G25" s="79" t="s">
@@ -7376,16 +7698,16 @@
       </c>
     </row>
     <row r="26" spans="1:9" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="248"/>
-      <c r="B26" s="221"/>
+      <c r="A26" s="206"/>
+      <c r="B26" s="179"/>
       <c r="C26" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="D26" s="184"/>
+      <c r="D26" s="146"/>
       <c r="E26" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="F26" s="221"/>
+      <c r="F26" s="179"/>
       <c r="G26" s="79" t="s">
         <v>207</v>
       </c>
@@ -7397,16 +7719,16 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="248"/>
-      <c r="B27" s="221"/>
+      <c r="A27" s="206"/>
+      <c r="B27" s="179"/>
       <c r="C27" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="D27" s="184"/>
+      <c r="D27" s="146"/>
       <c r="E27" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="F27" s="221"/>
+      <c r="F27" s="179"/>
       <c r="G27" s="79" t="s">
         <v>192</v>
       </c>
@@ -7418,16 +7740,16 @@
       </c>
     </row>
     <row r="28" spans="1:9" s="82" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="249"/>
-      <c r="B28" s="222"/>
+      <c r="A28" s="207"/>
+      <c r="B28" s="180"/>
       <c r="C28" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="D28" s="220"/>
+      <c r="D28" s="178"/>
       <c r="E28" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="F28" s="222"/>
+      <c r="F28" s="180"/>
       <c r="G28" s="82" t="s">
         <v>189</v>
       </c>
@@ -7501,10 +7823,10 @@
       <c r="C1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="187" t="s">
+      <c r="D1" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="187"/>
+      <c r="E1" s="148"/>
       <c r="F1" s="91" t="s">
         <v>164</v>
       </c>
@@ -7519,14 +7841,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="193" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="236"/>
+      <c r="B2" s="194"/>
       <c r="C2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="189" t="s">
+      <c r="D2" s="150" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -7546,12 +7868,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="64" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="237"/>
-      <c r="B3" s="238"/>
+      <c r="A3" s="195"/>
+      <c r="B3" s="196"/>
       <c r="C3" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="190"/>
+      <c r="D3" s="151"/>
       <c r="E3" s="65" t="s">
         <v>216</v>
       </c>
@@ -7569,12 +7891,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="88" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="240"/>
-      <c r="B4" s="241"/>
+      <c r="A4" s="198"/>
+      <c r="B4" s="199"/>
       <c r="C4" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="192"/>
+      <c r="D4" s="153"/>
       <c r="E4" s="89" t="s">
         <v>215</v>
       </c>
@@ -7592,14 +7914,14 @@
       </c>
     </row>
     <row r="5" spans="1:9" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="213" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="258" t="s">
+      <c r="B5" s="216" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="258"/>
-      <c r="D5" s="253" t="s">
+      <c r="C5" s="216"/>
+      <c r="D5" s="211" t="s">
         <v>298</v>
       </c>
       <c r="E5" s="92" t="s">
@@ -7619,12 +7941,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="95" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="256"/>
-      <c r="B6" s="244" t="s">
+      <c r="A6" s="214"/>
+      <c r="B6" s="202" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="244"/>
-      <c r="D6" s="254"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="212"/>
       <c r="E6" s="94" t="s">
         <v>19</v>
       </c>
@@ -7642,14 +7964,14 @@
       </c>
     </row>
     <row r="7" spans="1:9" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="256"/>
-      <c r="B7" s="245" t="s">
+      <c r="A7" s="214"/>
+      <c r="B7" s="203" t="s">
         <v>182</v>
       </c>
       <c r="C7" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="251" t="s">
+      <c r="D7" s="209" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="71" t="s">
@@ -7669,12 +7991,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="256"/>
-      <c r="B8" s="245"/>
+      <c r="A8" s="214"/>
+      <c r="B8" s="203"/>
       <c r="C8" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="251"/>
+      <c r="D8" s="209"/>
       <c r="E8" s="68" t="s">
         <v>5</v>
       </c>
@@ -7692,12 +8014,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="256"/>
-      <c r="B9" s="245"/>
+      <c r="A9" s="214"/>
+      <c r="B9" s="203"/>
       <c r="C9" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="D9" s="251"/>
+      <c r="D9" s="209"/>
       <c r="E9" s="68" t="s">
         <v>5</v>
       </c>
@@ -7715,12 +8037,12 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="256"/>
-      <c r="B10" s="245"/>
+      <c r="A10" s="214"/>
+      <c r="B10" s="203"/>
       <c r="C10" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="251"/>
+      <c r="D10" s="209"/>
       <c r="E10" s="68" t="s">
         <v>5</v>
       </c>
@@ -7738,12 +8060,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="256"/>
-      <c r="B11" s="245"/>
+      <c r="A11" s="214"/>
+      <c r="B11" s="203"/>
       <c r="C11" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="251"/>
+      <c r="D11" s="209"/>
       <c r="E11" s="68" t="s">
         <v>5</v>
       </c>
@@ -7761,12 +8083,12 @@
       </c>
     </row>
     <row r="12" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="256"/>
-      <c r="B12" s="245"/>
+      <c r="A12" s="214"/>
+      <c r="B12" s="203"/>
       <c r="C12" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="251"/>
+      <c r="D12" s="209"/>
       <c r="E12" s="68" t="s">
         <v>5</v>
       </c>
@@ -7784,12 +8106,12 @@
       </c>
     </row>
     <row r="13" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="256"/>
-      <c r="B13" s="245"/>
+      <c r="A13" s="214"/>
+      <c r="B13" s="203"/>
       <c r="C13" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="D13" s="251"/>
+      <c r="D13" s="209"/>
       <c r="E13" s="68" t="s">
         <v>5</v>
       </c>
@@ -7807,12 +8129,12 @@
       </c>
     </row>
     <row r="14" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="256"/>
-      <c r="B14" s="245"/>
+      <c r="A14" s="214"/>
+      <c r="B14" s="203"/>
       <c r="C14" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="D14" s="251"/>
+      <c r="D14" s="209"/>
       <c r="E14" s="68" t="s">
         <v>5</v>
       </c>
@@ -7830,12 +8152,12 @@
       </c>
     </row>
     <row r="15" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="256"/>
-      <c r="B15" s="245"/>
+      <c r="A15" s="214"/>
+      <c r="B15" s="203"/>
       <c r="C15" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="D15" s="251"/>
+      <c r="D15" s="209"/>
       <c r="E15" s="68" t="s">
         <v>5</v>
       </c>
@@ -7853,12 +8175,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="256"/>
-      <c r="B16" s="245"/>
+      <c r="A16" s="214"/>
+      <c r="B16" s="203"/>
       <c r="C16" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="251"/>
+      <c r="D16" s="209"/>
       <c r="E16" s="68" t="s">
         <v>5</v>
       </c>
@@ -7876,12 +8198,12 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="256"/>
-      <c r="B17" s="245"/>
+      <c r="A17" s="214"/>
+      <c r="B17" s="203"/>
       <c r="C17" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="D17" s="251"/>
+      <c r="D17" s="209"/>
       <c r="E17" s="68" t="s">
         <v>5</v>
       </c>
@@ -7899,12 +8221,12 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="256"/>
-      <c r="B18" s="245"/>
+      <c r="A18" s="214"/>
+      <c r="B18" s="203"/>
       <c r="C18" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="D18" s="251"/>
+      <c r="D18" s="209"/>
       <c r="E18" s="68" t="s">
         <v>5</v>
       </c>
@@ -7922,12 +8244,12 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="256"/>
-      <c r="B19" s="245"/>
+      <c r="A19" s="214"/>
+      <c r="B19" s="203"/>
       <c r="C19" s="67" t="s">
         <v>234</v>
       </c>
-      <c r="D19" s="251"/>
+      <c r="D19" s="209"/>
       <c r="E19" s="68" t="s">
         <v>5</v>
       </c>
@@ -7945,12 +8267,12 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="256"/>
-      <c r="B20" s="245"/>
+      <c r="A20" s="214"/>
+      <c r="B20" s="203"/>
       <c r="C20" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="D20" s="251"/>
+      <c r="D20" s="209"/>
       <c r="E20" s="68" t="s">
         <v>5</v>
       </c>
@@ -7968,12 +8290,12 @@
       </c>
     </row>
     <row r="21" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="256"/>
-      <c r="B21" s="245"/>
+      <c r="A21" s="214"/>
+      <c r="B21" s="203"/>
       <c r="C21" s="67" t="s">
         <v>236</v>
       </c>
-      <c r="D21" s="251"/>
+      <c r="D21" s="209"/>
       <c r="E21" s="68" t="s">
         <v>5</v>
       </c>
@@ -7991,12 +8313,12 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="85" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="257"/>
-      <c r="B22" s="246"/>
+      <c r="A22" s="215"/>
+      <c r="B22" s="204"/>
       <c r="C22" s="85" t="s">
         <v>237</v>
       </c>
-      <c r="D22" s="252"/>
+      <c r="D22" s="210"/>
       <c r="E22" s="86" t="s">
         <v>5</v>
       </c>
@@ -8014,14 +8336,14 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="247" t="s">
+      <c r="A23" s="205" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="250" t="s">
+      <c r="B23" s="208" t="s">
         <v>194</v>
       </c>
-      <c r="C23" s="250"/>
-      <c r="D23" s="183" t="s">
+      <c r="C23" s="208"/>
+      <c r="D23" s="145" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="76" t="s">
@@ -8041,18 +8363,18 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="248"/>
-      <c r="B24" s="221" t="s">
+      <c r="A24" s="206"/>
+      <c r="B24" s="179" t="s">
         <v>203</v>
       </c>
       <c r="C24" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="D24" s="184"/>
+      <c r="D24" s="146"/>
       <c r="E24" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="F24" s="221" t="s">
+      <c r="F24" s="179" t="s">
         <v>254</v>
       </c>
       <c r="G24" s="79" t="s">
@@ -8066,16 +8388,16 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="248"/>
-      <c r="B25" s="221"/>
+      <c r="A25" s="206"/>
+      <c r="B25" s="179"/>
       <c r="C25" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="D25" s="184"/>
+      <c r="D25" s="146"/>
       <c r="E25" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="F25" s="221"/>
+      <c r="F25" s="179"/>
       <c r="G25" s="79" t="s">
         <v>207</v>
       </c>
@@ -8087,16 +8409,16 @@
       </c>
     </row>
     <row r="26" spans="1:9" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="248"/>
-      <c r="B26" s="221"/>
+      <c r="A26" s="206"/>
+      <c r="B26" s="179"/>
       <c r="C26" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="D26" s="184"/>
+      <c r="D26" s="146"/>
       <c r="E26" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="F26" s="221"/>
+      <c r="F26" s="179"/>
       <c r="G26" s="79" t="s">
         <v>192</v>
       </c>
@@ -8108,16 +8430,16 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="82" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="249"/>
-      <c r="B27" s="222"/>
+      <c r="A27" s="207"/>
+      <c r="B27" s="180"/>
       <c r="C27" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="D27" s="220"/>
+      <c r="D27" s="178"/>
       <c r="E27" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="F27" s="222"/>
+      <c r="F27" s="180"/>
       <c r="G27" s="82" t="s">
         <v>189</v>
       </c>
@@ -8202,10 +8524,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="259" t="s">
+      <c r="A2" s="217" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="259" t="s">
+      <c r="B2" s="217" t="s">
         <v>142</v>
       </c>
       <c r="C2" s="56" t="s">
@@ -8228,8 +8550,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="259"/>
-      <c r="B3" s="259"/>
+      <c r="A3" s="217"/>
+      <c r="B3" s="217"/>
       <c r="C3" s="56" t="s">
         <v>174</v>
       </c>
@@ -8252,7 +8574,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="259" t="s">
+      <c r="A5" s="217" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="56" t="s">
@@ -8260,7 +8582,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="259"/>
+      <c r="A6" s="217"/>
       <c r="H6" s="56" t="s">
         <v>181</v>
       </c>
@@ -8321,10 +8643,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="259" t="s">
+      <c r="A2" s="217" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="259" t="s">
+      <c r="B2" s="217" t="s">
         <v>166</v>
       </c>
       <c r="C2" s="56" t="s">
@@ -8336,7 +8658,7 @@
       <c r="E2" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="F2" s="259" t="s">
+      <c r="F2" s="217" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="56" t="s">
@@ -8350,8 +8672,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="259"/>
-      <c r="B3" s="259"/>
+      <c r="A3" s="217"/>
+      <c r="B3" s="217"/>
       <c r="C3" s="56" t="s">
         <v>172</v>
       </c>
@@ -8361,7 +8683,7 @@
       <c r="E3" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="F3" s="259"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="56" t="s">
         <v>175</v>
       </c>
@@ -8419,7 +8741,7 @@
       <c r="A2" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="260" t="s">
+      <c r="B2" s="218" t="s">
         <v>141</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -8431,7 +8753,7 @@
       <c r="E2" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="262" t="s">
+      <c r="F2" s="220" t="s">
         <v>161</v>
       </c>
     </row>
@@ -8439,7 +8761,7 @@
       <c r="A3" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="261"/>
+      <c r="B3" s="219"/>
       <c r="C3" s="42" t="s">
         <v>143</v>
       </c>
@@ -8449,7 +8771,7 @@
       <c r="E3" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="263"/>
+      <c r="F3" s="221"/>
     </row>
     <row r="4" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
@@ -8458,7 +8780,7 @@
       <c r="B4" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="267" t="s">
+      <c r="C4" s="225" t="s">
         <v>76</v>
       </c>
       <c r="D4" s="40" t="s">
@@ -8478,7 +8800,7 @@
       <c r="B5" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="260"/>
+      <c r="C5" s="218"/>
       <c r="D5" s="43" t="s">
         <v>111</v>
       </c>
@@ -8496,7 +8818,7 @@
       <c r="B6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="260"/>
+      <c r="C6" s="218"/>
       <c r="D6" s="40" t="s">
         <v>16</v>
       </c>
@@ -8514,7 +8836,7 @@
       <c r="B7" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="260"/>
+      <c r="C7" s="218"/>
       <c r="D7" s="48" t="s">
         <v>5</v>
       </c>
@@ -8532,7 +8854,7 @@
       <c r="B8" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="260"/>
+      <c r="C8" s="218"/>
       <c r="D8" s="40" t="s">
         <v>121</v>
       </c>
@@ -8550,7 +8872,7 @@
       <c r="B9" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="260"/>
+      <c r="C9" s="218"/>
       <c r="D9" s="40" t="s">
         <v>107</v>
       </c>
@@ -8568,7 +8890,7 @@
       <c r="B10" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="260"/>
+      <c r="C10" s="218"/>
       <c r="D10" s="40" t="s">
         <v>107</v>
       </c>
@@ -8586,7 +8908,7 @@
       <c r="B11" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="260"/>
+      <c r="C11" s="218"/>
       <c r="D11" s="40" t="s">
         <v>107</v>
       </c>
@@ -8604,7 +8926,7 @@
       <c r="B12" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="260"/>
+      <c r="C12" s="218"/>
       <c r="D12" s="40" t="s">
         <v>107</v>
       </c>
@@ -8622,7 +8944,7 @@
       <c r="B13" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="260" t="s">
+      <c r="C13" s="218" t="s">
         <v>57</v>
       </c>
       <c r="D13" s="48" t="s">
@@ -8631,7 +8953,7 @@
       <c r="E13" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="264" t="s">
+      <c r="F13" s="222" t="s">
         <v>160</v>
       </c>
     </row>
@@ -8642,14 +8964,14 @@
       <c r="B14" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="266"/>
+      <c r="C14" s="224"/>
       <c r="D14" s="54" t="s">
         <v>96</v>
       </c>
       <c r="E14" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="265"/>
+      <c r="F14" s="223"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8703,7 +9025,7 @@
       <c r="A2" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="268" t="s">
+      <c r="B2" s="226" t="s">
         <v>141</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -8715,7 +9037,7 @@
       <c r="E2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="269" t="s">
+      <c r="F2" s="227" t="s">
         <v>138</v>
       </c>
     </row>
@@ -8723,7 +9045,7 @@
       <c r="A3" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="268"/>
+      <c r="B3" s="226"/>
       <c r="C3" s="9" t="s">
         <v>54</v>
       </c>
@@ -8733,13 +9055,13 @@
       <c r="E3" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="269"/>
+      <c r="F3" s="227"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="268"/>
+      <c r="B4" s="226"/>
       <c r="C4" s="9" t="s">
         <v>143</v>
       </c>
@@ -8760,7 +9082,7 @@
       <c r="B5" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="268" t="s">
+      <c r="C5" s="226" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -8780,7 +9102,7 @@
       <c r="B6" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="268"/>
+      <c r="C6" s="226"/>
       <c r="D6" s="10" t="s">
         <v>121</v>
       </c>
@@ -8798,7 +9120,7 @@
       <c r="B7" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="268"/>
+      <c r="C7" s="226"/>
       <c r="D7" s="10" t="s">
         <v>107</v>
       </c>
@@ -8816,7 +9138,7 @@
       <c r="B8" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="268"/>
+      <c r="C8" s="226"/>
       <c r="D8" s="10" t="s">
         <v>107</v>
       </c>
@@ -8834,7 +9156,7 @@
       <c r="B9" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="268"/>
+      <c r="C9" s="226"/>
       <c r="D9" s="10" t="s">
         <v>107</v>
       </c>
@@ -8852,7 +9174,7 @@
       <c r="B10" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="268"/>
+      <c r="C10" s="226"/>
       <c r="D10" s="10" t="s">
         <v>107</v>
       </c>
@@ -8870,7 +9192,7 @@
       <c r="B11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="268"/>
+      <c r="C11" s="226"/>
       <c r="D11" s="10" t="s">
         <v>111</v>
       </c>
@@ -8888,7 +9210,7 @@
       <c r="B12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="268"/>
+      <c r="C12" s="226"/>
       <c r="D12" s="10" t="s">
         <v>94</v>
       </c>
@@ -8906,7 +9228,7 @@
       <c r="B13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="268"/>
+      <c r="C13" s="226"/>
       <c r="D13" s="10" t="s">
         <v>96</v>
       </c>
@@ -8987,7 +9309,7 @@
       <c r="B3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="270" t="s">
+      <c r="C3" s="228" t="s">
         <v>57</v>
       </c>
       <c r="D3" s="6">
@@ -9007,7 +9329,7 @@
       <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="271"/>
+      <c r="C4" s="229"/>
       <c r="D4" s="3">
         <v>48</v>
       </c>
@@ -9022,7 +9344,7 @@
       <c r="B5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="271"/>
+      <c r="C5" s="229"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
@@ -9037,7 +9359,7 @@
       <c r="B6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="271"/>
+      <c r="C6" s="229"/>
       <c r="D6" s="3" t="s">
         <v>90</v>
       </c>
@@ -9052,7 +9374,7 @@
       <c r="B7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="271"/>
+      <c r="C7" s="229"/>
       <c r="D7" s="3" t="s">
         <v>87</v>
       </c>
@@ -9067,7 +9389,7 @@
       <c r="B8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="271"/>
+      <c r="C8" s="229"/>
       <c r="D8" s="3" t="s">
         <v>88</v>
       </c>
@@ -9082,7 +9404,7 @@
       <c r="B9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="272"/>
+      <c r="C9" s="230"/>
       <c r="D9" s="5" t="s">
         <v>88</v>
       </c>
@@ -9098,7 +9420,7 @@
       <c r="B10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="270" t="s">
+      <c r="C10" s="228" t="s">
         <v>76</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -9118,7 +9440,7 @@
       <c r="B11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="271"/>
+      <c r="C11" s="229"/>
       <c r="D11" s="3" t="s">
         <v>89</v>
       </c>
@@ -9133,7 +9455,7 @@
       <c r="B12" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="271"/>
+      <c r="C12" s="229"/>
       <c r="D12" s="3">
         <v>4</v>
       </c>
@@ -9148,7 +9470,7 @@
       <c r="B13" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="273"/>
+      <c r="C13" s="231"/>
       <c r="D13" s="31">
         <v>4</v>
       </c>
@@ -9424,11 +9746,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F021144A-02B0-4FAF-8611-E93CE3693F4D}">
-  <dimension ref="A1:AO20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F021144A-02B0-4FAF-8611-E93CE3693F4D}">
+  <dimension ref="A1:AO22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9444,17 +9766,17 @@
     <col min="9" max="16384" width="8.88671875" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="91" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="91" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>163</v>
       </c>
       <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="187"/>
+      <c r="D1" s="148"/>
       <c r="E1" s="91" t="s">
         <v>164</v>
       </c>
@@ -9468,14 +9790,14 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="188" t="s">
+    <row r="2" spans="1:8" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="149" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="150" t="s">
         <v>315</v>
       </c>
       <c r="D2" s="62" t="s">
@@ -9494,65 +9816,65 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="178"/>
+    <row r="3" spans="1:8" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="140"/>
       <c r="B3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="191" t="s">
+      <c r="C3" s="151"/>
+      <c r="D3" s="152" t="s">
         <v>385</v>
       </c>
-      <c r="E3" s="177" t="s">
+      <c r="E3" s="139" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="177" t="s">
+      <c r="F3" s="139" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="177" t="s">
+      <c r="G3" s="139" t="s">
         <v>320</v>
       </c>
       <c r="H3" s="66" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="178"/>
+    <row r="4" spans="1:8" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="140"/>
       <c r="B4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="191"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
       <c r="H4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="178"/>
+    <row r="5" spans="1:8" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="140"/>
       <c r="B5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="192"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
       <c r="H5" s="96" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="179"/>
+    <row r="6" spans="1:8" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="141"/>
       <c r="B6" s="92" t="s">
         <v>392</v>
       </c>
-      <c r="C6" s="207" t="s">
+      <c r="C6" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="208"/>
+      <c r="D6" s="166"/>
       <c r="E6" s="93" t="s">
         <v>383</v>
       </c>
@@ -9563,14 +9885,14 @@
         <v>420</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="182" t="s">
+    <row r="7" spans="1:8" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="144" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>324</v>
       </c>
-      <c r="C7" s="183" t="s">
+      <c r="C7" s="145" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="76" t="s">
@@ -9586,12 +9908,12 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="183"/>
+    <row r="8" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="145"/>
       <c r="B8" s="80" t="s">
         <v>381</v>
       </c>
-      <c r="C8" s="184"/>
+      <c r="C8" s="146"/>
       <c r="D8" s="80" t="s">
         <v>5</v>
       </c>
@@ -9608,304 +9930,367 @@
         <v>379</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="123" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="122"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-    </row>
-    <row r="10" spans="1:33" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="186" t="s">
+    <row r="9" spans="1:8" s="237" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="235"/>
+      <c r="B9" s="235"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="235"/>
+      <c r="F9" s="235"/>
+    </row>
+    <row r="10" spans="1:8" s="91" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="91" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="148" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="148"/>
+      <c r="E10" s="91" t="s">
+        <v>391</v>
+      </c>
+      <c r="F10" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="91" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="91" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="270" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="147" t="s">
         <v>178</v>
       </c>
-      <c r="B10" s="110" t="s">
+      <c r="B11" s="268" t="s">
         <v>367</v>
       </c>
-      <c r="C10" s="186" t="s">
+      <c r="C11" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="120" t="s">
+      <c r="D11" s="269" t="s">
         <v>362</v>
       </c>
-      <c r="E10" s="186" t="s">
-        <v>391</v>
-      </c>
-      <c r="F10" s="110" t="s">
+      <c r="E11" s="269" t="s">
         <v>394</v>
       </c>
-      <c r="H10" s="121" t="s">
+      <c r="F11" s="268" t="s">
+        <v>394</v>
+      </c>
+      <c r="H11" s="271" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="186"/>
-      <c r="B11" s="103" t="s">
+    <row r="12" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="147"/>
+      <c r="B12" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C11" s="186"/>
-      <c r="D11" s="105" t="s">
+      <c r="C12" s="147"/>
+      <c r="D12" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E11" s="186"/>
-      <c r="F11" s="103" t="s">
+      <c r="E12" s="105" t="s">
         <v>395</v>
       </c>
-      <c r="H11" s="104" t="s">
+      <c r="F12" s="103" t="s">
+        <v>395</v>
+      </c>
+      <c r="H12" s="104" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="186"/>
-      <c r="B12" s="67" t="s">
+    <row r="13" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="147"/>
+      <c r="B13" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="186"/>
-      <c r="D12" s="68" t="s">
+      <c r="C13" s="147"/>
+      <c r="D13" s="68" t="s">
         <v>372</v>
       </c>
-      <c r="E12" s="186"/>
-      <c r="F12" s="103" t="s">
+      <c r="E13" s="68" t="s">
         <v>396</v>
       </c>
-      <c r="H12" s="104" t="s">
+      <c r="F13" s="103" t="s">
+        <v>396</v>
+      </c>
+      <c r="H13" s="104" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="117" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="118"/>
-      <c r="H13" s="119"/>
-    </row>
-    <row r="14" spans="1:33" s="116" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="195" t="s">
+    <row r="14" spans="1:8" s="232" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="233"/>
+      <c r="H14" s="234"/>
+    </row>
+    <row r="15" spans="1:8" s="91" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="91" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="148" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="148"/>
+      <c r="E15" s="91" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="91" t="s">
+        <v>165</v>
+      </c>
+      <c r="H15" s="91" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="116" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="156" t="s">
         <v>392</v>
       </c>
-      <c r="B14" s="198" t="s">
+      <c r="B16" s="159" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="198" t="s">
+      <c r="C16" s="159" t="s">
         <v>393</v>
       </c>
-      <c r="D14" s="130" t="s">
+      <c r="D16" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="200" t="s">
-        <v>167</v>
-      </c>
-      <c r="F14" s="125" t="s">
+      <c r="E16" s="120" t="s">
+        <v>421</v>
+      </c>
+      <c r="F16" s="120" t="s">
         <v>398</v>
       </c>
-      <c r="G14" s="109"/>
-      <c r="H14" s="115" t="s">
+      <c r="G16" s="109"/>
+      <c r="H16" s="115" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="144" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="196"/>
-      <c r="B15" s="199"/>
-      <c r="C15" s="199"/>
-      <c r="D15" s="139" t="s">
+    <row r="17" spans="1:41" s="248" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="157"/>
+      <c r="B17" s="160"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="250" t="s">
         <v>397</v>
       </c>
-      <c r="E15" s="201"/>
-      <c r="F15" s="140" t="s">
+      <c r="E17" s="251" t="s">
+        <v>422</v>
+      </c>
+      <c r="F17" s="251" t="s">
         <v>399</v>
       </c>
-      <c r="G15" s="141"/>
-      <c r="H15" s="142" t="s">
+      <c r="G17" s="246"/>
+      <c r="H17" s="252" t="s">
         <v>405</v>
       </c>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="143"/>
-      <c r="M15" s="143"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="143"/>
-      <c r="S15" s="143"/>
-      <c r="T15" s="143"/>
-      <c r="U15" s="143"/>
-      <c r="V15" s="143"/>
-      <c r="W15" s="143"/>
-      <c r="X15" s="143"/>
-      <c r="Y15" s="143"/>
-      <c r="Z15" s="143"/>
-      <c r="AA15" s="143"/>
-      <c r="AB15" s="143"/>
-      <c r="AC15" s="143"/>
-      <c r="AD15" s="143"/>
-      <c r="AE15" s="143"/>
-      <c r="AF15" s="143"/>
-      <c r="AG15" s="143"/>
-    </row>
-    <row r="16" spans="1:33" s="114" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="196"/>
-      <c r="B16" s="203" t="s">
+      <c r="I17" s="253"/>
+      <c r="J17" s="253"/>
+      <c r="K17" s="253"/>
+      <c r="L17" s="253"/>
+      <c r="M17" s="253"/>
+      <c r="N17" s="253"/>
+      <c r="O17" s="253"/>
+      <c r="P17" s="253"/>
+      <c r="Q17" s="253"/>
+      <c r="R17" s="253"/>
+      <c r="S17" s="253"/>
+      <c r="T17" s="253"/>
+      <c r="U17" s="253"/>
+      <c r="V17" s="253"/>
+      <c r="W17" s="253"/>
+      <c r="X17" s="253"/>
+      <c r="Y17" s="253"/>
+      <c r="Z17" s="253"/>
+      <c r="AA17" s="253"/>
+      <c r="AB17" s="253"/>
+      <c r="AC17" s="253"/>
+      <c r="AD17" s="253"/>
+      <c r="AE17" s="253"/>
+      <c r="AF17" s="253"/>
+      <c r="AG17" s="253"/>
+    </row>
+    <row r="18" spans="1:41" s="114" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="157"/>
+      <c r="B18" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="205" t="s">
+      <c r="C18" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="124" t="s">
+      <c r="D18" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="201"/>
-      <c r="F16" s="77" t="s">
+      <c r="E18" s="77" t="s">
+        <v>423</v>
+      </c>
+      <c r="F18" s="77" t="s">
         <v>403</v>
       </c>
-      <c r="G16" s="113"/>
-      <c r="H16" s="78" t="s">
+      <c r="G18" s="113"/>
+      <c r="H18" s="78" t="s">
         <v>418</v>
       </c>
-      <c r="I16" s="126"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="127"/>
-      <c r="Y16" s="127"/>
-      <c r="Z16" s="127"/>
-      <c r="AA16" s="127"/>
-      <c r="AB16" s="127"/>
-      <c r="AC16" s="127"/>
-      <c r="AD16" s="127"/>
-      <c r="AE16" s="127"/>
-      <c r="AF16" s="127"/>
-      <c r="AG16" s="127"/>
-    </row>
-    <row r="17" spans="1:41" s="138" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="196"/>
-      <c r="B17" s="204"/>
-      <c r="C17" s="206"/>
-      <c r="D17" s="132" t="s">
+      <c r="I18" s="121"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="122"/>
+      <c r="M18" s="122"/>
+      <c r="N18" s="122"/>
+      <c r="O18" s="122"/>
+      <c r="P18" s="122"/>
+      <c r="Q18" s="122"/>
+      <c r="R18" s="122"/>
+      <c r="S18" s="122"/>
+      <c r="T18" s="122"/>
+      <c r="U18" s="122"/>
+      <c r="V18" s="122"/>
+      <c r="W18" s="122"/>
+      <c r="X18" s="122"/>
+      <c r="Y18" s="122"/>
+      <c r="Z18" s="122"/>
+      <c r="AA18" s="122"/>
+      <c r="AB18" s="122"/>
+      <c r="AC18" s="122"/>
+      <c r="AD18" s="122"/>
+      <c r="AE18" s="122"/>
+      <c r="AF18" s="122"/>
+      <c r="AG18" s="122"/>
+    </row>
+    <row r="19" spans="1:41" s="262" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="157"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="256" t="s">
         <v>401</v>
       </c>
-      <c r="E17" s="201"/>
-      <c r="F17" s="133" t="s">
+      <c r="E19" s="257" t="s">
+        <v>424</v>
+      </c>
+      <c r="F19" s="257" t="s">
         <v>404</v>
       </c>
-      <c r="G17" s="134"/>
-      <c r="H17" s="135" t="s">
+      <c r="G19" s="258"/>
+      <c r="H19" s="259" t="s">
         <v>406</v>
       </c>
-      <c r="I17" s="136"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="137"/>
-      <c r="S17" s="137"/>
-      <c r="T17" s="137"/>
-      <c r="U17" s="137"/>
-      <c r="V17" s="137"/>
-      <c r="W17" s="137"/>
-      <c r="X17" s="137"/>
-      <c r="Y17" s="137"/>
-      <c r="Z17" s="137"/>
-      <c r="AA17" s="137"/>
-      <c r="AB17" s="137"/>
-      <c r="AC17" s="137"/>
-      <c r="AD17" s="137"/>
-      <c r="AE17" s="137"/>
-      <c r="AF17" s="137"/>
-      <c r="AG17" s="137"/>
-    </row>
-    <row r="18" spans="1:41" s="111" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="196"/>
-      <c r="B18" s="173" t="s">
+      <c r="I19" s="260"/>
+      <c r="J19" s="261"/>
+      <c r="K19" s="261"/>
+      <c r="L19" s="261"/>
+      <c r="M19" s="261"/>
+      <c r="N19" s="261"/>
+      <c r="O19" s="261"/>
+      <c r="P19" s="261"/>
+      <c r="Q19" s="261"/>
+      <c r="R19" s="261"/>
+      <c r="S19" s="261"/>
+      <c r="T19" s="261"/>
+      <c r="U19" s="261"/>
+      <c r="V19" s="261"/>
+      <c r="W19" s="261"/>
+      <c r="X19" s="261"/>
+      <c r="Y19" s="261"/>
+      <c r="Z19" s="261"/>
+      <c r="AA19" s="261"/>
+      <c r="AB19" s="261"/>
+      <c r="AC19" s="261"/>
+      <c r="AD19" s="261"/>
+      <c r="AE19" s="261"/>
+      <c r="AF19" s="261"/>
+      <c r="AG19" s="261"/>
+    </row>
+    <row r="20" spans="1:41" s="111" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="157"/>
+      <c r="B20" s="135" t="s">
         <v>178</v>
       </c>
-      <c r="C18" s="175" t="s">
+      <c r="C20" s="137" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="147" t="s">
+      <c r="D20" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="201"/>
-      <c r="F18" s="110" t="s">
+      <c r="E20" s="110" t="s">
+        <v>425</v>
+      </c>
+      <c r="F20" s="110" t="s">
         <v>410</v>
       </c>
-      <c r="G18" s="70"/>
-      <c r="H18" s="121" t="s">
+      <c r="G20" s="70"/>
+      <c r="H20" s="118" t="s">
         <v>408</v>
       </c>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="146"/>
-      <c r="O18" s="146"/>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="146"/>
-      <c r="R18" s="146"/>
-      <c r="S18" s="146"/>
-      <c r="T18" s="146"/>
-      <c r="U18" s="146"/>
-      <c r="V18" s="146"/>
-      <c r="W18" s="146"/>
-      <c r="X18" s="146"/>
-      <c r="Y18" s="146"/>
-      <c r="Z18" s="146"/>
-      <c r="AA18" s="146"/>
-      <c r="AB18" s="146"/>
-      <c r="AC18" s="146"/>
-      <c r="AD18" s="146"/>
-      <c r="AE18" s="146"/>
-      <c r="AF18" s="146"/>
-      <c r="AG18" s="146"/>
-      <c r="AH18" s="146"/>
-      <c r="AI18" s="146"/>
-      <c r="AJ18" s="146"/>
-      <c r="AK18" s="146"/>
-      <c r="AL18" s="146"/>
-      <c r="AM18" s="146"/>
-      <c r="AN18" s="146"/>
-      <c r="AO18" s="146"/>
-    </row>
-    <row r="19" spans="1:41" s="145" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="197"/>
-      <c r="B19" s="174"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="149" t="s">
+      <c r="I20" s="127"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="127"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="127"/>
+      <c r="N20" s="127"/>
+      <c r="O20" s="127"/>
+      <c r="P20" s="127"/>
+      <c r="Q20" s="127"/>
+      <c r="R20" s="127"/>
+      <c r="S20" s="127"/>
+      <c r="T20" s="127"/>
+      <c r="U20" s="127"/>
+      <c r="V20" s="127"/>
+      <c r="W20" s="127"/>
+      <c r="X20" s="127"/>
+      <c r="Y20" s="127"/>
+      <c r="Z20" s="127"/>
+      <c r="AA20" s="127"/>
+      <c r="AB20" s="127"/>
+      <c r="AC20" s="127"/>
+      <c r="AD20" s="127"/>
+      <c r="AE20" s="127"/>
+      <c r="AF20" s="127"/>
+      <c r="AG20" s="127"/>
+      <c r="AH20" s="127"/>
+      <c r="AI20" s="127"/>
+      <c r="AJ20" s="127"/>
+      <c r="AK20" s="127"/>
+      <c r="AL20" s="127"/>
+      <c r="AM20" s="127"/>
+      <c r="AN20" s="127"/>
+      <c r="AO20" s="127"/>
+    </row>
+    <row r="21" spans="1:41" s="242" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="158"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="238" t="s">
         <v>412</v>
       </c>
-      <c r="E19" s="202"/>
-      <c r="F19" s="150" t="s">
+      <c r="E21" s="239" t="s">
+        <v>426</v>
+      </c>
+      <c r="F21" s="239" t="s">
         <v>411</v>
       </c>
-      <c r="G19" s="151"/>
-      <c r="H19" s="152" t="s">
+      <c r="G21" s="240"/>
+      <c r="H21" s="241" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="20" spans="1:41" s="117" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="118"/>
-      <c r="H20" s="119"/>
+    <row r="22" spans="1:41" s="232" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="233"/>
+      <c r="H22" s="234"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="C2:C5"/>
@@ -9915,28 +10300,28 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="F3:F5"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="A16:A21"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183B3F6C-0F39-4E0A-BA17-BAF3E2384BC7}">
-  <dimension ref="A1:AO20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183B3F6C-0F39-4E0A-BA17-BAF3E2384BC7}">
+  <dimension ref="A1:AO22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9952,17 +10337,17 @@
     <col min="9" max="16384" width="8.88671875" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="91" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="91" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>163</v>
       </c>
       <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="187"/>
+      <c r="D1" s="148"/>
       <c r="E1" s="91" t="s">
         <v>164</v>
       </c>
@@ -9976,14 +10361,14 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="188" t="s">
+    <row r="2" spans="1:8" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="149" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="150" t="s">
         <v>315</v>
       </c>
       <c r="D2" s="62" t="s">
@@ -10002,65 +10387,65 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="178"/>
+    <row r="3" spans="1:8" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="140"/>
       <c r="B3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="191" t="s">
+      <c r="C3" s="151"/>
+      <c r="D3" s="152" t="s">
         <v>385</v>
       </c>
-      <c r="E3" s="177" t="s">
+      <c r="E3" s="139" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="177" t="s">
+      <c r="F3" s="139" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="177" t="s">
+      <c r="G3" s="139" t="s">
         <v>320</v>
       </c>
       <c r="H3" s="66" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="178"/>
+    <row r="4" spans="1:8" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="140"/>
       <c r="B4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="191"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
       <c r="H4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="178"/>
+    <row r="5" spans="1:8" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="140"/>
       <c r="B5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="192"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
       <c r="H5" s="96" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="179"/>
+    <row r="6" spans="1:8" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="141"/>
       <c r="B6" s="92" t="s">
         <v>392</v>
       </c>
-      <c r="C6" s="207" t="s">
+      <c r="C6" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="208"/>
+      <c r="D6" s="166"/>
       <c r="E6" s="93" t="s">
         <v>383</v>
       </c>
@@ -10071,14 +10456,14 @@
         <v>416</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="182" t="s">
+    <row r="7" spans="1:8" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="144" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>324</v>
       </c>
-      <c r="C7" s="183" t="s">
+      <c r="C7" s="145" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="76" t="s">
@@ -10094,12 +10479,12 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="183"/>
+    <row r="8" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="145"/>
       <c r="B8" s="80" t="s">
         <v>381</v>
       </c>
-      <c r="C8" s="184"/>
+      <c r="C8" s="146"/>
       <c r="D8" s="80" t="s">
         <v>5</v>
       </c>
@@ -10116,298 +10501,360 @@
         <v>379</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="123" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="122"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-    </row>
-    <row r="10" spans="1:33" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="186" t="s">
+    <row r="9" spans="1:8" s="237" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="235"/>
+      <c r="B9" s="235"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="235"/>
+      <c r="F9" s="235"/>
+    </row>
+    <row r="10" spans="1:8" s="91" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="91" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="148" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="148"/>
+      <c r="E10" s="91" t="s">
+        <v>391</v>
+      </c>
+      <c r="F10" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="91" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="91" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="147" t="s">
         <v>178</v>
       </c>
-      <c r="B10" s="110" t="s">
+      <c r="B11" s="110" t="s">
         <v>367</v>
       </c>
-      <c r="C10" s="186" t="s">
+      <c r="C11" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="120" t="s">
+      <c r="D11" s="117" t="s">
         <v>362</v>
       </c>
-      <c r="E10" s="186" t="s">
-        <v>391</v>
-      </c>
-      <c r="F10" s="110" t="s">
+      <c r="E11" s="117" t="s">
         <v>394</v>
       </c>
-      <c r="H10" s="121" t="s">
+      <c r="F11" s="110" t="s">
+        <v>394</v>
+      </c>
+      <c r="H11" s="118" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="186"/>
-      <c r="B11" s="103" t="s">
+    <row r="12" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="147"/>
+      <c r="B12" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C11" s="186"/>
-      <c r="D11" s="105" t="s">
+      <c r="C12" s="147"/>
+      <c r="D12" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E11" s="186"/>
-      <c r="F11" s="103" t="s">
+      <c r="E12" s="105" t="s">
         <v>395</v>
       </c>
-      <c r="H11" s="104" t="s">
+      <c r="F12" s="103" t="s">
+        <v>395</v>
+      </c>
+      <c r="H12" s="104" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="186"/>
-      <c r="B12" s="67" t="s">
+    <row r="13" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="147"/>
+      <c r="B13" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="186"/>
-      <c r="D12" s="68" t="s">
+      <c r="C13" s="147"/>
+      <c r="D13" s="68" t="s">
         <v>372</v>
       </c>
-      <c r="E12" s="186"/>
-      <c r="F12" s="103" t="s">
+      <c r="E13" s="68" t="s">
         <v>396</v>
       </c>
-      <c r="H12" s="104" t="s">
+      <c r="F13" s="103" t="s">
+        <v>396</v>
+      </c>
+      <c r="H13" s="104" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="117" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="118"/>
-      <c r="H13" s="119"/>
-    </row>
-    <row r="14" spans="1:33" s="116" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="195" t="s">
+    <row r="14" spans="1:8" s="232" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="233"/>
+      <c r="H14" s="234"/>
+    </row>
+    <row r="15" spans="1:8" s="91" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="91" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="148" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="148"/>
+      <c r="E15" s="91" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="91" t="s">
+        <v>165</v>
+      </c>
+      <c r="H15" s="91" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="116" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="156" t="s">
         <v>392</v>
       </c>
-      <c r="B14" s="198" t="s">
+      <c r="B16" s="159" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="198" t="s">
+      <c r="C16" s="159" t="s">
         <v>393</v>
       </c>
-      <c r="D14" s="130" t="s">
+      <c r="D16" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="200" t="s">
-        <v>167</v>
-      </c>
-      <c r="F14" s="125" t="s">
+      <c r="E16" s="125" t="s">
+        <v>421</v>
+      </c>
+      <c r="F16" s="120" t="s">
         <v>398</v>
       </c>
-      <c r="G14" s="109"/>
-      <c r="H14" s="115" t="s">
+      <c r="G16" s="109"/>
+      <c r="H16" s="115" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="116" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="196"/>
-      <c r="B15" s="199"/>
-      <c r="C15" s="199"/>
-      <c r="D15" s="131" t="s">
+    <row r="17" spans="1:41" s="116" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="157"/>
+      <c r="B17" s="160"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="126" t="s">
         <v>397</v>
       </c>
-      <c r="E15" s="201"/>
-      <c r="F15" s="112" t="s">
+      <c r="E17" s="126" t="s">
+        <v>422</v>
+      </c>
+      <c r="F17" s="112" t="s">
         <v>399</v>
       </c>
-      <c r="G15" s="109"/>
-      <c r="H15" s="128" t="s">
+      <c r="G17" s="109"/>
+      <c r="H17" s="123" t="s">
         <v>400</v>
       </c>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="129"/>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="129"/>
-      <c r="S15" s="129"/>
-      <c r="T15" s="129"/>
-      <c r="U15" s="129"/>
-      <c r="V15" s="129"/>
-      <c r="W15" s="129"/>
-      <c r="X15" s="129"/>
-      <c r="Y15" s="129"/>
-      <c r="Z15" s="129"/>
-      <c r="AA15" s="129"/>
-      <c r="AB15" s="129"/>
-      <c r="AC15" s="129"/>
-      <c r="AD15" s="129"/>
-      <c r="AE15" s="129"/>
-      <c r="AF15" s="129"/>
-      <c r="AG15" s="129"/>
-    </row>
-    <row r="16" spans="1:33" s="114" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="196"/>
-      <c r="B16" s="203" t="s">
+      <c r="I17" s="124"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="124"/>
+      <c r="O17" s="124"/>
+      <c r="P17" s="124"/>
+      <c r="Q17" s="124"/>
+      <c r="R17" s="124"/>
+      <c r="S17" s="124"/>
+      <c r="T17" s="124"/>
+      <c r="U17" s="124"/>
+      <c r="V17" s="124"/>
+      <c r="W17" s="124"/>
+      <c r="X17" s="124"/>
+      <c r="Y17" s="124"/>
+      <c r="Z17" s="124"/>
+      <c r="AA17" s="124"/>
+      <c r="AB17" s="124"/>
+      <c r="AC17" s="124"/>
+      <c r="AD17" s="124"/>
+      <c r="AE17" s="124"/>
+      <c r="AF17" s="124"/>
+      <c r="AG17" s="124"/>
+    </row>
+    <row r="18" spans="1:41" s="114" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="157"/>
+      <c r="B18" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="205" t="s">
+      <c r="C18" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="124" t="s">
+      <c r="D18" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="201"/>
-      <c r="F16" s="77" t="s">
+      <c r="E18" s="119" t="s">
+        <v>423</v>
+      </c>
+      <c r="F18" s="77" t="s">
         <v>403</v>
       </c>
-      <c r="G16" s="113"/>
-      <c r="H16" s="78" t="s">
+      <c r="G18" s="113"/>
+      <c r="H18" s="78" t="s">
         <v>418</v>
       </c>
-      <c r="I16" s="126"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="127"/>
-      <c r="Y16" s="127"/>
-      <c r="Z16" s="127"/>
-      <c r="AA16" s="127"/>
-      <c r="AB16" s="127"/>
-      <c r="AC16" s="127"/>
-      <c r="AD16" s="127"/>
-      <c r="AE16" s="127"/>
-      <c r="AF16" s="127"/>
-      <c r="AG16" s="127"/>
-    </row>
-    <row r="17" spans="1:41" s="114" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="196"/>
-      <c r="B17" s="204"/>
-      <c r="C17" s="206"/>
-      <c r="D17" s="124" t="s">
+      <c r="I18" s="121"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="122"/>
+      <c r="M18" s="122"/>
+      <c r="N18" s="122"/>
+      <c r="O18" s="122"/>
+      <c r="P18" s="122"/>
+      <c r="Q18" s="122"/>
+      <c r="R18" s="122"/>
+      <c r="S18" s="122"/>
+      <c r="T18" s="122"/>
+      <c r="U18" s="122"/>
+      <c r="V18" s="122"/>
+      <c r="W18" s="122"/>
+      <c r="X18" s="122"/>
+      <c r="Y18" s="122"/>
+      <c r="Z18" s="122"/>
+      <c r="AA18" s="122"/>
+      <c r="AB18" s="122"/>
+      <c r="AC18" s="122"/>
+      <c r="AD18" s="122"/>
+      <c r="AE18" s="122"/>
+      <c r="AF18" s="122"/>
+      <c r="AG18" s="122"/>
+    </row>
+    <row r="19" spans="1:41" s="114" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="157"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="119" t="s">
         <v>401</v>
       </c>
-      <c r="E17" s="201"/>
-      <c r="F17" s="77" t="s">
+      <c r="E19" s="119" t="s">
+        <v>424</v>
+      </c>
+      <c r="F19" s="77" t="s">
         <v>404</v>
       </c>
-      <c r="G17" s="113"/>
-      <c r="H17" s="78" t="s">
+      <c r="G19" s="113"/>
+      <c r="H19" s="78" t="s">
         <v>402</v>
       </c>
-      <c r="I17" s="126"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="127"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="127"/>
-      <c r="W17" s="127"/>
-      <c r="X17" s="127"/>
-      <c r="Y17" s="127"/>
-      <c r="Z17" s="127"/>
-      <c r="AA17" s="127"/>
-      <c r="AB17" s="127"/>
-      <c r="AC17" s="127"/>
-      <c r="AD17" s="127"/>
-      <c r="AE17" s="127"/>
-      <c r="AF17" s="127"/>
-      <c r="AG17" s="127"/>
-    </row>
-    <row r="18" spans="1:41" s="111" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="196"/>
-      <c r="B18" s="173" t="s">
+      <c r="I19" s="121"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="122"/>
+      <c r="M19" s="122"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="122"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="122"/>
+      <c r="S19" s="122"/>
+      <c r="T19" s="122"/>
+      <c r="U19" s="122"/>
+      <c r="V19" s="122"/>
+      <c r="W19" s="122"/>
+      <c r="X19" s="122"/>
+      <c r="Y19" s="122"/>
+      <c r="Z19" s="122"/>
+      <c r="AA19" s="122"/>
+      <c r="AB19" s="122"/>
+      <c r="AC19" s="122"/>
+      <c r="AD19" s="122"/>
+      <c r="AE19" s="122"/>
+      <c r="AF19" s="122"/>
+      <c r="AG19" s="122"/>
+    </row>
+    <row r="20" spans="1:41" s="111" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="157"/>
+      <c r="B20" s="135" t="s">
         <v>178</v>
       </c>
-      <c r="C18" s="175" t="s">
+      <c r="C20" s="137" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="147" t="s">
+      <c r="D20" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="201"/>
-      <c r="F18" s="110" t="s">
+      <c r="E20" s="128" t="s">
+        <v>425</v>
+      </c>
+      <c r="F20" s="110" t="s">
         <v>410</v>
       </c>
-      <c r="G18" s="70"/>
-      <c r="H18" s="121" t="s">
+      <c r="G20" s="70"/>
+      <c r="H20" s="118" t="s">
         <v>408</v>
       </c>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="146"/>
-      <c r="O18" s="146"/>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="146"/>
-      <c r="R18" s="146"/>
-      <c r="S18" s="146"/>
-      <c r="T18" s="146"/>
-      <c r="U18" s="146"/>
-      <c r="V18" s="146"/>
-      <c r="W18" s="146"/>
-      <c r="X18" s="146"/>
-      <c r="Y18" s="146"/>
-      <c r="Z18" s="146"/>
-      <c r="AA18" s="146"/>
-      <c r="AB18" s="146"/>
-      <c r="AC18" s="146"/>
-      <c r="AD18" s="146"/>
-      <c r="AE18" s="146"/>
-      <c r="AF18" s="146"/>
-      <c r="AG18" s="146"/>
-      <c r="AH18" s="146"/>
-      <c r="AI18" s="146"/>
-      <c r="AJ18" s="146"/>
-      <c r="AK18" s="146"/>
-      <c r="AL18" s="146"/>
-      <c r="AM18" s="146"/>
-      <c r="AN18" s="146"/>
-      <c r="AO18" s="146"/>
-    </row>
-    <row r="19" spans="1:41" s="111" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="197"/>
-      <c r="B19" s="174"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="148" t="s">
+      <c r="I20" s="127"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="127"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="127"/>
+      <c r="N20" s="127"/>
+      <c r="O20" s="127"/>
+      <c r="P20" s="127"/>
+      <c r="Q20" s="127"/>
+      <c r="R20" s="127"/>
+      <c r="S20" s="127"/>
+      <c r="T20" s="127"/>
+      <c r="U20" s="127"/>
+      <c r="V20" s="127"/>
+      <c r="W20" s="127"/>
+      <c r="X20" s="127"/>
+      <c r="Y20" s="127"/>
+      <c r="Z20" s="127"/>
+      <c r="AA20" s="127"/>
+      <c r="AB20" s="127"/>
+      <c r="AC20" s="127"/>
+      <c r="AD20" s="127"/>
+      <c r="AE20" s="127"/>
+      <c r="AF20" s="127"/>
+      <c r="AG20" s="127"/>
+      <c r="AH20" s="127"/>
+      <c r="AI20" s="127"/>
+      <c r="AJ20" s="127"/>
+      <c r="AK20" s="127"/>
+      <c r="AL20" s="127"/>
+      <c r="AM20" s="127"/>
+      <c r="AN20" s="127"/>
+      <c r="AO20" s="127"/>
+    </row>
+    <row r="21" spans="1:41" s="111" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="158"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="129" t="s">
         <v>412</v>
       </c>
-      <c r="E19" s="202"/>
-      <c r="F19" s="103" t="s">
+      <c r="E21" s="129" t="s">
+        <v>426</v>
+      </c>
+      <c r="F21" s="103" t="s">
         <v>411</v>
       </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="104" t="s">
+      <c r="G21" s="67"/>
+      <c r="H21" s="104" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="20" spans="1:41" s="117" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="118"/>
-      <c r="H20" s="119"/>
+    <row r="22" spans="1:41" s="232" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="233"/>
+      <c r="H22" s="234"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -10416,26 +10863,27 @@
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:E5"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A21"/>
     <mergeCell ref="G3:G5"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="A11:A13"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C11:C13"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F3:F5"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10444,7 +10892,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10467,10 +10915,10 @@
       <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="187"/>
+      <c r="D1" s="148"/>
       <c r="E1" s="91" t="s">
         <v>164</v>
       </c>
@@ -10485,13 +10933,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="149" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="150" t="s">
         <v>315</v>
       </c>
       <c r="D2" s="62" t="s">
@@ -10511,21 +10959,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="178"/>
+      <c r="A3" s="140"/>
       <c r="B3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="191" t="s">
+      <c r="C3" s="151"/>
+      <c r="D3" s="152" t="s">
         <v>385</v>
       </c>
-      <c r="E3" s="177" t="s">
+      <c r="E3" s="139" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="177" t="s">
+      <c r="F3" s="139" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="177" t="s">
+      <c r="G3" s="139" t="s">
         <v>320</v>
       </c>
       <c r="H3" s="66" t="s">
@@ -10533,42 +10981,42 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="178"/>
+      <c r="A4" s="140"/>
       <c r="B4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="191"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
       <c r="H4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="178"/>
+      <c r="A5" s="140"/>
       <c r="B5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="192"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
       <c r="H5" s="96" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="179"/>
+      <c r="A6" s="141"/>
       <c r="B6" s="92" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="207" t="s">
+      <c r="C6" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="208"/>
+      <c r="D6" s="166"/>
       <c r="E6" s="93" t="s">
         <v>383</v>
       </c>
@@ -10580,13 +11028,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="182" t="s">
+      <c r="A7" s="144" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>324</v>
       </c>
-      <c r="C7" s="183" t="s">
+      <c r="C7" s="145" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="76" t="s">
@@ -10603,11 +11051,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="183"/>
+      <c r="A8" s="145"/>
       <c r="B8" s="80" t="s">
         <v>381</v>
       </c>
-      <c r="C8" s="184"/>
+      <c r="C8" s="146"/>
       <c r="D8" s="80" t="s">
         <v>5</v>
       </c>
@@ -10625,23 +11073,23 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="91" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="187"/>
-      <c r="D9" s="187"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="148"/>
     </row>
     <row r="10" spans="1:8" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="209" t="s">
+      <c r="A10" s="167" t="s">
         <v>178</v>
       </c>
       <c r="B10" s="103" t="s">
         <v>367</v>
       </c>
-      <c r="C10" s="210" t="s">
+      <c r="C10" s="168" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E10" s="210" t="s">
+      <c r="E10" s="168" t="s">
         <v>391</v>
       </c>
       <c r="F10" s="103" t="s">
@@ -10652,15 +11100,15 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="186"/>
+      <c r="A11" s="147"/>
       <c r="B11" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C11" s="186"/>
+      <c r="C11" s="147"/>
       <c r="D11" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E11" s="186"/>
+      <c r="E11" s="147"/>
       <c r="F11" s="103" t="s">
         <v>387</v>
       </c>
@@ -10669,15 +11117,15 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="186"/>
+      <c r="A12" s="147"/>
       <c r="B12" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="186"/>
+      <c r="C12" s="147"/>
       <c r="D12" s="68" t="s">
         <v>372</v>
       </c>
-      <c r="E12" s="186"/>
+      <c r="E12" s="147"/>
       <c r="F12" s="103" t="s">
         <v>388</v>
       </c>
@@ -10711,8 +11159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029C89FC-CD99-4E52-93B5-BC3FC468CF6F}">
   <dimension ref="A1:C257"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G220" sqref="G220"/>
+    <sheetView topLeftCell="B67" workbookViewId="0">
+      <selection activeCell="F212" sqref="F212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="2.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10730,7 +11178,7 @@
         <f t="shared" ref="B1:B64" si="0">DEC2HEX(A1)</f>
         <v>0</v>
       </c>
-      <c r="C1" s="211" t="s">
+      <c r="C1" s="169" t="s">
         <v>141</v>
       </c>
     </row>
@@ -10743,7 +11191,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C2" s="211"/>
+      <c r="C2" s="169"/>
     </row>
     <row r="3" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="108">
@@ -10754,7 +11202,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C3" s="211"/>
+      <c r="C3" s="169"/>
     </row>
     <row r="4" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="108">
@@ -10765,7 +11213,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C4" s="211"/>
+      <c r="C4" s="169"/>
     </row>
     <row r="5" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="108">
@@ -10776,7 +11224,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C5" s="211"/>
+      <c r="C5" s="169"/>
     </row>
     <row r="6" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="108">
@@ -10787,7 +11235,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C6" s="211"/>
+      <c r="C6" s="169"/>
     </row>
     <row r="7" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="108">
@@ -10798,7 +11246,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C7" s="211"/>
+      <c r="C7" s="169"/>
     </row>
     <row r="8" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="108">
@@ -10809,7 +11257,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C8" s="211"/>
+      <c r="C8" s="169"/>
     </row>
     <row r="9" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="108">
@@ -10820,7 +11268,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C9" s="211"/>
+      <c r="C9" s="169"/>
     </row>
     <row r="10" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="108">
@@ -10831,7 +11279,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C10" s="211"/>
+      <c r="C10" s="169"/>
     </row>
     <row r="11" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="108">
@@ -10842,7 +11290,7 @@
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="C11" s="211"/>
+      <c r="C11" s="169"/>
     </row>
     <row r="12" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="108">
@@ -10853,7 +11301,7 @@
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="C12" s="211"/>
+      <c r="C12" s="169"/>
     </row>
     <row r="13" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="108">
@@ -10864,7 +11312,7 @@
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="C13" s="211"/>
+      <c r="C13" s="169"/>
     </row>
     <row r="14" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="108">
@@ -10875,7 +11323,7 @@
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="C14" s="211"/>
+      <c r="C14" s="169"/>
     </row>
     <row r="15" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="108">
@@ -10886,7 +11334,7 @@
         <f t="shared" si="0"/>
         <v>E</v>
       </c>
-      <c r="C15" s="211"/>
+      <c r="C15" s="169"/>
     </row>
     <row r="16" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="108">
@@ -10897,7 +11345,7 @@
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="C16" s="211"/>
+      <c r="C16" s="169"/>
     </row>
     <row r="17" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="108">
@@ -10908,7 +11356,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C17" s="211"/>
+      <c r="C17" s="169"/>
     </row>
     <row r="18" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="108">
@@ -10919,7 +11367,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C18" s="211"/>
+      <c r="C18" s="169"/>
     </row>
     <row r="19" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="108">
@@ -10930,7 +11378,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C19" s="211"/>
+      <c r="C19" s="169"/>
     </row>
     <row r="20" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="108">
@@ -10941,7 +11389,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C20" s="211"/>
+      <c r="C20" s="169"/>
     </row>
     <row r="21" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="108">
@@ -10952,7 +11400,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C21" s="211"/>
+      <c r="C21" s="169"/>
     </row>
     <row r="22" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="108">
@@ -10963,7 +11411,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C22" s="211"/>
+      <c r="C22" s="169"/>
     </row>
     <row r="23" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="108">
@@ -10974,7 +11422,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C23" s="211"/>
+      <c r="C23" s="169"/>
     </row>
     <row r="24" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="108">
@@ -10985,7 +11433,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C24" s="211"/>
+      <c r="C24" s="169"/>
     </row>
     <row r="25" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="108">
@@ -10996,7 +11444,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C25" s="211"/>
+      <c r="C25" s="169"/>
     </row>
     <row r="26" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="108">
@@ -11007,7 +11455,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C26" s="211"/>
+      <c r="C26" s="169"/>
     </row>
     <row r="27" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="108">
@@ -11018,7 +11466,7 @@
         <f t="shared" si="0"/>
         <v>1A</v>
       </c>
-      <c r="C27" s="211"/>
+      <c r="C27" s="169"/>
     </row>
     <row r="28" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="108">
@@ -11029,7 +11477,7 @@
         <f t="shared" si="0"/>
         <v>1B</v>
       </c>
-      <c r="C28" s="211"/>
+      <c r="C28" s="169"/>
     </row>
     <row r="29" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="108">
@@ -11040,7 +11488,7 @@
         <f t="shared" si="0"/>
         <v>1C</v>
       </c>
-      <c r="C29" s="211"/>
+      <c r="C29" s="169"/>
     </row>
     <row r="30" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="108">
@@ -11051,7 +11499,7 @@
         <f t="shared" si="0"/>
         <v>1D</v>
       </c>
-      <c r="C30" s="211"/>
+      <c r="C30" s="169"/>
     </row>
     <row r="31" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="108">
@@ -11062,7 +11510,7 @@
         <f t="shared" si="0"/>
         <v>1E</v>
       </c>
-      <c r="C31" s="211"/>
+      <c r="C31" s="169"/>
     </row>
     <row r="32" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="108">
@@ -11073,7 +11521,7 @@
         <f t="shared" si="0"/>
         <v>1F</v>
       </c>
-      <c r="C32" s="211"/>
+      <c r="C32" s="169"/>
     </row>
     <row r="33" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="108">
@@ -11084,7 +11532,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C33" s="211"/>
+      <c r="C33" s="169"/>
     </row>
     <row r="34" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="108">
@@ -11095,7 +11543,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C34" s="211"/>
+      <c r="C34" s="169"/>
     </row>
     <row r="35" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="108">
@@ -11106,7 +11554,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C35" s="211"/>
+      <c r="C35" s="169"/>
     </row>
     <row r="36" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="108">
@@ -11117,7 +11565,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C36" s="211"/>
+      <c r="C36" s="169"/>
     </row>
     <row r="37" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="108">
@@ -11128,7 +11576,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C37" s="211"/>
+      <c r="C37" s="169"/>
     </row>
     <row r="38" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="108">
@@ -11139,7 +11587,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C38" s="211"/>
+      <c r="C38" s="169"/>
     </row>
     <row r="39" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="108">
@@ -11150,7 +11598,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C39" s="211"/>
+      <c r="C39" s="169"/>
     </row>
     <row r="40" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="108">
@@ -11161,7 +11609,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C40" s="211"/>
+      <c r="C40" s="169"/>
     </row>
     <row r="41" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="108">
@@ -11172,7 +11620,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C41" s="211"/>
+      <c r="C41" s="169"/>
     </row>
     <row r="42" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="108">
@@ -11183,7 +11631,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C42" s="211"/>
+      <c r="C42" s="169"/>
     </row>
     <row r="43" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="108">
@@ -11194,7 +11642,7 @@
         <f t="shared" si="0"/>
         <v>2A</v>
       </c>
-      <c r="C43" s="211"/>
+      <c r="C43" s="169"/>
     </row>
     <row r="44" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="108">
@@ -11205,7 +11653,7 @@
         <f t="shared" si="0"/>
         <v>2B</v>
       </c>
-      <c r="C44" s="211"/>
+      <c r="C44" s="169"/>
     </row>
     <row r="45" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="108">
@@ -11216,7 +11664,7 @@
         <f t="shared" si="0"/>
         <v>2C</v>
       </c>
-      <c r="C45" s="211"/>
+      <c r="C45" s="169"/>
     </row>
     <row r="46" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="108">
@@ -11227,7 +11675,7 @@
         <f t="shared" si="0"/>
         <v>2D</v>
       </c>
-      <c r="C46" s="211"/>
+      <c r="C46" s="169"/>
     </row>
     <row r="47" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="108">
@@ -11238,7 +11686,7 @@
         <f t="shared" si="0"/>
         <v>2E</v>
       </c>
-      <c r="C47" s="211"/>
+      <c r="C47" s="169"/>
     </row>
     <row r="48" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="108">
@@ -11249,7 +11697,7 @@
         <f t="shared" si="0"/>
         <v>2F</v>
       </c>
-      <c r="C48" s="211"/>
+      <c r="C48" s="169"/>
     </row>
     <row r="49" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="108">
@@ -11260,7 +11708,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C49" s="211"/>
+      <c r="C49" s="169"/>
     </row>
     <row r="50" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="108">
@@ -11271,7 +11719,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C50" s="211"/>
+      <c r="C50" s="169"/>
     </row>
     <row r="51" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="108">
@@ -11282,7 +11730,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C51" s="211"/>
+      <c r="C51" s="169"/>
     </row>
     <row r="52" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="108">
@@ -11293,7 +11741,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C52" s="211"/>
+      <c r="C52" s="169"/>
     </row>
     <row r="53" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="108">
@@ -11304,7 +11752,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C53" s="211"/>
+      <c r="C53" s="169"/>
     </row>
     <row r="54" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="108">
@@ -11315,7 +11763,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C54" s="211"/>
+      <c r="C54" s="169"/>
     </row>
     <row r="55" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="108">
@@ -11326,7 +11774,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C55" s="211"/>
+      <c r="C55" s="169"/>
     </row>
     <row r="56" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="108">
@@ -11337,7 +11785,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C56" s="211"/>
+      <c r="C56" s="169"/>
     </row>
     <row r="57" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="108">
@@ -11348,7 +11796,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C57" s="211"/>
+      <c r="C57" s="169"/>
     </row>
     <row r="58" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="108">
@@ -11359,7 +11807,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C58" s="211"/>
+      <c r="C58" s="169"/>
     </row>
     <row r="59" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="108">
@@ -11370,7 +11818,7 @@
         <f t="shared" si="0"/>
         <v>3A</v>
       </c>
-      <c r="C59" s="211"/>
+      <c r="C59" s="169"/>
     </row>
     <row r="60" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="108">
@@ -11381,7 +11829,7 @@
         <f t="shared" si="0"/>
         <v>3B</v>
       </c>
-      <c r="C60" s="211"/>
+      <c r="C60" s="169"/>
     </row>
     <row r="61" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="108">
@@ -11392,7 +11840,7 @@
         <f t="shared" si="0"/>
         <v>3C</v>
       </c>
-      <c r="C61" s="211"/>
+      <c r="C61" s="169"/>
     </row>
     <row r="62" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="108">
@@ -11403,7 +11851,7 @@
         <f t="shared" si="0"/>
         <v>3D</v>
       </c>
-      <c r="C62" s="211"/>
+      <c r="C62" s="169"/>
     </row>
     <row r="63" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="108">
@@ -11414,7 +11862,7 @@
         <f t="shared" si="0"/>
         <v>3E</v>
       </c>
-      <c r="C63" s="211"/>
+      <c r="C63" s="169"/>
     </row>
     <row r="64" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="108">
@@ -11425,7 +11873,7 @@
         <f t="shared" si="0"/>
         <v>3F</v>
       </c>
-      <c r="C64" s="211"/>
+      <c r="C64" s="169"/>
     </row>
     <row r="65" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="108">
@@ -11436,7 +11884,7 @@
         <f t="shared" ref="B65:B128" si="2">DEC2HEX(A65)</f>
         <v>40</v>
       </c>
-      <c r="C65" s="211"/>
+      <c r="C65" s="169"/>
     </row>
     <row r="66" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="108">
@@ -11447,7 +11895,7 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="C66" s="211"/>
+      <c r="C66" s="169"/>
     </row>
     <row r="67" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="108">
@@ -11458,7 +11906,7 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="C67" s="211"/>
+      <c r="C67" s="169"/>
     </row>
     <row r="68" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="108">
@@ -11469,7 +11917,7 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="C68" s="211"/>
+      <c r="C68" s="169"/>
     </row>
     <row r="69" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="108">
@@ -11480,7 +11928,7 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="C69" s="211"/>
+      <c r="C69" s="169"/>
     </row>
     <row r="70" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="108">
@@ -11491,7 +11939,7 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="C70" s="211"/>
+      <c r="C70" s="169"/>
     </row>
     <row r="71" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="108">
@@ -11502,7 +11950,7 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="C71" s="211"/>
+      <c r="C71" s="169"/>
     </row>
     <row r="72" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="108">
@@ -11513,7 +11961,7 @@
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="C72" s="211"/>
+      <c r="C72" s="169"/>
     </row>
     <row r="73" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="108">
@@ -11524,7 +11972,7 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="C73" s="211"/>
+      <c r="C73" s="169"/>
     </row>
     <row r="74" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="108">
@@ -11535,7 +11983,7 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="C74" s="211"/>
+      <c r="C74" s="169"/>
     </row>
     <row r="75" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="108">
@@ -11546,7 +11994,7 @@
         <f t="shared" si="2"/>
         <v>4A</v>
       </c>
-      <c r="C75" s="211"/>
+      <c r="C75" s="169"/>
     </row>
     <row r="76" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="108">
@@ -11557,7 +12005,7 @@
         <f t="shared" si="2"/>
         <v>4B</v>
       </c>
-      <c r="C76" s="211"/>
+      <c r="C76" s="169"/>
     </row>
     <row r="77" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="108">
@@ -11568,7 +12016,7 @@
         <f t="shared" si="2"/>
         <v>4C</v>
       </c>
-      <c r="C77" s="211"/>
+      <c r="C77" s="169"/>
     </row>
     <row r="78" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="108">
@@ -11579,7 +12027,7 @@
         <f t="shared" si="2"/>
         <v>4D</v>
       </c>
-      <c r="C78" s="211"/>
+      <c r="C78" s="169"/>
     </row>
     <row r="79" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="108">
@@ -11590,7 +12038,7 @@
         <f t="shared" si="2"/>
         <v>4E</v>
       </c>
-      <c r="C79" s="211"/>
+      <c r="C79" s="169"/>
     </row>
     <row r="80" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="108">
@@ -11601,7 +12049,7 @@
         <f t="shared" si="2"/>
         <v>4F</v>
       </c>
-      <c r="C80" s="211"/>
+      <c r="C80" s="169"/>
     </row>
     <row r="81" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="108">
@@ -11612,7 +12060,7 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="C81" s="211"/>
+      <c r="C81" s="169"/>
     </row>
     <row r="82" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="108">
@@ -11623,7 +12071,7 @@
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="C82" s="211"/>
+      <c r="C82" s="169"/>
     </row>
     <row r="83" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="108">
@@ -11634,7 +12082,7 @@
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="C83" s="211"/>
+      <c r="C83" s="169"/>
     </row>
     <row r="84" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="108">
@@ -11645,7 +12093,7 @@
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="C84" s="211"/>
+      <c r="C84" s="169"/>
     </row>
     <row r="85" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="108">
@@ -11656,7 +12104,7 @@
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="C85" s="211"/>
+      <c r="C85" s="169"/>
     </row>
     <row r="86" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="108">
@@ -11667,7 +12115,7 @@
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="C86" s="211"/>
+      <c r="C86" s="169"/>
     </row>
     <row r="87" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="108">
@@ -11678,7 +12126,7 @@
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="C87" s="211"/>
+      <c r="C87" s="169"/>
     </row>
     <row r="88" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="108">
@@ -11689,7 +12137,7 @@
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="C88" s="211"/>
+      <c r="C88" s="169"/>
     </row>
     <row r="89" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="108">
@@ -11700,7 +12148,7 @@
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="C89" s="211"/>
+      <c r="C89" s="169"/>
     </row>
     <row r="90" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="108">
@@ -11711,7 +12159,7 @@
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="C90" s="211"/>
+      <c r="C90" s="169"/>
     </row>
     <row r="91" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="108">
@@ -11722,7 +12170,7 @@
         <f t="shared" si="2"/>
         <v>5A</v>
       </c>
-      <c r="C91" s="211"/>
+      <c r="C91" s="169"/>
     </row>
     <row r="92" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="108">
@@ -11733,7 +12181,7 @@
         <f t="shared" si="2"/>
         <v>5B</v>
       </c>
-      <c r="C92" s="211"/>
+      <c r="C92" s="169"/>
     </row>
     <row r="93" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="108">
@@ -11744,7 +12192,7 @@
         <f t="shared" si="2"/>
         <v>5C</v>
       </c>
-      <c r="C93" s="211"/>
+      <c r="C93" s="169"/>
     </row>
     <row r="94" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="108">
@@ -11755,7 +12203,7 @@
         <f t="shared" si="2"/>
         <v>5D</v>
       </c>
-      <c r="C94" s="211"/>
+      <c r="C94" s="169"/>
     </row>
     <row r="95" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="108">
@@ -11766,7 +12214,7 @@
         <f t="shared" si="2"/>
         <v>5E</v>
       </c>
-      <c r="C95" s="211"/>
+      <c r="C95" s="169"/>
     </row>
     <row r="96" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="108">
@@ -11777,7 +12225,7 @@
         <f t="shared" si="2"/>
         <v>5F</v>
       </c>
-      <c r="C96" s="211"/>
+      <c r="C96" s="169"/>
     </row>
     <row r="97" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="108">
@@ -11788,7 +12236,7 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="C97" s="211"/>
+      <c r="C97" s="169"/>
     </row>
     <row r="98" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="108">
@@ -11799,7 +12247,7 @@
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="C98" s="211"/>
+      <c r="C98" s="169"/>
     </row>
     <row r="99" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="108">
@@ -11810,7 +12258,7 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="C99" s="211"/>
+      <c r="C99" s="169"/>
     </row>
     <row r="100" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="108">
@@ -11821,7 +12269,7 @@
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="C100" s="211"/>
+      <c r="C100" s="169"/>
     </row>
     <row r="101" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="108">
@@ -11832,7 +12280,7 @@
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="C101" s="211"/>
+      <c r="C101" s="169"/>
     </row>
     <row r="102" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="108">
@@ -11843,7 +12291,7 @@
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="C102" s="211"/>
+      <c r="C102" s="169"/>
     </row>
     <row r="103" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="108">
@@ -11854,7 +12302,7 @@
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="C103" s="211"/>
+      <c r="C103" s="169"/>
     </row>
     <row r="104" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="108">
@@ -11865,7 +12313,7 @@
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="C104" s="211"/>
+      <c r="C104" s="169"/>
     </row>
     <row r="105" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="108">
@@ -11876,7 +12324,7 @@
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="C105" s="211"/>
+      <c r="C105" s="169"/>
     </row>
     <row r="106" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="108">
@@ -11887,7 +12335,7 @@
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="C106" s="211"/>
+      <c r="C106" s="169"/>
     </row>
     <row r="107" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="108">
@@ -11898,7 +12346,7 @@
         <f t="shared" si="2"/>
         <v>6A</v>
       </c>
-      <c r="C107" s="211"/>
+      <c r="C107" s="169"/>
     </row>
     <row r="108" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="108">
@@ -11909,7 +12357,7 @@
         <f t="shared" si="2"/>
         <v>6B</v>
       </c>
-      <c r="C108" s="211"/>
+      <c r="C108" s="169"/>
     </row>
     <row r="109" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="108">
@@ -11920,7 +12368,7 @@
         <f t="shared" si="2"/>
         <v>6C</v>
       </c>
-      <c r="C109" s="211"/>
+      <c r="C109" s="169"/>
     </row>
     <row r="110" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="108">
@@ -11931,7 +12379,7 @@
         <f t="shared" si="2"/>
         <v>6D</v>
       </c>
-      <c r="C110" s="211"/>
+      <c r="C110" s="169"/>
     </row>
     <row r="111" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="108">
@@ -11942,7 +12390,7 @@
         <f t="shared" si="2"/>
         <v>6E</v>
       </c>
-      <c r="C111" s="211"/>
+      <c r="C111" s="169"/>
     </row>
     <row r="112" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="108">
@@ -11953,7 +12401,7 @@
         <f t="shared" si="2"/>
         <v>6F</v>
       </c>
-      <c r="C112" s="211"/>
+      <c r="C112" s="169"/>
     </row>
     <row r="113" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="108">
@@ -11964,7 +12412,7 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="C113" s="211"/>
+      <c r="C113" s="169"/>
     </row>
     <row r="114" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="108">
@@ -11975,7 +12423,7 @@
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="C114" s="211"/>
+      <c r="C114" s="169"/>
     </row>
     <row r="115" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="108">
@@ -11986,7 +12434,7 @@
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="C115" s="211"/>
+      <c r="C115" s="169"/>
     </row>
     <row r="116" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="108">
@@ -11997,7 +12445,7 @@
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="C116" s="211"/>
+      <c r="C116" s="169"/>
     </row>
     <row r="117" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="108">
@@ -12008,7 +12456,7 @@
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="C117" s="211"/>
+      <c r="C117" s="169"/>
     </row>
     <row r="118" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="108">
@@ -12019,7 +12467,7 @@
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="C118" s="211"/>
+      <c r="C118" s="169"/>
     </row>
     <row r="119" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="108">
@@ -12030,7 +12478,7 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="C119" s="211"/>
+      <c r="C119" s="169"/>
     </row>
     <row r="120" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="108">
@@ -12041,7 +12489,7 @@
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="C120" s="211"/>
+      <c r="C120" s="169"/>
     </row>
     <row r="121" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="108">
@@ -12052,7 +12500,7 @@
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="C121" s="211"/>
+      <c r="C121" s="169"/>
     </row>
     <row r="122" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="108">
@@ -12063,7 +12511,7 @@
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="C122" s="211"/>
+      <c r="C122" s="169"/>
     </row>
     <row r="123" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="108">
@@ -12074,7 +12522,7 @@
         <f t="shared" si="2"/>
         <v>7A</v>
       </c>
-      <c r="C123" s="211"/>
+      <c r="C123" s="169"/>
     </row>
     <row r="124" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="108">
@@ -12085,7 +12533,7 @@
         <f t="shared" si="2"/>
         <v>7B</v>
       </c>
-      <c r="C124" s="211"/>
+      <c r="C124" s="169"/>
     </row>
     <row r="125" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="108">
@@ -12096,7 +12544,7 @@
         <f t="shared" si="2"/>
         <v>7C</v>
       </c>
-      <c r="C125" s="211"/>
+      <c r="C125" s="169"/>
     </row>
     <row r="126" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="108">
@@ -12107,7 +12555,7 @@
         <f t="shared" si="2"/>
         <v>7D</v>
       </c>
-      <c r="C126" s="211"/>
+      <c r="C126" s="169"/>
     </row>
     <row r="127" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="108">
@@ -12118,7 +12566,7 @@
         <f t="shared" si="2"/>
         <v>7E</v>
       </c>
-      <c r="C127" s="211"/>
+      <c r="C127" s="169"/>
     </row>
     <row r="128" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="108">
@@ -12129,7 +12577,7 @@
         <f t="shared" si="2"/>
         <v>7F</v>
       </c>
-      <c r="C128" s="211"/>
+      <c r="C128" s="169"/>
     </row>
     <row r="129" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="108">
@@ -12140,7 +12588,7 @@
         <f t="shared" ref="B129:B192" si="4">DEC2HEX(A129)</f>
         <v>80</v>
       </c>
-      <c r="C129" s="211"/>
+      <c r="C129" s="169"/>
     </row>
     <row r="130" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="108">
@@ -12151,7 +12599,7 @@
         <f t="shared" si="4"/>
         <v>81</v>
       </c>
-      <c r="C130" s="211"/>
+      <c r="C130" s="169"/>
     </row>
     <row r="131" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="108">
@@ -12162,7 +12610,7 @@
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="C131" s="211"/>
+      <c r="C131" s="169"/>
     </row>
     <row r="132" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="108">
@@ -12173,7 +12621,7 @@
         <f t="shared" si="4"/>
         <v>83</v>
       </c>
-      <c r="C132" s="211"/>
+      <c r="C132" s="169"/>
     </row>
     <row r="133" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="108">
@@ -12184,7 +12632,7 @@
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
-      <c r="C133" s="211"/>
+      <c r="C133" s="169"/>
     </row>
     <row r="134" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="108">
@@ -12195,7 +12643,7 @@
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="C134" s="211"/>
+      <c r="C134" s="169"/>
     </row>
     <row r="135" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="108">
@@ -12206,7 +12654,7 @@
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
-      <c r="C135" s="211"/>
+      <c r="C135" s="169"/>
     </row>
     <row r="136" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="108">
@@ -12217,7 +12665,7 @@
         <f t="shared" si="4"/>
         <v>87</v>
       </c>
-      <c r="C136" s="211"/>
+      <c r="C136" s="169"/>
     </row>
     <row r="137" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="108">
@@ -12228,7 +12676,7 @@
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="C137" s="211"/>
+      <c r="C137" s="169"/>
     </row>
     <row r="138" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="108">
@@ -12239,7 +12687,7 @@
         <f t="shared" si="4"/>
         <v>89</v>
       </c>
-      <c r="C138" s="211"/>
+      <c r="C138" s="169"/>
     </row>
     <row r="139" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="108">
@@ -12250,7 +12698,7 @@
         <f t="shared" si="4"/>
         <v>8A</v>
       </c>
-      <c r="C139" s="211"/>
+      <c r="C139" s="169"/>
     </row>
     <row r="140" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="108">
@@ -12261,7 +12709,7 @@
         <f t="shared" si="4"/>
         <v>8B</v>
       </c>
-      <c r="C140" s="211"/>
+      <c r="C140" s="169"/>
     </row>
     <row r="141" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="108">
@@ -12272,7 +12720,7 @@
         <f t="shared" si="4"/>
         <v>8C</v>
       </c>
-      <c r="C141" s="211"/>
+      <c r="C141" s="169"/>
     </row>
     <row r="142" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="108">
@@ -12283,7 +12731,7 @@
         <f t="shared" si="4"/>
         <v>8D</v>
       </c>
-      <c r="C142" s="211"/>
+      <c r="C142" s="169"/>
     </row>
     <row r="143" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="108">
@@ -12294,7 +12742,7 @@
         <f t="shared" si="4"/>
         <v>8E</v>
       </c>
-      <c r="C143" s="211"/>
+      <c r="C143" s="169"/>
     </row>
     <row r="144" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="108">
@@ -12305,7 +12753,7 @@
         <f t="shared" si="4"/>
         <v>8F</v>
       </c>
-      <c r="C144" s="211"/>
+      <c r="C144" s="169"/>
     </row>
     <row r="145" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="108">
@@ -12316,7 +12764,7 @@
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="C145" s="211"/>
+      <c r="C145" s="169"/>
     </row>
     <row r="146" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="108">
@@ -12327,7 +12775,7 @@
         <f t="shared" si="4"/>
         <v>91</v>
       </c>
-      <c r="C146" s="211"/>
+      <c r="C146" s="169"/>
     </row>
     <row r="147" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="108">
@@ -12338,7 +12786,7 @@
         <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="C147" s="211"/>
+      <c r="C147" s="169"/>
     </row>
     <row r="148" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="108">
@@ -12349,7 +12797,7 @@
         <f t="shared" si="4"/>
         <v>93</v>
       </c>
-      <c r="C148" s="211"/>
+      <c r="C148" s="169"/>
     </row>
     <row r="149" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="108">
@@ -12360,7 +12808,7 @@
         <f t="shared" si="4"/>
         <v>94</v>
       </c>
-      <c r="C149" s="211"/>
+      <c r="C149" s="169"/>
     </row>
     <row r="150" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="108">
@@ -12371,7 +12819,7 @@
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
-      <c r="C150" s="211"/>
+      <c r="C150" s="169"/>
     </row>
     <row r="151" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="108">
@@ -12382,7 +12830,7 @@
         <f t="shared" si="4"/>
         <v>96</v>
       </c>
-      <c r="C151" s="211"/>
+      <c r="C151" s="169"/>
     </row>
     <row r="152" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="108">
@@ -12393,7 +12841,7 @@
         <f t="shared" si="4"/>
         <v>97</v>
       </c>
-      <c r="C152" s="211"/>
+      <c r="C152" s="169"/>
     </row>
     <row r="153" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="108">
@@ -12404,7 +12852,7 @@
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
-      <c r="C153" s="211"/>
+      <c r="C153" s="169"/>
     </row>
     <row r="154" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="108">
@@ -12415,7 +12863,7 @@
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
-      <c r="C154" s="211"/>
+      <c r="C154" s="169"/>
     </row>
     <row r="155" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="108">
@@ -12426,7 +12874,7 @@
         <f t="shared" si="4"/>
         <v>9A</v>
       </c>
-      <c r="C155" s="211"/>
+      <c r="C155" s="169"/>
     </row>
     <row r="156" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="108">
@@ -12437,7 +12885,7 @@
         <f t="shared" si="4"/>
         <v>9B</v>
       </c>
-      <c r="C156" s="211"/>
+      <c r="C156" s="169"/>
     </row>
     <row r="157" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="108">
@@ -12448,7 +12896,7 @@
         <f t="shared" si="4"/>
         <v>9C</v>
       </c>
-      <c r="C157" s="211"/>
+      <c r="C157" s="169"/>
     </row>
     <row r="158" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="108">
@@ -12459,7 +12907,7 @@
         <f t="shared" si="4"/>
         <v>9D</v>
       </c>
-      <c r="C158" s="211"/>
+      <c r="C158" s="169"/>
     </row>
     <row r="159" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="108">
@@ -12470,7 +12918,7 @@
         <f t="shared" si="4"/>
         <v>9E</v>
       </c>
-      <c r="C159" s="211"/>
+      <c r="C159" s="169"/>
     </row>
     <row r="160" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="108">
@@ -12481,7 +12929,7 @@
         <f t="shared" si="4"/>
         <v>9F</v>
       </c>
-      <c r="C160" s="211"/>
+      <c r="C160" s="169"/>
     </row>
     <row r="161" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="108">
@@ -12492,7 +12940,7 @@
         <f t="shared" si="4"/>
         <v>A0</v>
       </c>
-      <c r="C161" s="211"/>
+      <c r="C161" s="169"/>
     </row>
     <row r="162" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="108">
@@ -12503,7 +12951,7 @@
         <f t="shared" si="4"/>
         <v>A1</v>
       </c>
-      <c r="C162" s="211"/>
+      <c r="C162" s="169"/>
     </row>
     <row r="163" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="108">
@@ -12514,7 +12962,7 @@
         <f t="shared" si="4"/>
         <v>A2</v>
       </c>
-      <c r="C163" s="211"/>
+      <c r="C163" s="169"/>
     </row>
     <row r="164" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="108">
@@ -12525,7 +12973,7 @@
         <f t="shared" si="4"/>
         <v>A3</v>
       </c>
-      <c r="C164" s="211"/>
+      <c r="C164" s="169"/>
     </row>
     <row r="165" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="108">
@@ -12536,7 +12984,7 @@
         <f t="shared" si="4"/>
         <v>A4</v>
       </c>
-      <c r="C165" s="211"/>
+      <c r="C165" s="169"/>
     </row>
     <row r="166" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="108">
@@ -12547,7 +12995,7 @@
         <f t="shared" si="4"/>
         <v>A5</v>
       </c>
-      <c r="C166" s="211"/>
+      <c r="C166" s="169"/>
     </row>
     <row r="167" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="108">
@@ -12558,7 +13006,7 @@
         <f t="shared" si="4"/>
         <v>A6</v>
       </c>
-      <c r="C167" s="211"/>
+      <c r="C167" s="169"/>
     </row>
     <row r="168" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="108">
@@ -12569,7 +13017,7 @@
         <f t="shared" si="4"/>
         <v>A7</v>
       </c>
-      <c r="C168" s="211"/>
+      <c r="C168" s="169"/>
     </row>
     <row r="169" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="108">
@@ -12580,7 +13028,7 @@
         <f t="shared" si="4"/>
         <v>A8</v>
       </c>
-      <c r="C169" s="211"/>
+      <c r="C169" s="169"/>
     </row>
     <row r="170" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="108">
@@ -12591,7 +13039,7 @@
         <f t="shared" si="4"/>
         <v>A9</v>
       </c>
-      <c r="C170" s="211"/>
+      <c r="C170" s="169"/>
     </row>
     <row r="171" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="108">
@@ -12602,7 +13050,7 @@
         <f t="shared" si="4"/>
         <v>AA</v>
       </c>
-      <c r="C171" s="211"/>
+      <c r="C171" s="169"/>
     </row>
     <row r="172" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="108">
@@ -12613,7 +13061,7 @@
         <f t="shared" si="4"/>
         <v>AB</v>
       </c>
-      <c r="C172" s="211"/>
+      <c r="C172" s="169"/>
     </row>
     <row r="173" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="108">
@@ -12624,7 +13072,7 @@
         <f t="shared" si="4"/>
         <v>AC</v>
       </c>
-      <c r="C173" s="211"/>
+      <c r="C173" s="169"/>
     </row>
     <row r="174" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="108">
@@ -12635,7 +13083,7 @@
         <f t="shared" si="4"/>
         <v>AD</v>
       </c>
-      <c r="C174" s="211"/>
+      <c r="C174" s="169"/>
     </row>
     <row r="175" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="108">
@@ -12646,7 +13094,7 @@
         <f t="shared" si="4"/>
         <v>AE</v>
       </c>
-      <c r="C175" s="211"/>
+      <c r="C175" s="169"/>
     </row>
     <row r="176" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="108">
@@ -12657,7 +13105,7 @@
         <f t="shared" si="4"/>
         <v>AF</v>
       </c>
-      <c r="C176" s="211"/>
+      <c r="C176" s="169"/>
     </row>
     <row r="177" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="108">
@@ -12668,7 +13116,7 @@
         <f t="shared" si="4"/>
         <v>B0</v>
       </c>
-      <c r="C177" s="211"/>
+      <c r="C177" s="169"/>
     </row>
     <row r="178" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="108">
@@ -12679,7 +13127,7 @@
         <f t="shared" si="4"/>
         <v>B1</v>
       </c>
-      <c r="C178" s="211"/>
+      <c r="C178" s="169"/>
     </row>
     <row r="179" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="108">
@@ -12690,7 +13138,7 @@
         <f t="shared" si="4"/>
         <v>B2</v>
       </c>
-      <c r="C179" s="211"/>
+      <c r="C179" s="169"/>
     </row>
     <row r="180" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="108">
@@ -12701,7 +13149,7 @@
         <f t="shared" si="4"/>
         <v>B3</v>
       </c>
-      <c r="C180" s="211"/>
+      <c r="C180" s="169"/>
     </row>
     <row r="181" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="108">
@@ -12712,7 +13160,7 @@
         <f t="shared" si="4"/>
         <v>B4</v>
       </c>
-      <c r="C181" s="211"/>
+      <c r="C181" s="169"/>
     </row>
     <row r="182" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="108">
@@ -12723,7 +13171,7 @@
         <f t="shared" si="4"/>
         <v>B5</v>
       </c>
-      <c r="C182" s="211"/>
+      <c r="C182" s="169"/>
     </row>
     <row r="183" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="108">
@@ -12734,7 +13182,7 @@
         <f t="shared" si="4"/>
         <v>B6</v>
       </c>
-      <c r="C183" s="211"/>
+      <c r="C183" s="169"/>
     </row>
     <row r="184" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="108">
@@ -12745,7 +13193,7 @@
         <f t="shared" si="4"/>
         <v>B7</v>
       </c>
-      <c r="C184" s="211"/>
+      <c r="C184" s="169"/>
     </row>
     <row r="185" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="108">
@@ -12756,7 +13204,7 @@
         <f t="shared" si="4"/>
         <v>B8</v>
       </c>
-      <c r="C185" s="211"/>
+      <c r="C185" s="169"/>
     </row>
     <row r="186" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="108">
@@ -12767,7 +13215,7 @@
         <f t="shared" si="4"/>
         <v>B9</v>
       </c>
-      <c r="C186" s="211"/>
+      <c r="C186" s="169"/>
     </row>
     <row r="187" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="108">
@@ -12778,7 +13226,7 @@
         <f t="shared" si="4"/>
         <v>BA</v>
       </c>
-      <c r="C187" s="211"/>
+      <c r="C187" s="169"/>
     </row>
     <row r="188" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="108">
@@ -12789,7 +13237,7 @@
         <f t="shared" si="4"/>
         <v>BB</v>
       </c>
-      <c r="C188" s="211"/>
+      <c r="C188" s="169"/>
     </row>
     <row r="189" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="108">
@@ -12800,7 +13248,7 @@
         <f t="shared" si="4"/>
         <v>BC</v>
       </c>
-      <c r="C189" s="211"/>
+      <c r="C189" s="169"/>
     </row>
     <row r="190" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="108">
@@ -12811,7 +13259,7 @@
         <f t="shared" si="4"/>
         <v>BD</v>
       </c>
-      <c r="C190" s="211"/>
+      <c r="C190" s="169"/>
     </row>
     <row r="191" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="108">
@@ -12822,7 +13270,7 @@
         <f t="shared" si="4"/>
         <v>BE</v>
       </c>
-      <c r="C191" s="211"/>
+      <c r="C191" s="169"/>
     </row>
     <row r="192" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="108">
@@ -12833,7 +13281,7 @@
         <f t="shared" si="4"/>
         <v>BF</v>
       </c>
-      <c r="C192" s="211"/>
+      <c r="C192" s="169"/>
     </row>
     <row r="193" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="108">
@@ -12844,7 +13292,7 @@
         <f t="shared" ref="B193:B256" si="6">DEC2HEX(A193)</f>
         <v>C0</v>
       </c>
-      <c r="C193" s="212" t="s">
+      <c r="C193" s="170" t="s">
         <v>382</v>
       </c>
     </row>
@@ -12857,7 +13305,7 @@
         <f t="shared" si="6"/>
         <v>C1</v>
       </c>
-      <c r="C194" s="212"/>
+      <c r="C194" s="170"/>
     </row>
     <row r="195" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="108">
@@ -12868,7 +13316,7 @@
         <f t="shared" si="6"/>
         <v>C2</v>
       </c>
-      <c r="C195" s="212"/>
+      <c r="C195" s="170"/>
     </row>
     <row r="196" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="108">
@@ -12879,7 +13327,7 @@
         <f t="shared" si="6"/>
         <v>C3</v>
       </c>
-      <c r="C196" s="212"/>
+      <c r="C196" s="170"/>
     </row>
     <row r="197" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="108">
@@ -12890,7 +13338,7 @@
         <f t="shared" si="6"/>
         <v>C4</v>
       </c>
-      <c r="C197" s="212"/>
+      <c r="C197" s="170"/>
     </row>
     <row r="198" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="108">
@@ -12901,7 +13349,7 @@
         <f t="shared" si="6"/>
         <v>C5</v>
       </c>
-      <c r="C198" s="212"/>
+      <c r="C198" s="170"/>
     </row>
     <row r="199" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="108">
@@ -12912,7 +13360,7 @@
         <f t="shared" si="6"/>
         <v>C6</v>
       </c>
-      <c r="C199" s="212"/>
+      <c r="C199" s="170"/>
     </row>
     <row r="200" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="108">
@@ -12923,7 +13371,7 @@
         <f t="shared" si="6"/>
         <v>C7</v>
       </c>
-      <c r="C200" s="212"/>
+      <c r="C200" s="170"/>
     </row>
     <row r="201" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="108">
@@ -12934,7 +13382,7 @@
         <f t="shared" si="6"/>
         <v>C8</v>
       </c>
-      <c r="C201" s="212"/>
+      <c r="C201" s="170"/>
     </row>
     <row r="202" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="108">
@@ -12945,7 +13393,7 @@
         <f t="shared" si="6"/>
         <v>C9</v>
       </c>
-      <c r="C202" s="212"/>
+      <c r="C202" s="170"/>
     </row>
     <row r="203" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="108">
@@ -12956,7 +13404,7 @@
         <f t="shared" si="6"/>
         <v>CA</v>
       </c>
-      <c r="C203" s="212"/>
+      <c r="C203" s="170"/>
     </row>
     <row r="204" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="108">
@@ -12967,7 +13415,7 @@
         <f t="shared" si="6"/>
         <v>CB</v>
       </c>
-      <c r="C204" s="212"/>
+      <c r="C204" s="170"/>
     </row>
     <row r="205" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="108">
@@ -12978,7 +13426,7 @@
         <f t="shared" si="6"/>
         <v>CC</v>
       </c>
-      <c r="C205" s="212"/>
+      <c r="C205" s="170"/>
     </row>
     <row r="206" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="108">
@@ -12989,7 +13437,7 @@
         <f t="shared" si="6"/>
         <v>CD</v>
       </c>
-      <c r="C206" s="212"/>
+      <c r="C206" s="170"/>
     </row>
     <row r="207" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="108">
@@ -13000,7 +13448,7 @@
         <f t="shared" si="6"/>
         <v>CE</v>
       </c>
-      <c r="C207" s="212"/>
+      <c r="C207" s="170"/>
     </row>
     <row r="208" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="108">
@@ -13011,7 +13459,7 @@
         <f t="shared" si="6"/>
         <v>CF</v>
       </c>
-      <c r="C208" s="212"/>
+      <c r="C208" s="170"/>
     </row>
     <row r="209" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="108">
@@ -13022,7 +13470,7 @@
         <f t="shared" si="6"/>
         <v>D0</v>
       </c>
-      <c r="C209" s="212"/>
+      <c r="C209" s="170"/>
     </row>
     <row r="210" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="108">
@@ -13033,7 +13481,7 @@
         <f t="shared" si="6"/>
         <v>D1</v>
       </c>
-      <c r="C210" s="212"/>
+      <c r="C210" s="170"/>
     </row>
     <row r="211" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="108">
@@ -13044,7 +13492,7 @@
         <f t="shared" si="6"/>
         <v>D2</v>
       </c>
-      <c r="C211" s="212"/>
+      <c r="C211" s="170"/>
     </row>
     <row r="212" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="108">
@@ -13055,7 +13503,7 @@
         <f t="shared" si="6"/>
         <v>D3</v>
       </c>
-      <c r="C212" s="212"/>
+      <c r="C212" s="170"/>
     </row>
     <row r="213" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="108">
@@ -13066,7 +13514,7 @@
         <f t="shared" si="6"/>
         <v>D4</v>
       </c>
-      <c r="C213" s="212"/>
+      <c r="C213" s="170"/>
     </row>
     <row r="214" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="108">
@@ -13077,7 +13525,7 @@
         <f t="shared" si="6"/>
         <v>D5</v>
       </c>
-      <c r="C214" s="212"/>
+      <c r="C214" s="170"/>
     </row>
     <row r="215" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="108">
@@ -13088,7 +13536,7 @@
         <f t="shared" si="6"/>
         <v>D6</v>
       </c>
-      <c r="C215" s="212"/>
+      <c r="C215" s="170"/>
     </row>
     <row r="216" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="108">
@@ -13099,7 +13547,7 @@
         <f t="shared" si="6"/>
         <v>D7</v>
       </c>
-      <c r="C216" s="212"/>
+      <c r="C216" s="170"/>
     </row>
     <row r="217" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="108">
@@ -13110,7 +13558,7 @@
         <f t="shared" si="6"/>
         <v>D8</v>
       </c>
-      <c r="C217" s="212"/>
+      <c r="C217" s="170"/>
     </row>
     <row r="218" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="108">
@@ -13121,7 +13569,7 @@
         <f t="shared" si="6"/>
         <v>D9</v>
       </c>
-      <c r="C218" s="212"/>
+      <c r="C218" s="170"/>
     </row>
     <row r="219" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="108">
@@ -13132,7 +13580,7 @@
         <f t="shared" si="6"/>
         <v>DA</v>
       </c>
-      <c r="C219" s="212"/>
+      <c r="C219" s="170"/>
     </row>
     <row r="220" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="108">
@@ -13143,7 +13591,7 @@
         <f t="shared" si="6"/>
         <v>DB</v>
       </c>
-      <c r="C220" s="212"/>
+      <c r="C220" s="170"/>
     </row>
     <row r="221" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="108">
@@ -13154,7 +13602,7 @@
         <f t="shared" si="6"/>
         <v>DC</v>
       </c>
-      <c r="C221" s="212"/>
+      <c r="C221" s="170"/>
     </row>
     <row r="222" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="108">
@@ -13165,7 +13613,7 @@
         <f t="shared" si="6"/>
         <v>DD</v>
       </c>
-      <c r="C222" s="212"/>
+      <c r="C222" s="170"/>
     </row>
     <row r="223" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="108">
@@ -13176,7 +13624,7 @@
         <f t="shared" si="6"/>
         <v>DE</v>
       </c>
-      <c r="C223" s="212"/>
+      <c r="C223" s="170"/>
     </row>
     <row r="224" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="108">
@@ -13187,7 +13635,7 @@
         <f t="shared" si="6"/>
         <v>DF</v>
       </c>
-      <c r="C224" s="212"/>
+      <c r="C224" s="170"/>
     </row>
     <row r="225" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="108">
@@ -13198,7 +13646,7 @@
         <f t="shared" si="6"/>
         <v>E0</v>
       </c>
-      <c r="C225" s="213" t="s">
+      <c r="C225" s="171" t="s">
         <v>30</v>
       </c>
     </row>
@@ -13211,7 +13659,7 @@
         <f t="shared" si="6"/>
         <v>E1</v>
       </c>
-      <c r="C226" s="213"/>
+      <c r="C226" s="171"/>
     </row>
     <row r="227" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="108">
@@ -13222,7 +13670,7 @@
         <f t="shared" si="6"/>
         <v>E2</v>
       </c>
-      <c r="C227" s="213"/>
+      <c r="C227" s="171"/>
     </row>
     <row r="228" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="108">
@@ -13233,7 +13681,7 @@
         <f t="shared" si="6"/>
         <v>E3</v>
       </c>
-      <c r="C228" s="213"/>
+      <c r="C228" s="171"/>
     </row>
     <row r="229" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="108">
@@ -13244,7 +13692,7 @@
         <f t="shared" si="6"/>
         <v>E4</v>
       </c>
-      <c r="C229" s="213"/>
+      <c r="C229" s="171"/>
     </row>
     <row r="230" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="108">
@@ -13255,7 +13703,7 @@
         <f t="shared" si="6"/>
         <v>E5</v>
       </c>
-      <c r="C230" s="213"/>
+      <c r="C230" s="171"/>
     </row>
     <row r="231" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="108">
@@ -13266,7 +13714,7 @@
         <f t="shared" si="6"/>
         <v>E6</v>
       </c>
-      <c r="C231" s="213"/>
+      <c r="C231" s="171"/>
     </row>
     <row r="232" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="108">
@@ -13277,7 +13725,7 @@
         <f t="shared" si="6"/>
         <v>E7</v>
       </c>
-      <c r="C232" s="213"/>
+      <c r="C232" s="171"/>
     </row>
     <row r="233" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="108">
@@ -13288,7 +13736,7 @@
         <f t="shared" si="6"/>
         <v>E8</v>
       </c>
-      <c r="C233" s="213"/>
+      <c r="C233" s="171"/>
     </row>
     <row r="234" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="108">
@@ -13299,7 +13747,7 @@
         <f t="shared" si="6"/>
         <v>E9</v>
       </c>
-      <c r="C234" s="213"/>
+      <c r="C234" s="171"/>
     </row>
     <row r="235" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="108">
@@ -13310,7 +13758,7 @@
         <f t="shared" si="6"/>
         <v>EA</v>
       </c>
-      <c r="C235" s="213"/>
+      <c r="C235" s="171"/>
     </row>
     <row r="236" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="108">
@@ -13321,7 +13769,7 @@
         <f t="shared" si="6"/>
         <v>EB</v>
       </c>
-      <c r="C236" s="213"/>
+      <c r="C236" s="171"/>
     </row>
     <row r="237" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="108">
@@ -13332,7 +13780,7 @@
         <f t="shared" si="6"/>
         <v>EC</v>
       </c>
-      <c r="C237" s="213"/>
+      <c r="C237" s="171"/>
     </row>
     <row r="238" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="108">
@@ -13343,7 +13791,7 @@
         <f t="shared" si="6"/>
         <v>ED</v>
       </c>
-      <c r="C238" s="213"/>
+      <c r="C238" s="171"/>
     </row>
     <row r="239" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="108">
@@ -13354,7 +13802,7 @@
         <f t="shared" si="6"/>
         <v>EE</v>
       </c>
-      <c r="C239" s="213"/>
+      <c r="C239" s="171"/>
     </row>
     <row r="240" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="108">
@@ -13365,7 +13813,7 @@
         <f t="shared" si="6"/>
         <v>EF</v>
       </c>
-      <c r="C240" s="213"/>
+      <c r="C240" s="171"/>
     </row>
     <row r="241" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="108">
@@ -13376,7 +13824,7 @@
         <f t="shared" si="6"/>
         <v>F0</v>
       </c>
-      <c r="C241" s="213"/>
+      <c r="C241" s="171"/>
     </row>
     <row r="242" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="108">
@@ -13387,7 +13835,7 @@
         <f t="shared" si="6"/>
         <v>F1</v>
       </c>
-      <c r="C242" s="213"/>
+      <c r="C242" s="171"/>
     </row>
     <row r="243" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="108">
@@ -13398,7 +13846,7 @@
         <f t="shared" si="6"/>
         <v>F2</v>
       </c>
-      <c r="C243" s="213"/>
+      <c r="C243" s="171"/>
     </row>
     <row r="244" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="108">
@@ -13409,7 +13857,7 @@
         <f t="shared" si="6"/>
         <v>F3</v>
       </c>
-      <c r="C244" s="213"/>
+      <c r="C244" s="171"/>
     </row>
     <row r="245" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="108">
@@ -13420,7 +13868,7 @@
         <f t="shared" si="6"/>
         <v>F4</v>
       </c>
-      <c r="C245" s="213"/>
+      <c r="C245" s="171"/>
     </row>
     <row r="246" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="108">
@@ -13431,7 +13879,7 @@
         <f t="shared" si="6"/>
         <v>F5</v>
       </c>
-      <c r="C246" s="213"/>
+      <c r="C246" s="171"/>
     </row>
     <row r="247" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="108">
@@ -13442,7 +13890,7 @@
         <f t="shared" si="6"/>
         <v>F6</v>
       </c>
-      <c r="C247" s="213"/>
+      <c r="C247" s="171"/>
     </row>
     <row r="248" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="108">
@@ -13453,7 +13901,7 @@
         <f t="shared" si="6"/>
         <v>F7</v>
       </c>
-      <c r="C248" s="213"/>
+      <c r="C248" s="171"/>
     </row>
     <row r="249" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="108">
@@ -13464,7 +13912,7 @@
         <f t="shared" si="6"/>
         <v>F8</v>
       </c>
-      <c r="C249" s="213"/>
+      <c r="C249" s="171"/>
     </row>
     <row r="250" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="108">
@@ -13475,7 +13923,7 @@
         <f t="shared" si="6"/>
         <v>F9</v>
       </c>
-      <c r="C250" s="213"/>
+      <c r="C250" s="171"/>
     </row>
     <row r="251" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="108">
@@ -13486,7 +13934,7 @@
         <f t="shared" si="6"/>
         <v>FA</v>
       </c>
-      <c r="C251" s="213"/>
+      <c r="C251" s="171"/>
     </row>
     <row r="252" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="108">
@@ -13497,7 +13945,7 @@
         <f t="shared" si="6"/>
         <v>FB</v>
       </c>
-      <c r="C252" s="213"/>
+      <c r="C252" s="171"/>
     </row>
     <row r="253" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="108">
@@ -13508,7 +13956,7 @@
         <f t="shared" si="6"/>
         <v>FC</v>
       </c>
-      <c r="C253" s="213"/>
+      <c r="C253" s="171"/>
     </row>
     <row r="254" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="108">
@@ -13519,7 +13967,7 @@
         <f t="shared" si="6"/>
         <v>FD</v>
       </c>
-      <c r="C254" s="213"/>
+      <c r="C254" s="171"/>
     </row>
     <row r="255" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="108">
@@ -13530,7 +13978,7 @@
         <f t="shared" si="6"/>
         <v>FE</v>
       </c>
-      <c r="C255" s="213"/>
+      <c r="C255" s="171"/>
     </row>
     <row r="256" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="108">
@@ -13541,7 +13989,7 @@
         <f t="shared" si="6"/>
         <v>FF</v>
       </c>
-      <c r="C256" s="213"/>
+      <c r="C256" s="171"/>
     </row>
     <row r="257" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="108">
@@ -13592,10 +14040,10 @@
       <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="187"/>
+      <c r="D1" s="148"/>
       <c r="E1" s="91" t="s">
         <v>164</v>
       </c>
@@ -13610,13 +14058,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="149" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="150" t="s">
         <v>315</v>
       </c>
       <c r="D2" s="62" t="s">
@@ -13636,21 +14084,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="178"/>
+      <c r="A3" s="140"/>
       <c r="B3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="191" t="s">
+      <c r="C3" s="151"/>
+      <c r="D3" s="152" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="177" t="s">
+      <c r="E3" s="139" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="177" t="s">
+      <c r="F3" s="139" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="177" t="s">
+      <c r="G3" s="139" t="s">
         <v>320</v>
       </c>
       <c r="H3" s="66" t="s">
@@ -13658,39 +14106,39 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="178"/>
+      <c r="A4" s="140"/>
       <c r="B4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="191"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
       <c r="H4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="178"/>
+      <c r="A5" s="140"/>
       <c r="B5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="192"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
       <c r="H5" s="96" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="179"/>
+      <c r="A6" s="141"/>
       <c r="B6" s="101" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="214" t="s">
+      <c r="C6" s="172" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="92" t="s">
@@ -13707,17 +14155,17 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="209" t="s">
+      <c r="A7" s="167" t="s">
         <v>178</v>
       </c>
       <c r="B7" s="103" t="s">
         <v>367</v>
       </c>
-      <c r="C7" s="215"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E7" s="210" t="s">
+      <c r="E7" s="168" t="s">
         <v>326</v>
       </c>
       <c r="F7" s="103" t="s">
@@ -13728,15 +14176,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="186"/>
+      <c r="A8" s="147"/>
       <c r="B8" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C8" s="215"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E8" s="186"/>
+      <c r="E8" s="147"/>
       <c r="F8" s="103" t="s">
         <v>365</v>
       </c>
@@ -13745,15 +14193,15 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="186"/>
+      <c r="A9" s="147"/>
       <c r="B9" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="215"/>
+      <c r="C9" s="173"/>
       <c r="D9" s="68" t="s">
         <v>372</v>
       </c>
-      <c r="E9" s="186"/>
+      <c r="E9" s="147"/>
       <c r="F9" s="103" t="s">
         <v>371</v>
       </c>
@@ -13762,13 +14210,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="216" t="s">
+      <c r="A10" s="174" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="77" t="s">
         <v>324</v>
       </c>
-      <c r="C10" s="183" t="s">
+      <c r="C10" s="145" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="76" t="s">
@@ -13785,11 +14233,11 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="217"/>
+      <c r="A11" s="175"/>
       <c r="B11" s="106" t="s">
         <v>381</v>
       </c>
-      <c r="C11" s="184"/>
+      <c r="C11" s="146"/>
       <c r="D11" s="80" t="s">
         <v>5</v>
       </c>
@@ -13858,10 +14306,10 @@
       <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="187"/>
+      <c r="D1" s="148"/>
       <c r="E1" s="91" t="s">
         <v>164</v>
       </c>
@@ -13876,13 +14324,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="149" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="150" t="s">
         <v>315</v>
       </c>
       <c r="D2" s="62" t="s">
@@ -13902,21 +14350,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="178"/>
+      <c r="A3" s="140"/>
       <c r="B3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="191" t="s">
+      <c r="C3" s="151"/>
+      <c r="D3" s="152" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="177" t="s">
+      <c r="E3" s="139" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="177" t="s">
+      <c r="F3" s="139" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="177" t="s">
+      <c r="G3" s="139" t="s">
         <v>320</v>
       </c>
       <c r="H3" s="66" t="s">
@@ -13924,39 +14372,39 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="178"/>
+      <c r="A4" s="140"/>
       <c r="B4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="191"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
       <c r="H4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="178"/>
+      <c r="A5" s="140"/>
       <c r="B5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="192"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
       <c r="H5" s="96" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="179"/>
+      <c r="A6" s="141"/>
       <c r="B6" s="101" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="214" t="s">
+      <c r="C6" s="172" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="92" t="s">
@@ -13973,17 +14421,17 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="209" t="s">
+      <c r="A7" s="167" t="s">
         <v>178</v>
       </c>
       <c r="B7" s="103" t="s">
         <v>367</v>
       </c>
-      <c r="C7" s="215"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E7" s="210" t="s">
+      <c r="E7" s="168" t="s">
         <v>326</v>
       </c>
       <c r="F7" s="103" t="s">
@@ -13994,15 +14442,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="186"/>
+      <c r="A8" s="147"/>
       <c r="B8" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C8" s="215"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E8" s="186"/>
+      <c r="E8" s="147"/>
       <c r="F8" s="103" t="s">
         <v>365</v>
       </c>
@@ -14011,15 +14459,15 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="186"/>
+      <c r="A9" s="147"/>
       <c r="B9" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="215"/>
+      <c r="C9" s="173"/>
       <c r="D9" s="68" t="s">
         <v>372</v>
       </c>
-      <c r="E9" s="186"/>
+      <c r="E9" s="147"/>
       <c r="F9" s="103" t="s">
         <v>371</v>
       </c>
@@ -14028,13 +14476,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="216" t="s">
+      <c r="A10" s="174" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="77" t="s">
         <v>324</v>
       </c>
-      <c r="C10" s="183" t="s">
+      <c r="C10" s="145" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="76" t="s">
@@ -14051,15 +14499,15 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="217"/>
-      <c r="B11" s="218" t="s">
+      <c r="A11" s="175"/>
+      <c r="B11" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="184"/>
+      <c r="C11" s="146"/>
       <c r="D11" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="E11" s="221" t="s">
+      <c r="E11" s="179" t="s">
         <v>254</v>
       </c>
       <c r="F11" s="79" t="s">
@@ -14073,13 +14521,13 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="217"/>
-      <c r="B12" s="217"/>
-      <c r="C12" s="184"/>
+      <c r="A12" s="175"/>
+      <c r="B12" s="175"/>
+      <c r="C12" s="146"/>
       <c r="D12" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="E12" s="221"/>
+      <c r="E12" s="179"/>
       <c r="F12" s="79" t="s">
         <v>207</v>
       </c>
@@ -14091,13 +14539,13 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="217"/>
-      <c r="B13" s="217"/>
-      <c r="C13" s="184"/>
+      <c r="A13" s="175"/>
+      <c r="B13" s="175"/>
+      <c r="C13" s="146"/>
       <c r="D13" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="E13" s="221"/>
+      <c r="E13" s="179"/>
       <c r="F13" s="79" t="s">
         <v>192</v>
       </c>
@@ -14109,13 +14557,13 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="82" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="219"/>
-      <c r="B14" s="219"/>
-      <c r="C14" s="220"/>
+      <c r="A14" s="177"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="178"/>
       <c r="D14" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="E14" s="222"/>
+      <c r="E14" s="180"/>
       <c r="F14" s="82" t="s">
         <v>189</v>
       </c>
@@ -14180,10 +14628,10 @@
       <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="187"/>
+      <c r="D1" s="148"/>
       <c r="E1" s="91" t="s">
         <v>164</v>
       </c>
@@ -14198,13 +14646,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="149" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="150" t="s">
         <v>315</v>
       </c>
       <c r="D2" s="62" t="s">
@@ -14224,21 +14672,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="178"/>
+      <c r="A3" s="140"/>
       <c r="B3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="191" t="s">
+      <c r="C3" s="151"/>
+      <c r="D3" s="152" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="177" t="s">
+      <c r="E3" s="139" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="177" t="s">
+      <c r="F3" s="139" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="177" t="s">
+      <c r="G3" s="139" t="s">
         <v>320</v>
       </c>
       <c r="H3" s="66" t="s">
@@ -14246,39 +14694,39 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="178"/>
+      <c r="A4" s="140"/>
       <c r="B4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="191"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
       <c r="H4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="178"/>
+      <c r="A5" s="140"/>
       <c r="B5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="192"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
       <c r="H5" s="96" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="179"/>
+      <c r="A6" s="141"/>
       <c r="B6" s="101" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="214" t="s">
+      <c r="C6" s="172" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="92" t="s">
@@ -14295,17 +14743,17 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="209" t="s">
+      <c r="A7" s="167" t="s">
         <v>178</v>
       </c>
       <c r="B7" s="103" t="s">
         <v>367</v>
       </c>
-      <c r="C7" s="215"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E7" s="210" t="s">
+      <c r="E7" s="168" t="s">
         <v>326</v>
       </c>
       <c r="F7" s="103" t="s">
@@ -14316,15 +14764,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="186"/>
+      <c r="A8" s="147"/>
       <c r="B8" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C8" s="215"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E8" s="186"/>
+      <c r="E8" s="147"/>
       <c r="F8" s="103" t="s">
         <v>365</v>
       </c>
@@ -14333,15 +14781,15 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="186"/>
-      <c r="B9" s="210" t="s">
+      <c r="A9" s="147"/>
+      <c r="B9" s="168" t="s">
         <v>378</v>
       </c>
-      <c r="C9" s="215"/>
+      <c r="C9" s="173"/>
       <c r="D9" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="186"/>
+      <c r="E9" s="147"/>
       <c r="F9" s="67" t="s">
         <v>343</v>
       </c>
@@ -14350,13 +14798,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="186"/>
-      <c r="B10" s="186"/>
-      <c r="C10" s="215"/>
+      <c r="A10" s="147"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="173"/>
       <c r="D10" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="186"/>
+      <c r="E10" s="147"/>
       <c r="F10" s="67" t="s">
         <v>344</v>
       </c>
@@ -14365,13 +14813,13 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="186"/>
-      <c r="B11" s="186"/>
-      <c r="C11" s="215"/>
+      <c r="A11" s="147"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="173"/>
       <c r="D11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="186"/>
+      <c r="E11" s="147"/>
       <c r="F11" s="67" t="s">
         <v>345</v>
       </c>
@@ -14380,13 +14828,13 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="186"/>
-      <c r="B12" s="186"/>
-      <c r="C12" s="215"/>
+      <c r="A12" s="147"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="173"/>
       <c r="D12" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="186"/>
+      <c r="E12" s="147"/>
       <c r="F12" s="67" t="s">
         <v>346</v>
       </c>
@@ -14395,13 +14843,13 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="186"/>
-      <c r="B13" s="186"/>
-      <c r="C13" s="215"/>
+      <c r="A13" s="147"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="173"/>
       <c r="D13" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="186"/>
+      <c r="E13" s="147"/>
       <c r="F13" s="67" t="s">
         <v>347</v>
       </c>
@@ -14410,13 +14858,13 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="186"/>
-      <c r="B14" s="186"/>
-      <c r="C14" s="215"/>
+      <c r="A14" s="147"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="173"/>
       <c r="D14" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="186"/>
+      <c r="E14" s="147"/>
       <c r="F14" s="67" t="s">
         <v>348</v>
       </c>
@@ -14425,13 +14873,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="186"/>
-      <c r="B15" s="186"/>
-      <c r="C15" s="215"/>
+      <c r="A15" s="147"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="173"/>
       <c r="D15" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="186"/>
+      <c r="E15" s="147"/>
       <c r="F15" s="67" t="s">
         <v>349</v>
       </c>
@@ -14440,13 +14888,13 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="85" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="224"/>
-      <c r="B16" s="224"/>
-      <c r="C16" s="223"/>
+      <c r="A16" s="182"/>
+      <c r="B16" s="182"/>
+      <c r="C16" s="181"/>
       <c r="D16" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="224"/>
+      <c r="E16" s="182"/>
       <c r="F16" s="85" t="s">
         <v>334</v>
       </c>
@@ -14455,13 +14903,13 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="216" t="s">
+      <c r="A17" s="174" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="77" t="s">
         <v>324</v>
       </c>
-      <c r="C17" s="183" t="s">
+      <c r="C17" s="145" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="76" t="s">
@@ -14478,15 +14926,15 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="217"/>
-      <c r="B18" s="218" t="s">
+      <c r="A18" s="175"/>
+      <c r="B18" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="184"/>
+      <c r="C18" s="146"/>
       <c r="D18" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="E18" s="221" t="s">
+      <c r="E18" s="179" t="s">
         <v>254</v>
       </c>
       <c r="F18" s="79" t="s">
@@ -14500,13 +14948,13 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="217"/>
-      <c r="B19" s="217"/>
-      <c r="C19" s="184"/>
+      <c r="A19" s="175"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="146"/>
       <c r="D19" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="E19" s="221"/>
+      <c r="E19" s="179"/>
       <c r="F19" s="79" t="s">
         <v>207</v>
       </c>
@@ -14518,13 +14966,13 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="217"/>
-      <c r="B20" s="217"/>
-      <c r="C20" s="184"/>
+      <c r="A20" s="175"/>
+      <c r="B20" s="175"/>
+      <c r="C20" s="146"/>
       <c r="D20" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="E20" s="221"/>
+      <c r="E20" s="179"/>
       <c r="F20" s="79" t="s">
         <v>192</v>
       </c>
@@ -14536,13 +14984,13 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="82" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="219"/>
-      <c r="B21" s="219"/>
-      <c r="C21" s="220"/>
+      <c r="A21" s="177"/>
+      <c r="B21" s="177"/>
+      <c r="C21" s="178"/>
       <c r="D21" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="E21" s="222"/>
+      <c r="E21" s="180"/>
       <c r="F21" s="82" t="s">
         <v>189</v>
       </c>
@@ -14608,10 +15056,10 @@
       <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="187"/>
+      <c r="D1" s="148"/>
       <c r="E1" s="91" t="s">
         <v>164</v>
       </c>
@@ -14626,13 +15074,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="149" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="150" t="s">
         <v>315</v>
       </c>
       <c r="D2" s="62" t="s">
@@ -14652,21 +15100,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="178"/>
+      <c r="A3" s="140"/>
       <c r="B3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="191" t="s">
+      <c r="C3" s="151"/>
+      <c r="D3" s="152" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="177" t="s">
+      <c r="E3" s="139" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="177" t="s">
+      <c r="F3" s="139" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="177" t="s">
+      <c r="G3" s="139" t="s">
         <v>320</v>
       </c>
       <c r="H3" s="66" t="s">
@@ -14674,39 +15122,39 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="178"/>
+      <c r="A4" s="140"/>
       <c r="B4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="191"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
       <c r="H4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="178"/>
+      <c r="A5" s="140"/>
       <c r="B5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="192"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
       <c r="H5" s="96" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="179"/>
+      <c r="A6" s="141"/>
       <c r="B6" s="101" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="214" t="s">
+      <c r="C6" s="172" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="92" t="s">
@@ -14723,17 +15171,17 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="209" t="s">
+      <c r="A7" s="167" t="s">
         <v>178</v>
       </c>
       <c r="B7" s="103" t="s">
         <v>367</v>
       </c>
-      <c r="C7" s="215"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E7" s="210" t="s">
+      <c r="E7" s="168" t="s">
         <v>326</v>
       </c>
       <c r="F7" s="103" t="s">
@@ -14744,15 +15192,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="186"/>
+      <c r="A8" s="147"/>
       <c r="B8" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C8" s="215"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E8" s="186"/>
+      <c r="E8" s="147"/>
       <c r="F8" s="103" t="s">
         <v>365</v>
       </c>
@@ -14761,15 +15209,15 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="186"/>
+      <c r="A9" s="147"/>
       <c r="B9" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="215"/>
+      <c r="C9" s="173"/>
       <c r="D9" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="186"/>
+      <c r="E9" s="147"/>
       <c r="F9" s="67" t="s">
         <v>343</v>
       </c>
@@ -14778,15 +15226,15 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="186"/>
+      <c r="A10" s="147"/>
       <c r="B10" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="C10" s="215"/>
+      <c r="C10" s="173"/>
       <c r="D10" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="186"/>
+      <c r="E10" s="147"/>
       <c r="F10" s="67" t="s">
         <v>344</v>
       </c>
@@ -14795,15 +15243,15 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="186"/>
+      <c r="A11" s="147"/>
       <c r="B11" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="C11" s="215"/>
+      <c r="C11" s="173"/>
       <c r="D11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="186"/>
+      <c r="E11" s="147"/>
       <c r="F11" s="67" t="s">
         <v>345</v>
       </c>
@@ -14812,15 +15260,15 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="186"/>
+      <c r="A12" s="147"/>
       <c r="B12" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="215"/>
+      <c r="C12" s="173"/>
       <c r="D12" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="186"/>
+      <c r="E12" s="147"/>
       <c r="F12" s="67" t="s">
         <v>346</v>
       </c>
@@ -14829,15 +15277,15 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="186"/>
+      <c r="A13" s="147"/>
       <c r="B13" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="C13" s="215"/>
+      <c r="C13" s="173"/>
       <c r="D13" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="186"/>
+      <c r="E13" s="147"/>
       <c r="F13" s="67" t="s">
         <v>347</v>
       </c>
@@ -14846,15 +15294,15 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="186"/>
+      <c r="A14" s="147"/>
       <c r="B14" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="C14" s="215"/>
+      <c r="C14" s="173"/>
       <c r="D14" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="186"/>
+      <c r="E14" s="147"/>
       <c r="F14" s="67" t="s">
         <v>348</v>
       </c>
@@ -14863,15 +15311,15 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="186"/>
+      <c r="A15" s="147"/>
       <c r="B15" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="C15" s="215"/>
+      <c r="C15" s="173"/>
       <c r="D15" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="186"/>
+      <c r="E15" s="147"/>
       <c r="F15" s="67" t="s">
         <v>349</v>
       </c>
@@ -14880,15 +15328,15 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="85" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="224"/>
+      <c r="A16" s="182"/>
       <c r="B16" s="85" t="s">
         <v>229</v>
       </c>
-      <c r="C16" s="223"/>
+      <c r="C16" s="181"/>
       <c r="D16" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="224"/>
+      <c r="E16" s="182"/>
       <c r="F16" s="85" t="s">
         <v>334</v>
       </c>
@@ -14897,13 +15345,13 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="216" t="s">
+      <c r="A17" s="174" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="77" t="s">
         <v>324</v>
       </c>
-      <c r="C17" s="183" t="s">
+      <c r="C17" s="145" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="76" t="s">
@@ -14920,15 +15368,15 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="217"/>
+      <c r="A18" s="175"/>
       <c r="B18" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="C18" s="184"/>
+      <c r="C18" s="146"/>
       <c r="D18" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="E18" s="221" t="s">
+      <c r="E18" s="179" t="s">
         <v>254</v>
       </c>
       <c r="F18" s="79" t="s">
@@ -14942,15 +15390,15 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="217"/>
+      <c r="A19" s="175"/>
       <c r="B19" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="C19" s="184"/>
+      <c r="C19" s="146"/>
       <c r="D19" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="E19" s="221"/>
+      <c r="E19" s="179"/>
       <c r="F19" s="79" t="s">
         <v>207</v>
       </c>
@@ -14962,15 +15410,15 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="217"/>
+      <c r="A20" s="175"/>
       <c r="B20" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="C20" s="184"/>
+      <c r="C20" s="146"/>
       <c r="D20" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="E20" s="221"/>
+      <c r="E20" s="179"/>
       <c r="F20" s="79" t="s">
         <v>192</v>
       </c>
@@ -14982,15 +15430,15 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="82" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="219"/>
+      <c r="A21" s="177"/>
       <c r="B21" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="C21" s="220"/>
+      <c r="C21" s="178"/>
       <c r="D21" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="E21" s="222"/>
+      <c r="E21" s="180"/>
       <c r="F21" s="82" t="s">
         <v>189</v>
       </c>

--- a/hardware/memory/Memory Map.xlsx
+++ b/hardware/memory/Memory Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jules\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF66D70-4978-4D91-9C23-38B72994166C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C18102B-E9E3-4DAB-A0D1-DA4235AA340B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{373489EA-859E-4EE6-860B-453F011C26CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{373489EA-859E-4EE6-860B-453F011C26CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Version 5V Nano" sheetId="23" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="432">
   <si>
     <t>Memory Block</t>
   </si>
@@ -3130,12 +3130,6 @@
     </r>
   </si>
   <si>
-    <t>A0000 – A1FFF</t>
-  </si>
-  <si>
-    <t>A2000 – BFFFF</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">144 x 4 KB banks of </t>
     </r>
@@ -3198,7 +3192,120 @@
     <r>
       <rPr>
         <b/>
-        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>memory mapped I/O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Device memory map partitioning determined by Southbridge.</t>
+    </r>
+  </si>
+  <si>
+    <t>248 KB</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8 KB of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>memory mapped I/O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Device memory map partitioning determined by Southbridge. Or mapped to internal RAM or ROM.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Two switchable 4 KB </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>memory banks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, able to access 640 KB of memory, 128 KB of ROM, and 256 KB of memory mapped I/O. Offboard sound/video data.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16 x 4 KB banks of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>standard memory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Pages 00 to BF map here.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 x 4 KB banks of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -3209,14 +3316,13 @@
     </r>
     <r>
       <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Pages E0 to FF map here.</t>
     </r>
   </si>
   <si>
@@ -3242,12 +3348,89 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>. Pages C0 to DF map here. Device memory map partitioning determined by Southbridge.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Two switchable 4 KB </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>memory banks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, able to access 64 KB of memory, 8 KB of ROM, and 8 KB of memory mapped I/O. Offboard sound/video data. May be mapped to internal RAM or ROM.</t>
+    </r>
+  </si>
+  <si>
+    <t>00 – 0F</t>
+  </si>
+  <si>
+    <t>10 – 9F</t>
+  </si>
+  <si>
+    <t>BE – BF</t>
+  </si>
+  <si>
+    <t>A0 – BD</t>
+  </si>
+  <si>
+    <t>A0000 – BDFFF</t>
+  </si>
+  <si>
+    <t>BE000 – BFFFF</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">60 x 4 KB banks of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extended I/O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>. Device memory map partitioning determined by Southbridge.</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">62 x 4 KB banks of </t>
+      <t xml:space="preserve">2 x 4 KB banks of </t>
     </r>
     <r>
       <rPr>
@@ -3272,17 +3455,26 @@
     </r>
   </si>
   <si>
-    <t>C0000 – C1FFF</t>
-  </si>
-  <si>
-    <t>C2000 – FFFFF</t>
-  </si>
-  <si>
-    <t>248 KB</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">62 x 4 KB banks of </t>
+    <t>FE – FF</t>
+  </si>
+  <si>
+    <t>FC – FD</t>
+  </si>
+  <si>
+    <t>FC000 – FDFFF</t>
+  </si>
+  <si>
+    <t>FE000 – FFFFF</t>
+  </si>
+  <si>
+    <t>C0000 – FBFFF</t>
+  </si>
+  <si>
+    <t>C0 – FB</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 x 4 KB banks of </t>
     </r>
     <r>
       <rPr>
@@ -3310,7 +3502,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">16 x 4 KB banks of </t>
+      <t xml:space="preserve">60 x 4 KB banks of </t>
     </r>
     <r>
       <rPr>
@@ -3322,7 +3514,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>standard memory</t>
+      <t>extended I/O</t>
     </r>
     <r>
       <rPr>
@@ -3333,198 +3525,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8 KB of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>memory mapped I/O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Device memory map partitioning determined by Southbridge. Or mapped to internal RAM or ROM.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Two switchable 4 KB </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>memory banks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, able to access 640 KB of memory, 128 KB of ROM, and 256 KB of memory mapped I/O. Offboard sound/video data.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16 x 4 KB banks of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>standard memory</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Pages 00 to BF map here.</t>
+      <t>. Device memory map partitioning determined by Southbridge.</t>
     </r>
   </si>
   <si>
     <r>
       <t xml:space="preserve">2 x 4 KB banks of </t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>standard ROM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Pages E0 to FF map here.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2 x 4 KB banks of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>memory mapped I/O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Pages C0 to DF map here. Device memory map partitioning determined by Southbridge.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Two switchable 4 KB </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>memory banks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, able to access 64 KB of memory, 8 KB of ROM, and 8 KB of memory mapped I/O. Offboard sound/video data. May be mapped to internal RAM or ROM.</t>
-    </r>
-  </si>
-  <si>
-    <t>00 – 0F</t>
-  </si>
-  <si>
-    <t>10 – 9F</t>
-  </si>
-  <si>
-    <t>A0 – A1</t>
-  </si>
-  <si>
-    <t>A2 – BF</t>
-  </si>
-  <si>
-    <t>C0 – C1</t>
-  </si>
-  <si>
-    <t>C2 – FF</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -3535,11 +3542,62 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>standard ROM</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Pages E0 to FF map here.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16 x 4 KB banks of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>standard memory</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Pages 00 to BF map here.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Non-volatile memory</t>
     </r>
     <r>
       <rPr>
-        <strike/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -3554,7 +3612,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3595,6 +3653,13 @@
     <font>
       <b/>
       <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3665,7 +3730,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="101">
+  <borders count="106">
     <border>
       <left/>
       <right/>
@@ -4925,11 +4990,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="0.59999389629810485"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5" tint="0.59999389629810485"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="0.59996337778862885"/>
+      </right>
+      <top style="dashed">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="5" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="0.59999389629810485"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color theme="5" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.59996337778862885"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color theme="5" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -5211,6 +5337,9 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5694,19 +5823,79 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="96" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="96" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="101" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="102" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="104" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="103" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="105" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="104" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="94" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="8" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="8" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="8" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="90" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="88" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="101" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="102" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="89" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6023,10 +6212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA51CDE-CD2E-4808-9BE1-4220B016AEE8}">
-  <dimension ref="A1:AR22"/>
+  <dimension ref="A1:AR23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6049,10 +6238,10 @@
       <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="148" t="s">
+      <c r="C1" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="148"/>
+      <c r="D1" s="149"/>
       <c r="E1" s="91" t="s">
         <v>164</v>
       </c>
@@ -6067,13 +6256,13 @@
       </c>
     </row>
     <row r="2" spans="1:44" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="150" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="151" t="s">
         <v>315</v>
       </c>
       <c r="D2" s="62" t="s">
@@ -6093,21 +6282,21 @@
       </c>
     </row>
     <row r="3" spans="1:44" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="140"/>
+      <c r="A3" s="141"/>
       <c r="B3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>385</v>
       </c>
-      <c r="E3" s="139" t="s">
+      <c r="E3" s="140" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="139" t="s">
+      <c r="F3" s="140" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="140" t="s">
         <v>320</v>
       </c>
       <c r="H3" s="66" t="s">
@@ -6115,97 +6304,97 @@
       </c>
     </row>
     <row r="4" spans="1:44" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="140"/>
+      <c r="A4" s="141"/>
       <c r="B4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
       <c r="H4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:44" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="140"/>
+      <c r="A5" s="141"/>
       <c r="B5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
       <c r="H5" s="96" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:44" s="130" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="141"/>
-      <c r="B6" s="134" t="s">
+    <row r="6" spans="1:44" s="131" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="142"/>
+      <c r="B6" s="135" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="142" t="s">
+      <c r="C6" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="143"/>
-      <c r="E6" s="131" t="s">
+      <c r="D6" s="144"/>
+      <c r="E6" s="132" t="s">
         <v>383</v>
       </c>
-      <c r="F6" s="132" t="s">
+      <c r="F6" s="133" t="s">
         <v>395</v>
       </c>
-      <c r="G6" s="132"/>
-      <c r="H6" s="276" t="s">
-        <v>415</v>
-      </c>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="132"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="132"/>
-      <c r="Q6" s="132"/>
-      <c r="R6" s="132"/>
-      <c r="S6" s="132"/>
-      <c r="T6" s="132"/>
-      <c r="U6" s="132"/>
-      <c r="V6" s="132"/>
-      <c r="W6" s="132"/>
-      <c r="X6" s="132"/>
-      <c r="Y6" s="132"/>
-      <c r="Z6" s="132"/>
-      <c r="AA6" s="132"/>
-      <c r="AB6" s="132"/>
-      <c r="AC6" s="132"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="133"/>
-      <c r="AF6" s="133"/>
-      <c r="AG6" s="133"/>
-      <c r="AH6" s="133"/>
-      <c r="AI6" s="133"/>
-      <c r="AJ6" s="133"/>
-      <c r="AK6" s="133"/>
-      <c r="AL6" s="133"/>
-      <c r="AM6" s="133"/>
-      <c r="AN6" s="133"/>
-      <c r="AO6" s="133"/>
-      <c r="AP6" s="133"/>
-      <c r="AQ6" s="133"/>
-      <c r="AR6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="273" t="s">
+        <v>407</v>
+      </c>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133"/>
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133"/>
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133"/>
+      <c r="AA6" s="133"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="134"/>
+      <c r="AE6" s="134"/>
+      <c r="AF6" s="134"/>
+      <c r="AG6" s="134"/>
+      <c r="AH6" s="134"/>
+      <c r="AI6" s="134"/>
+      <c r="AJ6" s="134"/>
+      <c r="AK6" s="134"/>
+      <c r="AL6" s="134"/>
+      <c r="AM6" s="134"/>
+      <c r="AN6" s="134"/>
+      <c r="AO6" s="134"/>
+      <c r="AP6" s="134"/>
+      <c r="AQ6" s="134"/>
+      <c r="AR6" s="134"/>
     </row>
     <row r="7" spans="1:44" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="144" t="s">
+      <c r="A7" s="145" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>324</v>
       </c>
-      <c r="C7" s="145" t="s">
+      <c r="C7" s="146" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="76" t="s">
@@ -6222,11 +6411,11 @@
       </c>
     </row>
     <row r="8" spans="1:44" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="145"/>
+      <c r="A8" s="146"/>
       <c r="B8" s="80" t="s">
         <v>381</v>
       </c>
-      <c r="C8" s="146"/>
+      <c r="C8" s="147"/>
       <c r="D8" s="80" t="s">
         <v>5</v>
       </c>
@@ -6243,13 +6432,13 @@
         <v>379</v>
       </c>
     </row>
-    <row r="9" spans="1:44" s="237" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="235"/>
-      <c r="B9" s="235"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="235"/>
-      <c r="F9" s="235"/>
+    <row r="9" spans="1:44" s="238" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="236"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="236"/>
     </row>
     <row r="10" spans="1:44" s="91" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="91" t="s">
@@ -6258,10 +6447,10 @@
       <c r="B10" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="148" t="s">
+      <c r="C10" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="148"/>
+      <c r="D10" s="149"/>
       <c r="E10" s="91" t="s">
         <v>391</v>
       </c>
@@ -6275,35 +6464,35 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:44" s="274" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="147" t="s">
+    <row r="11" spans="1:44" s="296" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="148" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="272" t="s">
+      <c r="B11" s="294" t="s">
         <v>367</v>
       </c>
-      <c r="C11" s="147" t="s">
+      <c r="C11" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="273" t="s">
+      <c r="D11" s="295" t="s">
         <v>362</v>
       </c>
-      <c r="E11" s="273" t="s">
+      <c r="E11" s="295" t="s">
         <v>394</v>
       </c>
-      <c r="F11" s="272" t="s">
+      <c r="F11" s="294" t="s">
         <v>394</v>
       </c>
-      <c r="H11" s="275" t="s">
-        <v>427</v>
+      <c r="H11" s="297" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:44" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="147"/>
+      <c r="A12" s="148"/>
       <c r="B12" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C12" s="147"/>
+      <c r="C12" s="148"/>
       <c r="D12" s="105" t="s">
         <v>362</v>
       </c>
@@ -6318,11 +6507,11 @@
       </c>
     </row>
     <row r="13" spans="1:44" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="147"/>
+      <c r="A13" s="148"/>
       <c r="B13" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="147"/>
+      <c r="C13" s="148"/>
       <c r="D13" s="68" t="s">
         <v>372</v>
       </c>
@@ -6336,9 +6525,9 @@
         <v>389</v>
       </c>
     </row>
-    <row r="14" spans="1:44" s="232" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="233"/>
-      <c r="H14" s="234"/>
+    <row r="14" spans="1:44" s="233" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="234"/>
+      <c r="H14" s="235"/>
     </row>
     <row r="15" spans="1:44" s="91" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="91" t="s">
@@ -6347,10 +6536,10 @@
       <c r="B15" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="148" t="s">
+      <c r="C15" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="148"/>
+      <c r="D15" s="149"/>
       <c r="E15" s="91" t="s">
         <v>167</v>
       </c>
@@ -6364,244 +6553,298 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:44" s="248" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="265" t="s">
+    <row r="16" spans="1:44" s="249" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="266" t="s">
         <v>392</v>
       </c>
-      <c r="B16" s="243" t="s">
+      <c r="B16" s="244" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="243" t="s">
+      <c r="C16" s="244" t="s">
         <v>393</v>
       </c>
-      <c r="D16" s="244" t="s">
+      <c r="D16" s="245" t="s">
         <v>99</v>
       </c>
       <c r="E16" s="245" t="s">
+        <v>413</v>
+      </c>
+      <c r="F16" s="246" t="s">
+        <v>398</v>
+      </c>
+      <c r="G16" s="247"/>
+      <c r="H16" s="248" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" s="249" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="267"/>
+      <c r="B17" s="250"/>
+      <c r="C17" s="250"/>
+      <c r="D17" s="251" t="s">
+        <v>397</v>
+      </c>
+      <c r="E17" s="251" t="s">
+        <v>414</v>
+      </c>
+      <c r="F17" s="252" t="s">
+        <v>399</v>
+      </c>
+      <c r="G17" s="247"/>
+      <c r="H17" s="253" t="s">
+        <v>403</v>
+      </c>
+      <c r="I17" s="254"/>
+      <c r="J17" s="254"/>
+      <c r="K17" s="254"/>
+      <c r="L17" s="254"/>
+      <c r="M17" s="254"/>
+      <c r="N17" s="254"/>
+      <c r="O17" s="254"/>
+      <c r="P17" s="254"/>
+      <c r="Q17" s="254"/>
+      <c r="R17" s="254"/>
+      <c r="S17" s="254"/>
+      <c r="T17" s="254"/>
+      <c r="U17" s="254"/>
+      <c r="V17" s="254"/>
+      <c r="W17" s="254"/>
+      <c r="X17" s="254"/>
+      <c r="Y17" s="254"/>
+      <c r="Z17" s="254"/>
+      <c r="AA17" s="254"/>
+      <c r="AB17" s="254"/>
+      <c r="AC17" s="254"/>
+      <c r="AD17" s="254"/>
+      <c r="AE17" s="254"/>
+      <c r="AF17" s="254"/>
+      <c r="AG17" s="254"/>
+    </row>
+    <row r="18" spans="1:41" s="263" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="267"/>
+      <c r="B18" s="255" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="256" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="257" t="s">
+        <v>401</v>
+      </c>
+      <c r="E18" s="257" t="s">
+        <v>416</v>
+      </c>
+      <c r="F18" s="258" t="s">
+        <v>417</v>
+      </c>
+      <c r="G18" s="259"/>
+      <c r="H18" s="260" t="s">
+        <v>404</v>
+      </c>
+      <c r="I18" s="261"/>
+      <c r="J18" s="262"/>
+      <c r="K18" s="262"/>
+      <c r="L18" s="262"/>
+      <c r="M18" s="262"/>
+      <c r="N18" s="262"/>
+      <c r="O18" s="262"/>
+      <c r="P18" s="262"/>
+      <c r="Q18" s="262"/>
+      <c r="R18" s="262"/>
+      <c r="S18" s="262"/>
+      <c r="T18" s="262"/>
+      <c r="U18" s="262"/>
+      <c r="V18" s="262"/>
+      <c r="W18" s="262"/>
+      <c r="X18" s="262"/>
+      <c r="Y18" s="262"/>
+      <c r="Z18" s="262"/>
+      <c r="AA18" s="262"/>
+      <c r="AB18" s="262"/>
+      <c r="AC18" s="262"/>
+      <c r="AD18" s="262"/>
+      <c r="AE18" s="262"/>
+      <c r="AF18" s="262"/>
+      <c r="AG18" s="262"/>
+    </row>
+    <row r="19" spans="1:41" s="263" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="267"/>
+      <c r="B19" s="264"/>
+      <c r="C19" s="265"/>
+      <c r="D19" s="257" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="257" t="s">
+        <v>415</v>
+      </c>
+      <c r="F19" s="258" t="s">
+        <v>418</v>
+      </c>
+      <c r="G19" s="259"/>
+      <c r="H19" s="260" t="s">
+        <v>429</v>
+      </c>
+      <c r="I19" s="261"/>
+      <c r="J19" s="262"/>
+      <c r="K19" s="262"/>
+      <c r="L19" s="262"/>
+      <c r="M19" s="262"/>
+      <c r="N19" s="262"/>
+      <c r="O19" s="262"/>
+      <c r="P19" s="262"/>
+      <c r="Q19" s="262"/>
+      <c r="R19" s="262"/>
+      <c r="S19" s="262"/>
+      <c r="T19" s="262"/>
+      <c r="U19" s="262"/>
+      <c r="V19" s="262"/>
+      <c r="W19" s="262"/>
+      <c r="X19" s="262"/>
+      <c r="Y19" s="262"/>
+      <c r="Z19" s="262"/>
+      <c r="AA19" s="262"/>
+      <c r="AB19" s="262"/>
+      <c r="AC19" s="262"/>
+      <c r="AD19" s="262"/>
+      <c r="AE19" s="262"/>
+      <c r="AF19" s="262"/>
+      <c r="AG19" s="262"/>
+    </row>
+    <row r="20" spans="1:41" s="243" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="267"/>
+      <c r="B20" s="288" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="289" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="283" t="s">
+        <v>406</v>
+      </c>
+      <c r="E20" s="284" t="s">
+        <v>426</v>
+      </c>
+      <c r="F20" s="285" t="s">
+        <v>425</v>
+      </c>
+      <c r="G20" s="285"/>
+      <c r="H20" s="286" t="s">
+        <v>428</v>
+      </c>
+      <c r="I20" s="287"/>
+      <c r="J20" s="287"/>
+      <c r="K20" s="287"/>
+      <c r="L20" s="287"/>
+      <c r="M20" s="287"/>
+      <c r="N20" s="287"/>
+      <c r="O20" s="287"/>
+      <c r="P20" s="287"/>
+      <c r="Q20" s="287"/>
+      <c r="R20" s="287"/>
+      <c r="S20" s="287"/>
+      <c r="T20" s="287"/>
+      <c r="U20" s="287"/>
+      <c r="V20" s="287"/>
+      <c r="W20" s="287"/>
+      <c r="X20" s="287"/>
+      <c r="Y20" s="287"/>
+      <c r="Z20" s="287"/>
+      <c r="AA20" s="287"/>
+      <c r="AB20" s="287"/>
+      <c r="AC20" s="287"/>
+      <c r="AD20" s="287"/>
+      <c r="AE20" s="287"/>
+      <c r="AF20" s="287"/>
+      <c r="AG20" s="287"/>
+      <c r="AH20" s="287"/>
+      <c r="AI20" s="287"/>
+      <c r="AJ20" s="287"/>
+      <c r="AK20" s="287"/>
+      <c r="AL20" s="287"/>
+      <c r="AM20" s="287"/>
+      <c r="AN20" s="287"/>
+      <c r="AO20" s="287"/>
+    </row>
+    <row r="21" spans="1:41" s="280" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="267"/>
+      <c r="B21" s="290"/>
+      <c r="C21" s="291"/>
+      <c r="D21" s="279" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="279" t="s">
+        <v>422</v>
+      </c>
+      <c r="F21" s="269" t="s">
+        <v>423</v>
+      </c>
+      <c r="G21" s="271"/>
+      <c r="H21" s="272" t="s">
+        <v>411</v>
+      </c>
+      <c r="I21" s="281"/>
+      <c r="J21" s="281"/>
+      <c r="K21" s="281"/>
+      <c r="L21" s="281"/>
+      <c r="M21" s="281"/>
+      <c r="N21" s="281"/>
+      <c r="O21" s="281"/>
+      <c r="P21" s="281"/>
+      <c r="Q21" s="281"/>
+      <c r="R21" s="281"/>
+      <c r="S21" s="281"/>
+      <c r="T21" s="281"/>
+      <c r="U21" s="281"/>
+      <c r="V21" s="281"/>
+      <c r="W21" s="281"/>
+      <c r="X21" s="281"/>
+      <c r="Y21" s="281"/>
+      <c r="Z21" s="281"/>
+      <c r="AA21" s="281"/>
+      <c r="AB21" s="281"/>
+      <c r="AC21" s="281"/>
+      <c r="AD21" s="281"/>
+      <c r="AE21" s="281"/>
+      <c r="AF21" s="281"/>
+      <c r="AG21" s="281"/>
+      <c r="AH21" s="281"/>
+      <c r="AI21" s="281"/>
+      <c r="AJ21" s="281"/>
+      <c r="AK21" s="281"/>
+      <c r="AL21" s="281"/>
+      <c r="AM21" s="281"/>
+      <c r="AN21" s="281"/>
+      <c r="AO21" s="281"/>
+    </row>
+    <row r="22" spans="1:41" s="243" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="268"/>
+      <c r="B22" s="292"/>
+      <c r="C22" s="293"/>
+      <c r="D22" s="282" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="239" t="s">
         <v>421</v>
       </c>
-      <c r="F16" s="245" t="s">
-        <v>398</v>
-      </c>
-      <c r="G16" s="246"/>
-      <c r="H16" s="247" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="17" spans="1:41" s="248" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="266"/>
-      <c r="B17" s="249"/>
-      <c r="C17" s="249"/>
-      <c r="D17" s="250" t="s">
-        <v>397</v>
-      </c>
-      <c r="E17" s="251" t="s">
-        <v>422</v>
-      </c>
-      <c r="F17" s="251" t="s">
-        <v>399</v>
-      </c>
-      <c r="G17" s="246"/>
-      <c r="H17" s="252" t="s">
-        <v>405</v>
-      </c>
-      <c r="I17" s="253"/>
-      <c r="J17" s="253"/>
-      <c r="K17" s="253"/>
-      <c r="L17" s="253"/>
-      <c r="M17" s="253"/>
-      <c r="N17" s="253"/>
-      <c r="O17" s="253"/>
-      <c r="P17" s="253"/>
-      <c r="Q17" s="253"/>
-      <c r="R17" s="253"/>
-      <c r="S17" s="253"/>
-      <c r="T17" s="253"/>
-      <c r="U17" s="253"/>
-      <c r="V17" s="253"/>
-      <c r="W17" s="253"/>
-      <c r="X17" s="253"/>
-      <c r="Y17" s="253"/>
-      <c r="Z17" s="253"/>
-      <c r="AA17" s="253"/>
-      <c r="AB17" s="253"/>
-      <c r="AC17" s="253"/>
-      <c r="AD17" s="253"/>
-      <c r="AE17" s="253"/>
-      <c r="AF17" s="253"/>
-      <c r="AG17" s="253"/>
-    </row>
-    <row r="18" spans="1:41" s="262" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="266"/>
-      <c r="B18" s="254" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="255" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="256" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="257" t="s">
-        <v>423</v>
-      </c>
-      <c r="F18" s="257" t="s">
-        <v>403</v>
-      </c>
-      <c r="G18" s="258"/>
-      <c r="H18" s="259" t="s">
-        <v>407</v>
-      </c>
-      <c r="I18" s="260"/>
-      <c r="J18" s="261"/>
-      <c r="K18" s="261"/>
-      <c r="L18" s="261"/>
-      <c r="M18" s="261"/>
-      <c r="N18" s="261"/>
-      <c r="O18" s="261"/>
-      <c r="P18" s="261"/>
-      <c r="Q18" s="261"/>
-      <c r="R18" s="261"/>
-      <c r="S18" s="261"/>
-      <c r="T18" s="261"/>
-      <c r="U18" s="261"/>
-      <c r="V18" s="261"/>
-      <c r="W18" s="261"/>
-      <c r="X18" s="261"/>
-      <c r="Y18" s="261"/>
-      <c r="Z18" s="261"/>
-      <c r="AA18" s="261"/>
-      <c r="AB18" s="261"/>
-      <c r="AC18" s="261"/>
-      <c r="AD18" s="261"/>
-      <c r="AE18" s="261"/>
-      <c r="AF18" s="261"/>
-      <c r="AG18" s="261"/>
-    </row>
-    <row r="19" spans="1:41" s="262" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="266"/>
-      <c r="B19" s="263"/>
-      <c r="C19" s="264"/>
-      <c r="D19" s="256" t="s">
-        <v>401</v>
-      </c>
-      <c r="E19" s="257" t="s">
+      <c r="F22" s="240" t="s">
         <v>424</v>
       </c>
-      <c r="F19" s="257" t="s">
-        <v>404</v>
-      </c>
-      <c r="G19" s="258"/>
-      <c r="H19" s="259" t="s">
-        <v>406</v>
-      </c>
-      <c r="I19" s="260"/>
-      <c r="J19" s="261"/>
-      <c r="K19" s="261"/>
-      <c r="L19" s="261"/>
-      <c r="M19" s="261"/>
-      <c r="N19" s="261"/>
-      <c r="O19" s="261"/>
-      <c r="P19" s="261"/>
-      <c r="Q19" s="261"/>
-      <c r="R19" s="261"/>
-      <c r="S19" s="261"/>
-      <c r="T19" s="261"/>
-      <c r="U19" s="261"/>
-      <c r="V19" s="261"/>
-      <c r="W19" s="261"/>
-      <c r="X19" s="261"/>
-      <c r="Y19" s="261"/>
-      <c r="Z19" s="261"/>
-      <c r="AA19" s="261"/>
-      <c r="AB19" s="261"/>
-      <c r="AC19" s="261"/>
-      <c r="AD19" s="261"/>
-      <c r="AE19" s="261"/>
-      <c r="AF19" s="261"/>
-      <c r="AG19" s="261"/>
-    </row>
-    <row r="20" spans="1:41" s="111" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="266"/>
-      <c r="B20" s="135" t="s">
-        <v>178</v>
-      </c>
-      <c r="C20" s="137" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="128" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="110" t="s">
-        <v>425</v>
-      </c>
-      <c r="F20" s="110" t="s">
-        <v>410</v>
-      </c>
-      <c r="G20" s="70"/>
-      <c r="H20" s="118" t="s">
-        <v>419</v>
-      </c>
-      <c r="I20" s="127"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="127"/>
-      <c r="N20" s="127"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="127"/>
-      <c r="S20" s="127"/>
-      <c r="T20" s="127"/>
-      <c r="U20" s="127"/>
-      <c r="V20" s="127"/>
-      <c r="W20" s="127"/>
-      <c r="X20" s="127"/>
-      <c r="Y20" s="127"/>
-      <c r="Z20" s="127"/>
-      <c r="AA20" s="127"/>
-      <c r="AB20" s="127"/>
-      <c r="AC20" s="127"/>
-      <c r="AD20" s="127"/>
-      <c r="AE20" s="127"/>
-      <c r="AF20" s="127"/>
-      <c r="AG20" s="127"/>
-      <c r="AH20" s="127"/>
-      <c r="AI20" s="127"/>
-      <c r="AJ20" s="127"/>
-      <c r="AK20" s="127"/>
-      <c r="AL20" s="127"/>
-      <c r="AM20" s="127"/>
-      <c r="AN20" s="127"/>
-      <c r="AO20" s="127"/>
-    </row>
-    <row r="21" spans="1:41" s="242" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="267"/>
-      <c r="B21" s="136"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="238" t="s">
-        <v>412</v>
-      </c>
-      <c r="E21" s="239" t="s">
-        <v>426</v>
-      </c>
-      <c r="F21" s="239" t="s">
-        <v>411</v>
-      </c>
-      <c r="G21" s="240"/>
-      <c r="H21" s="241" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="22" spans="1:41" s="232" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="233"/>
-      <c r="H22" s="234"/>
+      <c r="G22" s="241"/>
+      <c r="H22" s="242" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" s="233" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="234"/>
+      <c r="H23" s="235"/>
     </row>
   </sheetData>
   <mergeCells count="22">
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C1:D1"/>
@@ -6615,13 +6858,10 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="F3:F5"/>
-    <mergeCell ref="A16:A21"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6657,10 +6897,10 @@
       <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="148" t="s">
+      <c r="C1" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="148"/>
+      <c r="D1" s="149"/>
       <c r="E1" s="91" t="s">
         <v>164</v>
       </c>
@@ -6675,13 +6915,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="150" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="151" t="s">
         <v>315</v>
       </c>
       <c r="D2" s="62" t="s">
@@ -6701,21 +6941,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="140"/>
+      <c r="A3" s="141"/>
       <c r="B3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="139" t="s">
+      <c r="E3" s="140" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="139" t="s">
+      <c r="F3" s="140" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="140" t="s">
         <v>320</v>
       </c>
       <c r="H3" s="66" t="s">
@@ -6723,39 +6963,39 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="140"/>
+      <c r="A4" s="141"/>
       <c r="B4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
       <c r="H4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="140"/>
+      <c r="A5" s="141"/>
       <c r="B5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
       <c r="H5" s="96" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="141"/>
+      <c r="A6" s="142"/>
       <c r="B6" s="101" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="172" t="s">
+      <c r="C6" s="173" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="92" t="s">
@@ -6772,13 +7012,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="70" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>178</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="174"/>
       <c r="D7" s="71" t="s">
         <v>5</v>
       </c>
@@ -6793,43 +7033,43 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="147"/>
-      <c r="B8" s="168" t="s">
+      <c r="A8" s="148"/>
+      <c r="B8" s="169" t="s">
         <v>359</v>
       </c>
-      <c r="C8" s="173"/>
-      <c r="D8" s="186" t="s">
+      <c r="C8" s="174"/>
+      <c r="D8" s="187" t="s">
         <v>212</v>
       </c>
-      <c r="E8" s="168" t="s">
+      <c r="E8" s="169" t="s">
         <v>326</v>
       </c>
-      <c r="F8" s="168" t="s">
+      <c r="F8" s="169" t="s">
         <v>360</v>
       </c>
-      <c r="H8" s="183" t="s">
+      <c r="H8" s="184" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="147"/>
-      <c r="B9" s="185"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="185"/>
-      <c r="H9" s="184"/>
+      <c r="A9" s="148"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="186"/>
+      <c r="H9" s="185"/>
     </row>
     <row r="10" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="147"/>
-      <c r="B10" s="168" t="s">
+      <c r="A10" s="148"/>
+      <c r="B10" s="169" t="s">
         <v>369</v>
       </c>
-      <c r="C10" s="173"/>
+      <c r="C10" s="174"/>
       <c r="D10" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="147"/>
+      <c r="E10" s="148"/>
       <c r="F10" s="67" t="s">
         <v>337</v>
       </c>
@@ -6838,13 +7078,13 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="147"/>
-      <c r="B11" s="147"/>
-      <c r="C11" s="173"/>
+      <c r="A11" s="148"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="174"/>
       <c r="D11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="147"/>
+      <c r="E11" s="148"/>
       <c r="F11" s="67" t="s">
         <v>338</v>
       </c>
@@ -6853,13 +7093,13 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="147"/>
-      <c r="B12" s="147"/>
-      <c r="C12" s="173"/>
+      <c r="A12" s="148"/>
+      <c r="B12" s="148"/>
+      <c r="C12" s="174"/>
       <c r="D12" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="147"/>
+      <c r="E12" s="148"/>
       <c r="F12" s="67" t="s">
         <v>339</v>
       </c>
@@ -6868,13 +7108,13 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="147"/>
-      <c r="B13" s="147"/>
-      <c r="C13" s="173"/>
+      <c r="A13" s="148"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="174"/>
       <c r="D13" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="147"/>
+      <c r="E13" s="148"/>
       <c r="F13" s="67" t="s">
         <v>340</v>
       </c>
@@ -6883,13 +7123,13 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="147"/>
-      <c r="B14" s="147"/>
-      <c r="C14" s="173"/>
+      <c r="A14" s="148"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="174"/>
       <c r="D14" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="147"/>
+      <c r="E14" s="148"/>
       <c r="F14" s="67" t="s">
         <v>341</v>
       </c>
@@ -6898,13 +7138,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="147"/>
-      <c r="B15" s="185"/>
-      <c r="C15" s="173"/>
+      <c r="A15" s="148"/>
+      <c r="B15" s="186"/>
+      <c r="C15" s="174"/>
       <c r="D15" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="147"/>
+      <c r="E15" s="148"/>
       <c r="F15" s="67" t="s">
         <v>342</v>
       </c>
@@ -6913,15 +7153,15 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="147"/>
+      <c r="A16" s="148"/>
       <c r="B16" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="C16" s="173"/>
+      <c r="C16" s="174"/>
       <c r="D16" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="147"/>
+      <c r="E16" s="148"/>
       <c r="F16" s="67" t="s">
         <v>343</v>
       </c>
@@ -6930,15 +7170,15 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="147"/>
+      <c r="A17" s="148"/>
       <c r="B17" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="C17" s="173"/>
+      <c r="C17" s="174"/>
       <c r="D17" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="147"/>
+      <c r="E17" s="148"/>
       <c r="F17" s="67" t="s">
         <v>344</v>
       </c>
@@ -6947,15 +7187,15 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="147"/>
+      <c r="A18" s="148"/>
       <c r="B18" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="173"/>
+      <c r="C18" s="174"/>
       <c r="D18" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="147"/>
+      <c r="E18" s="148"/>
       <c r="F18" s="67" t="s">
         <v>345</v>
       </c>
@@ -6964,15 +7204,15 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="147"/>
+      <c r="A19" s="148"/>
       <c r="B19" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="C19" s="173"/>
+      <c r="C19" s="174"/>
       <c r="D19" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="147"/>
+      <c r="E19" s="148"/>
       <c r="F19" s="67" t="s">
         <v>346</v>
       </c>
@@ -6981,15 +7221,15 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="147"/>
+      <c r="A20" s="148"/>
       <c r="B20" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="C20" s="173"/>
+      <c r="C20" s="174"/>
       <c r="D20" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="147"/>
+      <c r="E20" s="148"/>
       <c r="F20" s="67" t="s">
         <v>347</v>
       </c>
@@ -6998,15 +7238,15 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="147"/>
+      <c r="A21" s="148"/>
       <c r="B21" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="C21" s="173"/>
+      <c r="C21" s="174"/>
       <c r="D21" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="147"/>
+      <c r="E21" s="148"/>
       <c r="F21" s="67" t="s">
         <v>348</v>
       </c>
@@ -7015,15 +7255,15 @@
       </c>
     </row>
     <row r="22" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="147"/>
+      <c r="A22" s="148"/>
       <c r="B22" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="C22" s="173"/>
+      <c r="C22" s="174"/>
       <c r="D22" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="147"/>
+      <c r="E22" s="148"/>
       <c r="F22" s="67" t="s">
         <v>349</v>
       </c>
@@ -7032,15 +7272,15 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="85" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="182"/>
+      <c r="A23" s="183"/>
       <c r="B23" s="85" t="s">
         <v>229</v>
       </c>
-      <c r="C23" s="181"/>
+      <c r="C23" s="182"/>
       <c r="D23" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="182"/>
+      <c r="E23" s="183"/>
       <c r="F23" s="85" t="s">
         <v>334</v>
       </c>
@@ -7049,13 +7289,13 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="174" t="s">
+      <c r="A24" s="175" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="77" t="s">
         <v>324</v>
       </c>
-      <c r="C24" s="145" t="s">
+      <c r="C24" s="146" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="76" t="s">
@@ -7072,15 +7312,15 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="175"/>
+      <c r="A25" s="176"/>
       <c r="B25" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="C25" s="146"/>
+      <c r="C25" s="147"/>
       <c r="D25" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="E25" s="179" t="s">
+      <c r="E25" s="180" t="s">
         <v>254</v>
       </c>
       <c r="F25" s="79" t="s">
@@ -7094,15 +7334,15 @@
       </c>
     </row>
     <row r="26" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="175"/>
+      <c r="A26" s="176"/>
       <c r="B26" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="C26" s="146"/>
+      <c r="C26" s="147"/>
       <c r="D26" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="E26" s="179"/>
+      <c r="E26" s="180"/>
       <c r="F26" s="79" t="s">
         <v>207</v>
       </c>
@@ -7114,15 +7354,15 @@
       </c>
     </row>
     <row r="27" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="175"/>
+      <c r="A27" s="176"/>
       <c r="B27" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="C27" s="146"/>
+      <c r="C27" s="147"/>
       <c r="D27" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="E27" s="179"/>
+      <c r="E27" s="180"/>
       <c r="F27" s="79" t="s">
         <v>192</v>
       </c>
@@ -7134,15 +7374,15 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="82" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="177"/>
+      <c r="A28" s="178"/>
       <c r="B28" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="C28" s="178"/>
+      <c r="C28" s="179"/>
       <c r="D28" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="E28" s="180"/>
+      <c r="E28" s="181"/>
       <c r="F28" s="82" t="s">
         <v>189</v>
       </c>
@@ -7215,10 +7455,10 @@
       <c r="C1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="148" t="s">
+      <c r="D1" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="148"/>
+      <c r="E1" s="149"/>
       <c r="F1" s="91" t="s">
         <v>164</v>
       </c>
@@ -7233,14 +7473,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="194" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="194"/>
+      <c r="B2" s="195"/>
       <c r="C2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="150" t="s">
+      <c r="D2" s="151" t="s">
         <v>315</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -7260,22 +7500,22 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="64" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="195"/>
-      <c r="B3" s="196"/>
+      <c r="A3" s="196"/>
+      <c r="B3" s="197"/>
       <c r="C3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="152" t="s">
+      <c r="D3" s="152"/>
+      <c r="E3" s="153" t="s">
         <v>311</v>
       </c>
-      <c r="F3" s="139" t="s">
+      <c r="F3" s="140" t="s">
         <v>318</v>
       </c>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="140" t="s">
         <v>319</v>
       </c>
-      <c r="H3" s="139" t="s">
+      <c r="H3" s="140" t="s">
         <v>320</v>
       </c>
       <c r="I3" s="66" t="s">
@@ -7283,44 +7523,44 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="99" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="197"/>
-      <c r="B4" s="139"/>
+      <c r="A4" s="198"/>
+      <c r="B4" s="140"/>
       <c r="C4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="D4" s="152"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
       <c r="I4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="88" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="198"/>
-      <c r="B5" s="199"/>
+      <c r="A5" s="199"/>
+      <c r="B5" s="200"/>
       <c r="C5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="153"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
       <c r="I5" s="96" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="189" t="s">
+      <c r="A6" s="190" t="s">
         <v>178</v>
       </c>
-      <c r="B6" s="200" t="s">
+      <c r="B6" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="201"/>
-      <c r="D6" s="189" t="s">
+      <c r="C6" s="202"/>
+      <c r="D6" s="190" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="92" t="s">
@@ -7337,12 +7577,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" s="95" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="190"/>
-      <c r="B7" s="202" t="s">
+      <c r="A7" s="191"/>
+      <c r="B7" s="203" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="202"/>
-      <c r="D7" s="190"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="191"/>
       <c r="E7" s="94" t="s">
         <v>5</v>
       </c>
@@ -7357,18 +7597,18 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="190"/>
-      <c r="B8" s="203" t="s">
+      <c r="A8" s="191"/>
+      <c r="B8" s="204" t="s">
         <v>182</v>
       </c>
       <c r="C8" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="D8" s="190"/>
+      <c r="D8" s="191"/>
       <c r="E8" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="192" t="s">
+      <c r="F8" s="193" t="s">
         <v>326</v>
       </c>
       <c r="G8" s="70" t="s">
@@ -7379,16 +7619,16 @@
       </c>
     </row>
     <row r="9" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="190"/>
-      <c r="B9" s="203"/>
+      <c r="A9" s="191"/>
+      <c r="B9" s="204"/>
       <c r="C9" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="D9" s="190"/>
+      <c r="D9" s="191"/>
       <c r="E9" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="147"/>
+      <c r="F9" s="148"/>
       <c r="G9" s="67" t="s">
         <v>336</v>
       </c>
@@ -7397,16 +7637,16 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="190"/>
-      <c r="B10" s="203"/>
+      <c r="A10" s="191"/>
+      <c r="B10" s="204"/>
       <c r="C10" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="190"/>
+      <c r="D10" s="191"/>
       <c r="E10" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="147"/>
+      <c r="F10" s="148"/>
       <c r="G10" s="67" t="s">
         <v>337</v>
       </c>
@@ -7415,16 +7655,16 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="190"/>
-      <c r="B11" s="203"/>
+      <c r="A11" s="191"/>
+      <c r="B11" s="204"/>
       <c r="C11" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="D11" s="190"/>
+      <c r="D11" s="191"/>
       <c r="E11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="147"/>
+      <c r="F11" s="148"/>
       <c r="G11" s="67" t="s">
         <v>338</v>
       </c>
@@ -7433,16 +7673,16 @@
       </c>
     </row>
     <row r="12" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="190"/>
-      <c r="B12" s="203"/>
+      <c r="A12" s="191"/>
+      <c r="B12" s="204"/>
       <c r="C12" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="D12" s="190"/>
+      <c r="D12" s="191"/>
       <c r="E12" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="147"/>
+      <c r="F12" s="148"/>
       <c r="G12" s="67" t="s">
         <v>339</v>
       </c>
@@ -7451,16 +7691,16 @@
       </c>
     </row>
     <row r="13" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="190"/>
-      <c r="B13" s="203"/>
+      <c r="A13" s="191"/>
+      <c r="B13" s="204"/>
       <c r="C13" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="D13" s="190"/>
+      <c r="D13" s="191"/>
       <c r="E13" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="147"/>
+      <c r="F13" s="148"/>
       <c r="G13" s="67" t="s">
         <v>340</v>
       </c>
@@ -7469,16 +7709,16 @@
       </c>
     </row>
     <row r="14" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="190"/>
-      <c r="B14" s="203"/>
+      <c r="A14" s="191"/>
+      <c r="B14" s="204"/>
       <c r="C14" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="D14" s="190"/>
+      <c r="D14" s="191"/>
       <c r="E14" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="147"/>
+      <c r="F14" s="148"/>
       <c r="G14" s="67" t="s">
         <v>341</v>
       </c>
@@ -7487,16 +7727,16 @@
       </c>
     </row>
     <row r="15" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="190"/>
-      <c r="B15" s="203"/>
+      <c r="A15" s="191"/>
+      <c r="B15" s="204"/>
       <c r="C15" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="D15" s="190"/>
+      <c r="D15" s="191"/>
       <c r="E15" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="147"/>
+      <c r="F15" s="148"/>
       <c r="G15" s="67" t="s">
         <v>342</v>
       </c>
@@ -7505,16 +7745,16 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="190"/>
-      <c r="B16" s="203"/>
+      <c r="A16" s="191"/>
+      <c r="B16" s="204"/>
       <c r="C16" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="D16" s="190"/>
+      <c r="D16" s="191"/>
       <c r="E16" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="147"/>
+      <c r="F16" s="148"/>
       <c r="G16" s="67" t="s">
         <v>343</v>
       </c>
@@ -7523,16 +7763,16 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="190"/>
-      <c r="B17" s="203"/>
+      <c r="A17" s="191"/>
+      <c r="B17" s="204"/>
       <c r="C17" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="D17" s="190"/>
+      <c r="D17" s="191"/>
       <c r="E17" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="147"/>
+      <c r="F17" s="148"/>
       <c r="G17" s="67" t="s">
         <v>344</v>
       </c>
@@ -7541,16 +7781,16 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="190"/>
-      <c r="B18" s="203"/>
+      <c r="A18" s="191"/>
+      <c r="B18" s="204"/>
       <c r="C18" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="D18" s="190"/>
+      <c r="D18" s="191"/>
       <c r="E18" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="147"/>
+      <c r="F18" s="148"/>
       <c r="G18" s="67" t="s">
         <v>345</v>
       </c>
@@ -7559,16 +7799,16 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="190"/>
-      <c r="B19" s="203"/>
+      <c r="A19" s="191"/>
+      <c r="B19" s="204"/>
       <c r="C19" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="D19" s="190"/>
+      <c r="D19" s="191"/>
       <c r="E19" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="147"/>
+      <c r="F19" s="148"/>
       <c r="G19" s="67" t="s">
         <v>346</v>
       </c>
@@ -7577,16 +7817,16 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="190"/>
-      <c r="B20" s="203"/>
+      <c r="A20" s="191"/>
+      <c r="B20" s="204"/>
       <c r="C20" s="67" t="s">
         <v>234</v>
       </c>
-      <c r="D20" s="190"/>
+      <c r="D20" s="191"/>
       <c r="E20" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="147"/>
+      <c r="F20" s="148"/>
       <c r="G20" s="67" t="s">
         <v>347</v>
       </c>
@@ -7595,16 +7835,16 @@
       </c>
     </row>
     <row r="21" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="190"/>
-      <c r="B21" s="203"/>
+      <c r="A21" s="191"/>
+      <c r="B21" s="204"/>
       <c r="C21" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="D21" s="190"/>
+      <c r="D21" s="191"/>
       <c r="E21" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="147"/>
+      <c r="F21" s="148"/>
       <c r="G21" s="67" t="s">
         <v>348</v>
       </c>
@@ -7613,16 +7853,16 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="190"/>
-      <c r="B22" s="203"/>
+      <c r="A22" s="191"/>
+      <c r="B22" s="204"/>
       <c r="C22" s="67" t="s">
         <v>236</v>
       </c>
-      <c r="D22" s="190"/>
+      <c r="D22" s="191"/>
       <c r="E22" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="147"/>
+      <c r="F22" s="148"/>
       <c r="G22" s="67" t="s">
         <v>349</v>
       </c>
@@ -7631,16 +7871,16 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="85" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="191"/>
-      <c r="B23" s="204"/>
+      <c r="A23" s="192"/>
+      <c r="B23" s="205"/>
       <c r="C23" s="85" t="s">
         <v>237</v>
       </c>
-      <c r="D23" s="191"/>
+      <c r="D23" s="192"/>
       <c r="E23" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="182"/>
+      <c r="F23" s="183"/>
       <c r="G23" s="85" t="s">
         <v>334</v>
       </c>
@@ -7649,14 +7889,14 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="205" t="s">
+      <c r="A24" s="206" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="208" t="s">
+      <c r="B24" s="209" t="s">
         <v>194</v>
       </c>
-      <c r="C24" s="208"/>
-      <c r="D24" s="145" t="s">
+      <c r="C24" s="209"/>
+      <c r="D24" s="146" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="76" t="s">
@@ -7673,18 +7913,18 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="206"/>
-      <c r="B25" s="179" t="s">
+      <c r="A25" s="207"/>
+      <c r="B25" s="180" t="s">
         <v>203</v>
       </c>
       <c r="C25" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="D25" s="146"/>
+      <c r="D25" s="147"/>
       <c r="E25" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="F25" s="179" t="s">
+      <c r="F25" s="180" t="s">
         <v>254</v>
       </c>
       <c r="G25" s="79" t="s">
@@ -7698,16 +7938,16 @@
       </c>
     </row>
     <row r="26" spans="1:9" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="206"/>
-      <c r="B26" s="179"/>
+      <c r="A26" s="207"/>
+      <c r="B26" s="180"/>
       <c r="C26" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="D26" s="146"/>
+      <c r="D26" s="147"/>
       <c r="E26" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="F26" s="179"/>
+      <c r="F26" s="180"/>
       <c r="G26" s="79" t="s">
         <v>207</v>
       </c>
@@ -7719,16 +7959,16 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="206"/>
-      <c r="B27" s="179"/>
+      <c r="A27" s="207"/>
+      <c r="B27" s="180"/>
       <c r="C27" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="D27" s="146"/>
+      <c r="D27" s="147"/>
       <c r="E27" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="F27" s="179"/>
+      <c r="F27" s="180"/>
       <c r="G27" s="79" t="s">
         <v>192</v>
       </c>
@@ -7740,16 +7980,16 @@
       </c>
     </row>
     <row r="28" spans="1:9" s="82" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="207"/>
-      <c r="B28" s="180"/>
+      <c r="A28" s="208"/>
+      <c r="B28" s="181"/>
       <c r="C28" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="D28" s="178"/>
+      <c r="D28" s="179"/>
       <c r="E28" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="F28" s="180"/>
+      <c r="F28" s="181"/>
       <c r="G28" s="82" t="s">
         <v>189</v>
       </c>
@@ -7823,10 +8063,10 @@
       <c r="C1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="148" t="s">
+      <c r="D1" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="148"/>
+      <c r="E1" s="149"/>
       <c r="F1" s="91" t="s">
         <v>164</v>
       </c>
@@ -7841,14 +8081,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="194" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="194"/>
+      <c r="B2" s="195"/>
       <c r="C2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="150" t="s">
+      <c r="D2" s="151" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -7868,12 +8108,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="64" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="195"/>
-      <c r="B3" s="196"/>
+      <c r="A3" s="196"/>
+      <c r="B3" s="197"/>
       <c r="C3" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="151"/>
+      <c r="D3" s="152"/>
       <c r="E3" s="65" t="s">
         <v>216</v>
       </c>
@@ -7891,12 +8131,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="88" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="198"/>
-      <c r="B4" s="199"/>
+      <c r="A4" s="199"/>
+      <c r="B4" s="200"/>
       <c r="C4" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="153"/>
+      <c r="D4" s="154"/>
       <c r="E4" s="89" t="s">
         <v>215</v>
       </c>
@@ -7914,14 +8154,14 @@
       </c>
     </row>
     <row r="5" spans="1:9" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="213" t="s">
+      <c r="A5" s="214" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="216" t="s">
+      <c r="B5" s="217" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="216"/>
-      <c r="D5" s="211" t="s">
+      <c r="C5" s="217"/>
+      <c r="D5" s="212" t="s">
         <v>298</v>
       </c>
       <c r="E5" s="92" t="s">
@@ -7941,12 +8181,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="95" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="214"/>
-      <c r="B6" s="202" t="s">
+      <c r="A6" s="215"/>
+      <c r="B6" s="203" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="202"/>
-      <c r="D6" s="212"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="213"/>
       <c r="E6" s="94" t="s">
         <v>19</v>
       </c>
@@ -7964,14 +8204,14 @@
       </c>
     </row>
     <row r="7" spans="1:9" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="214"/>
-      <c r="B7" s="203" t="s">
+      <c r="A7" s="215"/>
+      <c r="B7" s="204" t="s">
         <v>182</v>
       </c>
       <c r="C7" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="209" t="s">
+      <c r="D7" s="210" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="71" t="s">
@@ -7991,12 +8231,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="214"/>
-      <c r="B8" s="203"/>
+      <c r="A8" s="215"/>
+      <c r="B8" s="204"/>
       <c r="C8" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="209"/>
+      <c r="D8" s="210"/>
       <c r="E8" s="68" t="s">
         <v>5</v>
       </c>
@@ -8014,12 +8254,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="214"/>
-      <c r="B9" s="203"/>
+      <c r="A9" s="215"/>
+      <c r="B9" s="204"/>
       <c r="C9" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="D9" s="209"/>
+      <c r="D9" s="210"/>
       <c r="E9" s="68" t="s">
         <v>5</v>
       </c>
@@ -8037,12 +8277,12 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="214"/>
-      <c r="B10" s="203"/>
+      <c r="A10" s="215"/>
+      <c r="B10" s="204"/>
       <c r="C10" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="209"/>
+      <c r="D10" s="210"/>
       <c r="E10" s="68" t="s">
         <v>5</v>
       </c>
@@ -8060,12 +8300,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="214"/>
-      <c r="B11" s="203"/>
+      <c r="A11" s="215"/>
+      <c r="B11" s="204"/>
       <c r="C11" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="209"/>
+      <c r="D11" s="210"/>
       <c r="E11" s="68" t="s">
         <v>5</v>
       </c>
@@ -8083,12 +8323,12 @@
       </c>
     </row>
     <row r="12" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="214"/>
-      <c r="B12" s="203"/>
+      <c r="A12" s="215"/>
+      <c r="B12" s="204"/>
       <c r="C12" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="209"/>
+      <c r="D12" s="210"/>
       <c r="E12" s="68" t="s">
         <v>5</v>
       </c>
@@ -8106,12 +8346,12 @@
       </c>
     </row>
     <row r="13" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="214"/>
-      <c r="B13" s="203"/>
+      <c r="A13" s="215"/>
+      <c r="B13" s="204"/>
       <c r="C13" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="D13" s="209"/>
+      <c r="D13" s="210"/>
       <c r="E13" s="68" t="s">
         <v>5</v>
       </c>
@@ -8129,12 +8369,12 @@
       </c>
     </row>
     <row r="14" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="214"/>
-      <c r="B14" s="203"/>
+      <c r="A14" s="215"/>
+      <c r="B14" s="204"/>
       <c r="C14" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="D14" s="209"/>
+      <c r="D14" s="210"/>
       <c r="E14" s="68" t="s">
         <v>5</v>
       </c>
@@ -8152,12 +8392,12 @@
       </c>
     </row>
     <row r="15" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="214"/>
-      <c r="B15" s="203"/>
+      <c r="A15" s="215"/>
+      <c r="B15" s="204"/>
       <c r="C15" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="D15" s="209"/>
+      <c r="D15" s="210"/>
       <c r="E15" s="68" t="s">
         <v>5</v>
       </c>
@@ -8175,12 +8415,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="214"/>
-      <c r="B16" s="203"/>
+      <c r="A16" s="215"/>
+      <c r="B16" s="204"/>
       <c r="C16" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="209"/>
+      <c r="D16" s="210"/>
       <c r="E16" s="68" t="s">
         <v>5</v>
       </c>
@@ -8198,12 +8438,12 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="214"/>
-      <c r="B17" s="203"/>
+      <c r="A17" s="215"/>
+      <c r="B17" s="204"/>
       <c r="C17" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="D17" s="209"/>
+      <c r="D17" s="210"/>
       <c r="E17" s="68" t="s">
         <v>5</v>
       </c>
@@ -8221,12 +8461,12 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="214"/>
-      <c r="B18" s="203"/>
+      <c r="A18" s="215"/>
+      <c r="B18" s="204"/>
       <c r="C18" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="D18" s="209"/>
+      <c r="D18" s="210"/>
       <c r="E18" s="68" t="s">
         <v>5</v>
       </c>
@@ -8244,12 +8484,12 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="214"/>
-      <c r="B19" s="203"/>
+      <c r="A19" s="215"/>
+      <c r="B19" s="204"/>
       <c r="C19" s="67" t="s">
         <v>234</v>
       </c>
-      <c r="D19" s="209"/>
+      <c r="D19" s="210"/>
       <c r="E19" s="68" t="s">
         <v>5</v>
       </c>
@@ -8267,12 +8507,12 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="214"/>
-      <c r="B20" s="203"/>
+      <c r="A20" s="215"/>
+      <c r="B20" s="204"/>
       <c r="C20" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="D20" s="209"/>
+      <c r="D20" s="210"/>
       <c r="E20" s="68" t="s">
         <v>5</v>
       </c>
@@ -8290,12 +8530,12 @@
       </c>
     </row>
     <row r="21" spans="1:9" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="214"/>
-      <c r="B21" s="203"/>
+      <c r="A21" s="215"/>
+      <c r="B21" s="204"/>
       <c r="C21" s="67" t="s">
         <v>236</v>
       </c>
-      <c r="D21" s="209"/>
+      <c r="D21" s="210"/>
       <c r="E21" s="68" t="s">
         <v>5</v>
       </c>
@@ -8313,12 +8553,12 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="85" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="215"/>
-      <c r="B22" s="204"/>
+      <c r="A22" s="216"/>
+      <c r="B22" s="205"/>
       <c r="C22" s="85" t="s">
         <v>237</v>
       </c>
-      <c r="D22" s="210"/>
+      <c r="D22" s="211"/>
       <c r="E22" s="86" t="s">
         <v>5</v>
       </c>
@@ -8336,14 +8576,14 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="205" t="s">
+      <c r="A23" s="206" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="208" t="s">
+      <c r="B23" s="209" t="s">
         <v>194</v>
       </c>
-      <c r="C23" s="208"/>
-      <c r="D23" s="145" t="s">
+      <c r="C23" s="209"/>
+      <c r="D23" s="146" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="76" t="s">
@@ -8363,18 +8603,18 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="206"/>
-      <c r="B24" s="179" t="s">
+      <c r="A24" s="207"/>
+      <c r="B24" s="180" t="s">
         <v>203</v>
       </c>
       <c r="C24" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="D24" s="146"/>
+      <c r="D24" s="147"/>
       <c r="E24" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="F24" s="179" t="s">
+      <c r="F24" s="180" t="s">
         <v>254</v>
       </c>
       <c r="G24" s="79" t="s">
@@ -8388,16 +8628,16 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="206"/>
-      <c r="B25" s="179"/>
+      <c r="A25" s="207"/>
+      <c r="B25" s="180"/>
       <c r="C25" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="D25" s="146"/>
+      <c r="D25" s="147"/>
       <c r="E25" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="F25" s="179"/>
+      <c r="F25" s="180"/>
       <c r="G25" s="79" t="s">
         <v>207</v>
       </c>
@@ -8409,16 +8649,16 @@
       </c>
     </row>
     <row r="26" spans="1:9" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="206"/>
-      <c r="B26" s="179"/>
+      <c r="A26" s="207"/>
+      <c r="B26" s="180"/>
       <c r="C26" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="D26" s="146"/>
+      <c r="D26" s="147"/>
       <c r="E26" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="F26" s="179"/>
+      <c r="F26" s="180"/>
       <c r="G26" s="79" t="s">
         <v>192</v>
       </c>
@@ -8430,16 +8670,16 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="82" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="207"/>
-      <c r="B27" s="180"/>
+      <c r="A27" s="208"/>
+      <c r="B27" s="181"/>
       <c r="C27" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="D27" s="178"/>
+      <c r="D27" s="179"/>
       <c r="E27" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="F27" s="180"/>
+      <c r="F27" s="181"/>
       <c r="G27" s="82" t="s">
         <v>189</v>
       </c>
@@ -8524,10 +8764,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="217" t="s">
+      <c r="A2" s="218" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="217" t="s">
+      <c r="B2" s="218" t="s">
         <v>142</v>
       </c>
       <c r="C2" s="56" t="s">
@@ -8550,8 +8790,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="217"/>
-      <c r="B3" s="217"/>
+      <c r="A3" s="218"/>
+      <c r="B3" s="218"/>
       <c r="C3" s="56" t="s">
         <v>174</v>
       </c>
@@ -8574,7 +8814,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="218" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="56" t="s">
@@ -8582,7 +8822,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="217"/>
+      <c r="A6" s="218"/>
       <c r="H6" s="56" t="s">
         <v>181</v>
       </c>
@@ -8643,10 +8883,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="217" t="s">
+      <c r="A2" s="218" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="217" t="s">
+      <c r="B2" s="218" t="s">
         <v>166</v>
       </c>
       <c r="C2" s="56" t="s">
@@ -8658,7 +8898,7 @@
       <c r="E2" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="F2" s="217" t="s">
+      <c r="F2" s="218" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="56" t="s">
@@ -8672,8 +8912,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="217"/>
-      <c r="B3" s="217"/>
+      <c r="A3" s="218"/>
+      <c r="B3" s="218"/>
       <c r="C3" s="56" t="s">
         <v>172</v>
       </c>
@@ -8683,7 +8923,7 @@
       <c r="E3" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="F3" s="217"/>
+      <c r="F3" s="218"/>
       <c r="G3" s="56" t="s">
         <v>175</v>
       </c>
@@ -8741,7 +8981,7 @@
       <c r="A2" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="218" t="s">
+      <c r="B2" s="219" t="s">
         <v>141</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -8753,7 +8993,7 @@
       <c r="E2" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="220" t="s">
+      <c r="F2" s="221" t="s">
         <v>161</v>
       </c>
     </row>
@@ -8761,7 +9001,7 @@
       <c r="A3" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="219"/>
+      <c r="B3" s="220"/>
       <c r="C3" s="42" t="s">
         <v>143</v>
       </c>
@@ -8771,7 +9011,7 @@
       <c r="E3" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="221"/>
+      <c r="F3" s="222"/>
     </row>
     <row r="4" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
@@ -8780,7 +9020,7 @@
       <c r="B4" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="225" t="s">
+      <c r="C4" s="226" t="s">
         <v>76</v>
       </c>
       <c r="D4" s="40" t="s">
@@ -8800,7 +9040,7 @@
       <c r="B5" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="218"/>
+      <c r="C5" s="219"/>
       <c r="D5" s="43" t="s">
         <v>111</v>
       </c>
@@ -8818,7 +9058,7 @@
       <c r="B6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="218"/>
+      <c r="C6" s="219"/>
       <c r="D6" s="40" t="s">
         <v>16</v>
       </c>
@@ -8836,7 +9076,7 @@
       <c r="B7" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="218"/>
+      <c r="C7" s="219"/>
       <c r="D7" s="48" t="s">
         <v>5</v>
       </c>
@@ -8854,7 +9094,7 @@
       <c r="B8" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="218"/>
+      <c r="C8" s="219"/>
       <c r="D8" s="40" t="s">
         <v>121</v>
       </c>
@@ -8872,7 +9112,7 @@
       <c r="B9" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="218"/>
+      <c r="C9" s="219"/>
       <c r="D9" s="40" t="s">
         <v>107</v>
       </c>
@@ -8890,7 +9130,7 @@
       <c r="B10" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="218"/>
+      <c r="C10" s="219"/>
       <c r="D10" s="40" t="s">
         <v>107</v>
       </c>
@@ -8908,7 +9148,7 @@
       <c r="B11" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="218"/>
+      <c r="C11" s="219"/>
       <c r="D11" s="40" t="s">
         <v>107</v>
       </c>
@@ -8926,7 +9166,7 @@
       <c r="B12" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="218"/>
+      <c r="C12" s="219"/>
       <c r="D12" s="40" t="s">
         <v>107</v>
       </c>
@@ -8944,7 +9184,7 @@
       <c r="B13" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="218" t="s">
+      <c r="C13" s="219" t="s">
         <v>57</v>
       </c>
       <c r="D13" s="48" t="s">
@@ -8953,7 +9193,7 @@
       <c r="E13" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="222" t="s">
+      <c r="F13" s="223" t="s">
         <v>160</v>
       </c>
     </row>
@@ -8964,14 +9204,14 @@
       <c r="B14" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="224"/>
+      <c r="C14" s="225"/>
       <c r="D14" s="54" t="s">
         <v>96</v>
       </c>
       <c r="E14" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="223"/>
+      <c r="F14" s="224"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9025,7 +9265,7 @@
       <c r="A2" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="226" t="s">
+      <c r="B2" s="227" t="s">
         <v>141</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -9037,7 +9277,7 @@
       <c r="E2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="227" t="s">
+      <c r="F2" s="228" t="s">
         <v>138</v>
       </c>
     </row>
@@ -9045,7 +9285,7 @@
       <c r="A3" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="226"/>
+      <c r="B3" s="227"/>
       <c r="C3" s="9" t="s">
         <v>54</v>
       </c>
@@ -9055,13 +9295,13 @@
       <c r="E3" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="227"/>
+      <c r="F3" s="228"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="226"/>
+      <c r="B4" s="227"/>
       <c r="C4" s="9" t="s">
         <v>143</v>
       </c>
@@ -9082,7 +9322,7 @@
       <c r="B5" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="226" t="s">
+      <c r="C5" s="227" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -9102,7 +9342,7 @@
       <c r="B6" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="226"/>
+      <c r="C6" s="227"/>
       <c r="D6" s="10" t="s">
         <v>121</v>
       </c>
@@ -9120,7 +9360,7 @@
       <c r="B7" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="226"/>
+      <c r="C7" s="227"/>
       <c r="D7" s="10" t="s">
         <v>107</v>
       </c>
@@ -9138,7 +9378,7 @@
       <c r="B8" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="226"/>
+      <c r="C8" s="227"/>
       <c r="D8" s="10" t="s">
         <v>107</v>
       </c>
@@ -9156,7 +9396,7 @@
       <c r="B9" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="226"/>
+      <c r="C9" s="227"/>
       <c r="D9" s="10" t="s">
         <v>107</v>
       </c>
@@ -9174,7 +9414,7 @@
       <c r="B10" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="226"/>
+      <c r="C10" s="227"/>
       <c r="D10" s="10" t="s">
         <v>107</v>
       </c>
@@ -9192,7 +9432,7 @@
       <c r="B11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="226"/>
+      <c r="C11" s="227"/>
       <c r="D11" s="10" t="s">
         <v>111</v>
       </c>
@@ -9210,7 +9450,7 @@
       <c r="B12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="226"/>
+      <c r="C12" s="227"/>
       <c r="D12" s="10" t="s">
         <v>94</v>
       </c>
@@ -9228,7 +9468,7 @@
       <c r="B13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="226"/>
+      <c r="C13" s="227"/>
       <c r="D13" s="10" t="s">
         <v>96</v>
       </c>
@@ -9309,7 +9549,7 @@
       <c r="B3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="228" t="s">
+      <c r="C3" s="229" t="s">
         <v>57</v>
       </c>
       <c r="D3" s="6">
@@ -9329,7 +9569,7 @@
       <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="229"/>
+      <c r="C4" s="230"/>
       <c r="D4" s="3">
         <v>48</v>
       </c>
@@ -9344,7 +9584,7 @@
       <c r="B5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="229"/>
+      <c r="C5" s="230"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
@@ -9359,7 +9599,7 @@
       <c r="B6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="229"/>
+      <c r="C6" s="230"/>
       <c r="D6" s="3" t="s">
         <v>90</v>
       </c>
@@ -9374,7 +9614,7 @@
       <c r="B7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="229"/>
+      <c r="C7" s="230"/>
       <c r="D7" s="3" t="s">
         <v>87</v>
       </c>
@@ -9389,7 +9629,7 @@
       <c r="B8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="229"/>
+      <c r="C8" s="230"/>
       <c r="D8" s="3" t="s">
         <v>88</v>
       </c>
@@ -9404,7 +9644,7 @@
       <c r="B9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="230"/>
+      <c r="C9" s="231"/>
       <c r="D9" s="5" t="s">
         <v>88</v>
       </c>
@@ -9420,7 +9660,7 @@
       <c r="B10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="228" t="s">
+      <c r="C10" s="229" t="s">
         <v>76</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -9440,7 +9680,7 @@
       <c r="B11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="229"/>
+      <c r="C11" s="230"/>
       <c r="D11" s="3" t="s">
         <v>89</v>
       </c>
@@ -9455,7 +9695,7 @@
       <c r="B12" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="229"/>
+      <c r="C12" s="230"/>
       <c r="D12" s="3">
         <v>4</v>
       </c>
@@ -9470,7 +9710,7 @@
       <c r="B13" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="231"/>
+      <c r="C13" s="232"/>
       <c r="D13" s="31">
         <v>4</v>
       </c>
@@ -9747,10 +9987,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F021144A-02B0-4FAF-8611-E93CE3693F4D}">
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9773,10 +10013,10 @@
       <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="148" t="s">
+      <c r="C1" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="148"/>
+      <c r="D1" s="149"/>
       <c r="E1" s="91" t="s">
         <v>164</v>
       </c>
@@ -9791,13 +10031,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="150" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="151" t="s">
         <v>315</v>
       </c>
       <c r="D2" s="62" t="s">
@@ -9817,21 +10057,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="140"/>
+      <c r="A3" s="141"/>
       <c r="B3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>385</v>
       </c>
-      <c r="E3" s="139" t="s">
+      <c r="E3" s="140" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="139" t="s">
+      <c r="F3" s="140" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="140" t="s">
         <v>320</v>
       </c>
       <c r="H3" s="66" t="s">
@@ -9839,42 +10079,42 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="140"/>
+      <c r="A4" s="141"/>
       <c r="B4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
       <c r="H4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="140"/>
+      <c r="A5" s="141"/>
       <c r="B5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
       <c r="H5" s="96" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="141"/>
+      <c r="A6" s="142"/>
       <c r="B6" s="92" t="s">
         <v>392</v>
       </c>
-      <c r="C6" s="165" t="s">
+      <c r="C6" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="166"/>
+      <c r="D6" s="167"/>
       <c r="E6" s="93" t="s">
         <v>383</v>
       </c>
@@ -9882,17 +10122,17 @@
         <v>384</v>
       </c>
       <c r="H6" s="102" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="144" t="s">
+      <c r="A7" s="145" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>324</v>
       </c>
-      <c r="C7" s="145" t="s">
+      <c r="C7" s="146" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="76" t="s">
@@ -9909,11 +10149,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="145"/>
+      <c r="A8" s="146"/>
       <c r="B8" s="80" t="s">
         <v>381</v>
       </c>
-      <c r="C8" s="146"/>
+      <c r="C8" s="147"/>
       <c r="D8" s="80" t="s">
         <v>5</v>
       </c>
@@ -9930,13 +10170,13 @@
         <v>379</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="237" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="235"/>
-      <c r="B9" s="235"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="235"/>
-      <c r="F9" s="235"/>
+    <row r="9" spans="1:8" s="238" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="236"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="236"/>
     </row>
     <row r="10" spans="1:8" s="91" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="91" t="s">
@@ -9945,10 +10185,10 @@
       <c r="B10" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="148" t="s">
+      <c r="C10" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="148"/>
+      <c r="D10" s="149"/>
       <c r="E10" s="91" t="s">
         <v>391</v>
       </c>
@@ -9962,35 +10202,35 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="270" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="147" t="s">
+    <row r="11" spans="1:8" s="271" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="148" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="268" t="s">
+      <c r="B11" s="269" t="s">
         <v>367</v>
       </c>
-      <c r="C11" s="147" t="s">
+      <c r="C11" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="269" t="s">
+      <c r="D11" s="270" t="s">
         <v>362</v>
       </c>
-      <c r="E11" s="269" t="s">
+      <c r="E11" s="270" t="s">
         <v>394</v>
       </c>
-      <c r="F11" s="268" t="s">
+      <c r="F11" s="269" t="s">
         <v>394</v>
       </c>
-      <c r="H11" s="271" t="s">
+      <c r="H11" s="272" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="147"/>
+      <c r="A12" s="148"/>
       <c r="B12" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C12" s="147"/>
+      <c r="C12" s="148"/>
       <c r="D12" s="105" t="s">
         <v>362</v>
       </c>
@@ -10005,11 +10245,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="147"/>
+      <c r="A13" s="148"/>
       <c r="B13" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="147"/>
+      <c r="C13" s="148"/>
       <c r="D13" s="68" t="s">
         <v>372</v>
       </c>
@@ -10023,9 +10263,9 @@
         <v>389</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="232" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="233"/>
-      <c r="H14" s="234"/>
+    <row r="14" spans="1:8" s="233" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="234"/>
+      <c r="H14" s="235"/>
     </row>
     <row r="15" spans="1:8" s="91" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="91" t="s">
@@ -10034,10 +10274,10 @@
       <c r="B15" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="148" t="s">
+      <c r="C15" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="148"/>
+      <c r="D15" s="149"/>
       <c r="E15" s="91" t="s">
         <v>167</v>
       </c>
@@ -10051,244 +10291,298 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="116" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="156" t="s">
+    <row r="16" spans="1:8" s="117" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="157" t="s">
         <v>392</v>
       </c>
-      <c r="B16" s="159" t="s">
+      <c r="B16" s="160" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="159" t="s">
+      <c r="C16" s="160" t="s">
         <v>393</v>
       </c>
-      <c r="D16" s="125" t="s">
+      <c r="D16" s="126" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="120" t="s">
+      <c r="E16" s="126" t="s">
+        <v>413</v>
+      </c>
+      <c r="F16" s="121" t="s">
+        <v>398</v>
+      </c>
+      <c r="G16" s="109"/>
+      <c r="H16" s="116" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" s="249" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="158"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="251" t="s">
+        <v>397</v>
+      </c>
+      <c r="E17" s="251" t="s">
+        <v>414</v>
+      </c>
+      <c r="F17" s="252" t="s">
+        <v>399</v>
+      </c>
+      <c r="G17" s="247"/>
+      <c r="H17" s="253" t="s">
+        <v>403</v>
+      </c>
+      <c r="I17" s="254"/>
+      <c r="J17" s="254"/>
+      <c r="K17" s="254"/>
+      <c r="L17" s="254"/>
+      <c r="M17" s="254"/>
+      <c r="N17" s="254"/>
+      <c r="O17" s="254"/>
+      <c r="P17" s="254"/>
+      <c r="Q17" s="254"/>
+      <c r="R17" s="254"/>
+      <c r="S17" s="254"/>
+      <c r="T17" s="254"/>
+      <c r="U17" s="254"/>
+      <c r="V17" s="254"/>
+      <c r="W17" s="254"/>
+      <c r="X17" s="254"/>
+      <c r="Y17" s="254"/>
+      <c r="Z17" s="254"/>
+      <c r="AA17" s="254"/>
+      <c r="AB17" s="254"/>
+      <c r="AC17" s="254"/>
+      <c r="AD17" s="254"/>
+      <c r="AE17" s="254"/>
+      <c r="AF17" s="254"/>
+      <c r="AG17" s="254"/>
+    </row>
+    <row r="18" spans="1:41" s="263" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="158"/>
+      <c r="B18" s="162" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="164" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="257" t="s">
+        <v>401</v>
+      </c>
+      <c r="E18" s="257" t="s">
+        <v>416</v>
+      </c>
+      <c r="F18" s="258" t="s">
+        <v>417</v>
+      </c>
+      <c r="G18" s="259"/>
+      <c r="H18" s="260" t="s">
+        <v>404</v>
+      </c>
+      <c r="I18" s="261"/>
+      <c r="J18" s="262"/>
+      <c r="K18" s="262"/>
+      <c r="L18" s="262"/>
+      <c r="M18" s="262"/>
+      <c r="N18" s="262"/>
+      <c r="O18" s="262"/>
+      <c r="P18" s="262"/>
+      <c r="Q18" s="262"/>
+      <c r="R18" s="262"/>
+      <c r="S18" s="262"/>
+      <c r="T18" s="262"/>
+      <c r="U18" s="262"/>
+      <c r="V18" s="262"/>
+      <c r="W18" s="262"/>
+      <c r="X18" s="262"/>
+      <c r="Y18" s="262"/>
+      <c r="Z18" s="262"/>
+      <c r="AA18" s="262"/>
+      <c r="AB18" s="262"/>
+      <c r="AC18" s="262"/>
+      <c r="AD18" s="262"/>
+      <c r="AE18" s="262"/>
+      <c r="AF18" s="262"/>
+      <c r="AG18" s="262"/>
+    </row>
+    <row r="19" spans="1:41" s="115" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="158"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="120" t="s">
+        <v>415</v>
+      </c>
+      <c r="F19" s="77" t="s">
+        <v>418</v>
+      </c>
+      <c r="G19" s="114"/>
+      <c r="H19" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="I19" s="122"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="123"/>
+      <c r="U19" s="123"/>
+      <c r="V19" s="123"/>
+      <c r="W19" s="123"/>
+      <c r="X19" s="123"/>
+      <c r="Y19" s="123"/>
+      <c r="Z19" s="123"/>
+      <c r="AA19" s="123"/>
+      <c r="AB19" s="123"/>
+      <c r="AC19" s="123"/>
+      <c r="AD19" s="123"/>
+      <c r="AE19" s="123"/>
+      <c r="AF19" s="123"/>
+      <c r="AG19" s="123"/>
+    </row>
+    <row r="20" spans="1:41" s="243" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="158"/>
+      <c r="B20" s="136" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="138" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="283" t="s">
+        <v>406</v>
+      </c>
+      <c r="E20" s="284" t="s">
+        <v>426</v>
+      </c>
+      <c r="F20" s="285" t="s">
+        <v>425</v>
+      </c>
+      <c r="G20" s="285"/>
+      <c r="H20" s="286" t="s">
+        <v>428</v>
+      </c>
+      <c r="I20" s="287"/>
+      <c r="J20" s="287"/>
+      <c r="K20" s="287"/>
+      <c r="L20" s="287"/>
+      <c r="M20" s="287"/>
+      <c r="N20" s="287"/>
+      <c r="O20" s="287"/>
+      <c r="P20" s="287"/>
+      <c r="Q20" s="287"/>
+      <c r="R20" s="287"/>
+      <c r="S20" s="287"/>
+      <c r="T20" s="287"/>
+      <c r="U20" s="287"/>
+      <c r="V20" s="287"/>
+      <c r="W20" s="287"/>
+      <c r="X20" s="287"/>
+      <c r="Y20" s="287"/>
+      <c r="Z20" s="287"/>
+      <c r="AA20" s="287"/>
+      <c r="AB20" s="287"/>
+      <c r="AC20" s="287"/>
+      <c r="AD20" s="287"/>
+      <c r="AE20" s="287"/>
+      <c r="AF20" s="287"/>
+      <c r="AG20" s="287"/>
+      <c r="AH20" s="287"/>
+      <c r="AI20" s="287"/>
+      <c r="AJ20" s="287"/>
+      <c r="AK20" s="287"/>
+      <c r="AL20" s="287"/>
+      <c r="AM20" s="287"/>
+      <c r="AN20" s="287"/>
+      <c r="AO20" s="287"/>
+    </row>
+    <row r="21" spans="1:41" s="112" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="158"/>
+      <c r="B21" s="274"/>
+      <c r="C21" s="275"/>
+      <c r="D21" s="276" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="276" t="s">
+        <v>422</v>
+      </c>
+      <c r="F21" s="110" t="s">
+        <v>423</v>
+      </c>
+      <c r="G21" s="70"/>
+      <c r="H21" s="119" t="s">
+        <v>405</v>
+      </c>
+      <c r="I21" s="128"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="128"/>
+      <c r="N21" s="128"/>
+      <c r="O21" s="128"/>
+      <c r="P21" s="128"/>
+      <c r="Q21" s="128"/>
+      <c r="R21" s="128"/>
+      <c r="S21" s="128"/>
+      <c r="T21" s="128"/>
+      <c r="U21" s="128"/>
+      <c r="V21" s="128"/>
+      <c r="W21" s="128"/>
+      <c r="X21" s="128"/>
+      <c r="Y21" s="128"/>
+      <c r="Z21" s="128"/>
+      <c r="AA21" s="128"/>
+      <c r="AB21" s="128"/>
+      <c r="AC21" s="128"/>
+      <c r="AD21" s="128"/>
+      <c r="AE21" s="128"/>
+      <c r="AF21" s="128"/>
+      <c r="AG21" s="128"/>
+      <c r="AH21" s="128"/>
+      <c r="AI21" s="128"/>
+      <c r="AJ21" s="128"/>
+      <c r="AK21" s="128"/>
+      <c r="AL21" s="128"/>
+      <c r="AM21" s="128"/>
+      <c r="AN21" s="128"/>
+      <c r="AO21" s="128"/>
+    </row>
+    <row r="22" spans="1:41" s="243" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="159"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="282" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="239" t="s">
         <v>421</v>
       </c>
-      <c r="F16" s="120" t="s">
-        <v>398</v>
-      </c>
-      <c r="G16" s="109"/>
-      <c r="H16" s="115" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="17" spans="1:41" s="248" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="157"/>
-      <c r="B17" s="160"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="250" t="s">
-        <v>397</v>
-      </c>
-      <c r="E17" s="251" t="s">
-        <v>422</v>
-      </c>
-      <c r="F17" s="251" t="s">
-        <v>399</v>
-      </c>
-      <c r="G17" s="246"/>
-      <c r="H17" s="252" t="s">
-        <v>405</v>
-      </c>
-      <c r="I17" s="253"/>
-      <c r="J17" s="253"/>
-      <c r="K17" s="253"/>
-      <c r="L17" s="253"/>
-      <c r="M17" s="253"/>
-      <c r="N17" s="253"/>
-      <c r="O17" s="253"/>
-      <c r="P17" s="253"/>
-      <c r="Q17" s="253"/>
-      <c r="R17" s="253"/>
-      <c r="S17" s="253"/>
-      <c r="T17" s="253"/>
-      <c r="U17" s="253"/>
-      <c r="V17" s="253"/>
-      <c r="W17" s="253"/>
-      <c r="X17" s="253"/>
-      <c r="Y17" s="253"/>
-      <c r="Z17" s="253"/>
-      <c r="AA17" s="253"/>
-      <c r="AB17" s="253"/>
-      <c r="AC17" s="253"/>
-      <c r="AD17" s="253"/>
-      <c r="AE17" s="253"/>
-      <c r="AF17" s="253"/>
-      <c r="AG17" s="253"/>
-    </row>
-    <row r="18" spans="1:41" s="114" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="157"/>
-      <c r="B18" s="161" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="163" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="77" t="s">
-        <v>423</v>
-      </c>
-      <c r="F18" s="77" t="s">
-        <v>403</v>
-      </c>
-      <c r="G18" s="113"/>
-      <c r="H18" s="78" t="s">
-        <v>418</v>
-      </c>
-      <c r="I18" s="121"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="122"/>
-      <c r="M18" s="122"/>
-      <c r="N18" s="122"/>
-      <c r="O18" s="122"/>
-      <c r="P18" s="122"/>
-      <c r="Q18" s="122"/>
-      <c r="R18" s="122"/>
-      <c r="S18" s="122"/>
-      <c r="T18" s="122"/>
-      <c r="U18" s="122"/>
-      <c r="V18" s="122"/>
-      <c r="W18" s="122"/>
-      <c r="X18" s="122"/>
-      <c r="Y18" s="122"/>
-      <c r="Z18" s="122"/>
-      <c r="AA18" s="122"/>
-      <c r="AB18" s="122"/>
-      <c r="AC18" s="122"/>
-      <c r="AD18" s="122"/>
-      <c r="AE18" s="122"/>
-      <c r="AF18" s="122"/>
-      <c r="AG18" s="122"/>
-    </row>
-    <row r="19" spans="1:41" s="262" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="157"/>
-      <c r="B19" s="162"/>
-      <c r="C19" s="164"/>
-      <c r="D19" s="256" t="s">
-        <v>401</v>
-      </c>
-      <c r="E19" s="257" t="s">
+      <c r="F22" s="240" t="s">
         <v>424</v>
       </c>
-      <c r="F19" s="257" t="s">
-        <v>404</v>
-      </c>
-      <c r="G19" s="258"/>
-      <c r="H19" s="259" t="s">
-        <v>406</v>
-      </c>
-      <c r="I19" s="260"/>
-      <c r="J19" s="261"/>
-      <c r="K19" s="261"/>
-      <c r="L19" s="261"/>
-      <c r="M19" s="261"/>
-      <c r="N19" s="261"/>
-      <c r="O19" s="261"/>
-      <c r="P19" s="261"/>
-      <c r="Q19" s="261"/>
-      <c r="R19" s="261"/>
-      <c r="S19" s="261"/>
-      <c r="T19" s="261"/>
-      <c r="U19" s="261"/>
-      <c r="V19" s="261"/>
-      <c r="W19" s="261"/>
-      <c r="X19" s="261"/>
-      <c r="Y19" s="261"/>
-      <c r="Z19" s="261"/>
-      <c r="AA19" s="261"/>
-      <c r="AB19" s="261"/>
-      <c r="AC19" s="261"/>
-      <c r="AD19" s="261"/>
-      <c r="AE19" s="261"/>
-      <c r="AF19" s="261"/>
-      <c r="AG19" s="261"/>
-    </row>
-    <row r="20" spans="1:41" s="111" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="157"/>
-      <c r="B20" s="135" t="s">
-        <v>178</v>
-      </c>
-      <c r="C20" s="137" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="128" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="110" t="s">
-        <v>425</v>
-      </c>
-      <c r="F20" s="110" t="s">
-        <v>410</v>
-      </c>
-      <c r="G20" s="70"/>
-      <c r="H20" s="118" t="s">
-        <v>408</v>
-      </c>
-      <c r="I20" s="127"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="127"/>
-      <c r="N20" s="127"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="127"/>
-      <c r="S20" s="127"/>
-      <c r="T20" s="127"/>
-      <c r="U20" s="127"/>
-      <c r="V20" s="127"/>
-      <c r="W20" s="127"/>
-      <c r="X20" s="127"/>
-      <c r="Y20" s="127"/>
-      <c r="Z20" s="127"/>
-      <c r="AA20" s="127"/>
-      <c r="AB20" s="127"/>
-      <c r="AC20" s="127"/>
-      <c r="AD20" s="127"/>
-      <c r="AE20" s="127"/>
-      <c r="AF20" s="127"/>
-      <c r="AG20" s="127"/>
-      <c r="AH20" s="127"/>
-      <c r="AI20" s="127"/>
-      <c r="AJ20" s="127"/>
-      <c r="AK20" s="127"/>
-      <c r="AL20" s="127"/>
-      <c r="AM20" s="127"/>
-      <c r="AN20" s="127"/>
-      <c r="AO20" s="127"/>
-    </row>
-    <row r="21" spans="1:41" s="242" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="158"/>
-      <c r="B21" s="136"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="238" t="s">
-        <v>412</v>
-      </c>
-      <c r="E21" s="239" t="s">
-        <v>426</v>
-      </c>
-      <c r="F21" s="239" t="s">
-        <v>411</v>
-      </c>
-      <c r="G21" s="240"/>
-      <c r="H21" s="241" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="22" spans="1:41" s="232" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="233"/>
-      <c r="H22" s="234"/>
+      <c r="G22" s="241"/>
+      <c r="H22" s="242" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" s="233" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="234"/>
+      <c r="H23" s="235"/>
     </row>
   </sheetData>
   <mergeCells count="22">
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C1:D1"/>
@@ -10302,13 +10596,10 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="F3:F5"/>
-    <mergeCell ref="A16:A21"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10318,10 +10609,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183B3F6C-0F39-4E0A-BA17-BAF3E2384BC7}">
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E13"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10344,10 +10635,10 @@
       <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="148" t="s">
+      <c r="C1" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="148"/>
+      <c r="D1" s="149"/>
       <c r="E1" s="91" t="s">
         <v>164</v>
       </c>
@@ -10362,13 +10653,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="150" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="151" t="s">
         <v>315</v>
       </c>
       <c r="D2" s="62" t="s">
@@ -10388,21 +10679,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="140"/>
+      <c r="A3" s="141"/>
       <c r="B3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>385</v>
       </c>
-      <c r="E3" s="139" t="s">
+      <c r="E3" s="140" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="139" t="s">
+      <c r="F3" s="140" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="140" t="s">
         <v>320</v>
       </c>
       <c r="H3" s="66" t="s">
@@ -10410,42 +10701,42 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="140"/>
+      <c r="A4" s="141"/>
       <c r="B4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
       <c r="H4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="140"/>
+      <c r="A5" s="141"/>
       <c r="B5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
       <c r="H5" s="96" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="141"/>
+      <c r="A6" s="142"/>
       <c r="B6" s="92" t="s">
         <v>392</v>
       </c>
-      <c r="C6" s="165" t="s">
+      <c r="C6" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="166"/>
+      <c r="D6" s="167"/>
       <c r="E6" s="93" t="s">
         <v>383</v>
       </c>
@@ -10453,17 +10744,17 @@
         <v>384</v>
       </c>
       <c r="H6" s="102" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="144" t="s">
+      <c r="A7" s="145" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>324</v>
       </c>
-      <c r="C7" s="145" t="s">
+      <c r="C7" s="146" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="76" t="s">
@@ -10480,11 +10771,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="145"/>
+      <c r="A8" s="146"/>
       <c r="B8" s="80" t="s">
         <v>381</v>
       </c>
-      <c r="C8" s="146"/>
+      <c r="C8" s="147"/>
       <c r="D8" s="80" t="s">
         <v>5</v>
       </c>
@@ -10501,13 +10792,13 @@
         <v>379</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="237" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="235"/>
-      <c r="B9" s="235"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="235"/>
-      <c r="F9" s="235"/>
+    <row r="9" spans="1:8" s="238" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="236"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="236"/>
     </row>
     <row r="10" spans="1:8" s="91" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="91" t="s">
@@ -10516,10 +10807,10 @@
       <c r="B10" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="148" t="s">
+      <c r="C10" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="148"/>
+      <c r="D10" s="149"/>
       <c r="E10" s="91" t="s">
         <v>391</v>
       </c>
@@ -10534,34 +10825,34 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="147" t="s">
+      <c r="A11" s="148" t="s">
         <v>178</v>
       </c>
       <c r="B11" s="110" t="s">
         <v>367</v>
       </c>
-      <c r="C11" s="147" t="s">
+      <c r="C11" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="D11" s="118" t="s">
         <v>362</v>
       </c>
-      <c r="E11" s="117" t="s">
+      <c r="E11" s="118" t="s">
         <v>394</v>
       </c>
       <c r="F11" s="110" t="s">
         <v>394</v>
       </c>
-      <c r="H11" s="118" t="s">
+      <c r="H11" s="119" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="147"/>
+      <c r="A12" s="148"/>
       <c r="B12" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C12" s="147"/>
+      <c r="C12" s="148"/>
       <c r="D12" s="105" t="s">
         <v>362</v>
       </c>
@@ -10576,11 +10867,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="147"/>
+      <c r="A13" s="148"/>
       <c r="B13" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="147"/>
+      <c r="C13" s="148"/>
       <c r="D13" s="68" t="s">
         <v>372</v>
       </c>
@@ -10594,9 +10885,9 @@
         <v>389</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="232" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="233"/>
-      <c r="H14" s="234"/>
+    <row r="14" spans="1:8" s="233" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="234"/>
+      <c r="H14" s="235"/>
     </row>
     <row r="15" spans="1:8" s="91" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="91" t="s">
@@ -10605,10 +10896,10 @@
       <c r="B15" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="148" t="s">
+      <c r="C15" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="148"/>
+      <c r="D15" s="149"/>
       <c r="E15" s="91" t="s">
         <v>167</v>
       </c>
@@ -10622,239 +10913,290 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="116" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="156" t="s">
+    <row r="16" spans="1:8" s="117" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="157" t="s">
         <v>392</v>
       </c>
-      <c r="B16" s="159" t="s">
+      <c r="B16" s="160" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="159" t="s">
+      <c r="C16" s="160" t="s">
         <v>393</v>
       </c>
-      <c r="D16" s="125" t="s">
+      <c r="D16" s="126" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="125" t="s">
+      <c r="E16" s="126" t="s">
+        <v>413</v>
+      </c>
+      <c r="F16" s="121" t="s">
+        <v>398</v>
+      </c>
+      <c r="G16" s="109"/>
+      <c r="H16" s="116" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" s="117" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="158"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="127" t="s">
+        <v>397</v>
+      </c>
+      <c r="E17" s="127" t="s">
+        <v>414</v>
+      </c>
+      <c r="F17" s="113" t="s">
+        <v>399</v>
+      </c>
+      <c r="G17" s="109"/>
+      <c r="H17" s="124" t="s">
+        <v>400</v>
+      </c>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
+      <c r="S17" s="125"/>
+      <c r="T17" s="125"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="125"/>
+      <c r="W17" s="125"/>
+      <c r="X17" s="125"/>
+      <c r="Y17" s="125"/>
+      <c r="Z17" s="125"/>
+      <c r="AA17" s="125"/>
+      <c r="AB17" s="125"/>
+      <c r="AC17" s="125"/>
+      <c r="AD17" s="125"/>
+      <c r="AE17" s="125"/>
+      <c r="AF17" s="125"/>
+      <c r="AG17" s="125"/>
+    </row>
+    <row r="18" spans="1:41" s="115" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="158"/>
+      <c r="B18" s="162" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="164" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="120" t="s">
+        <v>401</v>
+      </c>
+      <c r="E18" s="120" t="s">
+        <v>416</v>
+      </c>
+      <c r="F18" s="77" t="s">
+        <v>417</v>
+      </c>
+      <c r="G18" s="114"/>
+      <c r="H18" s="78" t="s">
+        <v>402</v>
+      </c>
+      <c r="I18" s="122"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="123"/>
+      <c r="T18" s="123"/>
+      <c r="U18" s="123"/>
+      <c r="V18" s="123"/>
+      <c r="W18" s="123"/>
+      <c r="X18" s="123"/>
+      <c r="Y18" s="123"/>
+      <c r="Z18" s="123"/>
+      <c r="AA18" s="123"/>
+      <c r="AB18" s="123"/>
+      <c r="AC18" s="123"/>
+      <c r="AD18" s="123"/>
+      <c r="AE18" s="123"/>
+      <c r="AF18" s="123"/>
+      <c r="AG18" s="123"/>
+    </row>
+    <row r="19" spans="1:41" s="115" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="158"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="120" t="s">
+        <v>415</v>
+      </c>
+      <c r="F19" s="77" t="s">
+        <v>418</v>
+      </c>
+      <c r="G19" s="114"/>
+      <c r="H19" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="I19" s="122"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="123"/>
+      <c r="U19" s="123"/>
+      <c r="V19" s="123"/>
+      <c r="W19" s="123"/>
+      <c r="X19" s="123"/>
+      <c r="Y19" s="123"/>
+      <c r="Z19" s="123"/>
+      <c r="AA19" s="123"/>
+      <c r="AB19" s="123"/>
+      <c r="AC19" s="123"/>
+      <c r="AD19" s="123"/>
+      <c r="AE19" s="123"/>
+      <c r="AF19" s="123"/>
+      <c r="AG19" s="123"/>
+    </row>
+    <row r="20" spans="1:41" s="112" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="158"/>
+      <c r="B20" s="136" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="138" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="129" t="s">
+        <v>406</v>
+      </c>
+      <c r="E20" s="277" t="s">
+        <v>426</v>
+      </c>
+      <c r="F20" s="111" t="s">
+        <v>425</v>
+      </c>
+      <c r="G20" s="111"/>
+      <c r="H20" s="278" t="s">
+        <v>419</v>
+      </c>
+      <c r="I20" s="128"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="128"/>
+      <c r="L20" s="128"/>
+      <c r="M20" s="128"/>
+      <c r="N20" s="128"/>
+      <c r="O20" s="128"/>
+      <c r="P20" s="128"/>
+      <c r="Q20" s="128"/>
+      <c r="R20" s="128"/>
+      <c r="S20" s="128"/>
+      <c r="T20" s="128"/>
+      <c r="U20" s="128"/>
+      <c r="V20" s="128"/>
+      <c r="W20" s="128"/>
+      <c r="X20" s="128"/>
+      <c r="Y20" s="128"/>
+      <c r="Z20" s="128"/>
+      <c r="AA20" s="128"/>
+      <c r="AB20" s="128"/>
+      <c r="AC20" s="128"/>
+      <c r="AD20" s="128"/>
+      <c r="AE20" s="128"/>
+      <c r="AF20" s="128"/>
+      <c r="AG20" s="128"/>
+      <c r="AH20" s="128"/>
+      <c r="AI20" s="128"/>
+      <c r="AJ20" s="128"/>
+      <c r="AK20" s="128"/>
+      <c r="AL20" s="128"/>
+      <c r="AM20" s="128"/>
+      <c r="AN20" s="128"/>
+      <c r="AO20" s="128"/>
+    </row>
+    <row r="21" spans="1:41" s="112" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="158"/>
+      <c r="B21" s="274"/>
+      <c r="C21" s="275"/>
+      <c r="D21" s="276" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="276" t="s">
+        <v>422</v>
+      </c>
+      <c r="F21" s="110" t="s">
+        <v>423</v>
+      </c>
+      <c r="G21" s="70"/>
+      <c r="H21" s="119" t="s">
+        <v>405</v>
+      </c>
+      <c r="I21" s="128"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="128"/>
+      <c r="N21" s="128"/>
+      <c r="O21" s="128"/>
+      <c r="P21" s="128"/>
+      <c r="Q21" s="128"/>
+      <c r="R21" s="128"/>
+      <c r="S21" s="128"/>
+      <c r="T21" s="128"/>
+      <c r="U21" s="128"/>
+      <c r="V21" s="128"/>
+      <c r="W21" s="128"/>
+      <c r="X21" s="128"/>
+      <c r="Y21" s="128"/>
+      <c r="Z21" s="128"/>
+      <c r="AA21" s="128"/>
+      <c r="AB21" s="128"/>
+      <c r="AC21" s="128"/>
+      <c r="AD21" s="128"/>
+      <c r="AE21" s="128"/>
+      <c r="AF21" s="128"/>
+      <c r="AG21" s="128"/>
+      <c r="AH21" s="128"/>
+      <c r="AI21" s="128"/>
+      <c r="AJ21" s="128"/>
+      <c r="AK21" s="128"/>
+      <c r="AL21" s="128"/>
+      <c r="AM21" s="128"/>
+      <c r="AN21" s="128"/>
+      <c r="AO21" s="128"/>
+    </row>
+    <row r="22" spans="1:41" s="112" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="159"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="276" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="130" t="s">
         <v>421</v>
       </c>
-      <c r="F16" s="120" t="s">
-        <v>398</v>
-      </c>
-      <c r="G16" s="109"/>
-      <c r="H16" s="115" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="17" spans="1:41" s="116" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="157"/>
-      <c r="B17" s="160"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="126" t="s">
-        <v>397</v>
-      </c>
-      <c r="E17" s="126" t="s">
-        <v>422</v>
-      </c>
-      <c r="F17" s="112" t="s">
-        <v>399</v>
-      </c>
-      <c r="G17" s="109"/>
-      <c r="H17" s="123" t="s">
-        <v>400</v>
-      </c>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="124"/>
-      <c r="N17" s="124"/>
-      <c r="O17" s="124"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="124"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="124"/>
-      <c r="T17" s="124"/>
-      <c r="U17" s="124"/>
-      <c r="V17" s="124"/>
-      <c r="W17" s="124"/>
-      <c r="X17" s="124"/>
-      <c r="Y17" s="124"/>
-      <c r="Z17" s="124"/>
-      <c r="AA17" s="124"/>
-      <c r="AB17" s="124"/>
-      <c r="AC17" s="124"/>
-      <c r="AD17" s="124"/>
-      <c r="AE17" s="124"/>
-      <c r="AF17" s="124"/>
-      <c r="AG17" s="124"/>
-    </row>
-    <row r="18" spans="1:41" s="114" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="157"/>
-      <c r="B18" s="161" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="163" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="119" t="s">
-        <v>423</v>
-      </c>
-      <c r="F18" s="77" t="s">
-        <v>403</v>
-      </c>
-      <c r="G18" s="113"/>
-      <c r="H18" s="78" t="s">
-        <v>418</v>
-      </c>
-      <c r="I18" s="121"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="122"/>
-      <c r="M18" s="122"/>
-      <c r="N18" s="122"/>
-      <c r="O18" s="122"/>
-      <c r="P18" s="122"/>
-      <c r="Q18" s="122"/>
-      <c r="R18" s="122"/>
-      <c r="S18" s="122"/>
-      <c r="T18" s="122"/>
-      <c r="U18" s="122"/>
-      <c r="V18" s="122"/>
-      <c r="W18" s="122"/>
-      <c r="X18" s="122"/>
-      <c r="Y18" s="122"/>
-      <c r="Z18" s="122"/>
-      <c r="AA18" s="122"/>
-      <c r="AB18" s="122"/>
-      <c r="AC18" s="122"/>
-      <c r="AD18" s="122"/>
-      <c r="AE18" s="122"/>
-      <c r="AF18" s="122"/>
-      <c r="AG18" s="122"/>
-    </row>
-    <row r="19" spans="1:41" s="114" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="157"/>
-      <c r="B19" s="162"/>
-      <c r="C19" s="164"/>
-      <c r="D19" s="119" t="s">
-        <v>401</v>
-      </c>
-      <c r="E19" s="119" t="s">
+      <c r="F22" s="103" t="s">
         <v>424</v>
       </c>
-      <c r="F19" s="77" t="s">
-        <v>404</v>
-      </c>
-      <c r="G19" s="113"/>
-      <c r="H19" s="78" t="s">
-        <v>402</v>
-      </c>
-      <c r="I19" s="121"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="122"/>
-      <c r="M19" s="122"/>
-      <c r="N19" s="122"/>
-      <c r="O19" s="122"/>
-      <c r="P19" s="122"/>
-      <c r="Q19" s="122"/>
-      <c r="R19" s="122"/>
-      <c r="S19" s="122"/>
-      <c r="T19" s="122"/>
-      <c r="U19" s="122"/>
-      <c r="V19" s="122"/>
-      <c r="W19" s="122"/>
-      <c r="X19" s="122"/>
-      <c r="Y19" s="122"/>
-      <c r="Z19" s="122"/>
-      <c r="AA19" s="122"/>
-      <c r="AB19" s="122"/>
-      <c r="AC19" s="122"/>
-      <c r="AD19" s="122"/>
-      <c r="AE19" s="122"/>
-      <c r="AF19" s="122"/>
-      <c r="AG19" s="122"/>
-    </row>
-    <row r="20" spans="1:41" s="111" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="157"/>
-      <c r="B20" s="135" t="s">
-        <v>178</v>
-      </c>
-      <c r="C20" s="137" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="128" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="128" t="s">
-        <v>425</v>
-      </c>
-      <c r="F20" s="110" t="s">
-        <v>410</v>
-      </c>
-      <c r="G20" s="70"/>
-      <c r="H20" s="118" t="s">
-        <v>408</v>
-      </c>
-      <c r="I20" s="127"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="127"/>
-      <c r="N20" s="127"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="127"/>
-      <c r="S20" s="127"/>
-      <c r="T20" s="127"/>
-      <c r="U20" s="127"/>
-      <c r="V20" s="127"/>
-      <c r="W20" s="127"/>
-      <c r="X20" s="127"/>
-      <c r="Y20" s="127"/>
-      <c r="Z20" s="127"/>
-      <c r="AA20" s="127"/>
-      <c r="AB20" s="127"/>
-      <c r="AC20" s="127"/>
-      <c r="AD20" s="127"/>
-      <c r="AE20" s="127"/>
-      <c r="AF20" s="127"/>
-      <c r="AG20" s="127"/>
-      <c r="AH20" s="127"/>
-      <c r="AI20" s="127"/>
-      <c r="AJ20" s="127"/>
-      <c r="AK20" s="127"/>
-      <c r="AL20" s="127"/>
-      <c r="AM20" s="127"/>
-      <c r="AN20" s="127"/>
-      <c r="AO20" s="127"/>
-    </row>
-    <row r="21" spans="1:41" s="111" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="158"/>
-      <c r="B21" s="136"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="129" t="s">
-        <v>412</v>
-      </c>
-      <c r="E21" s="129" t="s">
-        <v>426</v>
-      </c>
-      <c r="F21" s="103" t="s">
-        <v>411</v>
-      </c>
-      <c r="G21" s="67"/>
-      <c r="H21" s="104" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="22" spans="1:41" s="232" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="233"/>
-      <c r="H22" s="234"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="104" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" s="233" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="234"/>
+      <c r="H23" s="235"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -10864,7 +11206,7 @@
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A16:A22"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A7:A8"/>
@@ -10878,8 +11220,8 @@
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10915,10 +11257,10 @@
       <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="148" t="s">
+      <c r="C1" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="148"/>
+      <c r="D1" s="149"/>
       <c r="E1" s="91" t="s">
         <v>164</v>
       </c>
@@ -10933,13 +11275,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="150" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="151" t="s">
         <v>315</v>
       </c>
       <c r="D2" s="62" t="s">
@@ -10959,21 +11301,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="140"/>
+      <c r="A3" s="141"/>
       <c r="B3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>385</v>
       </c>
-      <c r="E3" s="139" t="s">
+      <c r="E3" s="140" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="139" t="s">
+      <c r="F3" s="140" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="140" t="s">
         <v>320</v>
       </c>
       <c r="H3" s="66" t="s">
@@ -10981,42 +11323,42 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="140"/>
+      <c r="A4" s="141"/>
       <c r="B4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
       <c r="H4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="140"/>
+      <c r="A5" s="141"/>
       <c r="B5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
       <c r="H5" s="96" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="141"/>
+      <c r="A6" s="142"/>
       <c r="B6" s="92" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="165" t="s">
+      <c r="C6" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="166"/>
+      <c r="D6" s="167"/>
       <c r="E6" s="93" t="s">
         <v>383</v>
       </c>
@@ -11028,13 +11370,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="144" t="s">
+      <c r="A7" s="145" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>324</v>
       </c>
-      <c r="C7" s="145" t="s">
+      <c r="C7" s="146" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="76" t="s">
@@ -11051,11 +11393,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="145"/>
+      <c r="A8" s="146"/>
       <c r="B8" s="80" t="s">
         <v>381</v>
       </c>
-      <c r="C8" s="146"/>
+      <c r="C8" s="147"/>
       <c r="D8" s="80" t="s">
         <v>5</v>
       </c>
@@ -11073,23 +11415,23 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="91" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="148"/>
-      <c r="D9" s="148"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="149"/>
     </row>
     <row r="10" spans="1:8" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="167" t="s">
+      <c r="A10" s="168" t="s">
         <v>178</v>
       </c>
       <c r="B10" s="103" t="s">
         <v>367</v>
       </c>
-      <c r="C10" s="168" t="s">
+      <c r="C10" s="169" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E10" s="168" t="s">
+      <c r="E10" s="169" t="s">
         <v>391</v>
       </c>
       <c r="F10" s="103" t="s">
@@ -11100,15 +11442,15 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="147"/>
+      <c r="A11" s="148"/>
       <c r="B11" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C11" s="147"/>
+      <c r="C11" s="148"/>
       <c r="D11" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E11" s="147"/>
+      <c r="E11" s="148"/>
       <c r="F11" s="103" t="s">
         <v>387</v>
       </c>
@@ -11117,15 +11459,15 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="147"/>
+      <c r="A12" s="148"/>
       <c r="B12" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="147"/>
+      <c r="C12" s="148"/>
       <c r="D12" s="68" t="s">
         <v>372</v>
       </c>
-      <c r="E12" s="147"/>
+      <c r="E12" s="148"/>
       <c r="F12" s="103" t="s">
         <v>388</v>
       </c>
@@ -11178,7 +11520,7 @@
         <f t="shared" ref="B1:B64" si="0">DEC2HEX(A1)</f>
         <v>0</v>
       </c>
-      <c r="C1" s="169" t="s">
+      <c r="C1" s="170" t="s">
         <v>141</v>
       </c>
     </row>
@@ -11191,7 +11533,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C2" s="169"/>
+      <c r="C2" s="170"/>
     </row>
     <row r="3" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="108">
@@ -11202,7 +11544,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C3" s="169"/>
+      <c r="C3" s="170"/>
     </row>
     <row r="4" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="108">
@@ -11213,7 +11555,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C4" s="169"/>
+      <c r="C4" s="170"/>
     </row>
     <row r="5" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="108">
@@ -11224,7 +11566,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C5" s="169"/>
+      <c r="C5" s="170"/>
     </row>
     <row r="6" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="108">
@@ -11235,7 +11577,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C6" s="169"/>
+      <c r="C6" s="170"/>
     </row>
     <row r="7" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="108">
@@ -11246,7 +11588,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C7" s="169"/>
+      <c r="C7" s="170"/>
     </row>
     <row r="8" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="108">
@@ -11257,7 +11599,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C8" s="169"/>
+      <c r="C8" s="170"/>
     </row>
     <row r="9" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="108">
@@ -11268,7 +11610,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C9" s="169"/>
+      <c r="C9" s="170"/>
     </row>
     <row r="10" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="108">
@@ -11279,7 +11621,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C10" s="169"/>
+      <c r="C10" s="170"/>
     </row>
     <row r="11" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="108">
@@ -11290,7 +11632,7 @@
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="C11" s="169"/>
+      <c r="C11" s="170"/>
     </row>
     <row r="12" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="108">
@@ -11301,7 +11643,7 @@
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="C12" s="169"/>
+      <c r="C12" s="170"/>
     </row>
     <row r="13" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="108">
@@ -11312,7 +11654,7 @@
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="C13" s="169"/>
+      <c r="C13" s="170"/>
     </row>
     <row r="14" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="108">
@@ -11323,7 +11665,7 @@
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="C14" s="169"/>
+      <c r="C14" s="170"/>
     </row>
     <row r="15" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="108">
@@ -11334,7 +11676,7 @@
         <f t="shared" si="0"/>
         <v>E</v>
       </c>
-      <c r="C15" s="169"/>
+      <c r="C15" s="170"/>
     </row>
     <row r="16" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="108">
@@ -11345,7 +11687,7 @@
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="C16" s="169"/>
+      <c r="C16" s="170"/>
     </row>
     <row r="17" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="108">
@@ -11356,7 +11698,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C17" s="169"/>
+      <c r="C17" s="170"/>
     </row>
     <row r="18" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="108">
@@ -11367,7 +11709,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C18" s="169"/>
+      <c r="C18" s="170"/>
     </row>
     <row r="19" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="108">
@@ -11378,7 +11720,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C19" s="169"/>
+      <c r="C19" s="170"/>
     </row>
     <row r="20" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="108">
@@ -11389,7 +11731,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C20" s="169"/>
+      <c r="C20" s="170"/>
     </row>
     <row r="21" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="108">
@@ -11400,7 +11742,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C21" s="169"/>
+      <c r="C21" s="170"/>
     </row>
     <row r="22" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="108">
@@ -11411,7 +11753,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C22" s="169"/>
+      <c r="C22" s="170"/>
     </row>
     <row r="23" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="108">
@@ -11422,7 +11764,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C23" s="169"/>
+      <c r="C23" s="170"/>
     </row>
     <row r="24" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="108">
@@ -11433,7 +11775,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C24" s="169"/>
+      <c r="C24" s="170"/>
     </row>
     <row r="25" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="108">
@@ -11444,7 +11786,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C25" s="169"/>
+      <c r="C25" s="170"/>
     </row>
     <row r="26" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="108">
@@ -11455,7 +11797,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C26" s="169"/>
+      <c r="C26" s="170"/>
     </row>
     <row r="27" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="108">
@@ -11466,7 +11808,7 @@
         <f t="shared" si="0"/>
         <v>1A</v>
       </c>
-      <c r="C27" s="169"/>
+      <c r="C27" s="170"/>
     </row>
     <row r="28" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="108">
@@ -11477,7 +11819,7 @@
         <f t="shared" si="0"/>
         <v>1B</v>
       </c>
-      <c r="C28" s="169"/>
+      <c r="C28" s="170"/>
     </row>
     <row r="29" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="108">
@@ -11488,7 +11830,7 @@
         <f t="shared" si="0"/>
         <v>1C</v>
       </c>
-      <c r="C29" s="169"/>
+      <c r="C29" s="170"/>
     </row>
     <row r="30" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="108">
@@ -11499,7 +11841,7 @@
         <f t="shared" si="0"/>
         <v>1D</v>
       </c>
-      <c r="C30" s="169"/>
+      <c r="C30" s="170"/>
     </row>
     <row r="31" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="108">
@@ -11510,7 +11852,7 @@
         <f t="shared" si="0"/>
         <v>1E</v>
       </c>
-      <c r="C31" s="169"/>
+      <c r="C31" s="170"/>
     </row>
     <row r="32" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="108">
@@ -11521,7 +11863,7 @@
         <f t="shared" si="0"/>
         <v>1F</v>
       </c>
-      <c r="C32" s="169"/>
+      <c r="C32" s="170"/>
     </row>
     <row r="33" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="108">
@@ -11532,7 +11874,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C33" s="169"/>
+      <c r="C33" s="170"/>
     </row>
     <row r="34" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="108">
@@ -11543,7 +11885,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C34" s="169"/>
+      <c r="C34" s="170"/>
     </row>
     <row r="35" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="108">
@@ -11554,7 +11896,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C35" s="169"/>
+      <c r="C35" s="170"/>
     </row>
     <row r="36" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="108">
@@ -11565,7 +11907,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C36" s="169"/>
+      <c r="C36" s="170"/>
     </row>
     <row r="37" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="108">
@@ -11576,7 +11918,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C37" s="169"/>
+      <c r="C37" s="170"/>
     </row>
     <row r="38" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="108">
@@ -11587,7 +11929,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C38" s="169"/>
+      <c r="C38" s="170"/>
     </row>
     <row r="39" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="108">
@@ -11598,7 +11940,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C39" s="169"/>
+      <c r="C39" s="170"/>
     </row>
     <row r="40" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="108">
@@ -11609,7 +11951,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C40" s="169"/>
+      <c r="C40" s="170"/>
     </row>
     <row r="41" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="108">
@@ -11620,7 +11962,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C41" s="169"/>
+      <c r="C41" s="170"/>
     </row>
     <row r="42" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="108">
@@ -11631,7 +11973,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C42" s="169"/>
+      <c r="C42" s="170"/>
     </row>
     <row r="43" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="108">
@@ -11642,7 +11984,7 @@
         <f t="shared" si="0"/>
         <v>2A</v>
       </c>
-      <c r="C43" s="169"/>
+      <c r="C43" s="170"/>
     </row>
     <row r="44" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="108">
@@ -11653,7 +11995,7 @@
         <f t="shared" si="0"/>
         <v>2B</v>
       </c>
-      <c r="C44" s="169"/>
+      <c r="C44" s="170"/>
     </row>
     <row r="45" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="108">
@@ -11664,7 +12006,7 @@
         <f t="shared" si="0"/>
         <v>2C</v>
       </c>
-      <c r="C45" s="169"/>
+      <c r="C45" s="170"/>
     </row>
     <row r="46" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="108">
@@ -11675,7 +12017,7 @@
         <f t="shared" si="0"/>
         <v>2D</v>
       </c>
-      <c r="C46" s="169"/>
+      <c r="C46" s="170"/>
     </row>
     <row r="47" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="108">
@@ -11686,7 +12028,7 @@
         <f t="shared" si="0"/>
         <v>2E</v>
       </c>
-      <c r="C47" s="169"/>
+      <c r="C47" s="170"/>
     </row>
     <row r="48" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="108">
@@ -11697,7 +12039,7 @@
         <f t="shared" si="0"/>
         <v>2F</v>
       </c>
-      <c r="C48" s="169"/>
+      <c r="C48" s="170"/>
     </row>
     <row r="49" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="108">
@@ -11708,7 +12050,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C49" s="169"/>
+      <c r="C49" s="170"/>
     </row>
     <row r="50" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="108">
@@ -11719,7 +12061,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C50" s="169"/>
+      <c r="C50" s="170"/>
     </row>
     <row r="51" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="108">
@@ -11730,7 +12072,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C51" s="169"/>
+      <c r="C51" s="170"/>
     </row>
     <row r="52" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="108">
@@ -11741,7 +12083,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C52" s="169"/>
+      <c r="C52" s="170"/>
     </row>
     <row r="53" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="108">
@@ -11752,7 +12094,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C53" s="169"/>
+      <c r="C53" s="170"/>
     </row>
     <row r="54" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="108">
@@ -11763,7 +12105,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C54" s="169"/>
+      <c r="C54" s="170"/>
     </row>
     <row r="55" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="108">
@@ -11774,7 +12116,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C55" s="169"/>
+      <c r="C55" s="170"/>
     </row>
     <row r="56" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="108">
@@ -11785,7 +12127,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C56" s="169"/>
+      <c r="C56" s="170"/>
     </row>
     <row r="57" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="108">
@@ -11796,7 +12138,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C57" s="169"/>
+      <c r="C57" s="170"/>
     </row>
     <row r="58" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="108">
@@ -11807,7 +12149,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C58" s="169"/>
+      <c r="C58" s="170"/>
     </row>
     <row r="59" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="108">
@@ -11818,7 +12160,7 @@
         <f t="shared" si="0"/>
         <v>3A</v>
       </c>
-      <c r="C59" s="169"/>
+      <c r="C59" s="170"/>
     </row>
     <row r="60" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="108">
@@ -11829,7 +12171,7 @@
         <f t="shared" si="0"/>
         <v>3B</v>
       </c>
-      <c r="C60" s="169"/>
+      <c r="C60" s="170"/>
     </row>
     <row r="61" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="108">
@@ -11840,7 +12182,7 @@
         <f t="shared" si="0"/>
         <v>3C</v>
       </c>
-      <c r="C61" s="169"/>
+      <c r="C61" s="170"/>
     </row>
     <row r="62" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="108">
@@ -11851,7 +12193,7 @@
         <f t="shared" si="0"/>
         <v>3D</v>
       </c>
-      <c r="C62" s="169"/>
+      <c r="C62" s="170"/>
     </row>
     <row r="63" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="108">
@@ -11862,7 +12204,7 @@
         <f t="shared" si="0"/>
         <v>3E</v>
       </c>
-      <c r="C63" s="169"/>
+      <c r="C63" s="170"/>
     </row>
     <row r="64" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="108">
@@ -11873,7 +12215,7 @@
         <f t="shared" si="0"/>
         <v>3F</v>
       </c>
-      <c r="C64" s="169"/>
+      <c r="C64" s="170"/>
     </row>
     <row r="65" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="108">
@@ -11884,7 +12226,7 @@
         <f t="shared" ref="B65:B128" si="2">DEC2HEX(A65)</f>
         <v>40</v>
       </c>
-      <c r="C65" s="169"/>
+      <c r="C65" s="170"/>
     </row>
     <row r="66" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="108">
@@ -11895,7 +12237,7 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="C66" s="169"/>
+      <c r="C66" s="170"/>
     </row>
     <row r="67" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="108">
@@ -11906,7 +12248,7 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="C67" s="169"/>
+      <c r="C67" s="170"/>
     </row>
     <row r="68" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="108">
@@ -11917,7 +12259,7 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="C68" s="169"/>
+      <c r="C68" s="170"/>
     </row>
     <row r="69" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="108">
@@ -11928,7 +12270,7 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="C69" s="169"/>
+      <c r="C69" s="170"/>
     </row>
     <row r="70" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="108">
@@ -11939,7 +12281,7 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="C70" s="169"/>
+      <c r="C70" s="170"/>
     </row>
     <row r="71" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="108">
@@ -11950,7 +12292,7 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="C71" s="169"/>
+      <c r="C71" s="170"/>
     </row>
     <row r="72" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="108">
@@ -11961,7 +12303,7 @@
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="C72" s="169"/>
+      <c r="C72" s="170"/>
     </row>
     <row r="73" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="108">
@@ -11972,7 +12314,7 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="C73" s="169"/>
+      <c r="C73" s="170"/>
     </row>
     <row r="74" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="108">
@@ -11983,7 +12325,7 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="C74" s="169"/>
+      <c r="C74" s="170"/>
     </row>
     <row r="75" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="108">
@@ -11994,7 +12336,7 @@
         <f t="shared" si="2"/>
         <v>4A</v>
       </c>
-      <c r="C75" s="169"/>
+      <c r="C75" s="170"/>
     </row>
     <row r="76" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="108">
@@ -12005,7 +12347,7 @@
         <f t="shared" si="2"/>
         <v>4B</v>
       </c>
-      <c r="C76" s="169"/>
+      <c r="C76" s="170"/>
     </row>
     <row r="77" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="108">
@@ -12016,7 +12358,7 @@
         <f t="shared" si="2"/>
         <v>4C</v>
       </c>
-      <c r="C77" s="169"/>
+      <c r="C77" s="170"/>
     </row>
     <row r="78" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="108">
@@ -12027,7 +12369,7 @@
         <f t="shared" si="2"/>
         <v>4D</v>
       </c>
-      <c r="C78" s="169"/>
+      <c r="C78" s="170"/>
     </row>
     <row r="79" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="108">
@@ -12038,7 +12380,7 @@
         <f t="shared" si="2"/>
         <v>4E</v>
       </c>
-      <c r="C79" s="169"/>
+      <c r="C79" s="170"/>
     </row>
     <row r="80" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="108">
@@ -12049,7 +12391,7 @@
         <f t="shared" si="2"/>
         <v>4F</v>
       </c>
-      <c r="C80" s="169"/>
+      <c r="C80" s="170"/>
     </row>
     <row r="81" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="108">
@@ -12060,7 +12402,7 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="C81" s="169"/>
+      <c r="C81" s="170"/>
     </row>
     <row r="82" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="108">
@@ -12071,7 +12413,7 @@
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="C82" s="169"/>
+      <c r="C82" s="170"/>
     </row>
     <row r="83" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="108">
@@ -12082,7 +12424,7 @@
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="C83" s="169"/>
+      <c r="C83" s="170"/>
     </row>
     <row r="84" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="108">
@@ -12093,7 +12435,7 @@
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="C84" s="169"/>
+      <c r="C84" s="170"/>
     </row>
     <row r="85" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="108">
@@ -12104,7 +12446,7 @@
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="C85" s="169"/>
+      <c r="C85" s="170"/>
     </row>
     <row r="86" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="108">
@@ -12115,7 +12457,7 @@
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="C86" s="169"/>
+      <c r="C86" s="170"/>
     </row>
     <row r="87" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="108">
@@ -12126,7 +12468,7 @@
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="C87" s="169"/>
+      <c r="C87" s="170"/>
     </row>
     <row r="88" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="108">
@@ -12137,7 +12479,7 @@
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="C88" s="169"/>
+      <c r="C88" s="170"/>
     </row>
     <row r="89" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="108">
@@ -12148,7 +12490,7 @@
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="C89" s="169"/>
+      <c r="C89" s="170"/>
     </row>
     <row r="90" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="108">
@@ -12159,7 +12501,7 @@
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="C90" s="169"/>
+      <c r="C90" s="170"/>
     </row>
     <row r="91" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="108">
@@ -12170,7 +12512,7 @@
         <f t="shared" si="2"/>
         <v>5A</v>
       </c>
-      <c r="C91" s="169"/>
+      <c r="C91" s="170"/>
     </row>
     <row r="92" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="108">
@@ -12181,7 +12523,7 @@
         <f t="shared" si="2"/>
         <v>5B</v>
       </c>
-      <c r="C92" s="169"/>
+      <c r="C92" s="170"/>
     </row>
     <row r="93" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="108">
@@ -12192,7 +12534,7 @@
         <f t="shared" si="2"/>
         <v>5C</v>
       </c>
-      <c r="C93" s="169"/>
+      <c r="C93" s="170"/>
     </row>
     <row r="94" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="108">
@@ -12203,7 +12545,7 @@
         <f t="shared" si="2"/>
         <v>5D</v>
       </c>
-      <c r="C94" s="169"/>
+      <c r="C94" s="170"/>
     </row>
     <row r="95" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="108">
@@ -12214,7 +12556,7 @@
         <f t="shared" si="2"/>
         <v>5E</v>
       </c>
-      <c r="C95" s="169"/>
+      <c r="C95" s="170"/>
     </row>
     <row r="96" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="108">
@@ -12225,7 +12567,7 @@
         <f t="shared" si="2"/>
         <v>5F</v>
       </c>
-      <c r="C96" s="169"/>
+      <c r="C96" s="170"/>
     </row>
     <row r="97" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="108">
@@ -12236,7 +12578,7 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="C97" s="169"/>
+      <c r="C97" s="170"/>
     </row>
     <row r="98" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="108">
@@ -12247,7 +12589,7 @@
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="C98" s="169"/>
+      <c r="C98" s="170"/>
     </row>
     <row r="99" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="108">
@@ -12258,7 +12600,7 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="C99" s="169"/>
+      <c r="C99" s="170"/>
     </row>
     <row r="100" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="108">
@@ -12269,7 +12611,7 @@
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="C100" s="169"/>
+      <c r="C100" s="170"/>
     </row>
     <row r="101" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="108">
@@ -12280,7 +12622,7 @@
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="C101" s="169"/>
+      <c r="C101" s="170"/>
     </row>
     <row r="102" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="108">
@@ -12291,7 +12633,7 @@
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="C102" s="169"/>
+      <c r="C102" s="170"/>
     </row>
     <row r="103" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="108">
@@ -12302,7 +12644,7 @@
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="C103" s="169"/>
+      <c r="C103" s="170"/>
     </row>
     <row r="104" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="108">
@@ -12313,7 +12655,7 @@
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="C104" s="169"/>
+      <c r="C104" s="170"/>
     </row>
     <row r="105" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="108">
@@ -12324,7 +12666,7 @@
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="C105" s="169"/>
+      <c r="C105" s="170"/>
     </row>
     <row r="106" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="108">
@@ -12335,7 +12677,7 @@
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="C106" s="169"/>
+      <c r="C106" s="170"/>
     </row>
     <row r="107" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="108">
@@ -12346,7 +12688,7 @@
         <f t="shared" si="2"/>
         <v>6A</v>
       </c>
-      <c r="C107" s="169"/>
+      <c r="C107" s="170"/>
     </row>
     <row r="108" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="108">
@@ -12357,7 +12699,7 @@
         <f t="shared" si="2"/>
         <v>6B</v>
       </c>
-      <c r="C108" s="169"/>
+      <c r="C108" s="170"/>
     </row>
     <row r="109" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="108">
@@ -12368,7 +12710,7 @@
         <f t="shared" si="2"/>
         <v>6C</v>
       </c>
-      <c r="C109" s="169"/>
+      <c r="C109" s="170"/>
     </row>
     <row r="110" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="108">
@@ -12379,7 +12721,7 @@
         <f t="shared" si="2"/>
         <v>6D</v>
       </c>
-      <c r="C110" s="169"/>
+      <c r="C110" s="170"/>
     </row>
     <row r="111" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="108">
@@ -12390,7 +12732,7 @@
         <f t="shared" si="2"/>
         <v>6E</v>
       </c>
-      <c r="C111" s="169"/>
+      <c r="C111" s="170"/>
     </row>
     <row r="112" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="108">
@@ -12401,7 +12743,7 @@
         <f t="shared" si="2"/>
         <v>6F</v>
       </c>
-      <c r="C112" s="169"/>
+      <c r="C112" s="170"/>
     </row>
     <row r="113" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="108">
@@ -12412,7 +12754,7 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="C113" s="169"/>
+      <c r="C113" s="170"/>
     </row>
     <row r="114" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="108">
@@ -12423,7 +12765,7 @@
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="C114" s="169"/>
+      <c r="C114" s="170"/>
     </row>
     <row r="115" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="108">
@@ -12434,7 +12776,7 @@
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="C115" s="169"/>
+      <c r="C115" s="170"/>
     </row>
     <row r="116" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="108">
@@ -12445,7 +12787,7 @@
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="C116" s="169"/>
+      <c r="C116" s="170"/>
     </row>
     <row r="117" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="108">
@@ -12456,7 +12798,7 @@
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="C117" s="169"/>
+      <c r="C117" s="170"/>
     </row>
     <row r="118" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="108">
@@ -12467,7 +12809,7 @@
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="C118" s="169"/>
+      <c r="C118" s="170"/>
     </row>
     <row r="119" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="108">
@@ -12478,7 +12820,7 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="C119" s="169"/>
+      <c r="C119" s="170"/>
     </row>
     <row r="120" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="108">
@@ -12489,7 +12831,7 @@
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="C120" s="169"/>
+      <c r="C120" s="170"/>
     </row>
     <row r="121" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="108">
@@ -12500,7 +12842,7 @@
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="C121" s="169"/>
+      <c r="C121" s="170"/>
     </row>
     <row r="122" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="108">
@@ -12511,7 +12853,7 @@
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="C122" s="169"/>
+      <c r="C122" s="170"/>
     </row>
     <row r="123" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="108">
@@ -12522,7 +12864,7 @@
         <f t="shared" si="2"/>
         <v>7A</v>
       </c>
-      <c r="C123" s="169"/>
+      <c r="C123" s="170"/>
     </row>
     <row r="124" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="108">
@@ -12533,7 +12875,7 @@
         <f t="shared" si="2"/>
         <v>7B</v>
       </c>
-      <c r="C124" s="169"/>
+      <c r="C124" s="170"/>
     </row>
     <row r="125" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="108">
@@ -12544,7 +12886,7 @@
         <f t="shared" si="2"/>
         <v>7C</v>
       </c>
-      <c r="C125" s="169"/>
+      <c r="C125" s="170"/>
     </row>
     <row r="126" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="108">
@@ -12555,7 +12897,7 @@
         <f t="shared" si="2"/>
         <v>7D</v>
       </c>
-      <c r="C126" s="169"/>
+      <c r="C126" s="170"/>
     </row>
     <row r="127" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="108">
@@ -12566,7 +12908,7 @@
         <f t="shared" si="2"/>
         <v>7E</v>
       </c>
-      <c r="C127" s="169"/>
+      <c r="C127" s="170"/>
     </row>
     <row r="128" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="108">
@@ -12577,7 +12919,7 @@
         <f t="shared" si="2"/>
         <v>7F</v>
       </c>
-      <c r="C128" s="169"/>
+      <c r="C128" s="170"/>
     </row>
     <row r="129" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="108">
@@ -12588,7 +12930,7 @@
         <f t="shared" ref="B129:B192" si="4">DEC2HEX(A129)</f>
         <v>80</v>
       </c>
-      <c r="C129" s="169"/>
+      <c r="C129" s="170"/>
     </row>
     <row r="130" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="108">
@@ -12599,7 +12941,7 @@
         <f t="shared" si="4"/>
         <v>81</v>
       </c>
-      <c r="C130" s="169"/>
+      <c r="C130" s="170"/>
     </row>
     <row r="131" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="108">
@@ -12610,7 +12952,7 @@
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="C131" s="169"/>
+      <c r="C131" s="170"/>
     </row>
     <row r="132" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="108">
@@ -12621,7 +12963,7 @@
         <f t="shared" si="4"/>
         <v>83</v>
       </c>
-      <c r="C132" s="169"/>
+      <c r="C132" s="170"/>
     </row>
     <row r="133" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="108">
@@ -12632,7 +12974,7 @@
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
-      <c r="C133" s="169"/>
+      <c r="C133" s="170"/>
     </row>
     <row r="134" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="108">
@@ -12643,7 +12985,7 @@
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="C134" s="169"/>
+      <c r="C134" s="170"/>
     </row>
     <row r="135" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="108">
@@ -12654,7 +12996,7 @@
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
-      <c r="C135" s="169"/>
+      <c r="C135" s="170"/>
     </row>
     <row r="136" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="108">
@@ -12665,7 +13007,7 @@
         <f t="shared" si="4"/>
         <v>87</v>
       </c>
-      <c r="C136" s="169"/>
+      <c r="C136" s="170"/>
     </row>
     <row r="137" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="108">
@@ -12676,7 +13018,7 @@
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="C137" s="169"/>
+      <c r="C137" s="170"/>
     </row>
     <row r="138" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="108">
@@ -12687,7 +13029,7 @@
         <f t="shared" si="4"/>
         <v>89</v>
       </c>
-      <c r="C138" s="169"/>
+      <c r="C138" s="170"/>
     </row>
     <row r="139" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="108">
@@ -12698,7 +13040,7 @@
         <f t="shared" si="4"/>
         <v>8A</v>
       </c>
-      <c r="C139" s="169"/>
+      <c r="C139" s="170"/>
     </row>
     <row r="140" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="108">
@@ -12709,7 +13051,7 @@
         <f t="shared" si="4"/>
         <v>8B</v>
       </c>
-      <c r="C140" s="169"/>
+      <c r="C140" s="170"/>
     </row>
     <row r="141" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="108">
@@ -12720,7 +13062,7 @@
         <f t="shared" si="4"/>
         <v>8C</v>
       </c>
-      <c r="C141" s="169"/>
+      <c r="C141" s="170"/>
     </row>
     <row r="142" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="108">
@@ -12731,7 +13073,7 @@
         <f t="shared" si="4"/>
         <v>8D</v>
       </c>
-      <c r="C142" s="169"/>
+      <c r="C142" s="170"/>
     </row>
     <row r="143" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="108">
@@ -12742,7 +13084,7 @@
         <f t="shared" si="4"/>
         <v>8E</v>
       </c>
-      <c r="C143" s="169"/>
+      <c r="C143" s="170"/>
     </row>
     <row r="144" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="108">
@@ -12753,7 +13095,7 @@
         <f t="shared" si="4"/>
         <v>8F</v>
       </c>
-      <c r="C144" s="169"/>
+      <c r="C144" s="170"/>
     </row>
     <row r="145" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="108">
@@ -12764,7 +13106,7 @@
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="C145" s="169"/>
+      <c r="C145" s="170"/>
     </row>
     <row r="146" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="108">
@@ -12775,7 +13117,7 @@
         <f t="shared" si="4"/>
         <v>91</v>
       </c>
-      <c r="C146" s="169"/>
+      <c r="C146" s="170"/>
     </row>
     <row r="147" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="108">
@@ -12786,7 +13128,7 @@
         <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="C147" s="169"/>
+      <c r="C147" s="170"/>
     </row>
     <row r="148" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="108">
@@ -12797,7 +13139,7 @@
         <f t="shared" si="4"/>
         <v>93</v>
       </c>
-      <c r="C148" s="169"/>
+      <c r="C148" s="170"/>
     </row>
     <row r="149" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="108">
@@ -12808,7 +13150,7 @@
         <f t="shared" si="4"/>
         <v>94</v>
       </c>
-      <c r="C149" s="169"/>
+      <c r="C149" s="170"/>
     </row>
     <row r="150" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="108">
@@ -12819,7 +13161,7 @@
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
-      <c r="C150" s="169"/>
+      <c r="C150" s="170"/>
     </row>
     <row r="151" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="108">
@@ -12830,7 +13172,7 @@
         <f t="shared" si="4"/>
         <v>96</v>
       </c>
-      <c r="C151" s="169"/>
+      <c r="C151" s="170"/>
     </row>
     <row r="152" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="108">
@@ -12841,7 +13183,7 @@
         <f t="shared" si="4"/>
         <v>97</v>
       </c>
-      <c r="C152" s="169"/>
+      <c r="C152" s="170"/>
     </row>
     <row r="153" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="108">
@@ -12852,7 +13194,7 @@
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
-      <c r="C153" s="169"/>
+      <c r="C153" s="170"/>
     </row>
     <row r="154" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="108">
@@ -12863,7 +13205,7 @@
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
-      <c r="C154" s="169"/>
+      <c r="C154" s="170"/>
     </row>
     <row r="155" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="108">
@@ -12874,7 +13216,7 @@
         <f t="shared" si="4"/>
         <v>9A</v>
       </c>
-      <c r="C155" s="169"/>
+      <c r="C155" s="170"/>
     </row>
     <row r="156" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="108">
@@ -12885,7 +13227,7 @@
         <f t="shared" si="4"/>
         <v>9B</v>
       </c>
-      <c r="C156" s="169"/>
+      <c r="C156" s="170"/>
     </row>
     <row r="157" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="108">
@@ -12896,7 +13238,7 @@
         <f t="shared" si="4"/>
         <v>9C</v>
       </c>
-      <c r="C157" s="169"/>
+      <c r="C157" s="170"/>
     </row>
     <row r="158" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="108">
@@ -12907,7 +13249,7 @@
         <f t="shared" si="4"/>
         <v>9D</v>
       </c>
-      <c r="C158" s="169"/>
+      <c r="C158" s="170"/>
     </row>
     <row r="159" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="108">
@@ -12918,7 +13260,7 @@
         <f t="shared" si="4"/>
         <v>9E</v>
       </c>
-      <c r="C159" s="169"/>
+      <c r="C159" s="170"/>
     </row>
     <row r="160" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="108">
@@ -12929,7 +13271,7 @@
         <f t="shared" si="4"/>
         <v>9F</v>
       </c>
-      <c r="C160" s="169"/>
+      <c r="C160" s="170"/>
     </row>
     <row r="161" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="108">
@@ -12940,7 +13282,7 @@
         <f t="shared" si="4"/>
         <v>A0</v>
       </c>
-      <c r="C161" s="169"/>
+      <c r="C161" s="170"/>
     </row>
     <row r="162" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="108">
@@ -12951,7 +13293,7 @@
         <f t="shared" si="4"/>
         <v>A1</v>
       </c>
-      <c r="C162" s="169"/>
+      <c r="C162" s="170"/>
     </row>
     <row r="163" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="108">
@@ -12962,7 +13304,7 @@
         <f t="shared" si="4"/>
         <v>A2</v>
       </c>
-      <c r="C163" s="169"/>
+      <c r="C163" s="170"/>
     </row>
     <row r="164" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="108">
@@ -12973,7 +13315,7 @@
         <f t="shared" si="4"/>
         <v>A3</v>
       </c>
-      <c r="C164" s="169"/>
+      <c r="C164" s="170"/>
     </row>
     <row r="165" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="108">
@@ -12984,7 +13326,7 @@
         <f t="shared" si="4"/>
         <v>A4</v>
       </c>
-      <c r="C165" s="169"/>
+      <c r="C165" s="170"/>
     </row>
     <row r="166" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="108">
@@ -12995,7 +13337,7 @@
         <f t="shared" si="4"/>
         <v>A5</v>
       </c>
-      <c r="C166" s="169"/>
+      <c r="C166" s="170"/>
     </row>
     <row r="167" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="108">
@@ -13006,7 +13348,7 @@
         <f t="shared" si="4"/>
         <v>A6</v>
       </c>
-      <c r="C167" s="169"/>
+      <c r="C167" s="170"/>
     </row>
     <row r="168" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="108">
@@ -13017,7 +13359,7 @@
         <f t="shared" si="4"/>
         <v>A7</v>
       </c>
-      <c r="C168" s="169"/>
+      <c r="C168" s="170"/>
     </row>
     <row r="169" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="108">
@@ -13028,7 +13370,7 @@
         <f t="shared" si="4"/>
         <v>A8</v>
       </c>
-      <c r="C169" s="169"/>
+      <c r="C169" s="170"/>
     </row>
     <row r="170" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="108">
@@ -13039,7 +13381,7 @@
         <f t="shared" si="4"/>
         <v>A9</v>
       </c>
-      <c r="C170" s="169"/>
+      <c r="C170" s="170"/>
     </row>
     <row r="171" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="108">
@@ -13050,7 +13392,7 @@
         <f t="shared" si="4"/>
         <v>AA</v>
       </c>
-      <c r="C171" s="169"/>
+      <c r="C171" s="170"/>
     </row>
     <row r="172" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="108">
@@ -13061,7 +13403,7 @@
         <f t="shared" si="4"/>
         <v>AB</v>
       </c>
-      <c r="C172" s="169"/>
+      <c r="C172" s="170"/>
     </row>
     <row r="173" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="108">
@@ -13072,7 +13414,7 @@
         <f t="shared" si="4"/>
         <v>AC</v>
       </c>
-      <c r="C173" s="169"/>
+      <c r="C173" s="170"/>
     </row>
     <row r="174" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="108">
@@ -13083,7 +13425,7 @@
         <f t="shared" si="4"/>
         <v>AD</v>
       </c>
-      <c r="C174" s="169"/>
+      <c r="C174" s="170"/>
     </row>
     <row r="175" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="108">
@@ -13094,7 +13436,7 @@
         <f t="shared" si="4"/>
         <v>AE</v>
       </c>
-      <c r="C175" s="169"/>
+      <c r="C175" s="170"/>
     </row>
     <row r="176" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="108">
@@ -13105,7 +13447,7 @@
         <f t="shared" si="4"/>
         <v>AF</v>
       </c>
-      <c r="C176" s="169"/>
+      <c r="C176" s="170"/>
     </row>
     <row r="177" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="108">
@@ -13116,7 +13458,7 @@
         <f t="shared" si="4"/>
         <v>B0</v>
       </c>
-      <c r="C177" s="169"/>
+      <c r="C177" s="170"/>
     </row>
     <row r="178" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="108">
@@ -13127,7 +13469,7 @@
         <f t="shared" si="4"/>
         <v>B1</v>
       </c>
-      <c r="C178" s="169"/>
+      <c r="C178" s="170"/>
     </row>
     <row r="179" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="108">
@@ -13138,7 +13480,7 @@
         <f t="shared" si="4"/>
         <v>B2</v>
       </c>
-      <c r="C179" s="169"/>
+      <c r="C179" s="170"/>
     </row>
     <row r="180" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="108">
@@ -13149,7 +13491,7 @@
         <f t="shared" si="4"/>
         <v>B3</v>
       </c>
-      <c r="C180" s="169"/>
+      <c r="C180" s="170"/>
     </row>
     <row r="181" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="108">
@@ -13160,7 +13502,7 @@
         <f t="shared" si="4"/>
         <v>B4</v>
       </c>
-      <c r="C181" s="169"/>
+      <c r="C181" s="170"/>
     </row>
     <row r="182" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="108">
@@ -13171,7 +13513,7 @@
         <f t="shared" si="4"/>
         <v>B5</v>
       </c>
-      <c r="C182" s="169"/>
+      <c r="C182" s="170"/>
     </row>
     <row r="183" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="108">
@@ -13182,7 +13524,7 @@
         <f t="shared" si="4"/>
         <v>B6</v>
       </c>
-      <c r="C183" s="169"/>
+      <c r="C183" s="170"/>
     </row>
     <row r="184" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="108">
@@ -13193,7 +13535,7 @@
         <f t="shared" si="4"/>
         <v>B7</v>
       </c>
-      <c r="C184" s="169"/>
+      <c r="C184" s="170"/>
     </row>
     <row r="185" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="108">
@@ -13204,7 +13546,7 @@
         <f t="shared" si="4"/>
         <v>B8</v>
       </c>
-      <c r="C185" s="169"/>
+      <c r="C185" s="170"/>
     </row>
     <row r="186" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="108">
@@ -13215,7 +13557,7 @@
         <f t="shared" si="4"/>
         <v>B9</v>
       </c>
-      <c r="C186" s="169"/>
+      <c r="C186" s="170"/>
     </row>
     <row r="187" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="108">
@@ -13226,7 +13568,7 @@
         <f t="shared" si="4"/>
         <v>BA</v>
       </c>
-      <c r="C187" s="169"/>
+      <c r="C187" s="170"/>
     </row>
     <row r="188" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="108">
@@ -13237,7 +13579,7 @@
         <f t="shared" si="4"/>
         <v>BB</v>
       </c>
-      <c r="C188" s="169"/>
+      <c r="C188" s="170"/>
     </row>
     <row r="189" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="108">
@@ -13248,7 +13590,7 @@
         <f t="shared" si="4"/>
         <v>BC</v>
       </c>
-      <c r="C189" s="169"/>
+      <c r="C189" s="170"/>
     </row>
     <row r="190" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="108">
@@ -13259,7 +13601,7 @@
         <f t="shared" si="4"/>
         <v>BD</v>
       </c>
-      <c r="C190" s="169"/>
+      <c r="C190" s="170"/>
     </row>
     <row r="191" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="108">
@@ -13270,7 +13612,7 @@
         <f t="shared" si="4"/>
         <v>BE</v>
       </c>
-      <c r="C191" s="169"/>
+      <c r="C191" s="170"/>
     </row>
     <row r="192" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="108">
@@ -13281,7 +13623,7 @@
         <f t="shared" si="4"/>
         <v>BF</v>
       </c>
-      <c r="C192" s="169"/>
+      <c r="C192" s="170"/>
     </row>
     <row r="193" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="108">
@@ -13292,7 +13634,7 @@
         <f t="shared" ref="B193:B256" si="6">DEC2HEX(A193)</f>
         <v>C0</v>
       </c>
-      <c r="C193" s="170" t="s">
+      <c r="C193" s="171" t="s">
         <v>382</v>
       </c>
     </row>
@@ -13305,7 +13647,7 @@
         <f t="shared" si="6"/>
         <v>C1</v>
       </c>
-      <c r="C194" s="170"/>
+      <c r="C194" s="171"/>
     </row>
     <row r="195" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="108">
@@ -13316,7 +13658,7 @@
         <f t="shared" si="6"/>
         <v>C2</v>
       </c>
-      <c r="C195" s="170"/>
+      <c r="C195" s="171"/>
     </row>
     <row r="196" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="108">
@@ -13327,7 +13669,7 @@
         <f t="shared" si="6"/>
         <v>C3</v>
       </c>
-      <c r="C196" s="170"/>
+      <c r="C196" s="171"/>
     </row>
     <row r="197" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="108">
@@ -13338,7 +13680,7 @@
         <f t="shared" si="6"/>
         <v>C4</v>
       </c>
-      <c r="C197" s="170"/>
+      <c r="C197" s="171"/>
     </row>
     <row r="198" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="108">
@@ -13349,7 +13691,7 @@
         <f t="shared" si="6"/>
         <v>C5</v>
       </c>
-      <c r="C198" s="170"/>
+      <c r="C198" s="171"/>
     </row>
     <row r="199" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="108">
@@ -13360,7 +13702,7 @@
         <f t="shared" si="6"/>
         <v>C6</v>
       </c>
-      <c r="C199" s="170"/>
+      <c r="C199" s="171"/>
     </row>
     <row r="200" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="108">
@@ -13371,7 +13713,7 @@
         <f t="shared" si="6"/>
         <v>C7</v>
       </c>
-      <c r="C200" s="170"/>
+      <c r="C200" s="171"/>
     </row>
     <row r="201" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="108">
@@ -13382,7 +13724,7 @@
         <f t="shared" si="6"/>
         <v>C8</v>
       </c>
-      <c r="C201" s="170"/>
+      <c r="C201" s="171"/>
     </row>
     <row r="202" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="108">
@@ -13393,7 +13735,7 @@
         <f t="shared" si="6"/>
         <v>C9</v>
       </c>
-      <c r="C202" s="170"/>
+      <c r="C202" s="171"/>
     </row>
     <row r="203" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="108">
@@ -13404,7 +13746,7 @@
         <f t="shared" si="6"/>
         <v>CA</v>
       </c>
-      <c r="C203" s="170"/>
+      <c r="C203" s="171"/>
     </row>
     <row r="204" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="108">
@@ -13415,7 +13757,7 @@
         <f t="shared" si="6"/>
         <v>CB</v>
       </c>
-      <c r="C204" s="170"/>
+      <c r="C204" s="171"/>
     </row>
     <row r="205" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="108">
@@ -13426,7 +13768,7 @@
         <f t="shared" si="6"/>
         <v>CC</v>
       </c>
-      <c r="C205" s="170"/>
+      <c r="C205" s="171"/>
     </row>
     <row r="206" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="108">
@@ -13437,7 +13779,7 @@
         <f t="shared" si="6"/>
         <v>CD</v>
       </c>
-      <c r="C206" s="170"/>
+      <c r="C206" s="171"/>
     </row>
     <row r="207" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="108">
@@ -13448,7 +13790,7 @@
         <f t="shared" si="6"/>
         <v>CE</v>
       </c>
-      <c r="C207" s="170"/>
+      <c r="C207" s="171"/>
     </row>
     <row r="208" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="108">
@@ -13459,7 +13801,7 @@
         <f t="shared" si="6"/>
         <v>CF</v>
       </c>
-      <c r="C208" s="170"/>
+      <c r="C208" s="171"/>
     </row>
     <row r="209" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="108">
@@ -13470,7 +13812,7 @@
         <f t="shared" si="6"/>
         <v>D0</v>
       </c>
-      <c r="C209" s="170"/>
+      <c r="C209" s="171"/>
     </row>
     <row r="210" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="108">
@@ -13481,7 +13823,7 @@
         <f t="shared" si="6"/>
         <v>D1</v>
       </c>
-      <c r="C210" s="170"/>
+      <c r="C210" s="171"/>
     </row>
     <row r="211" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="108">
@@ -13492,7 +13834,7 @@
         <f t="shared" si="6"/>
         <v>D2</v>
       </c>
-      <c r="C211" s="170"/>
+      <c r="C211" s="171"/>
     </row>
     <row r="212" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="108">
@@ -13503,7 +13845,7 @@
         <f t="shared" si="6"/>
         <v>D3</v>
       </c>
-      <c r="C212" s="170"/>
+      <c r="C212" s="171"/>
     </row>
     <row r="213" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="108">
@@ -13514,7 +13856,7 @@
         <f t="shared" si="6"/>
         <v>D4</v>
       </c>
-      <c r="C213" s="170"/>
+      <c r="C213" s="171"/>
     </row>
     <row r="214" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="108">
@@ -13525,7 +13867,7 @@
         <f t="shared" si="6"/>
         <v>D5</v>
       </c>
-      <c r="C214" s="170"/>
+      <c r="C214" s="171"/>
     </row>
     <row r="215" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="108">
@@ -13536,7 +13878,7 @@
         <f t="shared" si="6"/>
         <v>D6</v>
       </c>
-      <c r="C215" s="170"/>
+      <c r="C215" s="171"/>
     </row>
     <row r="216" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="108">
@@ -13547,7 +13889,7 @@
         <f t="shared" si="6"/>
         <v>D7</v>
       </c>
-      <c r="C216" s="170"/>
+      <c r="C216" s="171"/>
     </row>
     <row r="217" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="108">
@@ -13558,7 +13900,7 @@
         <f t="shared" si="6"/>
         <v>D8</v>
       </c>
-      <c r="C217" s="170"/>
+      <c r="C217" s="171"/>
     </row>
     <row r="218" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="108">
@@ -13569,7 +13911,7 @@
         <f t="shared" si="6"/>
         <v>D9</v>
       </c>
-      <c r="C218" s="170"/>
+      <c r="C218" s="171"/>
     </row>
     <row r="219" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="108">
@@ -13580,7 +13922,7 @@
         <f t="shared" si="6"/>
         <v>DA</v>
       </c>
-      <c r="C219" s="170"/>
+      <c r="C219" s="171"/>
     </row>
     <row r="220" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="108">
@@ -13591,7 +13933,7 @@
         <f t="shared" si="6"/>
         <v>DB</v>
       </c>
-      <c r="C220" s="170"/>
+      <c r="C220" s="171"/>
     </row>
     <row r="221" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="108">
@@ -13602,7 +13944,7 @@
         <f t="shared" si="6"/>
         <v>DC</v>
       </c>
-      <c r="C221" s="170"/>
+      <c r="C221" s="171"/>
     </row>
     <row r="222" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="108">
@@ -13613,7 +13955,7 @@
         <f t="shared" si="6"/>
         <v>DD</v>
       </c>
-      <c r="C222" s="170"/>
+      <c r="C222" s="171"/>
     </row>
     <row r="223" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="108">
@@ -13624,7 +13966,7 @@
         <f t="shared" si="6"/>
         <v>DE</v>
       </c>
-      <c r="C223" s="170"/>
+      <c r="C223" s="171"/>
     </row>
     <row r="224" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="108">
@@ -13635,7 +13977,7 @@
         <f t="shared" si="6"/>
         <v>DF</v>
       </c>
-      <c r="C224" s="170"/>
+      <c r="C224" s="171"/>
     </row>
     <row r="225" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="108">
@@ -13646,7 +13988,7 @@
         <f t="shared" si="6"/>
         <v>E0</v>
       </c>
-      <c r="C225" s="171" t="s">
+      <c r="C225" s="172" t="s">
         <v>30</v>
       </c>
     </row>
@@ -13659,7 +14001,7 @@
         <f t="shared" si="6"/>
         <v>E1</v>
       </c>
-      <c r="C226" s="171"/>
+      <c r="C226" s="172"/>
     </row>
     <row r="227" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="108">
@@ -13670,7 +14012,7 @@
         <f t="shared" si="6"/>
         <v>E2</v>
       </c>
-      <c r="C227" s="171"/>
+      <c r="C227" s="172"/>
     </row>
     <row r="228" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="108">
@@ -13681,7 +14023,7 @@
         <f t="shared" si="6"/>
         <v>E3</v>
       </c>
-      <c r="C228" s="171"/>
+      <c r="C228" s="172"/>
     </row>
     <row r="229" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="108">
@@ -13692,7 +14034,7 @@
         <f t="shared" si="6"/>
         <v>E4</v>
       </c>
-      <c r="C229" s="171"/>
+      <c r="C229" s="172"/>
     </row>
     <row r="230" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="108">
@@ -13703,7 +14045,7 @@
         <f t="shared" si="6"/>
         <v>E5</v>
       </c>
-      <c r="C230" s="171"/>
+      <c r="C230" s="172"/>
     </row>
     <row r="231" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="108">
@@ -13714,7 +14056,7 @@
         <f t="shared" si="6"/>
         <v>E6</v>
       </c>
-      <c r="C231" s="171"/>
+      <c r="C231" s="172"/>
     </row>
     <row r="232" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="108">
@@ -13725,7 +14067,7 @@
         <f t="shared" si="6"/>
         <v>E7</v>
       </c>
-      <c r="C232" s="171"/>
+      <c r="C232" s="172"/>
     </row>
     <row r="233" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="108">
@@ -13736,7 +14078,7 @@
         <f t="shared" si="6"/>
         <v>E8</v>
       </c>
-      <c r="C233" s="171"/>
+      <c r="C233" s="172"/>
     </row>
     <row r="234" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="108">
@@ -13747,7 +14089,7 @@
         <f t="shared" si="6"/>
         <v>E9</v>
       </c>
-      <c r="C234" s="171"/>
+      <c r="C234" s="172"/>
     </row>
     <row r="235" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="108">
@@ -13758,7 +14100,7 @@
         <f t="shared" si="6"/>
         <v>EA</v>
       </c>
-      <c r="C235" s="171"/>
+      <c r="C235" s="172"/>
     </row>
     <row r="236" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="108">
@@ -13769,7 +14111,7 @@
         <f t="shared" si="6"/>
         <v>EB</v>
       </c>
-      <c r="C236" s="171"/>
+      <c r="C236" s="172"/>
     </row>
     <row r="237" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="108">
@@ -13780,7 +14122,7 @@
         <f t="shared" si="6"/>
         <v>EC</v>
       </c>
-      <c r="C237" s="171"/>
+      <c r="C237" s="172"/>
     </row>
     <row r="238" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="108">
@@ -13791,7 +14133,7 @@
         <f t="shared" si="6"/>
         <v>ED</v>
       </c>
-      <c r="C238" s="171"/>
+      <c r="C238" s="172"/>
     </row>
     <row r="239" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="108">
@@ -13802,7 +14144,7 @@
         <f t="shared" si="6"/>
         <v>EE</v>
       </c>
-      <c r="C239" s="171"/>
+      <c r="C239" s="172"/>
     </row>
     <row r="240" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="108">
@@ -13813,7 +14155,7 @@
         <f t="shared" si="6"/>
         <v>EF</v>
       </c>
-      <c r="C240" s="171"/>
+      <c r="C240" s="172"/>
     </row>
     <row r="241" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="108">
@@ -13824,7 +14166,7 @@
         <f t="shared" si="6"/>
         <v>F0</v>
       </c>
-      <c r="C241" s="171"/>
+      <c r="C241" s="172"/>
     </row>
     <row r="242" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="108">
@@ -13835,7 +14177,7 @@
         <f t="shared" si="6"/>
         <v>F1</v>
       </c>
-      <c r="C242" s="171"/>
+      <c r="C242" s="172"/>
     </row>
     <row r="243" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="108">
@@ -13846,7 +14188,7 @@
         <f t="shared" si="6"/>
         <v>F2</v>
       </c>
-      <c r="C243" s="171"/>
+      <c r="C243" s="172"/>
     </row>
     <row r="244" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="108">
@@ -13857,7 +14199,7 @@
         <f t="shared" si="6"/>
         <v>F3</v>
       </c>
-      <c r="C244" s="171"/>
+      <c r="C244" s="172"/>
     </row>
     <row r="245" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="108">
@@ -13868,7 +14210,7 @@
         <f t="shared" si="6"/>
         <v>F4</v>
       </c>
-      <c r="C245" s="171"/>
+      <c r="C245" s="172"/>
     </row>
     <row r="246" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="108">
@@ -13879,7 +14221,7 @@
         <f t="shared" si="6"/>
         <v>F5</v>
       </c>
-      <c r="C246" s="171"/>
+      <c r="C246" s="172"/>
     </row>
     <row r="247" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="108">
@@ -13890,7 +14232,7 @@
         <f t="shared" si="6"/>
         <v>F6</v>
       </c>
-      <c r="C247" s="171"/>
+      <c r="C247" s="172"/>
     </row>
     <row r="248" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="108">
@@ -13901,7 +14243,7 @@
         <f t="shared" si="6"/>
         <v>F7</v>
       </c>
-      <c r="C248" s="171"/>
+      <c r="C248" s="172"/>
     </row>
     <row r="249" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="108">
@@ -13912,7 +14254,7 @@
         <f t="shared" si="6"/>
         <v>F8</v>
       </c>
-      <c r="C249" s="171"/>
+      <c r="C249" s="172"/>
     </row>
     <row r="250" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="108">
@@ -13923,7 +14265,7 @@
         <f t="shared" si="6"/>
         <v>F9</v>
       </c>
-      <c r="C250" s="171"/>
+      <c r="C250" s="172"/>
     </row>
     <row r="251" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="108">
@@ -13934,7 +14276,7 @@
         <f t="shared" si="6"/>
         <v>FA</v>
       </c>
-      <c r="C251" s="171"/>
+      <c r="C251" s="172"/>
     </row>
     <row r="252" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="108">
@@ -13945,7 +14287,7 @@
         <f t="shared" si="6"/>
         <v>FB</v>
       </c>
-      <c r="C252" s="171"/>
+      <c r="C252" s="172"/>
     </row>
     <row r="253" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="108">
@@ -13956,7 +14298,7 @@
         <f t="shared" si="6"/>
         <v>FC</v>
       </c>
-      <c r="C253" s="171"/>
+      <c r="C253" s="172"/>
     </row>
     <row r="254" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="108">
@@ -13967,7 +14309,7 @@
         <f t="shared" si="6"/>
         <v>FD</v>
       </c>
-      <c r="C254" s="171"/>
+      <c r="C254" s="172"/>
     </row>
     <row r="255" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="108">
@@ -13978,7 +14320,7 @@
         <f t="shared" si="6"/>
         <v>FE</v>
       </c>
-      <c r="C255" s="171"/>
+      <c r="C255" s="172"/>
     </row>
     <row r="256" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="108">
@@ -13989,7 +14331,7 @@
         <f t="shared" si="6"/>
         <v>FF</v>
       </c>
-      <c r="C256" s="171"/>
+      <c r="C256" s="172"/>
     </row>
     <row r="257" spans="1:3" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="108">
@@ -14040,10 +14382,10 @@
       <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="148" t="s">
+      <c r="C1" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="148"/>
+      <c r="D1" s="149"/>
       <c r="E1" s="91" t="s">
         <v>164</v>
       </c>
@@ -14058,13 +14400,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="150" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="151" t="s">
         <v>315</v>
       </c>
       <c r="D2" s="62" t="s">
@@ -14084,21 +14426,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="140"/>
+      <c r="A3" s="141"/>
       <c r="B3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="139" t="s">
+      <c r="E3" s="140" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="139" t="s">
+      <c r="F3" s="140" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="140" t="s">
         <v>320</v>
       </c>
       <c r="H3" s="66" t="s">
@@ -14106,39 +14448,39 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="140"/>
+      <c r="A4" s="141"/>
       <c r="B4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
       <c r="H4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="140"/>
+      <c r="A5" s="141"/>
       <c r="B5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
       <c r="H5" s="96" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="141"/>
+      <c r="A6" s="142"/>
       <c r="B6" s="101" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="172" t="s">
+      <c r="C6" s="173" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="92" t="s">
@@ -14155,17 +14497,17 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="167" t="s">
+      <c r="A7" s="168" t="s">
         <v>178</v>
       </c>
       <c r="B7" s="103" t="s">
         <v>367</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="174"/>
       <c r="D7" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E7" s="168" t="s">
+      <c r="E7" s="169" t="s">
         <v>326</v>
       </c>
       <c r="F7" s="103" t="s">
@@ -14176,15 +14518,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="147"/>
+      <c r="A8" s="148"/>
       <c r="B8" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="174"/>
       <c r="D8" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E8" s="147"/>
+      <c r="E8" s="148"/>
       <c r="F8" s="103" t="s">
         <v>365</v>
       </c>
@@ -14193,15 +14535,15 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="147"/>
+      <c r="A9" s="148"/>
       <c r="B9" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="173"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="68" t="s">
         <v>372</v>
       </c>
-      <c r="E9" s="147"/>
+      <c r="E9" s="148"/>
       <c r="F9" s="103" t="s">
         <v>371</v>
       </c>
@@ -14210,13 +14552,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="174" t="s">
+      <c r="A10" s="175" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="77" t="s">
         <v>324</v>
       </c>
-      <c r="C10" s="145" t="s">
+      <c r="C10" s="146" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="76" t="s">
@@ -14233,11 +14575,11 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="175"/>
+      <c r="A11" s="176"/>
       <c r="B11" s="106" t="s">
         <v>381</v>
       </c>
-      <c r="C11" s="146"/>
+      <c r="C11" s="147"/>
       <c r="D11" s="80" t="s">
         <v>5</v>
       </c>
@@ -14306,10 +14648,10 @@
       <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="148" t="s">
+      <c r="C1" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="148"/>
+      <c r="D1" s="149"/>
       <c r="E1" s="91" t="s">
         <v>164</v>
       </c>
@@ -14324,13 +14666,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="150" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="151" t="s">
         <v>315</v>
       </c>
       <c r="D2" s="62" t="s">
@@ -14350,21 +14692,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="140"/>
+      <c r="A3" s="141"/>
       <c r="B3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="139" t="s">
+      <c r="E3" s="140" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="139" t="s">
+      <c r="F3" s="140" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="140" t="s">
         <v>320</v>
       </c>
       <c r="H3" s="66" t="s">
@@ -14372,39 +14714,39 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="140"/>
+      <c r="A4" s="141"/>
       <c r="B4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
       <c r="H4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="140"/>
+      <c r="A5" s="141"/>
       <c r="B5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
       <c r="H5" s="96" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="141"/>
+      <c r="A6" s="142"/>
       <c r="B6" s="101" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="172" t="s">
+      <c r="C6" s="173" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="92" t="s">
@@ -14421,17 +14763,17 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="167" t="s">
+      <c r="A7" s="168" t="s">
         <v>178</v>
       </c>
       <c r="B7" s="103" t="s">
         <v>367</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="174"/>
       <c r="D7" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E7" s="168" t="s">
+      <c r="E7" s="169" t="s">
         <v>326</v>
       </c>
       <c r="F7" s="103" t="s">
@@ -14442,15 +14784,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="147"/>
+      <c r="A8" s="148"/>
       <c r="B8" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="174"/>
       <c r="D8" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E8" s="147"/>
+      <c r="E8" s="148"/>
       <c r="F8" s="103" t="s">
         <v>365</v>
       </c>
@@ -14459,15 +14801,15 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="147"/>
+      <c r="A9" s="148"/>
       <c r="B9" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="173"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="68" t="s">
         <v>372</v>
       </c>
-      <c r="E9" s="147"/>
+      <c r="E9" s="148"/>
       <c r="F9" s="103" t="s">
         <v>371</v>
       </c>
@@ -14476,13 +14818,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="174" t="s">
+      <c r="A10" s="175" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="77" t="s">
         <v>324</v>
       </c>
-      <c r="C10" s="145" t="s">
+      <c r="C10" s="146" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="76" t="s">
@@ -14499,15 +14841,15 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="175"/>
-      <c r="B11" s="176" t="s">
+      <c r="A11" s="176"/>
+      <c r="B11" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="146"/>
+      <c r="C11" s="147"/>
       <c r="D11" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="E11" s="179" t="s">
+      <c r="E11" s="180" t="s">
         <v>254</v>
       </c>
       <c r="F11" s="79" t="s">
@@ -14521,13 +14863,13 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="175"/>
-      <c r="B12" s="175"/>
-      <c r="C12" s="146"/>
+      <c r="A12" s="176"/>
+      <c r="B12" s="176"/>
+      <c r="C12" s="147"/>
       <c r="D12" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="E12" s="179"/>
+      <c r="E12" s="180"/>
       <c r="F12" s="79" t="s">
         <v>207</v>
       </c>
@@ -14539,13 +14881,13 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="175"/>
-      <c r="B13" s="175"/>
-      <c r="C13" s="146"/>
+      <c r="A13" s="176"/>
+      <c r="B13" s="176"/>
+      <c r="C13" s="147"/>
       <c r="D13" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="E13" s="179"/>
+      <c r="E13" s="180"/>
       <c r="F13" s="79" t="s">
         <v>192</v>
       </c>
@@ -14557,13 +14899,13 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="82" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="177"/>
-      <c r="B14" s="177"/>
-      <c r="C14" s="178"/>
+      <c r="A14" s="178"/>
+      <c r="B14" s="178"/>
+      <c r="C14" s="179"/>
       <c r="D14" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="E14" s="180"/>
+      <c r="E14" s="181"/>
       <c r="F14" s="82" t="s">
         <v>189</v>
       </c>
@@ -14628,10 +14970,10 @@
       <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="148" t="s">
+      <c r="C1" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="148"/>
+      <c r="D1" s="149"/>
       <c r="E1" s="91" t="s">
         <v>164</v>
       </c>
@@ -14646,13 +14988,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="150" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="151" t="s">
         <v>315</v>
       </c>
       <c r="D2" s="62" t="s">
@@ -14672,21 +15014,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="140"/>
+      <c r="A3" s="141"/>
       <c r="B3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="139" t="s">
+      <c r="E3" s="140" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="139" t="s">
+      <c r="F3" s="140" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="140" t="s">
         <v>320</v>
       </c>
       <c r="H3" s="66" t="s">
@@ -14694,39 +15036,39 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="140"/>
+      <c r="A4" s="141"/>
       <c r="B4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
       <c r="H4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="140"/>
+      <c r="A5" s="141"/>
       <c r="B5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
       <c r="H5" s="96" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="141"/>
+      <c r="A6" s="142"/>
       <c r="B6" s="101" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="172" t="s">
+      <c r="C6" s="173" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="92" t="s">
@@ -14743,17 +15085,17 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="167" t="s">
+      <c r="A7" s="168" t="s">
         <v>178</v>
       </c>
       <c r="B7" s="103" t="s">
         <v>367</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="174"/>
       <c r="D7" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E7" s="168" t="s">
+      <c r="E7" s="169" t="s">
         <v>326</v>
       </c>
       <c r="F7" s="103" t="s">
@@ -14764,15 +15106,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="147"/>
+      <c r="A8" s="148"/>
       <c r="B8" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="174"/>
       <c r="D8" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E8" s="147"/>
+      <c r="E8" s="148"/>
       <c r="F8" s="103" t="s">
         <v>365</v>
       </c>
@@ -14781,15 +15123,15 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="147"/>
-      <c r="B9" s="168" t="s">
+      <c r="A9" s="148"/>
+      <c r="B9" s="169" t="s">
         <v>378</v>
       </c>
-      <c r="C9" s="173"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="147"/>
+      <c r="E9" s="148"/>
       <c r="F9" s="67" t="s">
         <v>343</v>
       </c>
@@ -14798,13 +15140,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="147"/>
-      <c r="B10" s="147"/>
-      <c r="C10" s="173"/>
+      <c r="A10" s="148"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="174"/>
       <c r="D10" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="147"/>
+      <c r="E10" s="148"/>
       <c r="F10" s="67" t="s">
         <v>344</v>
       </c>
@@ -14813,13 +15155,13 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="147"/>
-      <c r="B11" s="147"/>
-      <c r="C11" s="173"/>
+      <c r="A11" s="148"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="174"/>
       <c r="D11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="147"/>
+      <c r="E11" s="148"/>
       <c r="F11" s="67" t="s">
         <v>345</v>
       </c>
@@ -14828,13 +15170,13 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="147"/>
-      <c r="B12" s="147"/>
-      <c r="C12" s="173"/>
+      <c r="A12" s="148"/>
+      <c r="B12" s="148"/>
+      <c r="C12" s="174"/>
       <c r="D12" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="147"/>
+      <c r="E12" s="148"/>
       <c r="F12" s="67" t="s">
         <v>346</v>
       </c>
@@ -14843,13 +15185,13 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="147"/>
-      <c r="B13" s="147"/>
-      <c r="C13" s="173"/>
+      <c r="A13" s="148"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="174"/>
       <c r="D13" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="147"/>
+      <c r="E13" s="148"/>
       <c r="F13" s="67" t="s">
         <v>347</v>
       </c>
@@ -14858,13 +15200,13 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="147"/>
-      <c r="B14" s="147"/>
-      <c r="C14" s="173"/>
+      <c r="A14" s="148"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="174"/>
       <c r="D14" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="147"/>
+      <c r="E14" s="148"/>
       <c r="F14" s="67" t="s">
         <v>348</v>
       </c>
@@ -14873,13 +15215,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="147"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="173"/>
+      <c r="A15" s="148"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="174"/>
       <c r="D15" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="147"/>
+      <c r="E15" s="148"/>
       <c r="F15" s="67" t="s">
         <v>349</v>
       </c>
@@ -14888,13 +15230,13 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="85" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="182"/>
-      <c r="B16" s="182"/>
-      <c r="C16" s="181"/>
+      <c r="A16" s="183"/>
+      <c r="B16" s="183"/>
+      <c r="C16" s="182"/>
       <c r="D16" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="182"/>
+      <c r="E16" s="183"/>
       <c r="F16" s="85" t="s">
         <v>334</v>
       </c>
@@ -14903,13 +15245,13 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="174" t="s">
+      <c r="A17" s="175" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="77" t="s">
         <v>324</v>
       </c>
-      <c r="C17" s="145" t="s">
+      <c r="C17" s="146" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="76" t="s">
@@ -14926,15 +15268,15 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="175"/>
-      <c r="B18" s="176" t="s">
+      <c r="A18" s="176"/>
+      <c r="B18" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="146"/>
+      <c r="C18" s="147"/>
       <c r="D18" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="E18" s="179" t="s">
+      <c r="E18" s="180" t="s">
         <v>254</v>
       </c>
       <c r="F18" s="79" t="s">
@@ -14948,13 +15290,13 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="175"/>
-      <c r="B19" s="175"/>
-      <c r="C19" s="146"/>
+      <c r="A19" s="176"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="147"/>
       <c r="D19" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="E19" s="179"/>
+      <c r="E19" s="180"/>
       <c r="F19" s="79" t="s">
         <v>207</v>
       </c>
@@ -14966,13 +15308,13 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="175"/>
-      <c r="B20" s="175"/>
-      <c r="C20" s="146"/>
+      <c r="A20" s="176"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="147"/>
       <c r="D20" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="E20" s="179"/>
+      <c r="E20" s="180"/>
       <c r="F20" s="79" t="s">
         <v>192</v>
       </c>
@@ -14984,13 +15326,13 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="82" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="177"/>
-      <c r="B21" s="177"/>
-      <c r="C21" s="178"/>
+      <c r="A21" s="178"/>
+      <c r="B21" s="178"/>
+      <c r="C21" s="179"/>
       <c r="D21" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="E21" s="180"/>
+      <c r="E21" s="181"/>
       <c r="F21" s="82" t="s">
         <v>189</v>
       </c>
@@ -15056,10 +15398,10 @@
       <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="148" t="s">
+      <c r="C1" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="148"/>
+      <c r="D1" s="149"/>
       <c r="E1" s="91" t="s">
         <v>164</v>
       </c>
@@ -15074,13 +15416,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="61" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="150" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="151" t="s">
         <v>315</v>
       </c>
       <c r="D2" s="62" t="s">
@@ -15100,21 +15442,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="64" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="140"/>
+      <c r="A3" s="141"/>
       <c r="B3" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="139" t="s">
+      <c r="E3" s="140" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="139" t="s">
+      <c r="F3" s="140" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="140" t="s">
         <v>320</v>
       </c>
       <c r="H3" s="66" t="s">
@@ -15122,39 +15464,39 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="99" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="140"/>
+      <c r="A4" s="141"/>
       <c r="B4" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
       <c r="H4" s="100" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="88" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="140"/>
+      <c r="A5" s="141"/>
       <c r="B5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
       <c r="H5" s="96" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="93" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="141"/>
+      <c r="A6" s="142"/>
       <c r="B6" s="101" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="172" t="s">
+      <c r="C6" s="173" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="92" t="s">
@@ -15171,17 +15513,17 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="70" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="167" t="s">
+      <c r="A7" s="168" t="s">
         <v>178</v>
       </c>
       <c r="B7" s="103" t="s">
         <v>367</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="174"/>
       <c r="D7" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E7" s="168" t="s">
+      <c r="E7" s="169" t="s">
         <v>326</v>
       </c>
       <c r="F7" s="103" t="s">
@@ -15192,15 +15534,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="147"/>
+      <c r="A8" s="148"/>
       <c r="B8" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C8" s="173"/>
+      <c r="C8" s="174"/>
       <c r="D8" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="E8" s="147"/>
+      <c r="E8" s="148"/>
       <c r="F8" s="103" t="s">
         <v>365</v>
       </c>
@@ -15209,15 +15551,15 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="147"/>
+      <c r="A9" s="148"/>
       <c r="B9" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="173"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="147"/>
+      <c r="E9" s="148"/>
       <c r="F9" s="67" t="s">
         <v>343</v>
       </c>
@@ -15226,15 +15568,15 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="147"/>
+      <c r="A10" s="148"/>
       <c r="B10" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="C10" s="173"/>
+      <c r="C10" s="174"/>
       <c r="D10" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="147"/>
+      <c r="E10" s="148"/>
       <c r="F10" s="67" t="s">
         <v>344</v>
       </c>
@@ -15243,15 +15585,15 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="147"/>
+      <c r="A11" s="148"/>
       <c r="B11" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="C11" s="173"/>
+      <c r="C11" s="174"/>
       <c r="D11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="147"/>
+      <c r="E11" s="148"/>
       <c r="F11" s="67" t="s">
         <v>345</v>
       </c>
@@ -15260,15 +15602,15 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="147"/>
+      <c r="A12" s="148"/>
       <c r="B12" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="173"/>
+      <c r="C12" s="174"/>
       <c r="D12" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="147"/>
+      <c r="E12" s="148"/>
       <c r="F12" s="67" t="s">
         <v>346</v>
       </c>
@@ -15277,15 +15619,15 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="147"/>
+      <c r="A13" s="148"/>
       <c r="B13" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="C13" s="173"/>
+      <c r="C13" s="174"/>
       <c r="D13" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="147"/>
+      <c r="E13" s="148"/>
       <c r="F13" s="67" t="s">
         <v>347</v>
       </c>
@@ -15294,15 +15636,15 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="147"/>
+      <c r="A14" s="148"/>
       <c r="B14" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="C14" s="173"/>
+      <c r="C14" s="174"/>
       <c r="D14" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="147"/>
+      <c r="E14" s="148"/>
       <c r="F14" s="67" t="s">
         <v>348</v>
       </c>
@@ -15311,15 +15653,15 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="67" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="147"/>
+      <c r="A15" s="148"/>
       <c r="B15" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="C15" s="173"/>
+      <c r="C15" s="174"/>
       <c r="D15" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="147"/>
+      <c r="E15" s="148"/>
       <c r="F15" s="67" t="s">
         <v>349</v>
       </c>
@@ -15328,15 +15670,15 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="85" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="182"/>
+      <c r="A16" s="183"/>
       <c r="B16" s="85" t="s">
         <v>229</v>
       </c>
-      <c r="C16" s="181"/>
+      <c r="C16" s="182"/>
       <c r="D16" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="182"/>
+      <c r="E16" s="183"/>
       <c r="F16" s="85" t="s">
         <v>334</v>
       </c>
@@ -15345,13 +15687,13 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="77" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="174" t="s">
+      <c r="A17" s="175" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="77" t="s">
         <v>324</v>
       </c>
-      <c r="C17" s="145" t="s">
+      <c r="C17" s="146" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="76" t="s">
@@ -15368,15 +15710,15 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="175"/>
+      <c r="A18" s="176"/>
       <c r="B18" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="C18" s="146"/>
+      <c r="C18" s="147"/>
       <c r="D18" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="E18" s="179" t="s">
+      <c r="E18" s="180" t="s">
         <v>254</v>
       </c>
       <c r="F18" s="79" t="s">
@@ -15390,15 +15732,15 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="175"/>
+      <c r="A19" s="176"/>
       <c r="B19" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="C19" s="146"/>
+      <c r="C19" s="147"/>
       <c r="D19" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="E19" s="179"/>
+      <c r="E19" s="180"/>
       <c r="F19" s="79" t="s">
         <v>207</v>
       </c>
@@ -15410,15 +15752,15 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="79" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="175"/>
+      <c r="A20" s="176"/>
       <c r="B20" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="C20" s="146"/>
+      <c r="C20" s="147"/>
       <c r="D20" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="E20" s="179"/>
+      <c r="E20" s="180"/>
       <c r="F20" s="79" t="s">
         <v>192</v>
       </c>
@@ -15430,15 +15772,15 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="82" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="177"/>
+      <c r="A21" s="178"/>
       <c r="B21" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="C21" s="178"/>
+      <c r="C21" s="179"/>
       <c r="D21" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="E21" s="180"/>
+      <c r="E21" s="181"/>
       <c r="F21" s="82" t="s">
         <v>189</v>
       </c>
